--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILZA RAMIREZ\sebastian carrero\programacion\proyectos2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E7C24-DA67-45F4-A3F7-F05A6A18422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="6480" tabRatio="748" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="BOLSA">Tabla1[]</definedName>
     <definedName name="PRECIOS">Tabla4[]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -405,7 +406,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;????????_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +498,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -505,6 +506,60 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="103">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -925,43 +980,6 @@
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1094,23 +1112,6 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1301,30 +1302,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de tabla 1" pivot="0" count="3">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="102"/>
       <tableStyleElement type="headerRow" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 2" pivot="0" count="5">
+    <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="99"/>
       <tableStyleElement type="headerRow" dxfId="98"/>
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
       <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 3" pivot="0" count="3">
+    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="94"/>
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 4" pivot="0" count="4">
+    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="wholeTable" dxfId="91"/>
       <tableStyleElement type="headerRow" dxfId="90"/>
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 5" pivot="0" count="4">
+    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="wholeTable" dxfId="87"/>
       <tableStyleElement type="headerRow" dxfId="86"/>
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
@@ -1350,7 +1351,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1364,7 +1365,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1475,9 +1475,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1497,10 +1496,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$107</c:f>
+              <c:f>CRIPTOS!$B$3:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1815,16 +1814,25 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$107</c:f>
+              <c:f>CRIPTOS!$C$3:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2139,12 +2147,21 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>4140.09</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4148.24</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4063.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4057.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -2219,9 +2236,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2241,10 +2257,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$107</c:f>
+              <c:f>CRIPTOS!$B$3:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2559,16 +2575,25 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$107</c:f>
+              <c:f>CRIPTOS!$D$3:$D$110</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -2883,12 +2908,21 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>54972.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>61685.99</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60441.57</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>60551.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -2963,9 +2997,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2985,10 +3018,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$107</c:f>
+              <c:f>CRIPTOS!$B$3:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3303,16 +3336,25 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$107</c:f>
+              <c:f>CRIPTOS!$E$3:$E$110</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3471,12 +3513,21 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -3551,9 +3602,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3573,10 +3623,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$107</c:f>
+              <c:f>CRIPTOS!$B$3:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3891,16 +3941,25 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$107</c:f>
+              <c:f>CRIPTOS!$F$3:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4080,12 +4139,21 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>2354.17</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2683.9</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2605.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2599.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78A7-45B2-BF71-1C562316B80A}"/>
             </c:ext>
@@ -4160,9 +4228,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4182,10 +4249,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$107</c:f>
+              <c:f>CRIPTOS!$B$3:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4500,16 +4567,25 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$107</c:f>
+              <c:f>CRIPTOS!$G$3:$G$110</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4557,12 +4633,21 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4014</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA29-428F-BE26-1F11B322E53B}"/>
             </c:ext>
@@ -4695,7 +4780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4773,7 +4857,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4818,7 +4902,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4894,10 +4977,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$26</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -4969,16 +5052,25 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$26</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5050,12 +5142,21 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4140.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4148.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4063.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4057.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA71-461F-AA13-6F100B07A507}"/>
             </c:ext>
@@ -5095,10 +5196,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$26</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5170,16 +5271,25 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$26</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5251,12 +5361,21 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>476.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>487.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>489.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>489.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA71-461F-AA13-6F100B07A507}"/>
             </c:ext>
@@ -5296,10 +5415,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$26</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5371,16 +5490,25 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$26</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5452,12 +5580,21 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.2349398000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4037414000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4354676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4354676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F88B-4E81-8DB4-D282ACD52EF7}"/>
             </c:ext>
@@ -5497,10 +5634,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$26</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5572,16 +5709,25 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$26</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -5653,12 +5799,21 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.46506019999999992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.29625859999999982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.26453240000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.26453240000000022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7FBB-485C-9373-F604CDCFFE39}"/>
             </c:ext>
@@ -5698,10 +5853,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$26</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5773,16 +5928,25 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$26</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -5854,12 +6018,21 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>29953.301916582001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30712.496225136001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30212.684208432001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30169.781560380001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7FBB-485C-9373-F604CDCFFE39}"/>
             </c:ext>
@@ -5991,7 +6164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6069,7 +6241,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6083,7 +6255,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6187,9 +6358,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6209,10 +6379,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6326,16 +6496,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$41</c:f>
+              <c:f>BOLSA!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -6361,13 +6537,13 @@
                   <c:v>4095.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4140.53</c:v>
+                  <c:v>4140.1899999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4150.26</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4134</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4129.08</c:v>
@@ -6449,12 +6625,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4140.09</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4148.24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4063.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -6529,9 +6711,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6551,10 +6732,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6668,16 +6849,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$41</c:f>
+              <c:f>BOLSA!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -6791,12 +6978,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5199.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5319.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5344.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -6871,9 +7064,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6893,10 +7085,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7010,16 +7202,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$41</c:f>
+              <c:f>BOLSA!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -7133,12 +7331,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>17867.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18413.82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18513.099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -7276,7 +7480,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7307,14 +7510,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7353,7 +7556,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7403,7 +7606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7514,9 +7716,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7536,10 +7737,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7653,16 +7854,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$41</c:f>
+              <c:f>BOLSA!$F$3:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -7776,12 +7983,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>68.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68.73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.680000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -7856,9 +8069,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7878,10 +8090,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7995,16 +8207,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$41</c:f>
+              <c:f>BOLSA!$G$3:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -8118,12 +8336,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>158.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -8198,9 +8422,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8220,10 +8443,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8337,16 +8560,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$41</c:f>
+              <c:f>BOLSA!$H$3:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -8460,12 +8689,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>170.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>170.87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -8540,9 +8775,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8562,10 +8796,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8679,16 +8913,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$41</c:f>
+              <c:f>BOLSA!$I$3:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -8802,12 +9042,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>171.79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>172.37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>172.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -8882,9 +9128,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8904,10 +9149,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9021,16 +9266,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$41</c:f>
+              <c:f>BOLSA!$J$3:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -9108,12 +9359,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>398.43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>402.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>406.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -9188,9 +9445,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9210,10 +9466,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$41</c:f>
+              <c:f>BOLSA!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9327,16 +9583,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$41</c:f>
+              <c:f>BOLSA!$K$3:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -9450,12 +9712,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>269.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>271.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>267.91000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -9588,7 +9856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11882,7 +12149,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11923,7 +12190,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11964,7 +12231,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12000,7 +12267,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12022,71 +12289,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B2:I16" totalsRowShown="0">
-  <autoFilter ref="B2:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla8" displayName="Tabla8" ref="B2:I16" totalsRowShown="0">
+  <autoFilter ref="B2:I16" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="MES"/>
-    <tableColumn id="2" name="TIPO DE INVERSION"/>
-    <tableColumn id="7" name="NOMBRE"/>
-    <tableColumn id="3" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="81" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>G3-E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="RENTABILIDAD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RENTABILIDAD"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="B2:T14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
+  <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="FECHA ACTUAL" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="PRECIO ACT KO" dataDxfId="17" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRECIO ACT JNJ" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PRECIO ACT PG" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PRECIO ACT PEP" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="PRECIO ACT MSFT" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PRECIO ACT MCD" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="PRECIO ACT VOO" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="EMPRESA" dataDxfId="10"/>
-    <tableColumn id="9" name="FECHA COMPRA" dataDxfId="9"/>
-    <tableColumn id="10" name="PRECIO COMPRA" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="11" name="CAPITAL INVE" dataDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="12" name="CANTIDAD DE ACCIONES" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="VALOR ACTUAL INVE" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="FECHA DIVIDENDO" dataDxfId="4"/>
-    <tableColumn id="15" name="VALOR DIVIDENDO POR ACCION" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="16" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="GANACIA/PERDIDA" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="RENTABILIDAD" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12095,16 +12362,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="K2:O6" totalsRowShown="0">
-  <autoFilter ref="K2:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla10" displayName="Tabla10" ref="K2:O6" totalsRowShown="0">
+  <autoFilter ref="K2:O6" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="TIPO DE INVERSION"/>
-    <tableColumn id="2" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="3" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" name="TOTAL G/P" dataDxfId="80" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% DEL TOTAL CAPITAL" dataDxfId="79" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12113,22 +12380,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="78">
-  <autoFilter ref="B2:J10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="80">
+  <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="MES"/>
-    <tableColumn id="2" name="CUENTA"/>
-    <tableColumn id="3" name="CANTIDAD INICIAL" dataDxfId="77"/>
-    <tableColumn id="4" name="CAPITAL INVERTIDO" dataDxfId="76"/>
-    <tableColumn id="5" name="INTERES OBTENIDO" dataDxfId="75"/>
-    <tableColumn id="6" name="PORCENTAJE DE INTERES" dataDxfId="74" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="RETIROS DE CAPITAL" dataDxfId="73"/>
-    <tableColumn id="8" name="TOTAL CAPITAL FIN DE MES" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="71" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12137,23 +12404,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:G107" totalsRowShown="0">
-  <autoFilter ref="B2:G107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G110" totalsRowShown="0">
+  <autoFilter ref="B2:G110" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="FECHA" dataDxfId="70"/>
-    <tableColumn id="2" name="DÓLAR" dataDxfId="69"/>
-    <tableColumn id="3" name="BITCOIN" dataDxfId="68"/>
-    <tableColumn id="5" name="io.net" dataDxfId="67"/>
-    <tableColumn id="4" name="ETHEREUM" dataDxfId="66"/>
-    <tableColumn id="6" name="USDT" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:Z35" totalsRowShown="0">
-  <autoFilter ref="B2:Z35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z35" totalsRowShown="0">
+  <autoFilter ref="B2:Z35" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -12161,98 +12428,98 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" name="fecha act" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="precio actual dólar" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="precio actual btc" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="precio actul eth" dataDxfId="57">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="precio actual io.net" dataDxfId="56">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="moneda"/>
-    <tableColumn id="27" name="FECHA COMPRA"/>
-    <tableColumn id="20" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="55">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="precio de compra" dataDxfId="54"/>
-    <tableColumn id="8" name="cantidad" dataDxfId="53" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" name="COSTO DE COMPRA" dataDxfId="52" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="VALOR ACTUAL INV" dataDxfId="51" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="rentabilidad" dataDxfId="50" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="meta1" dataDxfId="49" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" name="META2" dataDxfId="48" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" name="ACCION" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="FECHA DE VENTA"/>
-    <tableColumn id="17" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" name="PRECIO DE VENTA" dataDxfId="46"/>
-    <tableColumn id="23" name="INVENTARIO" dataDxfId="45">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="VALOR ACTUAL" dataDxfId="44">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="GANANCIA/PERDIDA" dataDxfId="43">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="RENTABILIDAD TOTAL" dataDxfId="42" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="ESTADO DE LA INVERSION" dataDxfId="41">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="NOTAS"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B2:L6" totalsRowShown="0">
-  <autoFilter ref="B2:L6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L6" totalsRowShown="0">
+  <autoFilter ref="B2:L6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="FECHA ACT" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="FECHA COMPRA" dataDxfId="39"/>
-    <tableColumn id="2" name="PRECIO DEL USD,DIA COMPRA"/>
-    <tableColumn id="3" name="CANTIDAD COPRADA"/>
-    <tableColumn id="4" name="CONTO EN COP">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="CANTIDAD TOTAL(USD)" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="PRECIO ACTUAL(USD)">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="VALOR ACTUAL EN COP">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="VALOR ACTUAL EN COP">
       <calculatedColumnFormula>G3*H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="COSTO TOTAL EN COP">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="37" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="META 10%">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
       <calculatedColumnFormula>D3*1.1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12261,33 +12528,33 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
-  <autoFilter ref="B2:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
+  <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="MES" dataDxfId="36"/>
-    <tableColumn id="2" name="CRIPTOMONEDA"/>
-    <tableColumn id="3" name="CANTIDAD INICIAL"/>
-    <tableColumn id="4" name="PRECIO DÓLAR INICIAL"/>
-    <tableColumn id="5" name="PRECIO INICIAL USD" dataCellStyle="Moneda"/>
-    <tableColumn id="6" name="VALOR INICIAL EN COP">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="PRECIO INICIAL USD" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="VALOR INICIAL EN COP">
       <calculatedColumnFormula>D3*F3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="CANTIDAD A FIN DE MES"/>
-    <tableColumn id="8" name="PRECIO DÓLAR FINAL"/>
-    <tableColumn id="9" name="PRECIO A FIN DE MES(USD)"/>
-    <tableColumn id="10" name="PRECIO FINAL(COP)">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="CANTIDAD A FIN DE MES"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="PRECIO DÓLAR FINAL"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="PRECIO A FIN DE MES(USD)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="PRECIO FINAL(COP)">
       <calculatedColumnFormula>H3*J3*I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="DIFERENCIA DE CANTIDAD">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="DIFERENCIA DE CANTIDAD">
       <calculatedColumnFormula>H3-D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="DIFERENCIA EN PRECIO">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="DIFERENCIA EN PRECIO">
       <calculatedColumnFormula>J3-F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PRECIO DE LA DIFERENCIA EN COP">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="PRECIO DE LA DIFERENCIA EN COP">
       <calculatedColumnFormula>L3*J3*I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="RENTABILIDAD">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="RENTABILIDAD">
       <calculatedColumnFormula>(K3-G3)/G3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12296,21 +12563,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G26" totalsRowShown="0">
-  <autoFilter ref="B2:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G29" totalsRowShown="0">
+  <autoFilter ref="B2:G29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="FECHA" dataDxfId="35"/>
-    <tableColumn id="5" name="PRECIO DEL DÓLAR" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="VOO" dataDxfId="33" dataCellStyle="Moneda"/>
-    <tableColumn id="3" name="VALOR INVERSION 1" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="GAN/PER" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="VALOR EN COP" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12319,19 +12586,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:K41" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="B2:K41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K42" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="B2:K42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="FECHA"/>
-    <tableColumn id="2" name="DÓLAR" dataDxfId="28"/>
-    <tableColumn id="3" name="S&amp;P 500" dataDxfId="27"/>
-    <tableColumn id="4" name="NASDAQ-100" dataDxfId="26"/>
-    <tableColumn id="5" name="KO" dataDxfId="25"/>
-    <tableColumn id="6" name="JNJ" dataDxfId="24"/>
-    <tableColumn id="7" name="PG" dataDxfId="23"/>
-    <tableColumn id="8" name="PEP" dataDxfId="22"/>
-    <tableColumn id="13" name="MSFT" dataDxfId="21"/>
-    <tableColumn id="9" name="MCD" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
+      <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12653,27 +12922,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="23.75" customWidth="1"/>
-    <col min="13" max="14" width="22.125" customWidth="1"/>
-    <col min="15" max="15" width="22.625" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -12714,7 +12983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -12757,7 +13026,7 @@
         <v>0.36574904245808215</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -12798,7 +13067,7 @@
         <v>0.12148300694401998</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>65</v>
       </c>
@@ -12841,7 +13110,7 @@
         <v>0.30348401889570276</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -12884,7 +13153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -12912,7 +13181,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -12936,7 +13205,7 @@
         <v>-942.79</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -12958,7 +13227,7 @@
         <v>-831.88999999999942</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -12980,7 +13249,7 @@
         <v>-30997.599999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -13002,7 +13271,7 @@
         <v>-743.13</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -13024,7 +13293,7 @@
         <v>-6780.1</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -13046,7 +13315,7 @@
         <v>-3942.9</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -13068,7 +13337,7 @@
         <v>-2535.48</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -13090,7 +13359,7 @@
         <v>-1529.58</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -13112,10 +13381,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13131,29 +13400,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="30" max="30" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>53</v>
       </c>
@@ -13182,7 +13451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -13210,7 +13479,7 @@
         <v>5.6999999999999317E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>95</v>
       </c>
@@ -13240,7 +13509,7 @@
         <v>8.6348314606741975E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -13270,7 +13539,7 @@
         <v>9.2664968650739647E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>98</v>
       </c>
@@ -13300,7 +13569,7 @@
         <v>9.6727618788660999E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -13330,7 +13599,7 @@
         <v>9.3262625259320636E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -13358,7 +13627,7 @@
         <v>1.8808219178082217E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -13386,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -13423,22 +13692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="13.125" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -13458,7 +13727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45404</v>
       </c>
@@ -13472,7 +13741,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>45405</v>
       </c>
@@ -13486,7 +13755,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45406</v>
       </c>
@@ -13500,7 +13769,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45407</v>
       </c>
@@ -13514,7 +13783,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45408</v>
       </c>
@@ -13528,7 +13797,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45409</v>
       </c>
@@ -13542,7 +13811,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45410</v>
       </c>
@@ -13556,7 +13825,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45411</v>
       </c>
@@ -13570,7 +13839,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45412</v>
       </c>
@@ -13584,7 +13853,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45413</v>
       </c>
@@ -13598,7 +13867,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>45414</v>
       </c>
@@ -13612,7 +13881,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45415</v>
       </c>
@@ -13626,7 +13895,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45416</v>
       </c>
@@ -13640,7 +13909,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45417</v>
       </c>
@@ -13654,7 +13923,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45418</v>
       </c>
@@ -13668,7 +13937,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45419</v>
       </c>
@@ -13682,7 +13951,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45420</v>
       </c>
@@ -13696,7 +13965,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45421</v>
       </c>
@@ -13710,7 +13979,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45422</v>
       </c>
@@ -13724,7 +13993,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45423</v>
       </c>
@@ -13738,7 +14007,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45424</v>
       </c>
@@ -13752,7 +14021,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45425</v>
       </c>
@@ -13766,7 +14035,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45426</v>
       </c>
@@ -13780,7 +14049,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45427</v>
       </c>
@@ -13794,7 +14063,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>45428</v>
       </c>
@@ -13808,7 +14077,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45429</v>
       </c>
@@ -13822,7 +14091,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45430</v>
       </c>
@@ -13836,7 +14105,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>45431</v>
       </c>
@@ -13850,7 +14119,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>45432</v>
       </c>
@@ -13864,7 +14133,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45432</v>
       </c>
@@ -13878,7 +14147,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>45433</v>
       </c>
@@ -13892,7 +14161,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>45434</v>
       </c>
@@ -13906,7 +14175,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>45435</v>
       </c>
@@ -13920,7 +14189,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>45436</v>
       </c>
@@ -13934,7 +14203,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>45437</v>
       </c>
@@ -13948,7 +14217,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>45438</v>
       </c>
@@ -13962,7 +14231,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>45439</v>
       </c>
@@ -13976,7 +14245,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>45440</v>
       </c>
@@ -13990,7 +14259,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>45441</v>
       </c>
@@ -14004,7 +14273,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>45442</v>
       </c>
@@ -14018,7 +14287,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>45443</v>
       </c>
@@ -14032,7 +14301,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>45444</v>
       </c>
@@ -14046,7 +14315,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>45445</v>
       </c>
@@ -14060,7 +14329,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>45446</v>
       </c>
@@ -14074,7 +14343,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>45447</v>
       </c>
@@ -14088,7 +14357,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45448</v>
       </c>
@@ -14104,7 +14373,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>45449</v>
       </c>
@@ -14120,7 +14389,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45450</v>
       </c>
@@ -14136,7 +14405,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>45451</v>
       </c>
@@ -14152,7 +14421,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>45452</v>
       </c>
@@ -14168,7 +14437,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>45453</v>
       </c>
@@ -14184,7 +14453,7 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>45454</v>
       </c>
@@ -14200,7 +14469,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>45455</v>
       </c>
@@ -14218,7 +14487,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>45456</v>
       </c>
@@ -14236,7 +14505,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>45457</v>
       </c>
@@ -14254,7 +14523,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>45458</v>
       </c>
@@ -14272,7 +14541,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>45459</v>
       </c>
@@ -14290,7 +14559,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>45460</v>
       </c>
@@ -14308,7 +14577,7 @@
       </c>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45461</v>
       </c>
@@ -14326,7 +14595,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45462</v>
       </c>
@@ -14344,7 +14613,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45463</v>
       </c>
@@ -14362,7 +14631,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45464</v>
       </c>
@@ -14380,7 +14649,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45465</v>
       </c>
@@ -14398,7 +14667,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45466</v>
       </c>
@@ -14416,7 +14685,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45467</v>
       </c>
@@ -14434,7 +14703,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45468</v>
       </c>
@@ -14452,7 +14721,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45469</v>
       </c>
@@ -14470,7 +14739,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45470</v>
       </c>
@@ -14488,7 +14757,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45475</v>
       </c>
@@ -14506,7 +14775,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45476</v>
       </c>
@@ -14524,7 +14793,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45477</v>
       </c>
@@ -14542,7 +14811,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45478</v>
       </c>
@@ -14560,7 +14829,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45479</v>
       </c>
@@ -14578,7 +14847,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45480</v>
       </c>
@@ -14596,7 +14865,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45481</v>
       </c>
@@ -14614,7 +14883,7 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45482</v>
       </c>
@@ -14632,7 +14901,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45483</v>
       </c>
@@ -14650,7 +14919,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45484</v>
       </c>
@@ -14668,7 +14937,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>45485</v>
       </c>
@@ -14686,7 +14955,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>45486</v>
       </c>
@@ -14704,7 +14973,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>45487</v>
       </c>
@@ -14722,7 +14991,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>45488</v>
       </c>
@@ -14740,7 +15009,7 @@
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>45489</v>
       </c>
@@ -14758,7 +15027,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>45490</v>
       </c>
@@ -14776,7 +15045,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>45491</v>
       </c>
@@ -14794,7 +15063,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>45492</v>
       </c>
@@ -14812,7 +15081,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>45493</v>
       </c>
@@ -14830,7 +15099,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>45494</v>
       </c>
@@ -14848,7 +15117,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>45495</v>
       </c>
@@ -14866,7 +15135,7 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>45496</v>
       </c>
@@ -14886,7 +15155,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>45497</v>
       </c>
@@ -14906,7 +15175,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>45498</v>
       </c>
@@ -14926,7 +15195,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>45499</v>
       </c>
@@ -14946,7 +15215,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>45500</v>
       </c>
@@ -14966,7 +15235,7 @@
         <v>3924.76</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>45501</v>
       </c>
@@ -14986,7 +15255,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>45502</v>
       </c>
@@ -15006,7 +15275,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>45503</v>
       </c>
@@ -15026,7 +15295,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>45504</v>
       </c>
@@ -15046,7 +15315,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>45505</v>
       </c>
@@ -15066,7 +15335,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>45506</v>
       </c>
@@ -15086,7 +15355,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>45507</v>
       </c>
@@ -15106,7 +15375,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>45508</v>
       </c>
@@ -15126,7 +15395,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>45509</v>
       </c>
@@ -15146,7 +15415,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>45510</v>
       </c>
@@ -15166,7 +15435,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>45511</v>
       </c>
@@ -15184,6 +15453,66 @@
       </c>
       <c r="G107" s="3">
         <v>4080</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4148.24</v>
+      </c>
+      <c r="D108" s="3">
+        <v>61685.99</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2683.9</v>
+      </c>
+      <c r="G108" s="3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4063.32</v>
+      </c>
+      <c r="D109" s="3">
+        <v>60441.57</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2605.6</v>
+      </c>
+      <c r="G109" s="3">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4057.55</v>
+      </c>
+      <c r="D110" s="3">
+        <v>60551.9</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2599.52</v>
+      </c>
+      <c r="G110" s="3">
+        <v>4021</v>
       </c>
     </row>
   </sheetData>
@@ -15196,31 +15525,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.625" customWidth="1"/>
-    <col min="20" max="22" width="19.375" customWidth="1"/>
-    <col min="23" max="25" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="25" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -15297,26 +15626,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -15340,14 +15669,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>573.53269567103996</v>
+        <v>619.1447518494</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.22515680719410261</v>
+        <v>-0.14651923266663847</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -15366,7 +15695,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>573.53269567103996</v>
+        <v>619.1447518494</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -15374,33 +15703,33 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.22515680719410261</v>
+        <v>-0.14651923266663847</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -15424,11 +15753,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>460.03365187416</v>
+        <v>497.85060814720003</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38069507617110943</v>
+        <v>-0.31615153723321698</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -15447,7 +15776,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>460.03365187416</v>
+        <v>497.85060814720003</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -15455,33 +15784,33 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38069507617110943</v>
+        <v>-0.31615153723321698</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -15505,11 +15834,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>584.91231264863995</v>
+        <v>631.42936994165007</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20646688607887287</v>
+        <v>-0.12593250187655175</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -15528,7 +15857,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>584.91231264863995</v>
+        <v>631.42936994165007</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -15536,33 +15865,33 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.20646688607887287</v>
+        <v>-0.12593250187655175</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -15586,11 +15915,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>474.36097111685103</v>
+        <v>513.35570123991999</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35848084846635125</v>
+        <v>-0.29162215779032502</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -15609,7 +15938,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>474.36097111685103</v>
+        <v>513.35570123991999</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -15617,33 +15946,33 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.35848084846635125</v>
+        <v>-0.29162215779032502</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -15667,11 +15996,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>598.56785302176002</v>
+        <v>646.17091165235001</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17296701213632024</v>
+        <v>-8.9032780250910465E-2</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -15690,7 +16019,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>598.56785302176002</v>
+        <v>646.17091165235001</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -15698,33 +16027,33 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.17296701213632024</v>
+        <v>-8.9032780250910465E-2</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -15748,11 +16077,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>256.42571483088</v>
+        <v>262.30837763854498</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62174940898345155</v>
+        <v>-0.60520094562647764</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -15771,7 +16100,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>256.42571483088</v>
+        <v>262.30837763854498</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -15779,33 +16108,33 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.62174940898345155</v>
+        <v>-0.60520094562647764</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -15829,11 +16158,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>479.52660322476004</v>
+        <v>518.9459728992</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32849086796413929</v>
+        <v>-0.25850664186959288</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -15852,7 +16181,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>479.52660322476004</v>
+        <v>518.9459728992</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -15860,33 +16189,33 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.32849086796413929</v>
+        <v>-0.25850664186959288</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -15910,11 +16239,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>619.05116358143994</v>
+        <v>668.28322421839994</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10527789170784416</v>
+        <v>-1.4474001158831462E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -15933,7 +16262,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>619.05116358143994</v>
+        <v>668.28322421839994</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -15941,33 +16270,33 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.10527789170784416</v>
+        <v>-1.4474001158831462E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -15991,11 +16320,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>616.7752401859201</v>
+        <v>665.82630059995006</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.8413406501851597E-2</v>
+        <v>-6.9128505217029065E-3</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -16014,7 +16343,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>616.7752401859201</v>
+        <v>665.82630059995006</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -16022,33 +16351,33 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.8413406501851597E-2</v>
+        <v>-6.9128505217029065E-3</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -16072,11 +16401,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>689.60478884255997</v>
+        <v>744.44785639035001</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7159511265553162E-2</v>
+        <v>6.055760284721444E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -16095,7 +16424,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>689.60478884255997</v>
+        <v>744.44785639035001</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -16103,33 +16432,33 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7159511265553162E-2</v>
+        <v>6.055760284721444E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -16153,11 +16482,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>639.53447414112009</v>
+        <v>690.39553678445009</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12686011254782803</v>
+        <v>-3.8246566465321576E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -16176,7 +16505,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>639.53447414112009</v>
+        <v>690.39553678445009</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -16184,33 +16513,33 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.12686011254782803</v>
+        <v>-3.8246566465321576E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -16234,11 +16563,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>493.26913392693297</v>
+        <v>533.81820504936002</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30304842486699957</v>
+        <v>-0.23041260461660068</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -16257,7 +16586,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>493.26913392693297</v>
+        <v>533.81820504936002</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -16265,33 +16594,33 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.30304842486699957</v>
+        <v>-0.23041260461660068</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -16315,11 +16644,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>480.89110981930202</v>
+        <v>520.42264843184</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29915183847717947</v>
+        <v>-0.22610991863722568</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -16338,7 +16667,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>480.89110981930202</v>
+        <v>520.42264843184</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -16346,33 +16675,33 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29915183847717947</v>
+        <v>-0.22610991863722568</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -16396,11 +16725,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>553.98967738405202</v>
+        <v>599.53026625183998</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2294042553191489</v>
+        <v>-0.14909328968903438</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -16419,7 +16748,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>553.98967738405202</v>
+        <v>599.53026625183998</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -16427,33 +16756,33 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.2294042553191489</v>
+        <v>-0.14909328968903438</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -16477,11 +16806,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>512.66462052077998</v>
+        <v>554.80809297759993</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31923021312281308</v>
+        <v>-0.24828084786443422</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -16500,7 +16829,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>512.66462052077998</v>
+        <v>554.80809297759993</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -16508,33 +16837,33 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.31923021312281308</v>
+        <v>-0.24828084786443422</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -16558,11 +16887,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>349.26468278544002</v>
+        <v>357.27716453208495</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52941176470588236</v>
+        <v>-0.50882352941176467</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -16581,7 +16910,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>349.26468278544002</v>
+        <v>357.27716453208495</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -16589,33 +16918,33 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.52941176470588236</v>
+        <v>-0.50882352941176467</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -16639,11 +16968,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>182.08208558016003</v>
+        <v>186.25923104893999</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43462897526501765</v>
+        <v>-0.40989399293286222</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -16662,7 +16991,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>182.08208558016003</v>
+        <v>186.25923104893999</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -16670,33 +16999,33 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.43462897526501765</v>
+        <v>-0.40989399293286222</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="20" spans="2:25" hidden="1">
+    <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -16720,11 +17049,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>255.94420580351999</v>
+        <v>261.81582231167999</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30131004366812225</v>
+        <v>-0.27074235807860264</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -16756,33 +17085,33 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.30131004366812225</v>
+        <v>-0.27074235807860264</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
         <v>VENDIDA</v>
       </c>
     </row>
-    <row r="21" spans="2:25" hidden="1">
+    <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -16806,11 +17135,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>245.88756286560002</v>
+        <v>251.52846990914998</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38931297709923662</v>
+        <v>-0.36259541984732829</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -16842,33 +17171,33 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38931297709923662</v>
+        <v>-0.36259541984732829</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
         <v>VENDIDA</v>
       </c>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -16892,14 +17221,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>252.1503598104</v>
+        <v>257.934941690475</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.40520446096654272</v>
+        <v>-0.379182156133829</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -16923,7 +17252,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.43288781039999175</v>
+        <v>0.44281869047499151</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -16931,33 +17260,33 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.40520446096654272</v>
+        <v>-0.379182156133829</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -16981,11 +17310,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>253.87740663408002</v>
+        <v>259.70160869859495</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.41176470588235298</v>
+        <v>-0.38602941176470595</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -17009,7 +17338,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1599346340799852</v>
+        <v>2.2094856985949849</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -17017,33 +17346,33 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.41176470588235298</v>
+        <v>-0.38602941176470595</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -17067,11 +17396,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>257.44854890592001</v>
+        <v>263.35467655203001</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.42028985507246369</v>
+        <v>-0.39492753623188404</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -17095,7 +17424,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.334252236800018</v>
+        <v>7.5025073312000172</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -17103,33 +17432,33 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42028985507246369</v>
+        <v>-0.39492753623188404</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -17153,11 +17482,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>253.11125813904002</v>
+        <v>258.91788398948501</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.4306049822064057</v>
+        <v>-0.40569395017793597</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -17181,7 +17510,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3937861390400077</v>
+        <v>1.4257609894850078</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -17189,33 +17518,33 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.4306049822064057</v>
+        <v>-0.40569395017793597</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -17238,11 +17567,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>255.42984102192</v>
+        <v>261.28965748665496</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.47443452439609241</v>
+        <v>-0.45144103483842152</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -17261,7 +17590,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>255.42984102192</v>
+        <v>261.28965748665496</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -17269,33 +17598,33 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.47443452439609241</v>
+        <v>-0.45144103483842152</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -17319,11 +17648,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>589.46415943968009</v>
+        <v>636.34321717855016</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.17699401483401334</v>
+        <v>-9.3468476898169506E-2</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -17342,7 +17671,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>589.46415943968009</v>
+        <v>636.34321717855016</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -17350,33 +17679,33 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.17699401483401334</v>
+        <v>-9.3468476898169506E-2</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -17400,11 +17729,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>488.78575511629504</v>
+        <v>528.96627115640001</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.3190332938011628</v>
+        <v>-0.24806340574469929</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -17423,7 +17752,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>488.78575511629504</v>
+        <v>528.96627115640001</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -17431,33 +17760,33 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.3190332938011628</v>
+        <v>-0.24806340574469929</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="29" spans="2:25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -17481,11 +17810,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>196.79397819696001</v>
+        <v>201.30862922201501</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.45205479452054792</v>
+        <v>-0.42808219178082191</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -17504,7 +17833,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>196.79397819696001</v>
+        <v>201.30862922201501</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -17512,33 +17841,33 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.45205479452054792</v>
+        <v>-0.42808219178082191</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -17562,14 +17891,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>575.80861906656003</v>
+        <v>621.60167546784999</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.19958299480781935</v>
+        <v>-0.11834997568440389</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -17588,7 +17917,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>575.80861906656003</v>
+        <v>621.60167546784999</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -17596,33 +17925,33 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.19958299480781935</v>
+        <v>-0.11834997568440389</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -17646,11 +17975,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>510.61786062896704</v>
+        <v>552.59307967863992</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.2899502337505655</v>
+        <v>-0.21594932890966673</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -17669,7 +17998,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>510.61786062896704</v>
+        <v>552.59307967863992</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -17677,33 +18006,33 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.2899502337505655</v>
+        <v>-0.21594932890966673</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -17727,11 +18056,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>198.44418495024001</v>
+        <v>202.996693371535</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.44827586206896547</v>
+        <v>-0.42413793103448277</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -17750,7 +18079,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>198.44418495024001</v>
+        <v>202.996693371535</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -17758,33 +18087,33 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.44827586206896547</v>
+        <v>-0.42413793103448277</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -17808,11 +18137,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>723.74363977536007</v>
+        <v>781.30171066710011</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8134514365376787E-2</v>
+        <v>0.1324782128689253</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -17831,7 +18160,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>723.74363977536007</v>
+        <v>781.30171066710011</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -17839,33 +18168,33 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>2.8134514365376787E-2</v>
+        <v>0.1324782128689253</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f>IF(U33=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -17889,11 +18218,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>697.94512310823302</v>
+        <v>755.31953494536003</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-8.5116956847682487E-3</v>
+        <v>9.4820542625864382E-2</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -17912,7 +18241,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>697.94512310823302</v>
+        <v>755.31953494536003</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -17920,33 +18249,33 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.5116956847682487E-3</v>
+        <v>9.4820542625864382E-2</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f>IF(U34=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4140.09</v>
+        <v>4057.55</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>54972.800000000003</v>
+        <v>60551.9</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2354.17</v>
+        <v>2599.52</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -17970,11 +18299,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>382.48224777072005</v>
+        <v>391.25677373835504</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>8.6661233360499981E-2</v>
+        <v>0.13420266232002173</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -17984,7 +18313,7 @@
       </c>
       <c r="Q35" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>MANTENER</v>
+        <v>VENTA PARCIAL</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="14">
@@ -17993,7 +18322,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>382.48224777072005</v>
+        <v>391.25677373835504</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -18001,7 +18330,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>8.6661233360499981E-2</v>
+        <v>0.13420266232002173</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f>IF(U35=0,"VENDIDA","ACTIVA")</f>
@@ -18010,20 +18339,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z35">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q35">
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18035,27 +18364,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -18090,10 +18419,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -18114,11 +18443,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>4080</v>
+        <v>4021</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>716.96669040000006</v>
+        <v>706.59878973000002</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -18126,17 +18455,17 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>2.4289211071361408E-2</v>
+        <v>9.4771857151823517E-3</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
         <v>4381.5750000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -18157,11 +18486,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>4080</v>
+        <v>4021</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>819.74344080000014</v>
+        <v>807.88930771000014</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -18169,17 +18498,17 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>2.4723997686597683E-2</v>
+        <v>9.9056849749532515E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
         <v>4366.7470000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -18200,11 +18529,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>4080</v>
+        <v>4021</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1531.3061712000001</v>
+        <v>1509.1622829400001</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -18212,17 +18541,17 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>2.0894641546962616E-2</v>
+        <v>6.131704328513868E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>4415.07</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -18243,11 +18572,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>4080</v>
+        <v>4021</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2210.6775792000003</v>
+        <v>2178.7094475399999</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -18255,7 +18584,7 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>4.8691596778384699E-3</v>
+        <v>-9.6620365037775029E-3</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
@@ -18274,31 +18603,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="22.375" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="21.125" customWidth="1"/>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="34.75" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -18342,7 +18671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>65</v>
       </c>
@@ -18392,7 +18721,7 @@
         <v>0.18152193973697042</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>65</v>
       </c>
@@ -18442,7 +18771,7 @@
         <v>0.33953118475216365</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>65</v>
       </c>
@@ -18492,7 +18821,7 @@
         <v>-7.0832910998340839E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>65</v>
       </c>
@@ -18542,7 +18871,7 @@
         <v>1.151488214245727</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>86</v>
       </c>
@@ -18585,7 +18914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>86</v>
       </c>
@@ -18628,7 +18957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>86</v>
       </c>
@@ -18671,7 +19000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
@@ -18724,21 +19053,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -18758,7 +19087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45478</v>
       </c>
@@ -18782,7 +19111,7 @@
         <v>31486.519033199998</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>45481</v>
       </c>
@@ -18806,7 +19135,7 @@
         <v>31596.52415931</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45482</v>
       </c>
@@ -18830,7 +19159,7 @@
         <v>31403.344933554003</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45483</v>
       </c>
@@ -18854,7 +19183,7 @@
         <v>31311.751146719998</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45484</v>
       </c>
@@ -18878,7 +19207,7 @@
         <v>30703.900500042</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45485</v>
       </c>
@@ -18902,7 +19231,7 @@
         <v>31050.156992249998</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45488</v>
       </c>
@@ -18926,7 +19255,7 @@
         <v>31284.062460882004</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45489</v>
       </c>
@@ -18950,7 +19279,7 @@
         <v>31152.728065535997</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45490</v>
       </c>
@@ -18974,7 +19303,7 @@
         <v>30865.116584214</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45491</v>
       </c>
@@ -18998,7 +19327,7 @@
         <v>30836.333903100003</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>45492</v>
       </c>
@@ -19022,7 +19351,7 @@
         <v>30997.937238180002</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45495</v>
       </c>
@@ -19046,7 +19375,7 @@
         <v>31274.285642226001</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45496</v>
       </c>
@@ -19070,7 +19399,7 @@
         <v>30864.285511092006</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45497</v>
       </c>
@@ -19094,7 +19423,7 @@
         <v>30301.736779776002</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45498</v>
       </c>
@@ -19118,7 +19447,7 @@
         <v>30374.942102075998</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45499</v>
       </c>
@@ -19142,7 +19471,7 @@
         <v>30701.382447714001</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45502</v>
       </c>
@@ -19166,7 +19495,7 @@
         <v>30630.67479252</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45503</v>
       </c>
@@ -19190,7 +19519,7 @@
         <v>30826.208257152</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45504</v>
       </c>
@@ -19214,7 +19543,7 @@
         <v>31311.968541018003</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45505</v>
       </c>
@@ -19226,7 +19555,7 @@
         <v>499.03</v>
       </c>
       <c r="E22" s="8">
-        <f>0.01518 * D22</f>
+        <f t="shared" ref="E22:E27" si="2">0.01518 * D22</f>
         <v>7.5752753999999998</v>
       </c>
       <c r="F22" s="8">
@@ -19238,7 +19567,7 @@
         <v>30645.852383453999</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45506</v>
       </c>
@@ -19250,7 +19579,7 @@
         <v>489.91</v>
       </c>
       <c r="E23" s="8">
-        <f>0.01518 * D23</f>
+        <f t="shared" si="2"/>
         <v>7.4368338000000005</v>
       </c>
       <c r="F23" s="8">
@@ -19262,7 +19591,7 @@
         <v>30223.813141566003</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45448</v>
       </c>
@@ -19274,7 +19603,7 @@
         <v>475.2</v>
       </c>
       <c r="E24" s="8">
-        <f>0.01518 * D24</f>
+        <f t="shared" si="2"/>
         <v>7.2135360000000004</v>
       </c>
       <c r="F24" s="8">
@@ -19286,7 +19615,7 @@
         <v>28317.745463039999</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45510</v>
       </c>
@@ -19298,7 +19627,7 @@
         <v>479.94</v>
       </c>
       <c r="E25" s="8">
-        <f>0.01518 * D25</f>
+        <f t="shared" si="2"/>
         <v>7.2854892000000007</v>
       </c>
       <c r="F25" s="8">
@@ -19310,7 +19639,7 @@
         <v>30273.466127652006</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45511</v>
       </c>
@@ -19322,7 +19651,7 @@
         <v>476.61</v>
       </c>
       <c r="E26" s="8">
-        <f>0.01518 * D26</f>
+        <f t="shared" si="2"/>
         <v>7.2349398000000003</v>
       </c>
       <c r="F26" s="8">
@@ -19332,6 +19661,78 @@
       <c r="G26" s="8">
         <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
         <v>29953.301916582001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C27" s="8">
+        <f>VLOOKUP(B27,Tabla4[],2,FALSE)</f>
+        <v>4148.24</v>
+      </c>
+      <c r="D27" s="24">
+        <v>487.73</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4037414000000004</v>
+      </c>
+      <c r="F27" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.29625859999999982</v>
+      </c>
+      <c r="G27" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30712.496225136001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C28" s="8">
+        <f>VLOOKUP(B28,Tabla4[],2,FALSE)</f>
+        <v>4063.32</v>
+      </c>
+      <c r="D28" s="24">
+        <v>489.82</v>
+      </c>
+      <c r="E28" s="8">
+        <f>0.01518 * D28</f>
+        <v>7.4354676</v>
+      </c>
+      <c r="F28" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.26453240000000022</v>
+      </c>
+      <c r="G28" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30212.684208432001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C29" s="8">
+        <f>VLOOKUP(B29,Tabla4[],2,FALSE)</f>
+        <v>4057.55</v>
+      </c>
+      <c r="D29" s="24">
+        <v>489.82</v>
+      </c>
+      <c r="E29" s="8">
+        <f>0.01518 * D29</f>
+        <v>7.4354676</v>
+      </c>
+      <c r="F29" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.26453240000000022</v>
+      </c>
+      <c r="G29" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30169.781560380001</v>
       </c>
     </row>
   </sheetData>
@@ -19344,19 +19745,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -19389,11 +19790,12 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45460</v>
       </c>
       <c r="C3" s="3">
+        <f>VLOOKUP(B3,Tabla4[],2,FALSE)</f>
         <v>4129.43</v>
       </c>
       <c r="D3" s="3">
@@ -19420,11 +19822,12 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>45461</v>
       </c>
       <c r="C4" s="3">
+        <f>VLOOKUP(B4,Tabla4[],2,FALSE)</f>
         <v>4124.49</v>
       </c>
       <c r="D4" s="3">
@@ -19451,11 +19854,12 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45462</v>
       </c>
       <c r="C5" s="3">
+        <f>VLOOKUP(B5,Tabla4[],2,FALSE)</f>
         <v>4146.2</v>
       </c>
       <c r="D5" s="3">
@@ -19482,11 +19886,12 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45463</v>
       </c>
       <c r="C6" s="3">
+        <f>VLOOKUP(B6,Tabla4[],2,FALSE)</f>
         <v>4163.8</v>
       </c>
       <c r="D6" s="3">
@@ -19513,11 +19918,12 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45464</v>
       </c>
       <c r="C7" s="3">
+        <f>VLOOKUP(B7,Tabla4[],2,FALSE)</f>
         <v>4167.01</v>
       </c>
       <c r="D7" s="3">
@@ -19544,11 +19950,12 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45467</v>
       </c>
       <c r="C8" s="3">
+        <f>VLOOKUP(B8,Tabla4[],2,FALSE)</f>
         <v>4144.4799999999996</v>
       </c>
       <c r="D8" s="3">
@@ -19575,11 +19982,12 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45468</v>
       </c>
       <c r="C9" s="3">
+        <f>VLOOKUP(B9,Tabla4[],2,FALSE)</f>
         <v>4094.7</v>
       </c>
       <c r="D9" s="3">
@@ -19606,11 +20014,12 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45469</v>
       </c>
       <c r="C10" s="3">
+        <f>VLOOKUP(B10,Tabla4[],2,FALSE)</f>
         <v>4095.53</v>
       </c>
       <c r="D10" s="3">
@@ -19637,12 +20046,13 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45470</v>
       </c>
       <c r="C11" s="3">
-        <v>4140.53</v>
+        <f>VLOOKUP(B11,Tabla4[],2,FALSE)</f>
+        <v>4140.1899999999996</v>
       </c>
       <c r="D11" s="3">
         <v>5482.87</v>
@@ -19668,12 +20078,13 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45471</v>
       </c>
-      <c r="C12" s="3">
-        <v>4150.26</v>
+      <c r="C12" s="3" t="e">
+        <f>VLOOKUP(B12,Tabla4[],2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D12" s="3">
         <v>5465.2</v>
@@ -19699,12 +20110,13 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>45474</v>
       </c>
-      <c r="C13" s="3">
-        <v>4134</v>
+      <c r="C13" s="3" t="e">
+        <f>VLOOKUP(B13,Tabla4[],2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D13" s="3">
         <v>5475.22</v>
@@ -19730,11 +20142,12 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45475</v>
       </c>
       <c r="C14" s="3">
+        <f>VLOOKUP(B14,Tabla4[],2,FALSE)</f>
         <v>4129.08</v>
       </c>
       <c r="D14" s="3">
@@ -19761,11 +20174,12 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45476</v>
       </c>
       <c r="C15" s="3">
+        <f>VLOOKUP(B15,Tabla4[],2,FALSE)</f>
         <v>4119.8999999999996</v>
       </c>
       <c r="D15" s="3">
@@ -19794,11 +20208,12 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45477</v>
       </c>
       <c r="C16" s="3">
+        <f>VLOOKUP(B16,Tabla4[],2,FALSE)</f>
         <v>4106.37</v>
       </c>
       <c r="D16" s="3">
@@ -19827,11 +20242,12 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45478</v>
       </c>
       <c r="C17" s="3">
+        <f>VLOOKUP(B17,Tabla4[],2,FALSE)</f>
         <v>4090.5</v>
       </c>
       <c r="D17" s="3">
@@ -19860,11 +20276,12 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45481</v>
       </c>
       <c r="C18" s="3">
+        <f>VLOOKUP(B18,Tabla4[],2,FALSE)</f>
         <v>4078.65</v>
       </c>
       <c r="D18" s="3">
@@ -19893,11 +20310,12 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45482</v>
       </c>
       <c r="C19" s="3">
+        <f>VLOOKUP(B19,Tabla4[],2,FALSE)</f>
         <v>4049.27</v>
       </c>
       <c r="D19" s="3">
@@ -19926,11 +20344,12 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45483</v>
       </c>
       <c r="C20" s="3">
+        <f>VLOOKUP(B20,Tabla4[],2,FALSE)</f>
         <v>4009.91</v>
       </c>
       <c r="D20" s="3">
@@ -19959,11 +20378,12 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45484</v>
       </c>
       <c r="C21" s="3">
+        <f>VLOOKUP(B21,Tabla4[],2,FALSE)</f>
         <v>3955.21</v>
       </c>
       <c r="D21" s="3">
@@ -19992,11 +20412,12 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45485</v>
       </c>
       <c r="C22" s="3">
+        <f>VLOOKUP(B22,Tabla4[],2,FALSE)</f>
         <v>3975.25</v>
       </c>
       <c r="D22" s="3">
@@ -20025,11 +20446,12 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45488</v>
       </c>
       <c r="C23" s="3">
+        <f>VLOOKUP(B23,Tabla4[],2,FALSE)</f>
         <v>3993.09</v>
       </c>
       <c r="D23" s="3">
@@ -20058,11 +20480,12 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45489</v>
       </c>
       <c r="C24" s="3">
+        <f>VLOOKUP(B24,Tabla4[],2,FALSE)</f>
         <v>3953.88</v>
       </c>
       <c r="D24" s="3">
@@ -20091,11 +20514,12 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45490</v>
       </c>
       <c r="C25" s="3">
+        <f>VLOOKUP(B25,Tabla4[],2,FALSE)</f>
         <v>3972.87</v>
       </c>
       <c r="D25" s="3">
@@ -20124,11 +20548,12 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45491</v>
       </c>
       <c r="C26" s="3">
+        <f>VLOOKUP(B26,Tabla4[],2,FALSE)</f>
         <v>3999.25</v>
       </c>
       <c r="D26" s="3">
@@ -20157,11 +20582,12 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>45492</v>
       </c>
       <c r="C27" s="3">
+        <f>VLOOKUP(B27,Tabla4[],2,FALSE)</f>
         <v>4047.22</v>
       </c>
       <c r="D27" s="3">
@@ -20190,11 +20616,12 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45495</v>
       </c>
       <c r="C28" s="3">
+        <f>VLOOKUP(B28,Tabla4[],2,FALSE)</f>
         <v>4041.33</v>
       </c>
       <c r="D28" s="3">
@@ -20223,11 +20650,12 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45496</v>
       </c>
       <c r="C29" s="3">
+        <f>VLOOKUP(B29,Tabla4[],2,FALSE)</f>
         <v>3995.01</v>
       </c>
       <c r="D29" s="3">
@@ -20256,11 +20684,12 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>45497</v>
       </c>
       <c r="C30" s="3">
+        <f>VLOOKUP(B30,Tabla4[],2,FALSE)</f>
         <v>4014.08</v>
       </c>
       <c r="D30" s="3">
@@ -20288,11 +20717,12 @@
         <v>253.37</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>45498</v>
       </c>
       <c r="C31" s="3">
+        <f>VLOOKUP(B31,Tabla4[],2,FALSE)</f>
         <v>4044.19</v>
       </c>
       <c r="D31" s="3">
@@ -20320,11 +20750,12 @@
         <v>251.46</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45499</v>
       </c>
       <c r="C32" s="3">
+        <f>VLOOKUP(B32,Tabla4[],2,FALSE)</f>
         <v>4042.31</v>
       </c>
       <c r="D32" s="3">
@@ -20352,11 +20783,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>45502</v>
       </c>
       <c r="C33" s="3">
+        <f>VLOOKUP(B33,Tabla4[],2,FALSE)</f>
         <v>4030.02</v>
       </c>
       <c r="D33" s="3">
@@ -20384,11 +20816,12 @@
         <v>261.42</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>45503</v>
       </c>
       <c r="C34" s="3">
+        <f>VLOOKUP(B34,Tabla4[],2,FALSE)</f>
         <v>4077.08</v>
       </c>
       <c r="D34" s="3">
@@ -20416,11 +20849,12 @@
         <v>266.44</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>45504</v>
       </c>
       <c r="C35" s="3">
+        <f>VLOOKUP(B35,Tabla4[],2,FALSE)</f>
         <v>4077.07</v>
       </c>
       <c r="D35" s="3">
@@ -20448,11 +20882,12 @@
         <v>265.39999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>45505</v>
       </c>
       <c r="C36" s="3">
+        <f>VLOOKUP(B36,Tabla4[],2,FALSE)</f>
         <v>4045.51</v>
       </c>
       <c r="D36" s="3">
@@ -20480,11 +20915,12 @@
         <v>268.75</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>45506</v>
       </c>
       <c r="C37" s="3">
+        <f>VLOOKUP(B37,Tabla4[],2,FALSE)</f>
         <v>4064.07</v>
       </c>
       <c r="D37" s="3">
@@ -20512,11 +20948,12 @@
         <v>276.69</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>45509</v>
       </c>
       <c r="C38" s="3">
+        <f>VLOOKUP(B38,Tabla4[],2,FALSE)</f>
         <v>4116.91</v>
       </c>
       <c r="D38" s="3">
@@ -20544,11 +20981,12 @@
         <v>268.45</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>45510</v>
       </c>
       <c r="C39" s="3">
+        <f>VLOOKUP(B39,Tabla4[],2,FALSE)</f>
         <v>4155.3100000000004</v>
       </c>
       <c r="D39" s="3">
@@ -20576,11 +21014,12 @@
         <v>270.06</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>45511</v>
       </c>
       <c r="C40" s="3">
+        <f>VLOOKUP(B40,Tabla4[],2,FALSE)</f>
         <v>4140.09</v>
       </c>
       <c r="D40" s="3">
@@ -20608,16 +21047,71 @@
         <v>269.37</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C41" s="3">
+        <f>VLOOKUP(B41,Tabla4[],2,FALSE)</f>
+        <v>4148.24</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5319.3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18413.82</v>
+      </c>
+      <c r="F41" s="3">
+        <v>68.73</v>
+      </c>
+      <c r="G41" s="3">
+        <v>160.22</v>
+      </c>
+      <c r="H41" s="3">
+        <v>170.87</v>
+      </c>
+      <c r="I41" s="3">
+        <v>172.37</v>
+      </c>
+      <c r="J41" s="3">
+        <v>402.69</v>
+      </c>
+      <c r="K41" s="3">
+        <v>271.19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C42" s="3">
+        <f>VLOOKUP(B42,Tabla4[],2,FALSE)</f>
+        <v>4063.32</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5344.15</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18513.099999999999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="G42" s="3">
+        <v>160.62</v>
+      </c>
+      <c r="H42" s="3">
+        <v>170.54</v>
+      </c>
+      <c r="I42" s="3">
+        <v>172.39</v>
+      </c>
+      <c r="J42" s="3">
+        <v>406.02</v>
+      </c>
+      <c r="K42" s="3">
+        <v>267.91000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20629,36 +21123,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="27.25" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
-    <col min="17" max="17" width="33.75" customWidth="1"/>
-    <col min="18" max="18" width="30.625" customWidth="1"/>
-    <col min="19" max="19" width="21.75" customWidth="1"/>
-    <col min="20" max="20" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
@@ -20717,38 +21211,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45511</v>
-      </c>
-      <c r="C3" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -20766,9 +21260,9 @@
         <f t="shared" ref="N3:N14" si="1">(M3/L3)</f>
         <v>0.11178537208559566</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="7" t="e">
         <f t="shared" ref="O3:O14" ca="1" si="2">ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</f>
-        <v>7.65</v>
+        <v>#N/A</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="7"/>
@@ -20776,47 +21270,47 @@
         <f t="shared" ref="R3:R14" si="3">ROUND(Q3*N3,2)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="7" t="e">
         <f t="shared" ref="S3:S14" ca="1" si="4">ROUND(O3-M3,2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="T3" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="9" t="e">
         <f t="shared" ref="T3:T14" ca="1" si="5">ROUND((S3+R3)/M3,2)</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C4" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -20834,9 +21328,9 @@
         <f t="shared" si="1"/>
         <v>4.7961630695443652E-2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.62</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="7"/>
@@ -20844,47 +21338,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62</v>
-      </c>
-      <c r="T4" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C5" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -20902,9 +21396,9 @@
         <f t="shared" si="1"/>
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.11</v>
+        <v>#N/A</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="7"/>
@@ -20912,47 +21406,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="T5" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C6" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -20970,9 +21464,9 @@
         <f t="shared" si="1"/>
         <v>4.2133140724690023E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.24</v>
+        <v>#N/A</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="7"/>
@@ -20980,47 +21474,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T6" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C7" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -21038,9 +21532,9 @@
         <f t="shared" si="1"/>
         <v>2.7612322985286576E-2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.44</v>
+        <v>#N/A</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="7"/>
@@ -21048,47 +21542,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="7" t="e">
         <f ca="1">ROUND(O7-M7,2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="T7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T7" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C8" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -21108,7 +21602,7 @@
       </c>
       <c r="O8" s="7">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>7.24</v>
+        <v>7.44</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -21118,45 +21612,45 @@
       </c>
       <c r="S8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.46</v>
+        <v>-0.26</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C9" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -21174,9 +21668,9 @@
         <f t="shared" si="1"/>
         <v>0.10734549915657109</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.35</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="7"/>
@@ -21184,47 +21678,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35</v>
-      </c>
-      <c r="T9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C10" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -21242,9 +21736,9 @@
         <f t="shared" si="1"/>
         <v>4.4705581811214708E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="7"/>
@@ -21252,47 +21746,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="T10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C11" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -21310,9 +21804,9 @@
         <f t="shared" si="1"/>
         <v>4.1312559017941453E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.02</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="7"/>
@@ -21320,47 +21814,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="T11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C12" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -21378,9 +21872,9 @@
         <f t="shared" si="1"/>
         <v>4.1203131437989288E-2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.08</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="7"/>
@@ -21388,47 +21882,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="T12" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C13" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -21446,9 +21940,9 @@
         <f t="shared" si="1"/>
         <v>2.681992337164751E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.22</v>
+        <v>#N/A</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="7"/>
@@ -21456,47 +21950,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22</v>
-      </c>
-      <c r="T13" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="C14" s="19">
+        <v>45514</v>
+      </c>
+      <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],6,FALSE)</f>
-        <v>158.9</v>
-      </c>
-      <c r="E14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],7,FALSE)</f>
-        <v>170.02</v>
-      </c>
-      <c r="F14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],8,FALSE)</f>
-        <v>171.79</v>
-      </c>
-      <c r="G14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],9,FALSE)</f>
-        <v>398.43</v>
-      </c>
-      <c r="H14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
-        <v>269.37</v>
+        <v>#N/A</v>
       </c>
       <c r="I14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>476.61</v>
+        <v>489.82</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>
@@ -21514,9 +22008,9 @@
         <f t="shared" si="1"/>
         <v>1.5782828282828284E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.29</v>
+        <v>#N/A</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="7"/>
@@ -21524,13 +22018,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.71</v>
-      </c>
-      <c r="T14" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.1</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E7C24-DA67-45F4-A3F7-F05A6A18422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEECAC3-06FA-462E-9BB2-113660CC83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
   <si>
     <t>FECHA</t>
   </si>
@@ -469,7 +469,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -499,6 +499,12 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -506,43 +512,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="103">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -978,6 +947,43 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1496,10 +1502,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$110</c:f>
+              <c:f>CRIPTOS!$B$3:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1823,16 +1829,25 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$110</c:f>
+              <c:f>CRIPTOS!$C$3:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2156,6 +2171,15 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>4057.55</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4057.55</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4073.83</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4046.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,10 +2281,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$110</c:f>
+              <c:f>CRIPTOS!$B$3:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2584,16 +2608,25 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$110</c:f>
+              <c:f>CRIPTOS!$D$3:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -2917,6 +2950,15 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>60551.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>60509.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>59274.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60747.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,10 +3060,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$110</c:f>
+              <c:f>CRIPTOS!$B$3:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3345,16 +3387,25 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$110</c:f>
+              <c:f>CRIPTOS!$E$3:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3522,6 +3573,15 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3623,10 +3683,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$110</c:f>
+              <c:f>CRIPTOS!$B$3:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3950,16 +4010,25 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$110</c:f>
+              <c:f>CRIPTOS!$F$3:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4148,6 +4217,15 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>2599.52</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2646.52</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2605.27</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2706.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,10 +4327,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$110</c:f>
+              <c:f>CRIPTOS!$B$3:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4576,16 +4654,25 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$110</c:f>
+              <c:f>CRIPTOS!$G$3:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4642,6 +4729,15 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4043.31</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4977,10 +5073,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5061,16 +5157,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$29</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5151,6 +5253,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4057.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4073.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4046.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,10 +5304,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5280,16 +5388,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$29</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5370,6 +5484,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>489.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>490.07</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>498.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5415,10 +5535,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5499,16 +5619,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$29</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5589,6 +5715,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7.4354676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4392626000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5628278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,10 +5766,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5718,16 +5850,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$29</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -5808,6 +5946,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.26453240000000022</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.26073740000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.13717220000000019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5853,10 +5997,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$29</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5937,16 +6081,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$29</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6027,6 +6177,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>30169.781560380001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30306.291157758002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30606.461593487998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,10 +6535,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6502,16 +6658,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$42</c:f>
+              <c:f>BOLSA!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -6631,6 +6793,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4063.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4073.83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4046.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,10 +6900,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6855,16 +7023,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$42</c:f>
+              <c:f>BOLSA!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -6984,6 +7158,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5344.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5344.38</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5434.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7085,10 +7265,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7208,16 +7388,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$42</c:f>
+              <c:f>BOLSA!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -7337,6 +7523,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>18513.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18542.03</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19006.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7737,10 +7929,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7860,16 +8052,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$42</c:f>
+              <c:f>BOLSA!$F$3:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -7989,6 +8187,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>68.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68.17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.459999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8090,10 +8294,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8213,16 +8417,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$42</c:f>
+              <c:f>BOLSA!$G$3:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -8342,6 +8552,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>160.62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>158.38999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8443,10 +8659,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8566,16 +8782,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$42</c:f>
+              <c:f>BOLSA!$H$3:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -8695,6 +8917,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>170.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.81</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>167.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8796,10 +9024,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8919,16 +9147,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$42</c:f>
+              <c:f>BOLSA!$I$3:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -9048,6 +9282,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>172.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>172.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,10 +9389,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9272,16 +9512,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$42</c:f>
+              <c:f>BOLSA!$J$3:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -9365,6 +9611,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>406.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>406.06</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>414.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9466,10 +9718,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$42</c:f>
+              <c:f>BOLSA!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9589,16 +9841,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$42</c:f>
+              <c:f>BOLSA!$K$3:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -9718,6 +9976,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>267.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>269.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12308,52 +12572,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12404,8 +12668,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G110" totalsRowShown="0">
-  <autoFilter ref="B2:G110" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G113" totalsRowShown="0">
+  <autoFilter ref="B2:G113" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
@@ -12419,8 +12683,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z35" totalsRowShown="0">
-  <autoFilter ref="B2:Z35" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z38" totalsRowShown="0">
+  <autoFilter ref="B2:Z38" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -12428,61 +12692,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -12492,19 +12756,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L6" totalsRowShown="0">
-  <autoFilter ref="B2:L6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
+  <autoFilter ref="B2:L7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -12516,7 +12780,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -12531,7 +12795,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -12563,21 +12827,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G29" totalsRowShown="0">
-  <autoFilter ref="B2:G29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G31" totalsRowShown="0">
+  <autoFilter ref="B2:G31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12586,21 +12850,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K42" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="B2:K42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K44" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="B2:K44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12926,7 +13190,7 @@
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13285,7 +13549,7 @@
         <v>6780.1</v>
       </c>
       <c r="F12" s="7">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
@@ -13307,7 +13571,7 @@
         <v>3942.9</v>
       </c>
       <c r="F13" s="7">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
@@ -13329,7 +13593,7 @@
         <v>2535.48</v>
       </c>
       <c r="F14" s="7">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
@@ -13351,7 +13615,7 @@
         <v>1529.58</v>
       </c>
       <c r="F15" s="7">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
@@ -13381,10 +13645,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13693,10 +13957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G110"/>
+  <dimension ref="B2:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15515,6 +15779,66 @@
         <v>4021</v>
       </c>
     </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C111" s="3">
+        <v>4057.55</v>
+      </c>
+      <c r="D111" s="3">
+        <v>60509.9</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2646.52</v>
+      </c>
+      <c r="G111" s="3">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4073.83</v>
+      </c>
+      <c r="D112" s="3">
+        <v>59274.9</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2605.27</v>
+      </c>
+      <c r="G112" s="3">
+        <v>4043.31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C113" s="3">
+        <v>4046.96</v>
+      </c>
+      <c r="D113" s="3">
+        <v>60747.1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2706.9</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15526,9 +15850,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:Z35"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -15629,23 +15953,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -15669,14 +15993,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>619.1447518494</v>
+        <v>619.51953121631993</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.14651923266663847</v>
+        <v>-0.14376788306764207</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -15695,7 +16019,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>619.1447518494</v>
+        <v>619.51953121631993</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -15703,7 +16027,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.14651923266663847</v>
+        <v>-0.14376788306764207</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -15713,23 +16037,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -15753,11 +16077,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>497.85060814720003</v>
+        <v>517.06259633280013</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31615153723321698</v>
+        <v>-0.28790338067666144</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -15776,7 +16100,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>497.85060814720003</v>
+        <v>517.06259633280013</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -15784,7 +16108,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.31615153723321698</v>
+        <v>-0.28790338067666144</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -15794,23 +16118,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -15834,11 +16158,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>631.42936994165007</v>
+        <v>631.81158540711999</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12593250187655175</v>
+        <v>-0.12311478722790002</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -15857,7 +16181,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>631.42936994165007</v>
+        <v>631.81158540711999</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -15865,7 +16189,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.12593250187655175</v>
+        <v>-0.12311478722790002</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15875,23 +16199,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -15915,11 +16239,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>513.35570123991999</v>
+        <v>533.16602888808006</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29162215779032502</v>
+        <v>-0.26236075080115973</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -15938,7 +16262,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>513.35570123991999</v>
+        <v>533.16602888808006</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -15946,7 +16270,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29162215779032502</v>
+        <v>-0.26236075080115973</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15956,23 +16280,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -15996,11 +16320,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>646.17091165235001</v>
+        <v>646.56205043607986</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9032780250910465E-2</v>
+        <v>-8.609611267656482E-2</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -16019,7 +16343,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>646.17091165235001</v>
+        <v>646.56205043607986</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -16027,7 +16351,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.9032780250910465E-2</v>
+        <v>-8.609611267656482E-2</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16037,23 +16361,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -16077,11 +16401,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>262.30837763854498</v>
+        <v>256.92393792508796</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60520094562647764</v>
+        <v>-0.61229314420803793</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -16100,7 +16424,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>262.30837763854498</v>
+        <v>256.92393792508796</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -16108,7 +16432,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.60520094562647764</v>
+        <v>-0.61229314420803793</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16118,23 +16442,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -16158,11 +16482,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>518.9459728992</v>
+        <v>538.97202838080011</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25850664186959288</v>
+        <v>-0.22787731153320645</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -16181,7 +16505,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>518.9459728992</v>
+        <v>538.97202838080011</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -16189,7 +16513,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.25850664186959288</v>
+        <v>-0.22787731153320645</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16199,23 +16523,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -16239,11 +16563,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>668.28322421839994</v>
+        <v>668.68774797951994</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4474001158831462E-2</v>
+        <v>-1.1296979876695094E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -16262,7 +16586,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>668.28322421839994</v>
+        <v>668.68774797951994</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -16270,7 +16594,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4474001158831462E-2</v>
+        <v>-1.1296979876695094E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16280,23 +16604,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -16320,11 +16644,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>665.82630059995006</v>
+        <v>666.22933714135991</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9128505217029065E-3</v>
+        <v>-3.7114545031112405E-3</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -16343,7 +16667,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>665.82630059995006</v>
+        <v>666.22933714135991</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -16351,7 +16675,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.9128505217029065E-3</v>
+        <v>-3.7114545031112405E-3</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16361,23 +16685,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -16401,11 +16725,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>744.44785639035001</v>
+        <v>744.89848396247999</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.055760284721444E-2</v>
+        <v>6.397650207375849E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -16424,7 +16748,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>744.44785639035001</v>
+        <v>744.89848396247999</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -16432,7 +16756,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>6.055760284721444E-2</v>
+        <v>6.397650207375849E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16442,23 +16766,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -16482,11 +16806,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>690.39553678445009</v>
+        <v>690.81344552296002</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8246566465321576E-2</v>
+        <v>-3.5146180346538082E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -16505,7 +16829,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>690.39553678445009</v>
+        <v>690.81344552296002</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -16513,7 +16837,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.8246566465321576E-2</v>
+        <v>-3.5146180346538082E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16523,23 +16847,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -16563,11 +16887,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>533.81820504936002</v>
+        <v>554.41817797464</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23041260461660068</v>
+        <v>-0.19862277629588398</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -16586,7 +16910,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>533.81820504936002</v>
+        <v>554.41817797464</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -16594,7 +16918,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23041260461660068</v>
+        <v>-0.19862277629588398</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16604,23 +16928,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -16644,11 +16968,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>520.42264843184</v>
+        <v>540.50568862416003</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22610991863722568</v>
+        <v>-0.19414235657317741</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -16667,7 +16991,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>520.42264843184</v>
+        <v>540.50568862416003</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -16675,7 +16999,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22610991863722568</v>
+        <v>-0.19414235657317741</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16685,23 +17009,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -16725,11 +17049,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>599.53026625183998</v>
+        <v>622.66605880416</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14909328968903438</v>
+        <v>-0.11394435351882157</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -16748,7 +17072,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>599.53026625183998</v>
+        <v>622.66605880416</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -16756,7 +17080,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.14909328968903438</v>
+        <v>-0.11394435351882157</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16766,23 +17090,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -16806,11 +17130,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>554.80809297759993</v>
+        <v>576.21806286239996</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24828084786443422</v>
+        <v>-0.21722911425349176</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -16829,7 +17153,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>554.80809297759993</v>
+        <v>576.21806286239996</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -16837,7 +17161,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24828084786443422</v>
+        <v>-0.21722911425349176</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16847,23 +17171,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -16887,11 +17211,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>357.27716453208495</v>
+        <v>349.94328762454393</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50882352941176467</v>
+        <v>-0.51764705882352946</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -16910,7 +17234,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>357.27716453208495</v>
+        <v>349.94328762454393</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -16918,7 +17242,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.50882352941176467</v>
+        <v>-0.51764705882352946</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16928,23 +17252,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -16968,11 +17292,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>186.25923104893999</v>
+        <v>182.43586250201599</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40989399293286222</v>
+        <v>-0.42049469964664316</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -16991,7 +17315,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>186.25923104893999</v>
+        <v>182.43586250201599</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -16999,7 +17323,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.40989399293286222</v>
+        <v>-0.42049469964664316</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17009,23 +17333,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -17049,11 +17373,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>261.81582231167999</v>
+        <v>256.44149334835197</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27074235807860264</v>
+        <v>-0.28384279475982538</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -17085,7 +17409,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.27074235807860264</v>
+        <v>-0.28384279475982538</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17095,23 +17419,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -17135,11 +17459,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>251.52846990914998</v>
+        <v>246.36531082655998</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36259541984732829</v>
+        <v>-0.37404580152671763</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -17171,7 +17495,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.36259541984732829</v>
+        <v>-0.37404580152671763</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17181,23 +17505,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -17221,14 +17545,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>257.934941690475</v>
+        <v>252.64027609103999</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.379182156133829</v>
+        <v>-0.39033457249070636</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -17252,7 +17576,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.44281869047499151</v>
+        <v>0.43372889103999163</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -17260,7 +17584,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.379182156133829</v>
+        <v>-0.39033457249070636</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17270,23 +17594,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -17310,11 +17634,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>259.70160869859495</v>
+        <v>254.37067848540798</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.38602941176470595</v>
+        <v>-0.39705882352941185</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -17338,7 +17662,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2094856985949849</v>
+        <v>2.1641312854079851</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -17346,7 +17670,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.38602941176470595</v>
+        <v>-0.39705882352941185</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17356,23 +17680,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -17396,11 +17720,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>263.35467655203001</v>
+        <v>257.94875931859195</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.39492753623188404</v>
+        <v>-0.40579710144927533</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -17424,7 +17748,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.5025073312000172</v>
+        <v>7.3485023436800176</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -17432,7 +17756,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.39492753623188404</v>
+        <v>-0.40579710144927533</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17442,23 +17766,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -17482,11 +17806,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>258.91788398948501</v>
+        <v>253.60304139990399</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.40569395017793597</v>
+        <v>-0.41637010676156588</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -17510,7 +17834,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4257609894850078</v>
+        <v>1.3964941999040075</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -17518,7 +17842,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.40569395017793597</v>
+        <v>-0.41637010676156588</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -17528,23 +17852,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -17567,11 +17891,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>261.28965748665496</v>
+        <v>255.92612918019196</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.45144103483842152</v>
+        <v>-0.46129538750599475</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -17590,7 +17914,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>261.28965748665496</v>
+        <v>255.92612918019196</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -17598,7 +17922,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.45144103483842152</v>
+        <v>-0.46129538750599475</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17608,23 +17932,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -17648,11 +17972,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>636.34321717855016</v>
+        <v>636.72840708344006</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.3468476898169506E-2</v>
+        <v>-9.0546108594128275E-2</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -17671,7 +17995,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>636.34321717855016</v>
+        <v>636.72840708344006</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -17679,7 +18003,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-9.3468476898169506E-2</v>
+        <v>-9.0546108594128275E-2</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17689,23 +18013,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -17729,11 +18053,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>528.96627115640001</v>
+        <v>549.37900860360003</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.24806340574469929</v>
+        <v>-0.21700269011599313</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -17752,7 +18076,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>528.96627115640001</v>
+        <v>549.37900860360003</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -17760,7 +18084,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24806340574469929</v>
+        <v>-0.21700269011599313</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17770,23 +18094,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -17810,11 +18134,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>201.30862922201501</v>
+        <v>197.17633963369599</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.42808219178082191</v>
+        <v>-0.43835616438356168</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -17833,7 +18157,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>201.30862922201501</v>
+        <v>197.17633963369599</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -17841,7 +18165,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42808219178082191</v>
+        <v>-0.43835616438356168</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17851,23 +18175,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -17891,14 +18215,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>621.60167546784999</v>
+        <v>621.97794205447997</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.11834997568440389</v>
+        <v>-0.11550781739132965</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -17917,7 +18241,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>621.60167546784999</v>
+        <v>621.97794205447997</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -17925,7 +18249,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.11834997568440389</v>
+        <v>-0.11550781739132965</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17935,23 +18259,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -17975,11 +18299,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>552.59307967863992</v>
+        <v>573.91757249735997</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21594932890966673</v>
+        <v>-0.1835620570049766</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -17998,7 +18322,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>552.59307967863992</v>
+        <v>573.91757249735997</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -18006,7 +18330,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.21594932890966673</v>
+        <v>-0.1835620570049766</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18016,23 +18340,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -18056,11 +18380,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>202.996693371535</v>
+        <v>198.82975266102397</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.42413793103448277</v>
+        <v>-0.43448275862068969</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -18079,7 +18403,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>202.996693371535</v>
+        <v>198.82975266102397</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -18087,7 +18411,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.42413793103448277</v>
+        <v>-0.43448275862068969</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18097,23 +18421,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -18137,11 +18461,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>781.30171066710011</v>
+        <v>781.77464653487993</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1324782128689253</v>
+        <v>0.13612896118816897</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -18160,7 +18484,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>781.30171066710011</v>
+        <v>781.77464653487993</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -18168,33 +18492,33 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.1324782128689253</v>
+        <v>0.13612896118816897</v>
       </c>
       <c r="Y33" s="2" t="str">
-        <f>IF(U33=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -18218,11 +18542,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>755.31953494536003</v>
+        <v>784.46721447864002</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>9.4820542625864382E-2</v>
+        <v>0.1400449801632426</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -18241,7 +18565,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>755.31953494536003</v>
+        <v>784.46721447864002</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -18249,33 +18573,33 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>9.4820542625864382E-2</v>
+        <v>0.1400449801632426</v>
       </c>
       <c r="Y34" s="2" t="str">
-        <f>IF(U34=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4057.55</v>
+        <v>4046.96</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>60551.9</v>
+        <v>60747.1</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2599.52</v>
+        <v>2706.9</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -18299,11 +18623,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>391.25677373835504</v>
+        <v>383.22539277507201</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13420266232002173</v>
+        <v>0.11382776419451235</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -18322,7 +18646,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>391.25677373835504</v>
+        <v>383.22539277507201</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -18330,29 +18654,281 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.13420266232002173</v>
+        <v>0.11382776419451235</v>
       </c>
       <c r="Y35" s="2" t="str">
-        <f>IF(U35=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45517</v>
+      </c>
+      <c r="C36" s="2">
+        <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
+        <v>4046.96</v>
+      </c>
+      <c r="D36" s="3">
+        <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
+        <v>60747.1</v>
+      </c>
+      <c r="E36" s="2">
+        <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
+        <v>2706.9</v>
+      </c>
+      <c r="F36" s="2">
+        <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
+        <v>1.64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45516</v>
+      </c>
+      <c r="I36" s="3">
+        <f>VLOOKUP(H36,Tabla4[],2,FALSE)</f>
+        <v>4073.83</v>
+      </c>
+      <c r="J36" s="3">
+        <v>59047.29</v>
+      </c>
+      <c r="K36" s="11">
+        <v>2.9100000000000001E-6</v>
+      </c>
+      <c r="L36" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>699.99648833423703</v>
+      </c>
+      <c r="M36" s="26">
+        <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
+        <v>715.39755390456003</v>
+      </c>
+      <c r="N36" s="27">
+        <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
+ IF(G36 = "ETH", (E36 - J36) / J36,
+ IF(G36 = "IO.NET", (F36 - J36) / J36,
+ "Moneda no soportada")))</f>
+        <v>2.8787265258066842E-2</v>
+      </c>
+      <c r="O36" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P36" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" t="str">
+        <f ca="1">IF(N36 &lt; O36, "MANTENER", IF(N36 &lt; P36, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>2.9100000000000001E-6</v>
+      </c>
+      <c r="V36" s="2">
+        <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
+        <v>715.39755390456003</v>
+      </c>
+      <c r="W36" s="2">
+        <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
+        <v>-699.99648833423703</v>
+      </c>
+      <c r="X36" s="9">
+        <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
+        <v>2.8787265258066842E-2</v>
+      </c>
+      <c r="Y36" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45517</v>
+      </c>
+      <c r="C37" s="2">
+        <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
+        <v>4046.96</v>
+      </c>
+      <c r="D37" s="3">
+        <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
+        <v>60747.1</v>
+      </c>
+      <c r="E37" s="2">
+        <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
+        <v>2706.9</v>
+      </c>
+      <c r="F37" s="2">
+        <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
+        <v>1.64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45516</v>
+      </c>
+      <c r="I37" s="3">
+        <f>VLOOKUP(H37,Tabla4[],2,FALSE)</f>
+        <v>4073.83</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2645.2</v>
+      </c>
+      <c r="K37" s="11">
+        <v>6.4960000000000001E-5</v>
+      </c>
+      <c r="L37" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>700.01513873535998</v>
+      </c>
+      <c r="M37" s="26">
+        <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
+        <v>711.61835291904003</v>
+      </c>
+      <c r="N37" s="27">
+        <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
+ IF(G37 = "ETH", (E37 - J37) / J37,
+ IF(G37 = "IO.NET", (F37 - J37) / J37,
+ "Moneda no soportada")))</f>
+        <v>2.3325268410706288E-2</v>
+      </c>
+      <c r="O37" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P37" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" t="str">
+        <f ca="1">IF(N37 &lt; O37, "MANTENER", IF(N37 &lt; P37, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>6.4960000000000001E-5</v>
+      </c>
+      <c r="V37" s="2">
+        <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
+        <v>711.61835291904003</v>
+      </c>
+      <c r="W37" s="2">
+        <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
+        <v>-700.01513873535998</v>
+      </c>
+      <c r="X37" s="9">
+        <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
+        <v>2.3325268410706288E-2</v>
+      </c>
+      <c r="Y37" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45517</v>
+      </c>
+      <c r="C38" s="2">
+        <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
+        <v>4046.96</v>
+      </c>
+      <c r="D38" s="3">
+        <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
+        <v>60747.1</v>
+      </c>
+      <c r="E38" s="2">
+        <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
+        <v>2706.9</v>
+      </c>
+      <c r="F38" s="2">
+        <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
+        <v>1.64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45516</v>
+      </c>
+      <c r="I38" s="3">
+        <f>VLOOKUP(H38,Tabla4[],2,FALSE)</f>
+        <v>4073.83</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.5723400000000001</v>
+      </c>
+      <c r="K38" s="25">
+        <v>5.4640859999999999E-2</v>
+      </c>
+      <c r="L38" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>349.9990705940495</v>
+      </c>
+      <c r="M38" s="26">
+        <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
+        <v>362.652174648384</v>
+      </c>
+      <c r="N38" s="27">
+        <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
+ IF(G38 = "ETH", (E38 - J38) / J38,
+ IF(G38 = "IO.NET", (F38 - J38) / J38,
+ "Moneda no soportada")))</f>
+        <v>4.3031405421219221E-2</v>
+      </c>
+      <c r="O38" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P38" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" t="str">
+        <f ca="1">IF(N38 &lt; O38, "MANTENER", IF(N38 &lt; P38, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>5.4640859999999999E-2</v>
+      </c>
+      <c r="V38" s="2">
+        <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
+        <v>362.652174648384</v>
+      </c>
+      <c r="W38" s="2">
+        <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
+        <v>-349.9990705940495</v>
+      </c>
+      <c r="X38" s="9">
+        <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
+        <v>4.3031405421219221E-2</v>
+      </c>
+      <c r="Y38" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>ACTIVA</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:Z35">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="B3:Z38">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q35">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
+  <conditionalFormatting sqref="Q3:Q38">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18365,10 +18941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18422,7 +18998,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -18443,11 +19019,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>4021</v>
+        <v>3980</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>706.59878973000002</v>
+        <v>699.39397740000004</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -18455,7 +19031,7 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>9.4771857151823517E-3</v>
+        <v>-8.1591665097590922E-4</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -18465,7 +19041,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -18486,11 +19062,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>4021</v>
+        <v>3980</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>807.88930771000014</v>
+        <v>799.6516898000001</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -18498,7 +19074,7 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>9.9056849749532515E-3</v>
+        <v>-3.9178657042682311E-4</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
@@ -18508,7 +19084,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -18529,11 +19105,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>4021</v>
+        <v>3980</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1509.1622829400001</v>
+        <v>1493.7741572</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -18541,7 +19117,7 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>6.131704328513868E-3</v>
+        <v>-4.1272859419336019E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
@@ -18551,7 +19127,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -18572,11 +19148,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>4021</v>
+        <v>3980</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2178.7094475399999</v>
+        <v>2156.4943052000003</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -18584,11 +19160,54 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>-9.6620365037775029E-3</v>
+        <v>-1.9759986392696775E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>4624.2790000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45517</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45516</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4043.31</v>
+      </c>
+      <c r="E7">
+        <v>0.17312537</v>
+      </c>
+      <c r="F7" s="7">
+        <f>D7*E7</f>
+        <v>699.9995397747</v>
+      </c>
+      <c r="G7" s="14">
+        <f>G6+E7</f>
+        <v>0.71495810999999998</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
+        <v>3980</v>
+      </c>
+      <c r="I7" s="22">
+        <f ca="1">G7*H7</f>
+        <v>2845.5332777999997</v>
+      </c>
+      <c r="J7" s="8">
+        <f>F7+J6</f>
+        <v>2899.9651352048004</v>
+      </c>
+      <c r="K7" s="30">
+        <f ca="1">((I7-J7)/J7)</f>
+        <v>-1.8769831659012894E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <f>D7*1.1</f>
+        <v>4447.6410000000005</v>
       </c>
     </row>
   </sheetData>
@@ -18607,7 +19226,7 @@
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19054,10 +19673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19735,6 +20354,54 @@
         <v>30169.781560380001</v>
       </c>
     </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C30" s="8">
+        <f>VLOOKUP(B30,Tabla4[],2,FALSE)</f>
+        <v>4073.83</v>
+      </c>
+      <c r="D30" s="24">
+        <v>490.07</v>
+      </c>
+      <c r="E30" s="8">
+        <f>0.01518 * D30</f>
+        <v>7.4392626000000002</v>
+      </c>
+      <c r="F30" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.26073740000000001</v>
+      </c>
+      <c r="G30" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30306.291157758002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C31" s="8">
+        <f>VLOOKUP(B31,Tabla4[],2,FALSE)</f>
+        <v>4046.96</v>
+      </c>
+      <c r="D31" s="24">
+        <v>498.21</v>
+      </c>
+      <c r="E31" s="8">
+        <f>0.01518 * D31</f>
+        <v>7.5628278</v>
+      </c>
+      <c r="F31" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.13717220000000019</v>
+      </c>
+      <c r="G31" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30606.461593487998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19746,10 +20413,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21111,6 +21778,72 @@
       </c>
       <c r="K42" s="3">
         <v>267.91000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C43" s="3">
+        <f>VLOOKUP(B43,Tabla4[],2,FALSE)</f>
+        <v>4073.83</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5344.38</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18542.03</v>
+      </c>
+      <c r="F43" s="3">
+        <v>68.17</v>
+      </c>
+      <c r="G43" s="3">
+        <v>159.88</v>
+      </c>
+      <c r="H43" s="3">
+        <v>166.81</v>
+      </c>
+      <c r="I43" s="3">
+        <v>171.42</v>
+      </c>
+      <c r="J43" s="3">
+        <v>406.06</v>
+      </c>
+      <c r="K43" s="3">
+        <v>269.45999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C44" s="3">
+        <f>VLOOKUP(B44,Tabla4[],2,FALSE)</f>
+        <v>4046.96</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5434.44</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19006.43</v>
+      </c>
+      <c r="F44" s="3">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="G44" s="3">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="H44" s="3">
+        <v>167.29</v>
+      </c>
+      <c r="I44" s="3">
+        <v>172.37</v>
+      </c>
+      <c r="J44" s="3">
+        <v>414.01</v>
+      </c>
+      <c r="K44" s="3">
+        <v>270.31</v>
       </c>
     </row>
   </sheetData>
@@ -21214,35 +21947,35 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45514</v>
-      </c>
-      <c r="C3" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C3" s="19">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F3" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G3" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -21260,9 +21993,9 @@
         <f t="shared" ref="N3:N14" si="1">(M3/L3)</f>
         <v>0.11178537208559566</v>
       </c>
-      <c r="O3" s="7" t="e">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O14" ca="1" si="2">ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</f>
-        <v>#N/A</v>
+        <v>7.65</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="7"/>
@@ -21270,47 +22003,47 @@
         <f t="shared" ref="R3:R14" si="3">ROUND(Q3*N3,2)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="e">
+      <c r="S3" s="7">
         <f t="shared" ref="S3:S14" ca="1" si="4">ROUND(O3-M3,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T3" s="9" t="e">
+        <v>0.65</v>
+      </c>
+      <c r="T3" s="9">
         <f t="shared" ref="T3:T14" ca="1" si="5">ROUND((S3+R3)/M3,2)</f>
-        <v>#N/A</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C4" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C4" s="19">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -21328,9 +22061,9 @@
         <f t="shared" si="1"/>
         <v>4.7961630695443652E-2</v>
       </c>
-      <c r="O4" s="7" t="e">
+      <c r="O4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.6</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="7"/>
@@ -21338,47 +22071,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7" t="e">
+      <c r="S4" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" s="9" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C5" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C5" s="19">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -21396,9 +22129,9 @@
         <f t="shared" si="1"/>
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="O5" s="7" t="e">
+      <c r="O5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>6.99</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="7"/>
@@ -21406,47 +22139,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7" t="e">
+      <c r="S5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" s="9" t="e">
+        <v>-0.01</v>
+      </c>
+      <c r="T5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C6" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C6" s="19">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -21464,9 +22197,9 @@
         <f t="shared" si="1"/>
         <v>4.2133140724690023E-2</v>
       </c>
-      <c r="O6" s="7" t="e">
+      <c r="O6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.26</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="7"/>
@@ -21474,47 +22207,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="7" t="e">
+      <c r="S6" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="9" t="e">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C7" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C7" s="19">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -21532,9 +22265,9 @@
         <f t="shared" si="1"/>
         <v>2.7612322985286576E-2</v>
       </c>
-      <c r="O7" s="7" t="e">
+      <c r="O7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.46</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="7"/>
@@ -21542,47 +22275,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7" t="e">
+      <c r="S7" s="7">
         <f ca="1">ROUND(O7-M7,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" s="9" t="e">
+        <v>0.46</v>
+      </c>
+      <c r="T7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C8" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C8" s="19">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -21602,7 +22335,7 @@
       </c>
       <c r="O8" s="7">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>7.44</v>
+        <v>7.57</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -21612,45 +22345,45 @@
       </c>
       <c r="S8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.26</v>
+        <v>-0.13</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C9" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C9" s="19">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -21668,9 +22401,9 @@
         <f t="shared" si="1"/>
         <v>0.10734549915657109</v>
       </c>
-      <c r="O9" s="7" t="e">
+      <c r="O9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.35</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="7"/>
@@ -21678,47 +22411,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7" t="e">
+      <c r="S9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="9" t="e">
+        <v>0.35</v>
+      </c>
+      <c r="T9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C10" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C10" s="19">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -21736,9 +22469,9 @@
         <f t="shared" si="1"/>
         <v>4.4705581811214708E-2</v>
       </c>
-      <c r="O10" s="7" t="e">
+      <c r="O10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.08</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="7"/>
@@ -21746,47 +22479,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7" t="e">
+      <c r="S10" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" s="9" t="e">
+        <v>0.08</v>
+      </c>
+      <c r="T10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C11" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C11" s="19">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -21804,9 +22537,9 @@
         <f t="shared" si="1"/>
         <v>4.1312559017941453E-2</v>
       </c>
-      <c r="O11" s="7" t="e">
+      <c r="O11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>6.91</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="7"/>
@@ -21814,47 +22547,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="7" t="e">
+      <c r="S11" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" s="9" t="e">
+        <v>-0.09</v>
+      </c>
+      <c r="T11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C12" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C12" s="19">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -21872,9 +22605,9 @@
         <f t="shared" si="1"/>
         <v>4.1203131437989288E-2</v>
       </c>
-      <c r="O12" s="7" t="e">
+      <c r="O12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.1</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="7"/>
@@ -21882,47 +22615,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7" t="e">
+      <c r="S12" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="9" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="T12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C13" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C13" s="19">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -21940,9 +22673,9 @@
         <f t="shared" si="1"/>
         <v>2.681992337164751E-2</v>
       </c>
-      <c r="O13" s="7" t="e">
+      <c r="O13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.25</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="7"/>
@@ -21950,47 +22683,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="7" t="e">
+      <c r="S13" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="9" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="T13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
-      </c>
-      <c r="C14" s="19" t="e">
+        <v>45517</v>
+      </c>
+      <c r="C14" s="19">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="18" t="e">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="18" t="e">
+        <v>158.38999999999999</v>
+      </c>
+      <c r="E14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="18" t="e">
+        <v>167.29</v>
+      </c>
+      <c r="F14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="18" t="e">
+        <v>172.37</v>
+      </c>
+      <c r="G14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="18" t="e">
+        <v>414.01</v>
+      </c>
+      <c r="H14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
+        <v>270.31</v>
       </c>
       <c r="I14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>489.82</v>
+        <v>498.21</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>
@@ -22008,9 +22741,9 @@
         <f t="shared" si="1"/>
         <v>1.5782828282828284E-2</v>
       </c>
-      <c r="O14" s="7" t="e">
+      <c r="O14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>6.53</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="7"/>
@@ -22018,13 +22751,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7" t="e">
+      <c r="S14" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="9" t="e">
+        <v>-0.47</v>
+      </c>
+      <c r="T14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEECAC3-06FA-462E-9BB2-113660CC83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10533F50-7117-41FC-95B6-562E13E88EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -513,6 +513,43 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -947,43 +984,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1502,10 +1502,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$113</c:f>
+              <c:f>CRIPTOS!$B$3:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1838,16 +1838,25 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$113</c:f>
+              <c:f>CRIPTOS!$C$3:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2180,6 +2189,15 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>4046.96</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4038.46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4037.16</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4014.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,10 +2299,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$113</c:f>
+              <c:f>CRIPTOS!$B$3:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2617,16 +2635,25 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$113</c:f>
+              <c:f>CRIPTOS!$D$3:$D$116</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -2959,6 +2986,15 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>60747.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58409.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>57582.6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>58716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,10 +3096,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$113</c:f>
+              <c:f>CRIPTOS!$B$3:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3396,16 +3432,25 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$113</c:f>
+              <c:f>CRIPTOS!$E$3:$E$116</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3582,6 +3627,15 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,10 +3737,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$113</c:f>
+              <c:f>CRIPTOS!$B$3:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4019,16 +4073,25 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$113</c:f>
+              <c:f>CRIPTOS!$F$3:$F$116</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4226,6 +4289,15 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>2706.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2650.94</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2572.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2610.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,10 +4399,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$113</c:f>
+              <c:f>CRIPTOS!$B$3:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4663,16 +4735,25 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$113</c:f>
+              <c:f>CRIPTOS!$G$3:$G$116</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4738,6 +4819,15 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>3980</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3965</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3959</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,10 +5163,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5163,16 +5253,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$31</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5259,6 +5355,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4046.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4038.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4037.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,10 +5406,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5394,16 +5496,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$31</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5490,6 +5598,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>498.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>499.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>508.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,10 +5649,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5625,16 +5739,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$31</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5721,6 +5841,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.5628278</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5869640000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7172084000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,10 +5892,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5856,16 +5982,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$31</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -5952,6 +6084,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.13717220000000019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.11303599999999925</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7208400000000346E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,10 +6135,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$31</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6087,16 +6225,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$31</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6183,6 +6327,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>30606.461593487998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30639.650635440004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31155.605064144002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,10 +6685,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6664,16 +6814,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$44</c:f>
+              <c:f>BOLSA!$C$3:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -6799,6 +6955,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4046.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4038.46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4037.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,10 +7062,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7029,16 +7191,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$44</c:f>
+              <c:f>BOLSA!$D$3:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -7164,6 +7332,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5434.44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5455.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5543.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7265,10 +7439,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7394,16 +7568,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$44</c:f>
+              <c:f>BOLSA!$E$3:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -7529,6 +7709,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>19006.43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19022.68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19490.150000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7929,10 +8115,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8058,16 +8244,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$44</c:f>
+              <c:f>BOLSA!$F$3:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -8193,6 +8385,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>68.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68.650000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8294,10 +8492,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8423,16 +8621,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$44</c:f>
+              <c:f>BOLSA!$G$3:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -8558,6 +8762,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>158.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>158.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,10 +8869,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8788,16 +8998,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$44</c:f>
+              <c:f>BOLSA!$H$3:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -8923,6 +9139,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>167.29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>167.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9024,10 +9246,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9153,16 +9375,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$44</c:f>
+              <c:f>BOLSA!$I$3:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -9288,6 +9516,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>172.37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173.31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9389,10 +9623,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9518,16 +9752,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$44</c:f>
+              <c:f>BOLSA!$J$3:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -9617,6 +9857,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>414.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>416.86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>421.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9718,10 +9964,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$44</c:f>
+              <c:f>BOLSA!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9847,16 +10093,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$44</c:f>
+              <c:f>BOLSA!$K$3:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -9982,6 +10234,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>270.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>271.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>274.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12572,52 +12830,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12668,8 +12926,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G113" totalsRowShown="0">
-  <autoFilter ref="B2:G113" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G116" totalsRowShown="0">
+  <autoFilter ref="B2:G116" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
@@ -12692,61 +12950,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -12759,16 +13017,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
   <autoFilter ref="B2:L7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -12780,7 +13038,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -12795,7 +13053,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -12827,21 +13085,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G31" totalsRowShown="0">
-  <autoFilter ref="B2:G31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G33" totalsRowShown="0">
+  <autoFilter ref="B2:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12850,21 +13108,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K44" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="B2:K44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K46" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="B2:K46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13645,10 +13903,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13957,10 +14215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G113"/>
+  <dimension ref="B2:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15839,6 +16097,66 @@
         <v>3980</v>
       </c>
     </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C114" s="3">
+        <v>4038.46</v>
+      </c>
+      <c r="D114" s="3">
+        <v>58409.9</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2650.94</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C115" s="3">
+        <v>4037.16</v>
+      </c>
+      <c r="D115" s="3">
+        <v>57582.6</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2572.8000000000002</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4014.8</v>
+      </c>
+      <c r="D116" s="3">
+        <v>58716</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2610.4</v>
+      </c>
+      <c r="G116" s="3">
+        <v>3966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15852,7 +16170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="J19" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -15953,23 +16271,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -15993,14 +16311,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>619.51953121631993</v>
+        <v>594.04715193600009</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.14376788306764207</v>
+        <v>-0.17239629582646201</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -16019,7 +16337,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>619.51953121631993</v>
+        <v>594.04715193600009</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -16027,7 +16345,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.14376788306764207</v>
+        <v>-0.17239629582646201</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -16037,23 +16355,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -16077,11 +16395,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>517.06259633280013</v>
+        <v>494.66704102400007</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28790338067666144</v>
+        <v>-0.31328936603434077</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -16100,7 +16418,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>517.06259633280013</v>
+        <v>494.66704102400007</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -16108,7 +16426,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28790338067666144</v>
+        <v>-0.31328936603434077</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -16118,23 +16436,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -16158,11 +16476,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>631.81158540711999</v>
+        <v>605.83380177599997</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12311478722790002</v>
+        <v>-0.15243374328771869</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -16181,7 +16499,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>631.81158540711999</v>
+        <v>605.83380177599997</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -16189,7 +16507,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.12311478722790002</v>
+        <v>-0.15243374328771869</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16199,23 +16517,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -16239,11 +16557,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>533.16602888808006</v>
+        <v>510.07298488640009</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26236075080115973</v>
+        <v>-0.28865732161932373</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -16262,7 +16580,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>533.16602888808006</v>
+        <v>510.07298488640009</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -16270,7 +16588,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.26236075080115973</v>
+        <v>-0.28865732161932373</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16280,23 +16598,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -16320,11 +16638,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>646.56205043607986</v>
+        <v>619.97778158400001</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.609611267656482E-2</v>
+        <v>-0.11665280074138813</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -16343,7 +16661,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>646.56205043607986</v>
+        <v>619.97778158400001</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -16351,7 +16669,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.609611267656482E-2</v>
+        <v>-0.11665280074138813</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16361,23 +16679,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -16401,11 +16719,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>256.92393792508796</v>
+        <v>251.77391902151999</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61229314420803793</v>
+        <v>-0.61702127659574468</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -16424,7 +16742,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>256.92393792508796</v>
+        <v>251.77391902151999</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -16432,7 +16750,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.61229314420803793</v>
+        <v>-0.61702127659574468</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16442,23 +16760,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -16482,11 +16800,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>538.97202838080011</v>
+        <v>515.62750886400011</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22787731153320645</v>
+        <v>-0.25540320441327058</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -16505,7 +16823,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>538.97202838080011</v>
+        <v>515.62750886400011</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -16513,7 +16831,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22787731153320645</v>
+        <v>-0.25540320441327058</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16523,23 +16841,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -16563,11 +16881,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>668.68774797951994</v>
+        <v>641.19375129599996</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1296979876695094E-2</v>
+        <v>-4.4354602449170867E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -16586,7 +16904,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>668.68774797951994</v>
+        <v>641.19375129599996</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -16594,7 +16912,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1296979876695094E-2</v>
+        <v>-4.4354602449170867E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16604,23 +16922,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -16644,11 +16962,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>666.22933714135991</v>
+        <v>638.83642132800003</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7114545031112405E-3</v>
+        <v>-3.7022701702709729E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -16667,7 +16985,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>666.22933714135991</v>
+        <v>638.83642132800003</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -16675,7 +16993,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7114545031112405E-3</v>
+        <v>-3.7022701702709729E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16685,23 +17003,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -16725,11 +17043,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>744.89848396247999</v>
+        <v>714.27098030399998</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.397650207375849E-2</v>
+        <v>2.8402084968052882E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -16748,7 +17066,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>744.89848396247999</v>
+        <v>714.27098030399998</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -16756,7 +17074,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>6.397650207375849E-2</v>
+        <v>2.8402084968052882E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16766,23 +17084,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -16806,11 +17124,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>690.81344552296002</v>
+        <v>662.40972100800013</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5146180346538082E-2</v>
+        <v>-6.7406396770007593E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -16829,7 +17147,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>690.81344552296002</v>
+        <v>662.40972100800013</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -16837,7 +17155,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.5146180346538082E-2</v>
+        <v>-6.7406396770007593E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16847,23 +17165,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -16887,11 +17205,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>554.41817797464</v>
+        <v>530.40463869120003</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19862277629588398</v>
+        <v>-0.22719158271187539</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -16910,7 +17228,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>554.41817797464</v>
+        <v>530.40463869120003</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -16918,7 +17236,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.19862277629588398</v>
+        <v>-0.22719158271187539</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16928,23 +17246,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -16968,11 +17286,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>540.50568862416003</v>
+        <v>517.09474161280002</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19414235657317741</v>
+        <v>-0.22287088832192628</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -16991,7 +17309,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>540.50568862416003</v>
+        <v>517.09474161280002</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -16999,7 +17317,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.19414235657317741</v>
+        <v>-0.22287088832192628</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17009,23 +17327,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -17049,11 +17367,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>622.66605880416</v>
+        <v>595.69649601280003</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11394435351882157</v>
+        <v>-0.145531914893617</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -17072,7 +17390,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>622.66605880416</v>
+        <v>595.69649601280003</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -17080,7 +17398,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11394435351882157</v>
+        <v>-0.145531914893617</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17090,23 +17408,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -17130,11 +17448,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>576.21806286239996</v>
+        <v>551.26030419200004</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21722911425349176</v>
+        <v>-0.24513461149185964</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -17153,7 +17471,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>576.21806286239996</v>
+        <v>551.26030419200004</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -17161,7 +17479,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.21722911425349176</v>
+        <v>-0.24513461149185964</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17171,23 +17489,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -17211,11 +17529,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>349.94328762454393</v>
+        <v>342.92870361576001</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51764705882352946</v>
+        <v>-0.5235294117647058</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -17234,7 +17552,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>349.94328762454393</v>
+        <v>342.92870361576001</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -17242,7 +17560,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.51764705882352946</v>
+        <v>-0.5235294117647058</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17252,23 +17570,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -17292,11 +17610,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>182.43586250201599</v>
+        <v>178.77895085664002</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42049469964664316</v>
+        <v>-0.42756183745583037</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -17315,7 +17633,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>182.43586250201599</v>
+        <v>178.77895085664002</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -17323,7 +17641,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.42049469964664316</v>
+        <v>-0.42756183745583037</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17333,23 +17651,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -17373,11 +17691,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>256.44149334835197</v>
+        <v>251.30114500608002</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28384279475982538</v>
+        <v>-0.29257641921397376</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -17409,7 +17727,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28384279475982538</v>
+        <v>-0.29257641921397376</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17419,23 +17737,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -17459,11 +17777,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>246.36531082655998</v>
+        <v>241.4269387224</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37404580152671763</v>
+        <v>-0.38167938931297707</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -17495,7 +17813,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.37404580152671763</v>
+        <v>-0.38167938931297707</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17505,23 +17823,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -17545,14 +17863,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>252.64027609103999</v>
+        <v>247.5761228316</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.39033457249070636</v>
+        <v>-0.39776951672862448</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -17576,7 +17894,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.43372889103999163</v>
+        <v>0.42503483159999189</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -17584,7 +17902,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.39033457249070636</v>
+        <v>-0.39776951672862448</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17594,23 +17912,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -17634,11 +17952,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>254.37067848540798</v>
+        <v>249.27183945432</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.39705882352941185</v>
+        <v>-0.40441176470588236</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -17662,7 +17980,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1641312854079851</v>
+        <v>2.1207514543199855</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -17670,7 +17988,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.39705882352941185</v>
+        <v>-0.40441176470588236</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17680,23 +17998,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -17720,11 +18038,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>257.94875931859195</v>
+        <v>252.77819795568004</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.40579710144927533</v>
+        <v>-0.41304347826086946</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -17748,7 +18066,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3485023436800176</v>
+        <v>7.2012022272000173</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -17756,7 +18074,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.40579710144927533</v>
+        <v>-0.41304347826086946</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17766,23 +18084,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -17806,11 +18124,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>253.60304139990399</v>
+        <v>248.51958959016002</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.41637010676156588</v>
+        <v>-0.42348754448398573</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -17834,7 +18152,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3964941999040075</v>
+        <v>1.3685015901600075</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -17842,7 +18160,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.41637010676156588</v>
+        <v>-0.42348754448398573</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -17852,23 +18170,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -17891,11 +18209,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>255.92612918019196</v>
+        <v>250.79611126968001</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.46129538750599475</v>
+        <v>-0.46786495595104355</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -17914,7 +18232,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>255.92612918019196</v>
+        <v>250.79611126968001</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -17922,7 +18240,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.46129538750599475</v>
+        <v>-0.46786495595104355</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -17932,23 +18250,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -17972,11 +18290,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>636.72840708344006</v>
+        <v>610.54846171200006</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.0546108594128275E-2</v>
+        <v>-0.12095400952823812</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -17995,7 +18313,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>636.72840708344006</v>
+        <v>610.54846171200006</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -18003,7 +18321,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-9.0546108594128275E-2</v>
+        <v>-0.12095400952823812</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18013,23 +18331,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -18053,11 +18371,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>549.37900860360003</v>
+        <v>525.58373108800004</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.21700269011599313</v>
+        <v>-0.24491625929247052</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -18076,7 +18394,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>549.37900860360003</v>
+        <v>525.58373108800004</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -18084,7 +18402,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.21700269011599313</v>
+        <v>-0.24491625929247052</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18094,23 +18412,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -18134,11 +18452,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>197.17633963369599</v>
+        <v>193.22395635384004</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.43835616438356168</v>
+        <v>-0.44520547945205474</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -18157,7 +18475,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>197.17633963369599</v>
+        <v>193.22395635384004</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -18165,7 +18483,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.43835616438356168</v>
+        <v>-0.44520547945205474</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18175,23 +18493,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -18215,14 +18533,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>621.97794205447997</v>
+        <v>596.40448190400002</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.11550781739132965</v>
+        <v>-0.14508111508120242</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -18241,7 +18559,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>621.97794205447997</v>
+        <v>596.40448190400002</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -18249,7 +18567,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.11550781739132965</v>
+        <v>-0.14508111508120242</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18259,23 +18577,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -18299,11 +18617,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>573.91757249735997</v>
+        <v>549.05945506880005</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.1835620570049766</v>
+        <v>-0.21266777258332073</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -18322,7 +18640,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>573.91757249735997</v>
+        <v>549.05945506880005</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -18330,7 +18648,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.1835620570049766</v>
+        <v>-0.21266777258332073</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18340,23 +18658,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -18380,11 +18698,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>198.82975266102397</v>
+        <v>194.84422685496</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.43448275862068969</v>
+        <v>-0.44137931034482752</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -18403,7 +18721,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>198.82975266102397</v>
+        <v>194.84422685496</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -18411,7 +18729,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.43448275862068969</v>
+        <v>-0.44137931034482752</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18421,23 +18739,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -18461,11 +18779,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>781.77464653487993</v>
+        <v>749.63092982400008</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13612896118816897</v>
+        <v>9.8142102011857871E-2</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -18484,7 +18802,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>781.77464653487993</v>
+        <v>749.63092982400008</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -18492,7 +18810,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.13612896118816897</v>
+        <v>9.8142102011857871E-2</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -18502,23 +18820,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -18542,11 +18860,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>784.46721447864002</v>
+        <v>750.48955101120009</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1400449801632426</v>
+        <v>9.9402791465561524E-2</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -18565,7 +18883,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>784.46721447864002</v>
+        <v>750.48955101120009</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -18573,7 +18891,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.1400449801632426</v>
+        <v>9.9402791465561524E-2</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18583,23 +18901,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -18623,11 +18941,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>383.22539277507201</v>
+        <v>375.54367174488004</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11382776419451235</v>
+        <v>0.10024449877750624</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -18646,7 +18964,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>383.22539277507201</v>
+        <v>375.54367174488004</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -18654,7 +18972,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.11382776419451235</v>
+        <v>0.10024449877750624</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18664,23 +18982,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -18704,14 +19022,14 @@
       </c>
       <c r="M36" s="26">
         <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>715.39755390456003</v>
+        <v>685.98302068800001</v>
       </c>
       <c r="N36" s="27">
         <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>2.8787265258066842E-2</v>
+        <v>-5.6105877170654376E-3</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -18730,7 +19048,7 @@
       </c>
       <c r="V36" s="2">
         <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>715.39755390456003</v>
+        <v>685.98302068800001</v>
       </c>
       <c r="W36" s="2">
         <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -18738,7 +19056,7 @@
       </c>
       <c r="X36" s="9">
         <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>2.8787265258066842E-2</v>
+        <v>-5.6105877170654376E-3</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18748,23 +19066,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -18788,14 +19106,14 @@
       </c>
       <c r="M37" s="26">
         <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
-        <v>711.61835291904003</v>
+        <v>680.79599544320001</v>
       </c>
       <c r="N37" s="27">
         <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
  IF(G37 = "ETH", (E37 - J37) / J37,
  IF(G37 = "IO.NET", (F37 - J37) / J37,
  "Moneda no soportada")))</f>
-        <v>2.3325268410706288E-2</v>
+        <v>-1.3155905035535964E-2</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -18814,7 +19132,7 @@
       </c>
       <c r="V37" s="2">
         <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
-        <v>711.61835291904003</v>
+        <v>680.79599544320001</v>
       </c>
       <c r="W37" s="2">
         <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
@@ -18822,7 +19140,7 @@
       </c>
       <c r="X37" s="9">
         <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
-        <v>2.3325268410706288E-2</v>
+        <v>-1.3155905035535964E-2</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18832,23 +19150,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4046.96</v>
+        <v>4014.8</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>60747.1</v>
+        <v>58716</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2706.9</v>
+        <v>2610.4</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -18872,14 +19190,14 @@
       </c>
       <c r="M38" s="26">
         <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
-        <v>362.652174648384</v>
+        <v>355.38284205936009</v>
       </c>
       <c r="N38" s="27">
         <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
  IF(G38 = "ETH", (E38 - J38) / J38,
  IF(G38 = "IO.NET", (F38 - J38) / J38,
  "Moneda no soportada")))</f>
-        <v>4.3031405421219221E-2</v>
+        <v>3.0311510233155699E-2</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -18898,7 +19216,7 @@
       </c>
       <c r="V38" s="2">
         <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
-        <v>362.652174648384</v>
+        <v>355.38284205936009</v>
       </c>
       <c r="W38" s="2">
         <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
@@ -18906,7 +19224,7 @@
       </c>
       <c r="X38" s="9">
         <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
-        <v>4.3031405421219221E-2</v>
+        <v>3.0311510233155699E-2</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18915,20 +19233,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z38">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q38">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18998,7 +19316,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -19019,11 +19337,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3980</v>
+        <v>3966</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>699.39397740000004</v>
+        <v>696.93379758000003</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -19031,7 +19349,7 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>-8.1591665097590922E-4</v>
+        <v>-4.3306345321031401E-3</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -19041,7 +19359,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -19062,11 +19380,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3980</v>
+        <v>3966</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>799.6516898000001</v>
+        <v>796.83884466000006</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -19074,7 +19392,7 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>-3.9178657042682311E-4</v>
+        <v>-3.9079963664102905E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
@@ -19084,7 +19402,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -19105,11 +19423,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3980</v>
+        <v>3966</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1493.7741572</v>
+        <v>1488.5196752400002</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -19117,7 +19435,7 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>-4.1272859419336019E-3</v>
+        <v>-7.6303557903789239E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
@@ -19127,7 +19445,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -19148,11 +19466,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3980</v>
+        <v>3966</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2156.4943052000003</v>
+        <v>2148.9086468400001</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -19160,7 +19478,7 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>-1.9759986392696775E-2</v>
+        <v>-2.3208066842571824E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
@@ -19170,7 +19488,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -19191,11 +19509,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3980</v>
+        <v>3966</v>
       </c>
       <c r="I7" s="22">
         <f ca="1">G7*H7</f>
-        <v>2845.5332777999997</v>
+        <v>2835.5238642599998</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -19203,7 +19521,7 @@
       </c>
       <c r="K7" s="30">
         <f ca="1">((I7-J7)/J7)</f>
-        <v>-1.8769831659012894E-2</v>
+        <v>-2.2221395065237459E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -19225,7 +19543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -19673,10 +19991,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20318,7 +20636,7 @@
         <v>489.82</v>
       </c>
       <c r="E28" s="8">
-        <f>0.01518 * D28</f>
+        <f t="shared" ref="E28:E33" si="3">0.01518 * D28</f>
         <v>7.4354676</v>
       </c>
       <c r="F28" s="8">
@@ -20342,7 +20660,7 @@
         <v>489.82</v>
       </c>
       <c r="E29" s="8">
-        <f>0.01518 * D29</f>
+        <f t="shared" si="3"/>
         <v>7.4354676</v>
       </c>
       <c r="F29" s="8">
@@ -20366,7 +20684,7 @@
         <v>490.07</v>
       </c>
       <c r="E30" s="8">
-        <f>0.01518 * D30</f>
+        <f t="shared" si="3"/>
         <v>7.4392626000000002</v>
       </c>
       <c r="F30" s="8">
@@ -20390,7 +20708,7 @@
         <v>498.21</v>
       </c>
       <c r="E31" s="8">
-        <f>0.01518 * D31</f>
+        <f t="shared" si="3"/>
         <v>7.5628278</v>
       </c>
       <c r="F31" s="8">
@@ -20400,6 +20718,54 @@
       <c r="G31" s="8">
         <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
         <v>30606.461593487998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C32" s="8">
+        <f>VLOOKUP(B32,Tabla4[],2,FALSE)</f>
+        <v>4038.46</v>
+      </c>
+      <c r="D32" s="24">
+        <v>499.8</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="3"/>
+        <v>7.5869640000000009</v>
+      </c>
+      <c r="F32" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>-0.11303599999999925</v>
+      </c>
+      <c r="G32" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>30639.650635440004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C33" s="8">
+        <f>VLOOKUP(B33,Tabla4[],2,FALSE)</f>
+        <v>4037.16</v>
+      </c>
+      <c r="D33" s="24">
+        <v>508.38</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="3"/>
+        <v>7.7172084000000005</v>
+      </c>
+      <c r="F33" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>1.7208400000000346E-2</v>
+      </c>
+      <c r="G33" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31155.605064144002</v>
       </c>
     </row>
   </sheetData>
@@ -20413,10 +20779,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L44"/>
+  <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21844,6 +22210,72 @@
       </c>
       <c r="K44" s="3">
         <v>270.31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C45" s="3">
+        <f>VLOOKUP(B45,Tabla4[],2,FALSE)</f>
+        <v>4038.46</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5455.2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19022.68</v>
+      </c>
+      <c r="F45" s="3">
+        <v>68.58</v>
+      </c>
+      <c r="G45" s="3">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <v>168.8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>173.31</v>
+      </c>
+      <c r="J45" s="3">
+        <v>416.86</v>
+      </c>
+      <c r="K45" s="3">
+        <v>271.14999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C46" s="3">
+        <f>VLOOKUP(B46,Tabla4[],2,FALSE)</f>
+        <v>4037.16</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5543.21</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19490.150000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="G46" s="3">
+        <v>159.09</v>
+      </c>
+      <c r="H46" s="3">
+        <v>167.92</v>
+      </c>
+      <c r="I46" s="3">
+        <v>172.52</v>
+      </c>
+      <c r="J46" s="3">
+        <v>421.03</v>
+      </c>
+      <c r="K46" s="3">
+        <v>274.87</v>
       </c>
     </row>
   </sheetData>
@@ -21859,7 +22291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -21947,35 +22379,35 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45517</v>
-      </c>
-      <c r="C3" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -21993,9 +22425,9 @@
         <f t="shared" ref="N3:N14" si="1">(M3/L3)</f>
         <v>0.11178537208559566</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="7" t="e">
         <f t="shared" ref="O3:O14" ca="1" si="2">ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</f>
-        <v>7.65</v>
+        <v>#N/A</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="7"/>
@@ -22003,47 +22435,47 @@
         <f t="shared" ref="R3:R14" si="3">ROUND(Q3*N3,2)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="7" t="e">
         <f t="shared" ref="S3:S14" ca="1" si="4">ROUND(O3-M3,2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="T3" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="9" t="e">
         <f t="shared" ref="T3:T14" ca="1" si="5">ROUND((S3+R3)/M3,2)</f>
-        <v>0.09</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C4" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -22061,9 +22493,9 @@
         <f t="shared" si="1"/>
         <v>4.7961630695443652E-2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="7"/>
@@ -22071,47 +22503,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="T4" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.09</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C5" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -22129,9 +22561,9 @@
         <f t="shared" si="1"/>
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.99</v>
+        <v>#N/A</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="7"/>
@@ -22139,47 +22571,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.01</v>
-      </c>
-      <c r="T5" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C6" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -22197,9 +22629,9 @@
         <f t="shared" si="1"/>
         <v>4.2133140724690023E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.26</v>
+        <v>#N/A</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="7"/>
@@ -22207,47 +22639,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T6" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.04</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C7" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -22265,9 +22697,9 @@
         <f t="shared" si="1"/>
         <v>2.7612322985286576E-2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.46</v>
+        <v>#N/A</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="7"/>
@@ -22275,47 +22707,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="7" t="e">
         <f ca="1">ROUND(O7-M7,2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="T7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T7" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C8" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -22333,9 +22765,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="7" t="e">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>7.57</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -22343,47 +22775,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.13</v>
-      </c>
-      <c r="T8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.02</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C9" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -22401,9 +22833,9 @@
         <f t="shared" si="1"/>
         <v>0.10734549915657109</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.35</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="7"/>
@@ -22411,47 +22843,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35</v>
-      </c>
-      <c r="T9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.05</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C10" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -22469,9 +22901,9 @@
         <f t="shared" si="1"/>
         <v>4.4705581811214708E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.08</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="7"/>
@@ -22479,47 +22911,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C11" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -22537,9 +22969,9 @@
         <f t="shared" si="1"/>
         <v>4.1312559017941453E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.91</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="7"/>
@@ -22547,47 +22979,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.09</v>
-      </c>
-      <c r="T11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.01</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C12" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -22605,9 +23037,9 @@
         <f t="shared" si="1"/>
         <v>4.1203131437989288E-2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="7"/>
@@ -22615,47 +23047,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="T12" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C13" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -22673,9 +23105,9 @@
         <f t="shared" si="1"/>
         <v>2.681992337164751E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.25</v>
+        <v>#N/A</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="7"/>
@@ -22683,47 +23115,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="T13" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.04</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
-      </c>
-      <c r="C14" s="19">
+        <v>45520</v>
+      </c>
+      <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
-        <v>68.459999999999994</v>
-      </c>
-      <c r="D14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],6,FALSE)</f>
-        <v>158.38999999999999</v>
-      </c>
-      <c r="E14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],7,FALSE)</f>
-        <v>167.29</v>
-      </c>
-      <c r="F14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],8,FALSE)</f>
-        <v>172.37</v>
-      </c>
-      <c r="G14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],9,FALSE)</f>
-        <v>414.01</v>
-      </c>
-      <c r="H14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
-        <v>270.31</v>
-      </c>
-      <c r="I14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>498.21</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>
@@ -22741,9 +23173,9 @@
         <f t="shared" si="1"/>
         <v>1.5782828282828284E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.53</v>
+        <v>#N/A</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="7"/>
@@ -22751,13 +23183,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.47</v>
-      </c>
-      <c r="T14" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILZA RAMIREZ\sebastian carrero\programacion\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10533F50-7117-41FC-95B6-562E13E88EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="BOLSA">Tabla1[]</definedName>
     <definedName name="PRECIOS">Tabla4[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -406,7 +405,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;????????_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,60 +511,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="103">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -986,6 +931,43 @@
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1118,6 +1100,23 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1308,30 +1307,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="102"/>
       <tableStyleElement type="headerRow" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Estilo de tabla 2" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="99"/>
       <tableStyleElement type="headerRow" dxfId="98"/>
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
       <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Estilo de tabla 3" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="94"/>
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Estilo de tabla 4" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="91"/>
       <tableStyleElement type="headerRow" dxfId="90"/>
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Estilo de tabla 5" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="87"/>
       <tableStyleElement type="headerRow" dxfId="86"/>
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
@@ -1357,7 +1356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1481,7 +1480,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1502,10 +1501,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1847,16 +1846,25 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$116</c:f>
+              <c:f>CRIPTOS!$C$3:$C$119</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2198,12 +2206,21 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>4014.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3999.63</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3999.63</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4030.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -2278,7 +2295,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2299,10 +2316,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2644,16 +2661,25 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$116</c:f>
+              <c:f>CRIPTOS!$D$3:$D$119</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -2995,12 +3021,21 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>58716</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>59441.99</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58427.35</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59064.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -3075,7 +3110,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3096,10 +3131,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3441,16 +3476,25 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$116</c:f>
+              <c:f>CRIPTOS!$E$3:$E$119</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3636,12 +3680,21 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A0A0-49B5-936A-4D0D158A972C}"/>
             </c:ext>
@@ -3716,7 +3769,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3737,10 +3790,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4082,16 +4135,25 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$116</c:f>
+              <c:f>CRIPTOS!$F$3:$F$119</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4298,12 +4360,21 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>2610.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2614.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2611.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2617.6999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78A7-45B2-BF71-1C562316B80A}"/>
             </c:ext>
@@ -4378,7 +4449,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4399,10 +4470,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$119</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4744,16 +4815,25 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$116</c:f>
+              <c:f>CRIPTOS!$G$3:$G$119</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4828,12 +4908,21 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA29-428F-BE26-1F11B322E53B}"/>
             </c:ext>
@@ -4849,11 +4938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="685428656"/>
-        <c:axId val="817511968"/>
+        <c:axId val="-1432065184"/>
+        <c:axId val="-1432068992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="685428656"/>
+        <c:axId val="-1432065184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4984,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817511968"/>
+        <c:crossAx val="-1432068992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="817511968"/>
+        <c:axId val="-1432068992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +5041,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685428656"/>
+        <c:crossAx val="-1432065184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5043,7 +5132,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5366,7 +5455,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA71-461F-AA13-6F100B07A507}"/>
             </c:ext>
@@ -5609,7 +5698,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA71-461F-AA13-6F100B07A507}"/>
             </c:ext>
@@ -5852,7 +5941,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F88B-4E81-8DB4-D282ACD52EF7}"/>
             </c:ext>
@@ -6095,7 +6184,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7FBB-485C-9373-F604CDCFFE39}"/>
             </c:ext>
@@ -6338,7 +6427,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7FBB-485C-9373-F604CDCFFE39}"/>
             </c:ext>
@@ -6353,11 +6442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="817520128"/>
-        <c:axId val="817521760"/>
+        <c:axId val="-1432063008"/>
+        <c:axId val="-1432076608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="817520128"/>
+        <c:axId val="-1432063008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,14 +6488,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817521760"/>
+        <c:crossAx val="-1432076608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="817521760"/>
+        <c:axId val="-1432076608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,7 +6545,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817520128"/>
+        <c:crossAx val="-1432063008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6547,7 +6636,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6664,7 +6753,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6966,7 +7055,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -7041,7 +7130,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7343,7 +7432,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -7418,7 +7507,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7720,7 +7809,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E47A-498C-A6C2-DEF6B2EB6215}"/>
             </c:ext>
@@ -7736,11 +7825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="817522304"/>
-        <c:axId val="817516864"/>
+        <c:axId val="-1432072256"/>
+        <c:axId val="-1432071712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="817522304"/>
+        <c:axId val="-1432072256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7776,14 +7865,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817516864"/>
+        <c:crossAx val="-1432071712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="817516864"/>
+        <c:axId val="-1432071712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7844,7 +7933,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817522304"/>
+        <c:crossAx val="-1432072256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7888,14 +7977,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7934,7 +8023,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7984,6 +8073,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8094,8 +8184,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8396,7 +8487,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -8471,8 +8562,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8773,7 +8865,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -8848,8 +8940,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9150,7 +9243,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -9225,8 +9318,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9527,7 +9621,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -9602,8 +9696,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9868,7 +9963,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -9943,8 +10038,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10245,7 +10341,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-171A-4066-B239-09FE80CECF66}"/>
             </c:ext>
@@ -10261,11 +10357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="817523936"/>
-        <c:axId val="817517408"/>
+        <c:axId val="-1366118624"/>
+        <c:axId val="-1366118080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="817523936"/>
+        <c:axId val="-1366118624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10307,14 +10403,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817517408"/>
+        <c:crossAx val="-1366118080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="817517408"/>
+        <c:axId val="-1366118080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10364,7 +10460,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817523936"/>
+        <c:crossAx val="-1366118624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10378,6 +10474,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12671,7 +12768,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12712,7 +12809,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12753,7 +12850,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12789,7 +12886,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12811,71 +12908,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla8" displayName="Tabla8" ref="B2:I16" totalsRowShown="0">
-  <autoFilter ref="B2:I16" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B2:I16" totalsRowShown="0">
+  <autoFilter ref="B2:I16"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MES"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
+    <tableColumn id="1" name="MES"/>
+    <tableColumn id="2" name="TIPO DE INVERSION"/>
+    <tableColumn id="7" name="NOMBRE"/>
+    <tableColumn id="3" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="81" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>G3-E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RENTABILIDAD"/>
+    <tableColumn id="6" name="RENTABILIDAD"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
-  <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:T14"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
+    <tableColumn id="1" name="FECHA ACTUAL" dataDxfId="18">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
+    <tableColumn id="2" name="PRECIO ACT KO" dataDxfId="17" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
+    <tableColumn id="3" name="PRECIO ACT JNJ" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
+    <tableColumn id="4" name="PRECIO ACT PG" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
+    <tableColumn id="5" name="PRECIO ACT PEP" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
+    <tableColumn id="6" name="PRECIO ACT MSFT" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
+    <tableColumn id="7" name="PRECIO ACT MCD" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
+    <tableColumn id="20" name="PRECIO ACT VOO" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="8" name="EMPRESA" dataDxfId="10"/>
+    <tableColumn id="9" name="FECHA COMPRA" dataDxfId="9"/>
+    <tableColumn id="10" name="PRECIO COMPRA" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="11" name="CAPITAL INVE" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="12" name="CANTIDAD DE ACCIONES" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="13" name="VALOR ACTUAL INVE" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="14" name="FECHA DIVIDENDO" dataDxfId="4"/>
+    <tableColumn id="15" name="VALOR DIVIDENDO POR ACCION" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="16" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="17" name="GANACIA/PERDIDA" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="18" name="RENTABILIDAD" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12884,16 +12981,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla10" displayName="Tabla10" ref="K2:O6" totalsRowShown="0">
-  <autoFilter ref="K2:O6" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="K2:O6" totalsRowShown="0">
+  <autoFilter ref="K2:O6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
+    <tableColumn id="1" name="TIPO DE INVERSION"/>
+    <tableColumn id="2" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
+    <tableColumn id="3" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
+    <tableColumn id="6" name="TOTAL G/P" dataDxfId="80" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
+    <tableColumn id="4" name="% DEL TOTAL CAPITAL" dataDxfId="79" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12902,22 +12999,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="80">
-  <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="78">
+  <autoFilter ref="B2:J10"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="MES"/>
+    <tableColumn id="2" name="CUENTA"/>
+    <tableColumn id="3" name="CANTIDAD INICIAL" dataDxfId="77"/>
+    <tableColumn id="4" name="CAPITAL INVERTIDO" dataDxfId="76"/>
+    <tableColumn id="5" name="INTERES OBTENIDO" dataDxfId="75"/>
+    <tableColumn id="6" name="PORCENTAJE DE INTERES" dataDxfId="74" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
+    <tableColumn id="7" name="RETIROS DE CAPITAL" dataDxfId="73"/>
+    <tableColumn id="8" name="TOTAL CAPITAL FIN DE MES" dataDxfId="72">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="71" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12926,23 +13023,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G116" totalsRowShown="0">
-  <autoFilter ref="B2:G116" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:G119" totalsRowShown="0">
+  <autoFilter ref="B2:G119"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
+    <tableColumn id="1" name="FECHA" dataDxfId="70"/>
+    <tableColumn id="2" name="DÓLAR" dataDxfId="69"/>
+    <tableColumn id="3" name="BITCOIN" dataDxfId="68"/>
+    <tableColumn id="5" name="io.net" dataDxfId="67"/>
+    <tableColumn id="4" name="ETHEREUM" dataDxfId="66"/>
+    <tableColumn id="6" name="USDT" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z38" totalsRowShown="0">
-  <autoFilter ref="B2:Z38" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:Z38" totalsRowShown="0">
+  <autoFilter ref="B2:Z38">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -12950,98 +13047,98 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
+    <tableColumn id="1" name="fecha act" dataDxfId="60">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
+    <tableColumn id="2" name="precio actual dólar" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
+    <tableColumn id="3" name="precio actual btc" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
+    <tableColumn id="4" name="precio actul eth" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
+    <tableColumn id="5" name="precio actual io.net" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
+    <tableColumn id="6" name="moneda"/>
+    <tableColumn id="27" name="FECHA COMPRA"/>
+    <tableColumn id="20" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="55">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
+    <tableColumn id="7" name="precio de compra" dataDxfId="54"/>
+    <tableColumn id="8" name="cantidad" dataDxfId="53" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" name="COSTO DE COMPRA" dataDxfId="52" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
+    <tableColumn id="21" name="VALOR ACTUAL INV" dataDxfId="51" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="rentabilidad" dataDxfId="50" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
+    <tableColumn id="10" name="meta1" dataDxfId="49" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" name="META2" dataDxfId="48" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" name="ACCION" dataDxfId="47">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
+    <tableColumn id="13" name="FECHA DE VENTA"/>
+    <tableColumn id="17" name="CANTIDAD VENDIDA"/>
+    <tableColumn id="14" name="PRECIO DE VENTA" dataDxfId="46"/>
+    <tableColumn id="23" name="INVENTARIO" dataDxfId="45">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
+    <tableColumn id="24" name="VALOR ACTUAL" dataDxfId="44">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
+    <tableColumn id="15" name="GANANCIA/PERDIDA" dataDxfId="43">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
+    <tableColumn id="25" name="RENTABILIDAD TOTAL" dataDxfId="42" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
+    <tableColumn id="26" name="ESTADO DE LA INVERSION" dataDxfId="41">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
+    <tableColumn id="16" name="NOTAS"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
-  <autoFilter ref="B2:L7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
+  <autoFilter ref="B2:L7"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
+    <tableColumn id="1" name="FECHA ACT" dataDxfId="40">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
+    <tableColumn id="11" name="FECHA COMPRA" dataDxfId="39"/>
+    <tableColumn id="2" name="PRECIO DEL USD,DIA COMPRA"/>
+    <tableColumn id="3" name="CANTIDAD COPRADA"/>
+    <tableColumn id="4" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
+    <tableColumn id="5" name="CANTIDAD TOTAL(USD)" dataDxfId="38">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
+    <tableColumn id="6" name="PRECIO ACTUAL(USD)">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="VALOR ACTUAL EN COP">
+    <tableColumn id="7" name="VALOR ACTUAL EN COP">
       <calculatedColumnFormula>G3*H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
+    <tableColumn id="8" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="37" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
+    <tableColumn id="10" name="META 10%">
       <calculatedColumnFormula>D3*1.1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13050,33 +13147,33 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
-  <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
+  <autoFilter ref="B2:O10"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="PRECIO INICIAL USD" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="VALOR INICIAL EN COP">
+    <tableColumn id="1" name="MES" dataDxfId="36"/>
+    <tableColumn id="2" name="CRIPTOMONEDA"/>
+    <tableColumn id="3" name="CANTIDAD INICIAL"/>
+    <tableColumn id="4" name="PRECIO DÓLAR INICIAL"/>
+    <tableColumn id="5" name="PRECIO INICIAL USD" dataCellStyle="Moneda"/>
+    <tableColumn id="6" name="VALOR INICIAL EN COP">
       <calculatedColumnFormula>D3*F3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="CANTIDAD A FIN DE MES"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="PRECIO DÓLAR FINAL"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="PRECIO A FIN DE MES(USD)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="PRECIO FINAL(COP)">
+    <tableColumn id="7" name="CANTIDAD A FIN DE MES"/>
+    <tableColumn id="8" name="PRECIO DÓLAR FINAL"/>
+    <tableColumn id="9" name="PRECIO A FIN DE MES(USD)"/>
+    <tableColumn id="10" name="PRECIO FINAL(COP)">
       <calculatedColumnFormula>H3*J3*I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="DIFERENCIA DE CANTIDAD">
+    <tableColumn id="11" name="DIFERENCIA DE CANTIDAD">
       <calculatedColumnFormula>H3-D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="DIFERENCIA EN PRECIO">
+    <tableColumn id="12" name="DIFERENCIA EN PRECIO">
       <calculatedColumnFormula>J3-F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="PRECIO DE LA DIFERENCIA EN COP">
+    <tableColumn id="13" name="PRECIO DE LA DIFERENCIA EN COP">
       <calculatedColumnFormula>L3*J3*I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="RENTABILIDAD">
+    <tableColumn id="14" name="RENTABILIDAD">
       <calculatedColumnFormula>(K3-G3)/G3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13085,21 +13182,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G33" totalsRowShown="0">
-  <autoFilter ref="B2:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G33" totalsRowShown="0">
+  <autoFilter ref="B2:G33"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
+    <tableColumn id="1" name="FECHA" dataDxfId="35"/>
+    <tableColumn id="5" name="PRECIO DEL DÓLAR" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
+    <tableColumn id="2" name="VOO" dataDxfId="33" dataCellStyle="Moneda"/>
+    <tableColumn id="3" name="VALOR INVERSION 1" dataDxfId="32">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
+    <tableColumn id="4" name="GAN/PER" dataDxfId="31">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
+    <tableColumn id="6" name="VALOR EN COP" dataDxfId="30">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13108,21 +13205,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K46" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="B2:K46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:K46" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="B2:K46"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
+    <tableColumn id="1" name="FECHA"/>
+    <tableColumn id="2" name="DÓLAR" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
+    <tableColumn id="3" name="S&amp;P 500" dataDxfId="27"/>
+    <tableColumn id="4" name="NASDAQ-100" dataDxfId="26"/>
+    <tableColumn id="5" name="KO" dataDxfId="25"/>
+    <tableColumn id="6" name="JNJ" dataDxfId="24"/>
+    <tableColumn id="7" name="PG" dataDxfId="23"/>
+    <tableColumn id="8" name="PEP" dataDxfId="22"/>
+    <tableColumn id="13" name="MSFT" dataDxfId="21"/>
+    <tableColumn id="9" name="MCD" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13444,27 +13541,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="3" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="14" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -13505,7 +13602,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -13548,7 +13645,7 @@
         <v>0.36574904245808215</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -13589,7 +13686,7 @@
         <v>0.12148300694401998</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>65</v>
       </c>
@@ -13632,7 +13729,7 @@
         <v>0.30348401889570276</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -13675,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -13703,7 +13800,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -13727,7 +13824,7 @@
         <v>-942.79</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -13749,7 +13846,7 @@
         <v>-831.88999999999942</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -13771,7 +13868,7 @@
         <v>-30997.599999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -13793,7 +13890,7 @@
         <v>-743.13</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -13815,7 +13912,7 @@
         <v>-6780.1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -13837,7 +13934,7 @@
         <v>-3942.9</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -13859,7 +13956,7 @@
         <v>-2535.48</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -13881,7 +13978,7 @@
         <v>-1529.58</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -13903,10 +14000,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13922,29 +14019,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="30" max="30" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" s="23" t="s">
         <v>53</v>
       </c>
@@ -13973,7 +14070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -14001,7 +14098,7 @@
         <v>5.6999999999999317E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>95</v>
       </c>
@@ -14031,7 +14128,7 @@
         <v>8.6348314606741975E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -14061,7 +14158,7 @@
         <v>9.2664968650739647E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>98</v>
       </c>
@@ -14091,7 +14188,7 @@
         <v>9.6727618788660999E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -14121,7 +14218,7 @@
         <v>9.3262625259320636E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -14149,7 +14246,7 @@
         <v>1.8808219178082217E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -14177,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -14214,22 +14311,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -14249,7 +14346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1">
         <v>45404</v>
       </c>
@@ -14263,7 +14360,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>45405</v>
       </c>
@@ -14277,7 +14374,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>45406</v>
       </c>
@@ -14291,7 +14388,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>45407</v>
       </c>
@@ -14305,7 +14402,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>45408</v>
       </c>
@@ -14319,7 +14416,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>45409</v>
       </c>
@@ -14333,7 +14430,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <v>45410</v>
       </c>
@@ -14347,7 +14444,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <v>45411</v>
       </c>
@@ -14361,7 +14458,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>45412</v>
       </c>
@@ -14375,7 +14472,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <v>45413</v>
       </c>
@@ -14389,7 +14486,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <v>45414</v>
       </c>
@@ -14403,7 +14500,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="1">
         <v>45415</v>
       </c>
@@ -14417,7 +14514,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <v>45416</v>
       </c>
@@ -14431,7 +14528,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <v>45417</v>
       </c>
@@ -14445,7 +14542,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>45418</v>
       </c>
@@ -14459,7 +14556,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>45419</v>
       </c>
@@ -14473,7 +14570,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>45420</v>
       </c>
@@ -14487,7 +14584,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>45421</v>
       </c>
@@ -14501,7 +14598,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>45422</v>
       </c>
@@ -14515,7 +14612,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>45423</v>
       </c>
@@ -14529,7 +14626,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>45424</v>
       </c>
@@ -14543,7 +14640,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>45425</v>
       </c>
@@ -14557,7 +14654,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>45426</v>
       </c>
@@ -14571,7 +14668,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>45427</v>
       </c>
@@ -14585,7 +14682,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>45428</v>
       </c>
@@ -14599,7 +14696,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>45429</v>
       </c>
@@ -14613,7 +14710,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>45430</v>
       </c>
@@ -14627,7 +14724,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>45431</v>
       </c>
@@ -14641,7 +14738,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>45432</v>
       </c>
@@ -14655,7 +14752,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>45432</v>
       </c>
@@ -14669,7 +14766,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="1">
         <v>45433</v>
       </c>
@@ -14683,7 +14780,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="1">
         <v>45434</v>
       </c>
@@ -14697,7 +14794,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="1">
         <v>45435</v>
       </c>
@@ -14711,7 +14808,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="1">
         <v>45436</v>
       </c>
@@ -14725,7 +14822,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="1">
         <v>45437</v>
       </c>
@@ -14739,7 +14836,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="1">
         <v>45438</v>
       </c>
@@ -14753,7 +14850,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="1">
         <v>45439</v>
       </c>
@@ -14767,7 +14864,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="1">
         <v>45440</v>
       </c>
@@ -14781,7 +14878,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="1">
         <v>45441</v>
       </c>
@@ -14795,7 +14892,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7">
       <c r="B42" s="1">
         <v>45442</v>
       </c>
@@ -14809,7 +14906,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="1">
         <v>45443</v>
       </c>
@@ -14823,7 +14920,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>45444</v>
       </c>
@@ -14837,7 +14934,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>45445</v>
       </c>
@@ -14851,7 +14948,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>45446</v>
       </c>
@@ -14865,7 +14962,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>45447</v>
       </c>
@@ -14879,7 +14976,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>45448</v>
       </c>
@@ -14895,7 +14992,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>45449</v>
       </c>
@@ -14911,7 +15008,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <v>45450</v>
       </c>
@@ -14927,7 +15024,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <v>45451</v>
       </c>
@@ -14943,7 +15040,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <v>45452</v>
       </c>
@@ -14959,7 +15056,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <v>45453</v>
       </c>
@@ -14975,7 +15072,7 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <v>45454</v>
       </c>
@@ -14991,7 +15088,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <v>45455</v>
       </c>
@@ -15009,7 +15106,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <v>45456</v>
       </c>
@@ -15027,7 +15124,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <v>45457</v>
       </c>
@@ -15045,7 +15142,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <v>45458</v>
       </c>
@@ -15063,7 +15160,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <v>45459</v>
       </c>
@@ -15081,7 +15178,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="1">
         <v>45460</v>
       </c>
@@ -15099,7 +15196,7 @@
       </c>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="1">
         <v>45461</v>
       </c>
@@ -15117,7 +15214,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="1">
         <v>45462</v>
       </c>
@@ -15135,7 +15232,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="1">
         <v>45463</v>
       </c>
@@ -15153,7 +15250,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="1">
         <v>45464</v>
       </c>
@@ -15171,7 +15268,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65" s="1">
         <v>45465</v>
       </c>
@@ -15189,7 +15286,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66" s="1">
         <v>45466</v>
       </c>
@@ -15207,7 +15304,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="1">
         <v>45467</v>
       </c>
@@ -15225,7 +15322,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7">
       <c r="B68" s="1">
         <v>45468</v>
       </c>
@@ -15243,7 +15340,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7">
       <c r="B69" s="1">
         <v>45469</v>
       </c>
@@ -15261,7 +15358,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="1">
         <v>45470</v>
       </c>
@@ -15279,7 +15376,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="1">
         <v>45475</v>
       </c>
@@ -15297,7 +15394,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="1">
         <v>45476</v>
       </c>
@@ -15315,7 +15412,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="1">
         <v>45477</v>
       </c>
@@ -15333,7 +15430,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="1">
         <v>45478</v>
       </c>
@@ -15351,7 +15448,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="1">
         <v>45479</v>
       </c>
@@ -15369,7 +15466,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="1">
         <v>45480</v>
       </c>
@@ -15387,7 +15484,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="1">
         <v>45481</v>
       </c>
@@ -15405,7 +15502,7 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="1">
         <v>45482</v>
       </c>
@@ -15423,7 +15520,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="1">
         <v>45483</v>
       </c>
@@ -15441,7 +15538,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="1">
         <v>45484</v>
       </c>
@@ -15459,7 +15556,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="1">
         <v>45485</v>
       </c>
@@ -15477,7 +15574,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7">
       <c r="B82" s="1">
         <v>45486</v>
       </c>
@@ -15495,7 +15592,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7">
       <c r="B83" s="1">
         <v>45487</v>
       </c>
@@ -15513,7 +15610,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7">
       <c r="B84" s="1">
         <v>45488</v>
       </c>
@@ -15531,7 +15628,7 @@
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7">
       <c r="B85" s="1">
         <v>45489</v>
       </c>
@@ -15549,7 +15646,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7">
       <c r="B86" s="1">
         <v>45490</v>
       </c>
@@ -15567,7 +15664,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7">
       <c r="B87" s="1">
         <v>45491</v>
       </c>
@@ -15585,7 +15682,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7">
       <c r="B88" s="1">
         <v>45492</v>
       </c>
@@ -15603,7 +15700,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7">
       <c r="B89" s="1">
         <v>45493</v>
       </c>
@@ -15621,7 +15718,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7">
       <c r="B90" s="1">
         <v>45494</v>
       </c>
@@ -15639,7 +15736,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7">
       <c r="B91" s="1">
         <v>45495</v>
       </c>
@@ -15657,7 +15754,7 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7">
       <c r="B92" s="1">
         <v>45496</v>
       </c>
@@ -15677,7 +15774,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7">
       <c r="B93" s="1">
         <v>45497</v>
       </c>
@@ -15697,7 +15794,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7">
       <c r="B94" s="1">
         <v>45498</v>
       </c>
@@ -15717,7 +15814,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7">
       <c r="B95" s="1">
         <v>45499</v>
       </c>
@@ -15737,7 +15834,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7">
       <c r="B96" s="1">
         <v>45500</v>
       </c>
@@ -15757,7 +15854,7 @@
         <v>3924.76</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="1">
         <v>45501</v>
       </c>
@@ -15777,7 +15874,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="1">
         <v>45502</v>
       </c>
@@ -15797,7 +15894,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="1">
         <v>45503</v>
       </c>
@@ -15817,7 +15914,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7">
       <c r="B100" s="1">
         <v>45504</v>
       </c>
@@ -15837,7 +15934,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="1">
         <v>45505</v>
       </c>
@@ -15857,7 +15954,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="1">
         <v>45506</v>
       </c>
@@ -15877,7 +15974,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7">
       <c r="B103" s="1">
         <v>45507</v>
       </c>
@@ -15897,7 +15994,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7">
       <c r="B104" s="1">
         <v>45508</v>
       </c>
@@ -15917,7 +16014,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7">
       <c r="B105" s="1">
         <v>45509</v>
       </c>
@@ -15937,7 +16034,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7">
       <c r="B106" s="1">
         <v>45510</v>
       </c>
@@ -15957,7 +16054,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7">
       <c r="B107" s="1">
         <v>45511</v>
       </c>
@@ -15977,7 +16074,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7">
       <c r="B108" s="1">
         <v>45512</v>
       </c>
@@ -15997,7 +16094,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7">
       <c r="B109" s="1">
         <v>45513</v>
       </c>
@@ -16017,7 +16114,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7">
       <c r="B110" s="1">
         <v>45514</v>
       </c>
@@ -16037,7 +16134,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7">
       <c r="B111" s="1">
         <v>45515</v>
       </c>
@@ -16057,27 +16154,27 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7">
       <c r="B112" s="1">
         <v>45516</v>
       </c>
       <c r="C112" s="3">
         <v>4073.83</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="4">
         <v>59274.9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>1.59</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="4">
         <v>2605.27</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="4">
         <v>4043.31</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7">
       <c r="B113" s="1">
         <v>45517</v>
       </c>
@@ -16097,7 +16194,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7">
       <c r="B114" s="1">
         <v>45518</v>
       </c>
@@ -16117,7 +16214,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7">
       <c r="B115" s="1">
         <v>45519</v>
       </c>
@@ -16137,7 +16234,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7">
       <c r="B116" s="1">
         <v>45520</v>
       </c>
@@ -16155,6 +16252,66 @@
       </c>
       <c r="G116" s="3">
         <v>3966</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="1">
+        <v>45521</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3999.63</v>
+      </c>
+      <c r="D117" s="3">
+        <v>59441.99</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2614.6999999999998</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="1">
+        <v>45522</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3999.63</v>
+      </c>
+      <c r="D118" s="3">
+        <v>58427.35</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2611.4</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="1">
+        <v>45523</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4030.16</v>
+      </c>
+      <c r="D119" s="4">
+        <v>59064.9</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2617.6999999999998</v>
+      </c>
+      <c r="G119" s="4">
+        <v>3937</v>
       </c>
     </row>
   </sheetData>
@@ -16167,31 +16324,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView topLeftCell="J19" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.5703125" customWidth="1"/>
-    <col min="20" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="25" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.625" customWidth="1"/>
+    <col min="20" max="22" width="19.375" customWidth="1"/>
+    <col min="23" max="25" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -16268,26 +16425,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -16311,14 +16468,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>594.04715193600009</v>
+        <v>599.86331340767993</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.17239629582646201</v>
+        <v>-0.16747854031882953</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -16337,7 +16494,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>594.04715193600009</v>
+        <v>599.86331340767993</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -16345,33 +16502,33 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.17239629582646201</v>
+        <v>-0.16747854031882953</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -16395,11 +16552,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>494.66704102400007</v>
+        <v>497.94819207040001</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31328936603434077</v>
+        <v>-0.31136897543215369</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -16418,7 +16575,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>494.66704102400007</v>
+        <v>497.94819207040001</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -16426,33 +16583,33 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.31328936603434077</v>
+        <v>-0.31136897543215369</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -16476,11 +16633,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>605.83380177599997</v>
+        <v>611.76536327688007</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15243374328771869</v>
+        <v>-0.14739736705352502</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -16499,7 +16656,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>605.83380177599997</v>
+        <v>611.76536327688007</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -16507,33 +16664,33 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.15243374328771869</v>
+        <v>-0.14739736705352502</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -16557,11 +16714,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>510.07298488640009</v>
+        <v>513.45632432343996</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28865732161932373</v>
+        <v>-0.2866680473501777</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -16580,7 +16737,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>510.07298488640009</v>
+        <v>513.45632432343996</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -16588,33 +16745,33 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28865732161932373</v>
+        <v>-0.2866680473501777</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -16638,11 +16795,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>619.97778158400001</v>
+        <v>626.04782311992005</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11665280074138813</v>
+        <v>-0.11140380834031634</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -16661,7 +16818,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>619.97778158400001</v>
+        <v>626.04782311992005</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -16669,33 +16826,33 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11665280074138813</v>
+        <v>-0.11140380834031634</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -16719,11 +16876,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>251.77391902151999</v>
+        <v>263.65790863120799</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61702127659574468</v>
+        <v>-0.60047281323877078</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -16742,7 +16899,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>251.77391902151999</v>
+        <v>263.65790863120799</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -16750,33 +16907,33 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.61702127659574468</v>
+        <v>-0.60047281323877078</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -16800,11 +16957,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>515.62750886400011</v>
+        <v>519.0476917343999</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25540320441327058</v>
+        <v>-0.2533209347964368</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -16823,7 +16980,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>515.62750886400011</v>
+        <v>519.0476917343999</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -16831,33 +16988,33 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.25540320441327058</v>
+        <v>-0.2533209347964368</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -16881,11 +17038,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>641.19375129599996</v>
+        <v>647.47151288447992</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4354602449170867E-2</v>
+        <v>-3.8676002421827629E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -16904,7 +17061,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>641.19375129599996</v>
+        <v>647.47151288447992</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -16912,33 +17069,33 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.4354602449170867E-2</v>
+        <v>-3.8676002421827629E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -16962,11 +17119,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>638.83642132800003</v>
+        <v>645.09110291063996</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7022701702709729E-2</v>
+        <v>-3.130053433136417E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -16985,7 +17142,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>638.83642132800003</v>
+        <v>645.09110291063996</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -16993,33 +17150,33 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7022701702709729E-2</v>
+        <v>-3.130053433136417E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17043,11 +17200,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>714.27098030399998</v>
+        <v>721.26422207351993</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8402084968052882E-2</v>
+        <v>3.4513017038448605E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -17066,7 +17223,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>714.27098030399998</v>
+        <v>721.26422207351993</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -17074,33 +17231,33 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8402084968052882E-2</v>
+        <v>3.4513017038448605E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -17124,11 +17281,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>662.40972100800013</v>
+        <v>668.89520264904002</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7406396770007593E-2</v>
+        <v>-6.1864774245194161E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -17147,7 +17304,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>662.40972100800013</v>
+        <v>668.89520264904002</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -17155,33 +17312,33 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.7406396770007593E-2</v>
+        <v>-6.1864774245194161E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -17205,11 +17362,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>530.40463869120003</v>
+        <v>533.92283899751988</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22719158271187539</v>
+        <v>-0.2250304191177124</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -17228,7 +17385,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>530.40463869120003</v>
+        <v>533.92283899751988</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -17236,33 +17393,33 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22719158271187539</v>
+        <v>-0.2250304191177124</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -17286,11 +17443,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>517.09474161280002</v>
+        <v>520.52465671087998</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22287088832192628</v>
+        <v>-0.22069764187875676</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -17309,7 +17466,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>517.09474161280002</v>
+        <v>520.52465671087998</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -17317,33 +17474,33 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22287088832192628</v>
+        <v>-0.22069764187875676</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -17367,11 +17524,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>595.69649601280003</v>
+        <v>599.64778045087996</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.145531914893617</v>
+        <v>-0.14314238952536831</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -17390,7 +17547,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>595.69649601280003</v>
+        <v>599.64778045087996</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -17398,33 +17555,33 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.145531914893617</v>
+        <v>-0.14314238952536831</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -17448,11 +17605,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>551.26030419200004</v>
+        <v>554.91684116319993</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24513461149185964</v>
+        <v>-0.24302362569040806</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -17471,7 +17628,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>551.26030419200004</v>
+        <v>554.91684116319993</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -17479,33 +17636,33 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24513461149185964</v>
+        <v>-0.24302362569040806</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -17529,11 +17686,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>342.92870361576001</v>
+        <v>359.11529342010397</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5235294117647058</v>
+        <v>-0.50294117647058822</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -17552,7 +17709,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>342.92870361576001</v>
+        <v>359.11529342010397</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -17560,33 +17717,33 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.5235294117647058</v>
+        <v>-0.50294117647058822</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -17610,11 +17767,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>178.77895085664002</v>
+        <v>187.21750240585598</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42756183745583037</v>
+        <v>-0.40282685512367494</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -17633,7 +17790,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>178.77895085664002</v>
+        <v>187.21750240585598</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -17641,33 +17798,33 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.42756183745583037</v>
+        <v>-0.40282685512367494</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" hidden="1">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -17691,11 +17848,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>251.30114500608002</v>
+        <v>263.16281919283193</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29257641921397376</v>
+        <v>-0.2620087336244542</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -17727,33 +17884,33 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29257641921397376</v>
+        <v>-0.2620087336244542</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
         <v>VENDIDA</v>
       </c>
     </row>
-    <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" hidden="1">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -17777,11 +17934,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>241.4269387224</v>
+        <v>252.82254015095998</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38167938931297707</v>
+        <v>-0.35496183206106874</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -17813,33 +17970,33 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38167938931297707</v>
+        <v>-0.35496183206106874</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
         <v>VENDIDA</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -17863,14 +18020,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>247.5761228316</v>
+        <v>259.26197211563994</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.39776951672862448</v>
+        <v>-0.37174721189591081</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -17894,7 +18051,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.42503483159999189</v>
+        <v>0.44509691563999143</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -17902,33 +18059,33 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.39776951672862448</v>
+        <v>-0.37174721189591081</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -17952,11 +18109,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>249.27183945432</v>
+        <v>261.03772831832794</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.40441176470588236</v>
+        <v>-0.37867647058823534</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -17980,7 +18137,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1207514543199855</v>
+        <v>2.2208531183279847</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -17988,33 +18145,33 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.40441176470588236</v>
+        <v>-0.37867647058823534</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18038,11 +18195,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>252.77819795568004</v>
+        <v>264.70959057067199</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.41304347826086946</v>
+        <v>-0.3876811594202898</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -18066,7 +18223,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.2012022272000173</v>
+        <v>7.5411064268800176</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -18074,33 +18231,33 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.41304347826086946</v>
+        <v>-0.3876811594202898</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -18124,11 +18281,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>248.51958959016002</v>
+        <v>260.24997148186395</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.42348754448398573</v>
+        <v>-0.39857651245551606</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -18152,7 +18309,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3685015901600075</v>
+        <v>1.4330962818640078</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -18160,33 +18317,33 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42348754448398573</v>
+        <v>-0.39857651245551606</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -18209,11 +18366,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>250.79611126968001</v>
+        <v>262.63394734127195</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.46786495595104355</v>
+        <v>-0.44487146639337266</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -18232,7 +18389,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>250.79611126968001</v>
+        <v>262.63394734127195</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -18240,33 +18397,33 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.46786495595104355</v>
+        <v>-0.44487146639337266</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -18290,11 +18447,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>610.54846171200006</v>
+        <v>616.52618322455999</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.12095400952823812</v>
+        <v>-0.11573057560774629</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -18313,7 +18470,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>610.54846171200006</v>
+        <v>616.52618322455999</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -18321,33 +18478,33 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.12095400952823812</v>
+        <v>-0.11573057560774629</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -18371,11 +18528,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>525.58373108800004</v>
+        <v>529.06995407479997</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.24491625929247052</v>
+        <v>-0.24280466286772154</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -18394,7 +18551,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>525.58373108800004</v>
+        <v>529.06995407479997</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -18402,33 +18559,33 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24491625929247052</v>
+        <v>-0.24280466286772154</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -18452,11 +18609,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>193.22395635384004</v>
+        <v>202.34432711573601</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.44520547945205474</v>
+        <v>-0.42123287671232879</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -18475,7 +18632,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>193.22395635384004</v>
+        <v>202.34432711573601</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -18483,33 +18640,33 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.44520547945205474</v>
+        <v>-0.42123287671232879</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -18533,14 +18690,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>596.40448190400002</v>
+        <v>602.24372338151989</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.14508111508120242</v>
+        <v>-0.14000104833707525</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -18559,7 +18716,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>596.40448190400002</v>
+        <v>602.24372338151989</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -18567,33 +18724,33 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.14508111508120242</v>
+        <v>-0.14000104833707525</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -18617,11 +18774,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>549.05945506880005</v>
+        <v>552.70139369847993</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21266777258332073</v>
+        <v>-0.21046599306288649</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -18640,7 +18797,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>549.05945506880005</v>
+        <v>552.70139369847993</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -18648,33 +18805,33 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.21266777258332073</v>
+        <v>-0.21046599306288649</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -18698,11 +18855,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>194.84422685496</v>
+        <v>204.04107606178397</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.44137931034482752</v>
+        <v>-0.41724137931034483</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -18721,7 +18878,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>194.84422685496</v>
+        <v>204.04107606178397</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -18729,33 +18886,33 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.44137931034482752</v>
+        <v>-0.41724137931034483</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -18779,11 +18936,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>749.63092982400008</v>
+        <v>756.97037168112001</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>9.8142102011857871E-2</v>
+        <v>0.10466744058042417</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -18802,7 +18959,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>749.63092982400008</v>
+        <v>756.97037168112001</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -18810,33 +18967,33 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>9.8142102011857871E-2</v>
+        <v>0.10466744058042417</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -18860,11 +19017,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>750.48955101120009</v>
+        <v>755.46758546951992</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9402791465561524E-2</v>
+        <v>0.10247727827896112</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -18883,7 +19040,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>750.48955101120009</v>
+        <v>755.46758546951992</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -18891,33 +19048,33 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>9.9402791465561524E-2</v>
+        <v>0.10247727827896112</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -18941,11 +19098,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>375.54367174488004</v>
+        <v>393.26972180735197</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10024449877750624</v>
+        <v>0.14778592773702801</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -18964,7 +19121,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>375.54367174488004</v>
+        <v>393.26972180735197</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -18972,33 +19129,33 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.10024449877750624</v>
+        <v>0.14778592773702801</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19022,14 +19179,14 @@
       </c>
       <c r="M36" s="26">
         <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>685.98302068800001</v>
+        <v>692.69930238744007</v>
       </c>
       <c r="N36" s="27">
         <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>-5.6105877170654376E-3</v>
+        <v>2.9823553290931015E-4</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -19048,7 +19205,7 @@
       </c>
       <c r="V36" s="2">
         <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>685.98302068800001</v>
+        <v>692.69930238744007</v>
       </c>
       <c r="W36" s="2">
         <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -19056,33 +19213,33 @@
       </c>
       <c r="X36" s="9">
         <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>-5.6105877170654376E-3</v>
+        <v>2.9823553290931015E-4</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -19106,14 +19263,14 @@
       </c>
       <c r="M37" s="26">
         <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
-        <v>680.79599544320001</v>
+        <v>685.31174908671994</v>
       </c>
       <c r="N37" s="27">
         <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
  IF(G37 = "ETH", (E37 - J37) / J37,
  IF(G37 = "IO.NET", (F37 - J37) / J37,
  "Moneda no soportada")))</f>
-        <v>-1.3155905035535964E-2</v>
+        <v>-1.0396189324058672E-2</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -19132,7 +19289,7 @@
       </c>
       <c r="V37" s="2">
         <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
-        <v>680.79599544320001</v>
+        <v>685.31174908671994</v>
       </c>
       <c r="W37" s="2">
         <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
@@ -19140,33 +19297,33 @@
       </c>
       <c r="X37" s="9">
         <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
-        <v>-1.3155905035535964E-2</v>
+        <v>-1.0396189324058672E-2</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25">
       <c r="B38" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>4030.16</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59064.9</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2617.6999999999998</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -19190,14 +19347,14 @@
       </c>
       <c r="M38" s="26">
         <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
-        <v>355.38284205936009</v>
+        <v>372.15728009054396</v>
       </c>
       <c r="N38" s="27">
         <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
  IF(G38 = "ETH", (E38 - J38) / J38,
  IF(G38 = "IO.NET", (F38 - J38) / J38,
  "Moneda no soportada")))</f>
-        <v>3.0311510233155699E-2</v>
+        <v>7.4831143391378377E-2</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -19216,7 +19373,7 @@
       </c>
       <c r="V38" s="2">
         <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
-        <v>355.38284205936009</v>
+        <v>372.15728009054396</v>
       </c>
       <c r="W38" s="2">
         <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
@@ -19224,7 +19381,7 @@
       </c>
       <c r="X38" s="9">
         <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
-        <v>3.0311510233155699E-2</v>
+        <v>7.4831143391378377E-2</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19233,20 +19390,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z38">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q38">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19258,27 +19415,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -19313,10 +19470,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -19337,11 +19494,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3937</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>696.93379758000003</v>
+        <v>691.83771081000009</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -19349,17 +19506,17 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>-4.3306345321031401E-3</v>
+        <v>-1.1611121571580871E-2</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
         <v>4381.5750000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -19380,11 +19537,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3937</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>796.83884466000006</v>
+        <v>791.01223687000004</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -19392,17 +19549,17 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>-3.9079963664102905E-3</v>
+        <v>-1.1191573800947412E-2</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
         <v>4366.7470000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -19423,11 +19580,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3937</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1488.5196752400002</v>
+        <v>1477.6353911800002</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -19435,17 +19592,17 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>-7.6303557903789239E-3</v>
+        <v>-1.4886714762158823E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>4415.07</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -19466,11 +19623,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3937</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2148.9086468400001</v>
+        <v>2133.1954973800002</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -19478,17 +19635,17 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>-2.3208066842571824E-2</v>
+        <v>-3.0350519203026977E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>4624.2790000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -19509,11 +19666,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3937</v>
       </c>
       <c r="I7" s="22">
         <f ca="1">G7*H7</f>
-        <v>2835.5238642599998</v>
+        <v>2814.79007907</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -19521,7 +19678,7 @@
       </c>
       <c r="K7" s="30">
         <f ca="1">((I7-J7)/J7)</f>
-        <v>-2.2221395065237459E-2</v>
+        <v>-2.9371062120988271E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -19540,31 +19697,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="14" max="14" width="34.75" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -19608,7 +19765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="17" t="s">
         <v>65</v>
       </c>
@@ -19658,7 +19815,7 @@
         <v>0.18152193973697042</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="17" t="s">
         <v>65</v>
       </c>
@@ -19708,7 +19865,7 @@
         <v>0.33953118475216365</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="17" t="s">
         <v>65</v>
       </c>
@@ -19758,7 +19915,7 @@
         <v>-7.0832910998340839E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="17" t="s">
         <v>65</v>
       </c>
@@ -19808,7 +19965,7 @@
         <v>1.151488214245727</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="17" t="s">
         <v>86</v>
       </c>
@@ -19851,7 +20008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="17" t="s">
         <v>86</v>
       </c>
@@ -19894,7 +20051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="17" t="s">
         <v>86</v>
       </c>
@@ -19937,7 +20094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
@@ -19990,21 +20147,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -20024,7 +20181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1">
         <v>45478</v>
       </c>
@@ -20048,7 +20205,7 @@
         <v>31486.519033199998</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>45481</v>
       </c>
@@ -20072,7 +20229,7 @@
         <v>31596.52415931</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>45482</v>
       </c>
@@ -20096,7 +20253,7 @@
         <v>31403.344933554003</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>45483</v>
       </c>
@@ -20120,7 +20277,7 @@
         <v>31311.751146719998</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>45484</v>
       </c>
@@ -20144,7 +20301,7 @@
         <v>30703.900500042</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>45485</v>
       </c>
@@ -20168,7 +20325,7 @@
         <v>31050.156992249998</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <v>45488</v>
       </c>
@@ -20192,7 +20349,7 @@
         <v>31284.062460882004</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <v>45489</v>
       </c>
@@ -20216,7 +20373,7 @@
         <v>31152.728065535997</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>45490</v>
       </c>
@@ -20240,7 +20397,7 @@
         <v>30865.116584214</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <v>45491</v>
       </c>
@@ -20264,7 +20421,7 @@
         <v>30836.333903100003</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <v>45492</v>
       </c>
@@ -20288,7 +20445,7 @@
         <v>30997.937238180002</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="1">
         <v>45495</v>
       </c>
@@ -20312,7 +20469,7 @@
         <v>31274.285642226001</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <v>45496</v>
       </c>
@@ -20336,7 +20493,7 @@
         <v>30864.285511092006</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <v>45497</v>
       </c>
@@ -20360,7 +20517,7 @@
         <v>30301.736779776002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>45498</v>
       </c>
@@ -20384,7 +20541,7 @@
         <v>30374.942102075998</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>45499</v>
       </c>
@@ -20408,7 +20565,7 @@
         <v>30701.382447714001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>45502</v>
       </c>
@@ -20432,7 +20589,7 @@
         <v>30630.67479252</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>45503</v>
       </c>
@@ -20456,7 +20613,7 @@
         <v>30826.208257152</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>45504</v>
       </c>
@@ -20480,7 +20637,7 @@
         <v>31311.968541018003</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>45505</v>
       </c>
@@ -20504,7 +20661,7 @@
         <v>30645.852383453999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>45506</v>
       </c>
@@ -20528,7 +20685,7 @@
         <v>30223.813141566003</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>45448</v>
       </c>
@@ -20552,7 +20709,7 @@
         <v>28317.745463039999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>45510</v>
       </c>
@@ -20576,7 +20733,7 @@
         <v>30273.466127652006</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>45511</v>
       </c>
@@ -20600,7 +20757,7 @@
         <v>29953.301916582001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>45512</v>
       </c>
@@ -20624,7 +20781,7 @@
         <v>30712.496225136001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>45513</v>
       </c>
@@ -20648,7 +20805,7 @@
         <v>30212.684208432001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>45514</v>
       </c>
@@ -20672,7 +20829,7 @@
         <v>30169.781560380001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>45516</v>
       </c>
@@ -20696,7 +20853,7 @@
         <v>30306.291157758002</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>45517</v>
       </c>
@@ -20720,7 +20877,7 @@
         <v>30606.461593487998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>45518</v>
       </c>
@@ -20744,7 +20901,7 @@
         <v>30639.650635440004</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="1">
         <v>45519</v>
       </c>
@@ -20778,19 +20935,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L46"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -20823,7 +20980,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="1">
         <v>45460</v>
       </c>
@@ -20855,7 +21012,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="1">
         <v>45461</v>
       </c>
@@ -20887,7 +21044,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="1">
         <v>45462</v>
       </c>
@@ -20919,7 +21076,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="1">
         <v>45463</v>
       </c>
@@ -20951,7 +21108,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="1">
         <v>45464</v>
       </c>
@@ -20983,7 +21140,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="1">
         <v>45467</v>
       </c>
@@ -21015,7 +21172,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="1">
         <v>45468</v>
       </c>
@@ -21047,7 +21204,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="1">
         <v>45469</v>
       </c>
@@ -21079,7 +21236,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="1">
         <v>45470</v>
       </c>
@@ -21111,7 +21268,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="1">
         <v>45471</v>
       </c>
@@ -21143,7 +21300,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="1">
         <v>45474</v>
       </c>
@@ -21175,7 +21332,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="1">
         <v>45475</v>
       </c>
@@ -21207,7 +21364,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="1">
         <v>45476</v>
       </c>
@@ -21241,7 +21398,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="1">
         <v>45477</v>
       </c>
@@ -21275,7 +21432,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="1">
         <v>45478</v>
       </c>
@@ -21309,7 +21466,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="1">
         <v>45481</v>
       </c>
@@ -21343,7 +21500,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="1">
         <v>45482</v>
       </c>
@@ -21377,7 +21534,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="1">
         <v>45483</v>
       </c>
@@ -21411,7 +21568,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="1">
         <v>45484</v>
       </c>
@@ -21445,7 +21602,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="1">
         <v>45485</v>
       </c>
@@ -21479,7 +21636,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="1">
         <v>45488</v>
       </c>
@@ -21513,7 +21670,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="1">
         <v>45489</v>
       </c>
@@ -21547,7 +21704,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="1">
         <v>45490</v>
       </c>
@@ -21581,7 +21738,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" s="1">
         <v>45491</v>
       </c>
@@ -21615,7 +21772,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="1">
         <v>45492</v>
       </c>
@@ -21649,7 +21806,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" s="1">
         <v>45495</v>
       </c>
@@ -21683,7 +21840,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29" s="1">
         <v>45496</v>
       </c>
@@ -21717,7 +21874,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30" s="1">
         <v>45497</v>
       </c>
@@ -21750,7 +21907,7 @@
         <v>253.37</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" s="1">
         <v>45498</v>
       </c>
@@ -21783,7 +21940,7 @@
         <v>251.46</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32" s="1">
         <v>45499</v>
       </c>
@@ -21816,7 +21973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33" s="1">
         <v>45502</v>
       </c>
@@ -21849,7 +22006,7 @@
         <v>261.42</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34" s="1">
         <v>45503</v>
       </c>
@@ -21882,7 +22039,7 @@
         <v>266.44</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35" s="1">
         <v>45504</v>
       </c>
@@ -21915,7 +22072,7 @@
         <v>265.39999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11">
       <c r="B36" s="1">
         <v>45505</v>
       </c>
@@ -21948,7 +22105,7 @@
         <v>268.75</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37" s="1">
         <v>45506</v>
       </c>
@@ -21981,7 +22138,7 @@
         <v>276.69</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38" s="1">
         <v>45509</v>
       </c>
@@ -22014,7 +22171,7 @@
         <v>268.45</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39" s="1">
         <v>45510</v>
       </c>
@@ -22047,7 +22204,7 @@
         <v>270.06</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="1">
         <v>45511</v>
       </c>
@@ -22080,7 +22237,7 @@
         <v>269.37</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41" s="1">
         <v>45512</v>
       </c>
@@ -22113,7 +22270,7 @@
         <v>271.19</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" s="1">
         <v>45513</v>
       </c>
@@ -22146,7 +22303,7 @@
         <v>267.91000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43" s="1">
         <v>45516</v>
       </c>
@@ -22179,7 +22336,7 @@
         <v>269.45999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11">
       <c r="B44" s="1">
         <v>45517</v>
       </c>
@@ -22212,7 +22369,7 @@
         <v>270.31</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45" s="1">
         <v>45518</v>
       </c>
@@ -22245,7 +22402,7 @@
         <v>271.14999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46" s="1">
         <v>45519</v>
       </c>
@@ -22288,36 +22445,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="27.25" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="33.75" customWidth="1"/>
+    <col min="18" max="18" width="30.625" customWidth="1"/>
+    <col min="19" max="19" width="21.75" customWidth="1"/>
+    <col min="20" max="20" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
@@ -22376,10 +22533,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
@@ -22444,10 +22601,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
@@ -22512,10 +22669,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
@@ -22580,10 +22737,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
@@ -22648,10 +22805,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
@@ -22716,10 +22873,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
@@ -22784,10 +22941,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
@@ -22852,10 +23009,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
@@ -22920,10 +23077,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
@@ -22988,10 +23145,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
@@ -23056,10 +23213,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
@@ -23124,10 +23281,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -468,7 +468,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -504,6 +504,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -4938,11 +4939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1432065184"/>
-        <c:axId val="-1432068992"/>
+        <c:axId val="-1501288512"/>
+        <c:axId val="-1501292320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1432065184"/>
+        <c:axId val="-1501288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4984,14 +4985,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432068992"/>
+        <c:crossAx val="-1501292320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1432068992"/>
+        <c:axId val="-1501292320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +5042,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432065184"/>
+        <c:crossAx val="-1501288512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5177,6 +5178,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5252,10 +5254,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5348,16 +5350,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$33</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5450,6 +5455,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4037.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4030.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,10 +5503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5591,16 +5599,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$33</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5693,6 +5704,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>508.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>514.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5738,10 +5752,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5834,16 +5848,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$33</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5936,6 +5953,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.7172084000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8078330000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,10 +6001,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6077,16 +6097,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$33</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6179,6 +6202,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.7208400000000346E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10783300000000029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6224,10 +6250,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6320,16 +6346,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$33</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6422,6 +6451,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31155.605064144002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31466.816243280002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6442,11 +6474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1432063008"/>
-        <c:axId val="-1432076608"/>
+        <c:axId val="-1501287968"/>
+        <c:axId val="-1501291776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1432063008"/>
+        <c:axId val="-1501287968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,14 +6520,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432076608"/>
+        <c:crossAx val="-1501291776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1432076608"/>
+        <c:axId val="-1501291776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6545,7 +6577,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432063008"/>
+        <c:crossAx val="-1501287968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6559,6 +6591,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7825,11 +7858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1432072256"/>
-        <c:axId val="-1432071712"/>
+        <c:axId val="-1501285248"/>
+        <c:axId val="-1501297760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1432072256"/>
+        <c:axId val="-1501285248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7865,14 +7898,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432071712"/>
+        <c:crossAx val="-1501297760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1432071712"/>
+        <c:axId val="-1501297760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7966,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1432072256"/>
+        <c:crossAx val="-1501285248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8073,7 +8106,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8186,7 +8218,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8564,7 +8595,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8942,7 +8972,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9320,7 +9349,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9698,7 +9726,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10040,7 +10067,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10357,11 +10383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1366118624"/>
-        <c:axId val="-1366118080"/>
+        <c:axId val="-1501295584"/>
+        <c:axId val="-1501297216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1366118624"/>
+        <c:axId val="-1501295584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10403,14 +10429,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1366118080"/>
+        <c:crossAx val="-1501297216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1366118080"/>
+        <c:axId val="-1501297216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10460,7 +10486,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1366118624"/>
+        <c:crossAx val="-1501295584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10474,7 +10500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12768,7 +12793,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92835F9-C7F3-545E-FB04-06952DB02FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12809,7 +12834,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11115F50-93D4-B74E-FD40-A1C1BD9D4D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12850,7 +12875,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3444A9-0FAA-5A85-BA8C-E32A798964E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12886,7 +12911,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A95013C-61DC-82BC-67A7-CED152560464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13182,8 +13207,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G33" totalsRowShown="0">
-  <autoFilter ref="B2:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G34" totalsRowShown="0">
+  <autoFilter ref="B2:G34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="FECHA" dataDxfId="35"/>
     <tableColumn id="5" name="PRECIO DEL DÓLAR" dataDxfId="34">
@@ -14314,7 +14339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
@@ -20148,10 +20173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -20923,6 +20948,30 @@
       <c r="G33" s="8">
         <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
         <v>31155.605064144002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
+        <v>45523</v>
+      </c>
+      <c r="C34" s="8">
+        <f>VLOOKUP(B34,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="D34" s="31">
+        <v>514.35</v>
+      </c>
+      <c r="E34" s="8">
+        <f>0.01518 * D34</f>
+        <v>7.8078330000000005</v>
+      </c>
+      <c r="F34" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>0.10783300000000029</v>
+      </c>
+      <c r="G34" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31466.816243280002</v>
       </c>
     </row>
   </sheetData>
@@ -22562,9 +22611,9 @@
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="18" t="e">
+      <c r="I3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -22630,9 +22679,9 @@
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="18" t="e">
+      <c r="I4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -22698,9 +22747,9 @@
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="18" t="e">
+      <c r="I5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -22766,9 +22815,9 @@
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="18" t="e">
+      <c r="I6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -22834,9 +22883,9 @@
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="18" t="e">
+      <c r="I7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -22902,9 +22951,9 @@
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -22922,9 +22971,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7" t="e">
+      <c r="O8" s="7">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>#N/A</v>
+        <v>7.81</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -22932,13 +22981,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7" t="e">
+      <c r="S8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="9" t="e">
+        <v>0.11</v>
+      </c>
+      <c r="T8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -22970,9 +23019,9 @@
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="18" t="e">
+      <c r="I9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -23038,9 +23087,9 @@
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="18" t="e">
+      <c r="I10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -23106,9 +23155,9 @@
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="18" t="e">
+      <c r="I11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -23174,9 +23223,9 @@
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="18" t="e">
+      <c r="I12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -23242,9 +23291,9 @@
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="18" t="e">
+      <c r="I13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -23310,9 +23359,9 @@
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="18" t="e">
+      <c r="I14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>514.35</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10533F50-7117-41FC-95B6-562E13E88EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52953F-C2BF-487A-BEEB-8C3982DA150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -513,43 +513,6 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -984,6 +947,43 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1502,10 +1502,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1847,16 +1847,19 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$116</c:f>
+              <c:f>CRIPTOS!$C$3:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2198,6 +2201,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>4014.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3999.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,10 +2305,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2644,16 +2650,19 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$116</c:f>
+              <c:f>CRIPTOS!$D$3:$D$117</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -2995,6 +3004,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>58716</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>59598.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,10 +3108,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3441,16 +3453,19 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$116</c:f>
+              <c:f>CRIPTOS!$E$3:$E$117</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3636,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,10 +3755,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4082,16 +4100,19 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$116</c:f>
+              <c:f>CRIPTOS!$F$3:$F$117</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4298,6 +4319,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>2610.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2622.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4399,10 +4423,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$116</c:f>
+              <c:f>CRIPTOS!$B$3:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4744,16 +4768,19 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$116</c:f>
+              <c:f>CRIPTOS!$G$3:$G$117</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4828,6 +4855,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,10 +5193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5259,16 +5289,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$33</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5361,6 +5394,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4037.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4014.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,10 +5442,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5502,16 +5538,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$33</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5604,6 +5643,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>508.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>509.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5649,10 +5691,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5745,16 +5787,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$33</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5847,6 +5892,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.7172084000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7334510000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5892,10 +5940,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5988,16 +6036,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$33</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6090,6 +6141,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.7208400000000346E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3451000000000342E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6135,10 +6189,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$33</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6231,16 +6285,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$33</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6333,6 +6390,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31155.605064144002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31048.259074800004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6685,10 +6745,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6820,16 +6880,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$46</c:f>
+              <c:f>BOLSA!$C$3:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -6961,6 +7024,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4037.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4014.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7062,10 +7128,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7197,16 +7263,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$46</c:f>
+              <c:f>BOLSA!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -7338,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5543.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5554.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,10 +7511,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7574,16 +7646,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$46</c:f>
+              <c:f>BOLSA!$E$3:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -7715,6 +7790,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>19490.150000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19508.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8115,10 +8193,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8250,16 +8328,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$46</c:f>
+              <c:f>BOLSA!$F$3:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -8391,6 +8472,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>68.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>69.180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8492,10 +8576,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8627,16 +8711,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$46</c:f>
+              <c:f>BOLSA!$G$3:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -8768,6 +8855,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>159.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159.38999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8869,10 +8959,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9004,16 +9094,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$46</c:f>
+              <c:f>BOLSA!$H$3:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -9145,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>167.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>167.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9246,10 +9342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9381,16 +9477,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$46</c:f>
+              <c:f>BOLSA!$I$3:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -9522,6 +9621,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>172.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>172.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9623,10 +9725,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9758,16 +9860,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$46</c:f>
+              <c:f>BOLSA!$J$3:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -9863,6 +9968,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>421.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>418.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9964,10 +10072,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$46</c:f>
+              <c:f>BOLSA!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10099,16 +10207,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$46</c:f>
+              <c:f>BOLSA!$K$3:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -10240,6 +10351,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>274.87</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>278.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12821,7 +12935,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
-      <calculatedColumnFormula>G3-E3</calculatedColumnFormula>
+      <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RENTABILIDAD"/>
   </tableColumns>
@@ -12830,52 +12944,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12926,8 +13040,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G116" totalsRowShown="0">
-  <autoFilter ref="B2:G116" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G117" totalsRowShown="0">
+  <autoFilter ref="B2:G117" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
@@ -12950,61 +13064,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13017,16 +13131,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
   <autoFilter ref="B2:L7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13038,7 +13152,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13053,7 +13167,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13085,21 +13199,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G33" totalsRowShown="0">
-  <autoFilter ref="B2:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G34" totalsRowShown="0">
+  <autoFilter ref="B2:G34" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13108,21 +13222,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K46" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="B2:K46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K47" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="B2:K47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13447,8 +13561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13519,14 +13633,14 @@
         <v>18566.62</v>
       </c>
       <c r="F3" s="7">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G3" s="7">
         <v>24997.599999999999</v>
       </c>
       <c r="H3" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>430.97999999999956</v>
+        <v>230.97999999999956</v>
       </c>
       <c r="K3" t="s">
         <v>102</v>
@@ -13541,7 +13655,7 @@
       </c>
       <c r="N3" s="7">
         <f>SUMIF(C:C,"CUENTA DE AHORRO",H:H)</f>
-        <v>-31296.62</v>
+        <v>-37496.619999999995</v>
       </c>
       <c r="O3" s="9">
         <f>M3/SUM(M3:M5)</f>
@@ -13582,7 +13696,7 @@
       </c>
       <c r="N4" s="7">
         <f>SUMIF(C:C,"CRIPTOMONEDA",H:H)</f>
-        <v>-17275.829999999998</v>
+        <v>-22175.83</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" ref="O4" si="0">M4/SUM(M4:M6)</f>
@@ -13668,7 +13782,7 @@
       </c>
       <c r="N6" s="7">
         <f>SUM(N3:N5)</f>
-        <v>-80069.299999999988</v>
+        <v>-91169.299999999988</v>
       </c>
       <c r="O6" s="9">
         <f>M6/SUM(M6:M9)</f>
@@ -13789,8 +13903,8 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
-        <f t="shared" ref="H11:H16" si="1">G11-E11</f>
-        <v>-743.13</v>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
+        <v>-6743.13</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -13811,8 +13925,8 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
-        <v>-6780.1</v>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
+        <v>-8180.1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -13833,8 +13947,8 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>-3942.9</v>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
+        <v>-5342.9</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -13855,8 +13969,8 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>-2535.48</v>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
+        <v>-3235.48</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -13877,8 +13991,8 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>-1529.58</v>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
+        <v>-2929.58</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -13897,22 +14011,22 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
         <v>-30664.959999999999</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N3 N5:N6 H9:H10 H3:H8" calculatedColumn="1"/>
+    <ignoredError sqref="N3 N5:N6 H3" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -14215,10 +14329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G116"/>
+  <dimension ref="B2:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16064,16 +16178,16 @@
       <c r="C112" s="3">
         <v>4073.83</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="4">
         <v>59274.9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>1.59</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="4">
         <v>2605.27</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="4">
         <v>4043.31</v>
       </c>
     </row>
@@ -16155,6 +16269,26 @@
       </c>
       <c r="G116" s="3">
         <v>3966</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>45521</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3999.63</v>
+      </c>
+      <c r="D117" s="3">
+        <v>59598.2</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2622.8</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3967</v>
       </c>
     </row>
   </sheetData>
@@ -16170,7 +16304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="J19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -16271,23 +16405,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -16311,14 +16445,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>594.04715193600009</v>
+        <v>600.69428663832002</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.17239629582646201</v>
+        <v>-0.15996166152198124</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -16337,7 +16471,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>594.04715193600009</v>
+        <v>600.69428663832002</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -16345,7 +16479,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.17239629582646201</v>
+        <v>-0.15996166152198124</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -16355,23 +16489,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -16395,11 +16529,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>494.66704102400007</v>
+        <v>495.13883542080009</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31328936603434077</v>
+        <v>-0.3100273326826804</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -16418,7 +16552,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>494.66704102400007</v>
+        <v>495.13883542080009</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -16426,7 +16560,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.31328936603434077</v>
+        <v>-0.3100273326826804</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -16436,23 +16570,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -16476,11 +16610,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>605.83380177599997</v>
+        <v>612.61282407162003</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15243374328771869</v>
+        <v>-0.1396991743172239</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -16499,7 +16633,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>605.83380177599997</v>
+        <v>612.61282407162003</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -16507,7 +16641,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.15243374328771869</v>
+        <v>-0.1396991743172239</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16517,23 +16651,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -16557,11 +16691,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>510.07298488640009</v>
+        <v>510.5594728798801</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28865732161932373</v>
+        <v>-0.28527828039502073</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -16580,7 +16714,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>510.07298488640009</v>
+        <v>510.5594728798801</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -16588,7 +16722,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28865732161932373</v>
+        <v>-0.28527828039502073</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16598,23 +16732,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -16638,11 +16772,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>619.97778158400001</v>
+        <v>626.91506899158003</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11665280074138813</v>
+        <v>-0.10338062792331563</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -16661,7 +16795,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>619.97778158400001</v>
+        <v>626.91506899158003</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -16669,7 +16803,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11665280074138813</v>
+        <v>-0.10338062792331563</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16679,23 +16813,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -16719,11 +16853,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>251.77391902151999</v>
+        <v>272.49861234657601</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61702127659574468</v>
+        <v>-0.58392434988179676</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -16742,7 +16876,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>251.77391902151999</v>
+        <v>272.49861234657601</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -16750,7 +16884,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.61702127659574468</v>
+        <v>-0.58392434988179676</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16760,23 +16894,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -16800,11 +16934,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>515.62750886400011</v>
+        <v>516.11929454879999</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25540320441327058</v>
+        <v>-0.25186619848878561</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -16823,7 +16957,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>515.62750886400011</v>
+        <v>516.11929454879999</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -16831,7 +16965,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.25540320441327058</v>
+        <v>-0.25186619848878561</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16841,23 +16975,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -16881,11 +17015,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>641.19375129599996</v>
+        <v>648.36843637151992</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4354602449170867E-2</v>
+        <v>-2.9996158929187583E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -16904,7 +17038,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>641.19375129599996</v>
+        <v>648.36843637151992</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -16912,7 +17046,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.4354602449170867E-2</v>
+        <v>-2.9996158929187583E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16922,23 +17056,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -16962,11 +17096,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>638.83642132800003</v>
+        <v>645.98472888485992</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7022701702709729E-2</v>
+        <v>-2.2554097360488416E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -16985,7 +17119,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>638.83642132800003</v>
+        <v>645.98472888485992</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -16993,7 +17127,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7022701702709729E-2</v>
+        <v>-2.2554097360488416E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17003,23 +17137,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17043,11 +17177,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>714.27098030399998</v>
+        <v>722.26336845797994</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8402084968052882E-2</v>
+        <v>4.3853687927362328E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -17066,7 +17200,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>714.27098030399998</v>
+        <v>722.26336845797994</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -17074,7 +17208,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8402084968052882E-2</v>
+        <v>4.3853687927362328E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17084,23 +17218,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -17124,11 +17258,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>662.40972100800013</v>
+        <v>669.82180375146004</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7406396770007593E-2</v>
+        <v>-5.3394303358169318E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -17147,7 +17281,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>662.40972100800013</v>
+        <v>669.82180375146004</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -17155,7 +17289,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.7406396770007593E-2</v>
+        <v>-5.3394303358169318E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17165,23 +17299,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -17205,11 +17339,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>530.40463869120003</v>
+        <v>530.91051823404007</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22719158271187539</v>
+        <v>-0.22352056509987234</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -17228,7 +17362,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>530.40463869120003</v>
+        <v>530.91051823404007</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -17236,7 +17370,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22719158271187539</v>
+        <v>-0.22352056509987234</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17246,23 +17380,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -17286,11 +17420,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>517.09474161280002</v>
+        <v>517.58792668776005</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22287088832192628</v>
+        <v>-0.2191793464184601</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -17309,7 +17443,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>517.09474161280002</v>
+        <v>517.58792668776005</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -17317,7 +17451,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22287088832192628</v>
+        <v>-0.2191793464184601</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17327,23 +17461,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -17367,11 +17501,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>595.69649601280003</v>
+        <v>596.2646484177601</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.145531914893617</v>
+        <v>-0.14147299509001632</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -17390,7 +17524,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>595.69649601280003</v>
+        <v>596.2646484177601</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -17398,7 +17532,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.145531914893617</v>
+        <v>-0.14147299509001632</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17408,23 +17542,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -17448,11 +17582,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>551.26030419200004</v>
+        <v>551.78607506640003</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24513461149185964</v>
+        <v>-0.24154882739076364</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -17471,7 +17605,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>551.26030419200004</v>
+        <v>551.78607506640003</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -17479,7 +17613,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24513461149185964</v>
+        <v>-0.24154882739076364</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17489,23 +17623,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -17529,11 +17663,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>342.92870361576001</v>
+        <v>371.15677522228799</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5235294117647058</v>
+        <v>-0.4823529411764706</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -17552,7 +17686,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>342.92870361576001</v>
+        <v>371.15677522228799</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -17560,7 +17694,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.5235294117647058</v>
+        <v>-0.4823529411764706</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17570,23 +17704,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -17610,11 +17744,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>178.77895085664002</v>
+        <v>193.495085648832</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42756183745583037</v>
+        <v>-0.37809187279151946</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -17633,7 +17767,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>178.77895085664002</v>
+        <v>193.495085648832</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -17641,7 +17775,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.42756183745583037</v>
+        <v>-0.37809187279151946</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17651,23 +17785,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -17691,11 +17825,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>251.30114500608002</v>
+        <v>271.98692208230398</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29257641921397376</v>
+        <v>-0.23144104803493451</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -17727,7 +17861,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29257641921397376</v>
+        <v>-0.23144104803493451</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17737,23 +17871,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -17777,11 +17911,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>241.4269387224</v>
+        <v>261.29992352112004</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38167938931297707</v>
+        <v>-0.32824427480916035</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -17813,7 +17947,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38167938931297707</v>
+        <v>-0.32824427480916035</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17823,23 +17957,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -17863,14 +17997,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>247.5761228316</v>
+        <v>267.95527584407995</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.39776951672862448</v>
+        <v>-0.34572490706319703</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -17894,7 +18028,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.42503483159999189</v>
+        <v>0.46002144407999118</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -17902,7 +18036,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.39776951672862448</v>
+        <v>-0.34572490706319703</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17912,23 +18046,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -17952,11 +18086,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>249.27183945432</v>
+        <v>269.79057486321597</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.40441176470588236</v>
+        <v>-0.35294117647058826</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -17980,7 +18114,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1207514543199855</v>
+        <v>2.295320463215984</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -17988,7 +18122,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.40441176470588236</v>
+        <v>-0.35294117647058826</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17998,23 +18132,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18038,11 +18172,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>252.77819795568004</v>
+        <v>273.58555819478403</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.41304347826086946</v>
+        <v>-0.36231884057971009</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -18066,7 +18200,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.2012022272000173</v>
+        <v>7.7939669913600182</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -18074,7 +18208,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.41304347826086946</v>
+        <v>-0.36231884057971009</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18084,23 +18218,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -18124,11 +18258,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>248.51958959016002</v>
+        <v>268.976403781008</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.42348754448398573</v>
+        <v>-0.37366548042704628</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -18152,7 +18286,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3685015901600075</v>
+        <v>1.4811493810080083</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -18160,7 +18294,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42348754448398573</v>
+        <v>-0.37366548042704628</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -18170,23 +18304,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -18209,11 +18343,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>250.79611126968001</v>
+        <v>271.44031664798399</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.46786495595104355</v>
+        <v>-0.42187797683570166</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -18232,7 +18366,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>250.79611126968001</v>
+        <v>271.44031664798399</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -18240,7 +18374,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.46786495595104355</v>
+        <v>-0.42187797683570166</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18250,23 +18384,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -18290,11 +18424,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>610.54846171200006</v>
+        <v>617.38023904494003</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.12095400952823812</v>
+        <v>-0.10774646179347783</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -18313,7 +18447,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>610.54846171200006</v>
+        <v>617.38023904494003</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -18321,7 +18455,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.12095400952823812</v>
+        <v>-0.10774646179347783</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18331,23 +18465,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -18371,11 +18505,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>525.58373108800004</v>
+        <v>526.08501263460005</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.24491625929247052</v>
+        <v>-0.24132943796823919</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -18394,7 +18528,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>525.58373108800004</v>
+        <v>526.08501263460005</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -18402,7 +18536,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24491625929247052</v>
+        <v>-0.24132943796823919</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18412,23 +18546,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -18452,11 +18586,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>193.22395635384004</v>
+        <v>209.12912736619199</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.44520547945205474</v>
+        <v>-0.39726027397260272</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -18475,7 +18609,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>193.22395635384004</v>
+        <v>209.12912736619199</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -18483,7 +18617,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.44520547945205474</v>
+        <v>-0.39726027397260272</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18493,23 +18627,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -18533,14 +18667,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>596.40448190400002</v>
+        <v>603.07799412498002</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.14508111508120242</v>
+        <v>-0.13223607386117106</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -18559,7 +18693,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>596.40448190400002</v>
+        <v>603.07799412498002</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -18567,7 +18701,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.14508111508120242</v>
+        <v>-0.13223607386117106</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18577,23 +18711,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -18617,11 +18751,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>549.05945506880005</v>
+        <v>549.58312685796</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21266777258332073</v>
+        <v>-0.20892776353491171</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -18640,7 +18774,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>549.05945506880005</v>
+        <v>549.58312685796</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -18648,7 +18782,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.21266777258332073</v>
+        <v>-0.20892776353491171</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18658,23 +18792,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -18698,11 +18832,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>194.84422685496</v>
+        <v>210.88276993924802</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.44137931034482752</v>
+        <v>-0.39310344827586202</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -18721,7 +18855,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>194.84422685496</v>
+        <v>210.88276993924802</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -18729,7 +18863,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.44137931034482752</v>
+        <v>-0.39310344827586202</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18739,23 +18873,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -18779,11 +18913,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>749.63092982400008</v>
+        <v>758.01898075787994</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>9.8142102011857871E-2</v>
+        <v>0.11464153934401362</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -18802,7 +18936,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>749.63092982400008</v>
+        <v>758.01898075787994</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -18810,7 +18944,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>9.8142102011857871E-2</v>
+        <v>0.11464153934401362</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -18820,23 +18954,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -18860,11 +18994,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>750.48955101120009</v>
+        <v>751.20533907803997</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9402791465561524E-2</v>
+        <v>0.10462520742256928</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -18883,7 +19017,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>750.48955101120009</v>
+        <v>751.20533907803997</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -18891,7 +19025,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>9.9402791465561524E-2</v>
+        <v>0.10462520742256928</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18901,23 +19035,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -18941,11 +19075,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>375.54367174488004</v>
+        <v>406.45643450174401</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10024449877750624</v>
+        <v>0.19532735669654991</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -18964,7 +19098,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>375.54367174488004</v>
+        <v>406.45643450174401</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -18972,7 +19106,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.10024449877750624</v>
+        <v>0.19532735669654991</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -18982,23 +19116,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19022,14 +19156,14 @@
       </c>
       <c r="M36" s="26">
         <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>685.98302068800001</v>
+        <v>693.65887861805993</v>
       </c>
       <c r="N36" s="27">
         <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>-5.6105877170654376E-3</v>
+        <v>9.329979411417463E-3</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -19048,7 +19182,7 @@
       </c>
       <c r="V36" s="2">
         <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>685.98302068800001</v>
+        <v>693.65887861805993</v>
       </c>
       <c r="W36" s="2">
         <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -19056,7 +19190,7 @@
       </c>
       <c r="X36" s="9">
         <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>-5.6105877170654376E-3</v>
+        <v>9.329979411417463E-3</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19066,23 +19200,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -19106,14 +19240,14 @@
       </c>
       <c r="M37" s="26">
         <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
-        <v>680.79599544320001</v>
+        <v>681.4453124774401</v>
       </c>
       <c r="N37" s="27">
         <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
  IF(G37 = "ETH", (E37 - J37) / J37,
  IF(G37 = "IO.NET", (F37 - J37) / J37,
  "Moneda no soportada")))</f>
-        <v>-1.3155905035535964E-2</v>
+        <v>-8.4681687585058361E-3</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -19132,7 +19266,7 @@
       </c>
       <c r="V37" s="2">
         <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
-        <v>680.79599544320001</v>
+        <v>681.4453124774401</v>
       </c>
       <c r="W37" s="2">
         <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
@@ -19140,7 +19274,7 @@
       </c>
       <c r="X37" s="9">
         <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
-        <v>-1.3155905035535964E-2</v>
+        <v>-8.4681687585058361E-3</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19150,23 +19284,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4014.8</v>
+        <v>3999.63</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>58716</v>
+        <v>59598.2</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2610.4</v>
+        <v>2622.8</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -19190,14 +19324,14 @@
       </c>
       <c r="M38" s="26">
         <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
-        <v>355.38284205936009</v>
+        <v>384.63607227196803</v>
       </c>
       <c r="N38" s="27">
         <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
  IF(G38 = "ETH", (E38 - J38) / J38,
  IF(G38 = "IO.NET", (F38 - J38) / J38,
  "Moneda no soportada")))</f>
-        <v>3.0311510233155699E-2</v>
+        <v>0.11935077654960119</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -19207,7 +19341,7 @@
       </c>
       <c r="Q38" t="str">
         <f ca="1">IF(N38 &lt; O38, "MANTENER", IF(N38 &lt; P38, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>VENTA PARCIAL</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="14">
@@ -19216,7 +19350,7 @@
       </c>
       <c r="V38" s="2">
         <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
-        <v>355.38284205936009</v>
+        <v>384.63607227196803</v>
       </c>
       <c r="W38" s="2">
         <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
@@ -19224,7 +19358,7 @@
       </c>
       <c r="X38" s="9">
         <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
-        <v>3.0311510233155699E-2</v>
+        <v>0.11935077654960119</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19233,20 +19367,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z38">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q38">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19316,7 +19450,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -19337,11 +19471,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>696.93379758000003</v>
+        <v>697.10952471000007</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -19349,7 +19483,7 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>-4.3306345321031401E-3</v>
+        <v>-4.0795832548797088E-3</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -19359,7 +19493,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -19380,11 +19514,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>796.83884466000006</v>
+        <v>797.03976217000013</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -19392,7 +19526,7 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>-3.9079963664102905E-3</v>
+        <v>-3.6568385238399618E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
@@ -19402,7 +19536,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -19423,11 +19557,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1488.5196752400002</v>
+        <v>1488.8949953800002</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -19435,7 +19569,7 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>-7.6303557903789239E-3</v>
+        <v>-7.3801365154899726E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
@@ -19445,7 +19579,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -19466,11 +19600,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2148.9086468400001</v>
+        <v>2149.4504795800003</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -19478,7 +19612,7 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>-2.3208066842571824E-2</v>
+        <v>-2.2961775381866362E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
@@ -19488,7 +19622,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -19509,11 +19643,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="I7" s="22">
         <f ca="1">G7*H7</f>
-        <v>2835.5238642599998</v>
+        <v>2836.23882237</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -19521,7 +19655,7 @@
       </c>
       <c r="K7" s="30">
         <f ca="1">((I7-J7)/J7)</f>
-        <v>-2.2221395065237459E-2</v>
+        <v>-2.1974854821935626E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -19543,7 +19677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -19991,10 +20125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20768,6 +20902,30 @@
         <v>31155.605064144002</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C34" s="8">
+        <f>VLOOKUP(B34,Tabla4[],2,FALSE)</f>
+        <v>4014.8</v>
+      </c>
+      <c r="D34" s="6">
+        <v>509.45</v>
+      </c>
+      <c r="E34" s="8">
+        <f>0.01518 * D34</f>
+        <v>7.7334510000000005</v>
+      </c>
+      <c r="F34" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>3.3451000000000342E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31048.259074800004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20779,10 +20937,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L46"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22276,6 +22434,39 @@
       </c>
       <c r="K46" s="3">
         <v>274.87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C47" s="3">
+        <f>VLOOKUP(B47,Tabla4[],2,FALSE)</f>
+        <v>4014.8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5554.26</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19508.52</v>
+      </c>
+      <c r="F47" s="3">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="G47" s="3">
+        <v>159.38999999999999</v>
+      </c>
+      <c r="H47" s="3">
+        <v>167.89</v>
+      </c>
+      <c r="I47" s="3">
+        <v>172.62</v>
+      </c>
+      <c r="J47" s="3">
+        <v>418.47</v>
+      </c>
+      <c r="K47" s="3">
+        <v>278.49</v>
       </c>
     </row>
   </sheetData>
@@ -22379,7 +22570,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
@@ -22447,7 +22638,7 @@
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
@@ -22515,7 +22706,7 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
@@ -22583,7 +22774,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
@@ -22651,7 +22842,7 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
@@ -22719,7 +22910,7 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
@@ -22787,7 +22978,7 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
@@ -22855,7 +23046,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
@@ -22923,7 +23114,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
@@ -22991,7 +23182,7 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
@@ -23059,7 +23250,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
@@ -23127,7 +23318,7 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52953F-C2BF-487A-BEEB-8C3982DA150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7EB62-D1E9-4F44-B669-F500A17F8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>FECHA</t>
   </si>
@@ -469,7 +469,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -505,13 +505,86 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -949,43 +1022,6 @@
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1309,33 +1345,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="102"/>
-      <tableStyleElement type="headerRow" dxfId="101"/>
-      <tableStyleElement type="secondRowStripe" dxfId="100"/>
+      <tableStyleElement type="wholeTable" dxfId="106"/>
+      <tableStyleElement type="headerRow" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="99"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="firstRowStripe" dxfId="101"/>
+      <tableStyleElement type="secondRowStripe" dxfId="100"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="99"/>
+    </tableStyle>
+    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="98"/>
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="wholeTable" dxfId="95"/>
       <tableStyleElement type="headerRow" dxfId="94"/>
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="wholeTable" dxfId="91"/>
       <tableStyleElement type="headerRow" dxfId="90"/>
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
-    </tableStyle>
-    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="wholeTable" dxfId="87"/>
-      <tableStyleElement type="headerRow" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1502,10 +1538,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$117</c:f>
+              <c:f>CRIPTOS!$B$3:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1850,16 +1886,25 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$117</c:f>
+              <c:f>CRIPTOS!$C$3:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2204,6 +2249,15 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>3999.63</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3999.63</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4030.16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4023.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,10 +2359,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$117</c:f>
+              <c:f>CRIPTOS!$B$3:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2653,16 +2707,25 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$117</c:f>
+              <c:f>CRIPTOS!$D$3:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -3007,6 +3070,15 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>59598.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58427.35</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59438.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,10 +3180,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$117</c:f>
+              <c:f>CRIPTOS!$B$3:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3456,16 +3528,25 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$117</c:f>
+              <c:f>CRIPTOS!$E$3:$E$120</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3654,6 +3735,15 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,10 +3845,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$117</c:f>
+              <c:f>CRIPTOS!$B$3:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4103,16 +4193,25 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$117</c:f>
+              <c:f>CRIPTOS!$F$3:$F$120</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4322,6 +4421,15 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>2622.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2611.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2638.2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2577.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4423,10 +4531,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$117</c:f>
+              <c:f>CRIPTOS!$B$3:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4771,16 +4879,25 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$117</c:f>
+              <c:f>CRIPTOS!$G$3:$G$120</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4858,6 +4975,15 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3917</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,10 +5319,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5292,16 +5418,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$34</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5397,6 +5529,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4014.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4030.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4023.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5442,10 +5580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5541,16 +5679,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$34</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5646,6 +5790,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>509.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>514.35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>513.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5691,10 +5841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5790,16 +5940,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$34</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -5895,6 +6051,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7.7334510000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8078330000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7949300000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5940,10 +6102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6039,16 +6201,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$34</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6144,6 +6312,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.3451000000000342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10783300000000029</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.4930000000000625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,10 +6363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$34</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6288,16 +6462,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$34</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6393,6 +6573,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31048.259074800004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31466.816243280002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31359.159288600003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6745,10 +6931,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -6883,16 +7069,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$47</c:f>
+              <c:f>BOLSA!$C$3:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -7027,6 +7219,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4014.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4030.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4023.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7128,10 +7326,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7266,16 +7464,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$47</c:f>
+              <c:f>BOLSA!$D$3:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -7410,6 +7614,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5554.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5608.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5597.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7511,10 +7721,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7649,16 +7859,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$47</c:f>
+              <c:f>BOLSA!$E$3:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -7793,6 +8009,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>19508.52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19766.490000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19719.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8193,10 +8415,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8331,16 +8553,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$47</c:f>
+              <c:f>BOLSA!$F$3:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -8475,6 +8703,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>69.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,10 +8810,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8714,16 +8948,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$47</c:f>
+              <c:f>BOLSA!$G$3:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -8858,6 +9098,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>159.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>160.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8959,10 +9205,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9097,16 +9343,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$47</c:f>
+              <c:f>BOLSA!$H$3:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -9241,6 +9493,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>167.89</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>168.42</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>170.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9342,10 +9600,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9480,16 +9738,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$47</c:f>
+              <c:f>BOLSA!$I$3:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -9624,6 +9888,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>172.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>175.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9725,10 +9995,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9863,16 +10133,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$47</c:f>
+              <c:f>BOLSA!$J$3:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -9971,6 +10247,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>418.47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>421.53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>424.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10072,10 +10354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$47</c:f>
+              <c:f>BOLSA!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10210,16 +10492,22 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$47</c:f>
+              <c:f>BOLSA!$K$3:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -10354,6 +10642,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>278.49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>287.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>285.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12932,7 +13226,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="87" dataCellStyle="Moneda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
@@ -12944,52 +13238,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="28">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="27" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="18" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="17" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="16" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13004,10 +13298,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="86" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="85" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13016,22 +13310,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="84">
   <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="80" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="78">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="77" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13040,23 +13334,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G117" totalsRowShown="0">
-  <autoFilter ref="B2:G117" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G120" totalsRowShown="0">
+  <autoFilter ref="B2:G120" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z38" totalsRowShown="0">
-  <autoFilter ref="B2:Z38" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z41" totalsRowShown="0">
+  <autoFilter ref="B2:Z41" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -13064,61 +13358,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="70">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="66">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="63" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="62" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="61" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="60" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="58" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="57">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="56"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="55">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="54">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="53">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="52" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="51">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13128,19 +13422,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L7" totalsRowShown="0">
-  <autoFilter ref="B2:L7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L8" totalsRowShown="0">
+  <autoFilter ref="B2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="50">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="48">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13152,7 +13446,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="47" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13167,7 +13461,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13199,21 +13493,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G34" totalsRowShown="0">
-  <autoFilter ref="B2:G34" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G36" totalsRowShown="0">
+  <autoFilter ref="B2:G36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="43" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="42">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="41">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="40">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13222,21 +13516,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K47" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="B2:K47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K49" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="B2:K49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13561,8 +13855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13696,7 +13990,7 @@
       </c>
       <c r="N4" s="7">
         <f>SUMIF(C:C,"CRIPTOMONEDA",H:H)</f>
-        <v>-22175.83</v>
+        <v>-24625.829999999994</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" ref="O4" si="0">M4/SUM(M4:M6)</f>
@@ -13782,7 +14076,7 @@
       </c>
       <c r="N6" s="7">
         <f>SUM(N3:N5)</f>
-        <v>-91169.299999999988</v>
+        <v>-93619.299999999988</v>
       </c>
       <c r="O6" s="9">
         <f>M6/SUM(M6:M9)</f>
@@ -13921,12 +14215,12 @@
         <v>6780.1</v>
       </c>
       <c r="F12" s="7">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-8180.1</v>
+        <v>-8880.1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -13943,12 +14237,12 @@
         <v>3942.9</v>
       </c>
       <c r="F13" s="7">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-5342.9</v>
+        <v>-6042.9</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -13965,12 +14259,12 @@
         <v>2535.48</v>
       </c>
       <c r="F14" s="7">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-3235.48</v>
+        <v>-3585.48</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -13987,12 +14281,12 @@
         <v>1529.58</v>
       </c>
       <c r="F15" s="7">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-2929.58</v>
+        <v>-3629.58</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -14017,10 +14311,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14329,10 +14623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G117"/>
+  <dimension ref="B2:G120"/>
   <sheetViews>
     <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16291,6 +16585,66 @@
         <v>3967</v>
       </c>
     </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>45522</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3999.63</v>
+      </c>
+      <c r="D118" s="3">
+        <v>58427.35</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2611.4</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>45523</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4030.16</v>
+      </c>
+      <c r="D119" s="4">
+        <v>59438.5</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2638.2</v>
+      </c>
+      <c r="G119" s="4">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>45524</v>
+      </c>
+      <c r="C120" s="3">
+        <v>4023.02</v>
+      </c>
+      <c r="D120" s="3">
+        <v>59050</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2577.5</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16302,10 +16656,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:Z38"/>
+  <dimension ref="B2:Z41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16405,23 +16759,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -16445,14 +16799,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>600.69428663832002</v>
+        <v>598.64951411999994</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.15996166152198124</v>
+        <v>-0.16768855624621196</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -16471,7 +16825,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>600.69428663832002</v>
+        <v>598.64951411999994</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -16479,7 +16833,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.15996166152198124</v>
+        <v>-0.16768855624621196</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -16489,23 +16843,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -16529,11 +16883,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>495.13883542080009</v>
+        <v>489.43256716000002</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3100273326826804</v>
+        <v>-0.32194427710447188</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -16552,7 +16906,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>495.13883542080009</v>
+        <v>489.43256716000002</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -16560,7 +16914,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.3100273326826804</v>
+        <v>-0.32194427710447188</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -16570,23 +16924,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -16610,11 +16964,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>612.61282407162003</v>
+        <v>610.52748066999993</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1396991743172239</v>
+        <v>-0.14761244875570184</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -16633,7 +16987,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>612.61282407162003</v>
+        <v>610.52748066999993</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -16641,7 +16995,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.1396991743172239</v>
+        <v>-0.14761244875570184</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16651,23 +17005,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -16691,11 +17045,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>510.5594728798801</v>
+        <v>504.67548821349993</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28527828039502073</v>
+        <v>-0.29762268099670813</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -16714,7 +17068,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>510.5594728798801</v>
+        <v>504.67548821349993</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -16722,7 +17076,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28527828039502073</v>
+        <v>-0.29762268099670813</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16732,23 +17086,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -16772,11 +17126,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>626.91506899158003</v>
+        <v>624.78104052999993</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10338062792331563</v>
+        <v>-0.11162796995331714</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -16795,7 +17149,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>626.91506899158003</v>
+        <v>624.78104052999993</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -16803,7 +17157,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.10338062792331563</v>
+        <v>-0.11162796995331714</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16813,23 +17167,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -16853,11 +17207,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>272.49861234657601</v>
+        <v>256.96143317690996</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.58392434988179676</v>
+        <v>-0.6099290780141845</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -16876,7 +17230,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>272.49861234657601</v>
+        <v>256.96143317690996</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -16884,7 +17238,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.58392434988179676</v>
+        <v>-0.6099290780141845</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16894,23 +17248,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -16934,11 +17288,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>516.11929454879999</v>
+        <v>510.17123526000006</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25186619848878561</v>
+        <v>-0.26478767980968626</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -16957,7 +17311,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>516.11929454879999</v>
+        <v>510.17123526000006</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -16965,7 +17319,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.25186619848878561</v>
+        <v>-0.26478767980968626</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -16975,23 +17329,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -17015,11 +17369,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>648.36843637151992</v>
+        <v>646.16138031999992</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9996158929187583E-2</v>
+        <v>-3.8918510706171056E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -17038,7 +17392,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>648.36843637151992</v>
+        <v>646.16138031999992</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -17046,7 +17400,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.9996158929187583E-2</v>
+        <v>-3.8918510706171056E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17056,23 +17410,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -17096,11 +17450,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>645.98472888485992</v>
+        <v>643.78578700999992</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2554097360488416E-2</v>
+        <v>-3.1544903187291529E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -17119,7 +17473,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>645.98472888485992</v>
+        <v>643.78578700999992</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -17127,7 +17481,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.2554097360488416E-2</v>
+        <v>-3.1544903187291529E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17137,23 +17491,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17177,11 +17531,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>722.26336845797994</v>
+        <v>719.8047729299999</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3853687927362328E-2</v>
+        <v>3.425204573478307E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -17200,7 +17554,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>722.26336845797994</v>
+        <v>719.8047729299999</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -17208,7 +17562,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3853687927362328E-2</v>
+        <v>3.425204573478307E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17218,23 +17572,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -17258,11 +17612,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>669.82180375146004</v>
+        <v>667.54172011000003</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3394303358169318E-2</v>
+        <v>-6.2101432816761164E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -17281,7 +17635,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>669.82180375146004</v>
+        <v>667.54172011000003</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -17289,7 +17643,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.3394303358169318E-2</v>
+        <v>-6.2101432816761164E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17299,23 +17653,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -17339,11 +17693,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>530.91051823404007</v>
+        <v>524.79199627050002</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22352056509987234</v>
+        <v>-0.23693162137598028</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -17362,7 +17716,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>530.91051823404007</v>
+        <v>524.79199627050002</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -17370,7 +17724,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22352056509987234</v>
+        <v>-0.23693162137598028</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17380,23 +17734,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -17420,11 +17774,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>517.58792668776005</v>
+        <v>511.62294202700002</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2191793464184601</v>
+        <v>-0.2326653825658003</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -17443,7 +17797,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>517.58792668776005</v>
+        <v>511.62294202700002</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -17451,7 +17805,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.2191793464184601</v>
+        <v>-0.2326653825658003</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17461,23 +17815,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -17501,11 +17855,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>596.2646484177601</v>
+        <v>589.392947402</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14147299509001632</v>
+        <v>-0.15630114566284778</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -17524,7 +17878,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>596.2646484177601</v>
+        <v>589.392947402</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -17532,7 +17886,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.14147299509001632</v>
+        <v>-0.15630114566284778</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17542,23 +17896,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -17582,11 +17936,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>551.78607506640003</v>
+        <v>545.42697103</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24154882739076364</v>
+        <v>-0.25464850640525144</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -17605,7 +17959,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>551.78607506640003</v>
+        <v>545.42697103</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -17613,7 +17967,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24154882739076364</v>
+        <v>-0.25464850640525144</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17623,23 +17977,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -17663,11 +18017,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>371.15677522228799</v>
+        <v>349.99435803782995</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4823529411764706</v>
+        <v>-0.51470588235294124</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -17686,7 +18040,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>371.15677522228799</v>
+        <v>349.99435803782995</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -17694,7 +18048,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.4823529411764706</v>
+        <v>-0.51470588235294124</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17704,23 +18058,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -17744,11 +18098,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>193.495085648832</v>
+        <v>182.46248703012</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37809187279151946</v>
+        <v>-0.41696113074204949</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -17767,7 +18121,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>193.495085648832</v>
+        <v>182.46248703012</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -17775,7 +18129,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.37809187279151946</v>
+        <v>-0.41696113074204949</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17785,23 +18139,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -17825,11 +18179,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>271.98692208230398</v>
+        <v>256.47891819263998</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23144104803493451</v>
+        <v>-0.27947598253275113</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -17861,7 +18215,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23144104803493451</v>
+        <v>-0.27947598253275113</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17871,23 +18225,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -17911,11 +18265,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>261.29992352112004</v>
+        <v>246.40126516169997</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32824427480916035</v>
+        <v>-0.37022900763358785</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -17947,7 +18301,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.32824427480916035</v>
+        <v>-0.37022900763358785</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17957,23 +18311,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -17997,14 +18351,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>267.95527584407995</v>
+        <v>252.67714618904998</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.34572490706319703</v>
+        <v>-0.38661710037174724</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -18028,7 +18382,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.46002144407999118</v>
+        <v>0.43379218904999162</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -18036,7 +18390,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.34572490706319703</v>
+        <v>-0.38661710037174724</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18046,23 +18400,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -18086,11 +18440,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>269.79057486321597</v>
+        <v>254.40780111680996</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.35294117647058826</v>
+        <v>-0.39338235294117657</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -18114,7 +18468,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.295320463215984</v>
+        <v>2.1644471168099848</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -18122,7 +18476,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.35294117647058826</v>
+        <v>-0.39338235294117657</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18132,23 +18486,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18172,11 +18526,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>273.58555819478403</v>
+        <v>257.98640413193999</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.36231884057971009</v>
+        <v>-0.40217391304347827</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -18200,7 +18554,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7939669913600182</v>
+        <v>7.3495747776000169</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -18208,7 +18562,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.36231884057971009</v>
+        <v>-0.40217391304347827</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18218,23 +18572,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -18258,11 +18612,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>268.976403781008</v>
+        <v>253.64005200302998</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.37366548042704628</v>
+        <v>-0.41281138790035593</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -18286,7 +18640,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4811493810080083</v>
+        <v>1.3966980030300076</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -18294,7 +18648,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.37366548042704628</v>
+        <v>-0.41281138790035593</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -18304,23 +18658,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -18343,11 +18697,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>271.44031664798399</v>
+        <v>255.96347881269</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.42187797683570166</v>
+        <v>-0.45801060328347032</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -18366,7 +18720,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>271.44031664798399</v>
+        <v>255.96347881269</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -18374,7 +18728,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42187797683570166</v>
+        <v>-0.45801060328347032</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18384,23 +18738,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -18424,11 +18778,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>617.38023904494003</v>
+        <v>615.27866729000004</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.10774646179347783</v>
+        <v>-0.11595364572931503</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -18447,7 +18801,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>617.38023904494003</v>
+        <v>615.27866729000004</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -18455,7 +18809,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.10774646179347783</v>
+        <v>-0.11595364572931503</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18465,23 +18819,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -18505,11 +18859,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>526.08501263460005</v>
+        <v>520.02210260749996</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.24132943796823919</v>
+        <v>-0.25443290619305198</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -18528,7 +18882,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>526.08501263460005</v>
+        <v>520.02210260749996</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -18536,7 +18890,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24132943796823919</v>
+        <v>-0.25443290619305198</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18546,23 +18900,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -18586,11 +18940,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>209.12912736619199</v>
+        <v>197.20511537396999</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.39726027397260272</v>
+        <v>-0.43493150684931509</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -18609,7 +18963,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>209.12912736619199</v>
+        <v>197.20511537396999</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -18617,7 +18971,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.39726027397260272</v>
+        <v>-0.43493150684931509</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18627,23 +18981,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -18667,14 +19021,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>603.07799412498002</v>
+        <v>601.02510742999993</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.13223607386117106</v>
+        <v>-0.14021799587071671</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -18693,7 +19047,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>603.07799412498002</v>
+        <v>601.02510742999993</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -18701,7 +19055,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.13223607386117106</v>
+        <v>-0.14021799587071671</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18711,23 +19065,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -18751,11 +19105,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>549.58312685796</v>
+        <v>543.24941087950003</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.20892776353491171</v>
+        <v>-0.22259086110692203</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -18774,7 +19128,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>549.58312685796</v>
+        <v>543.24941087950003</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -18782,7 +19136,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.20892776353491171</v>
+        <v>-0.22259086110692203</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18792,23 +19146,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -18832,11 +19186,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>210.88276993924802</v>
+        <v>198.85876969892999</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.39310344827586202</v>
+        <v>-0.43103448275862072</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -18855,7 +19209,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>210.88276993924802</v>
+        <v>198.85876969892999</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -18863,7 +19217,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.39310344827586202</v>
+        <v>-0.43103448275862072</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18873,23 +19227,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -18913,11 +19267,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>758.01898075787994</v>
+        <v>755.43867258</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11464153934401362</v>
+        <v>0.10438877177941629</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -18936,7 +19290,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>758.01898075787994</v>
+        <v>755.43867258</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -18944,7 +19298,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.11464153934401362</v>
+        <v>0.10438877177941629</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -18954,23 +19308,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -18994,11 +19348,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>751.20533907803997</v>
+        <v>742.5480113205</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10462520742256928</v>
+        <v>8.5546542676403894E-2</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -19017,7 +19371,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>751.20533907803997</v>
+        <v>742.5480113205</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -19025,7 +19379,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.10462520742256928</v>
+        <v>8.5546542676403894E-2</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19035,23 +19389,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -19075,11 +19429,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>406.45643450174401</v>
+        <v>383.28132034929001</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19532735669654991</v>
+        <v>0.12061939690301547</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -19098,7 +19452,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>406.45643450174401</v>
+        <v>383.28132034929001</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -19106,7 +19460,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.19532735669654991</v>
+        <v>0.12061939690301547</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19116,23 +19470,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19156,14 +19510,14 @@
       </c>
       <c r="M36" s="26">
         <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>693.65887861805993</v>
+        <v>691.29765321000002</v>
       </c>
       <c r="N36" s="27">
         <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>9.329979411417463E-3</v>
+        <v>4.5895417046220529E-5</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -19182,7 +19536,7 @@
       </c>
       <c r="V36" s="2">
         <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>693.65887861805993</v>
+        <v>691.29765321000002</v>
       </c>
       <c r="W36" s="2">
         <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -19190,7 +19544,7 @@
       </c>
       <c r="X36" s="9">
         <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>9.329979411417463E-3</v>
+        <v>4.5895417046220529E-5</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19200,23 +19554,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -19240,14 +19594,14 @@
       </c>
       <c r="M37" s="26">
         <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
-        <v>681.4453124774401</v>
+        <v>673.59193988800007</v>
       </c>
       <c r="N37" s="27">
         <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
  IF(G37 = "ETH", (E37 - J37) / J37,
  IF(G37 = "IO.NET", (F37 - J37) / J37,
  "Moneda no soportada")))</f>
-        <v>-8.4681687585058361E-3</v>
+        <v>-2.5593527899591646E-2</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -19266,7 +19620,7 @@
       </c>
       <c r="V37" s="2">
         <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
-        <v>681.4453124774401</v>
+        <v>673.59193988800007</v>
       </c>
       <c r="W37" s="2">
         <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
@@ -19274,7 +19628,7 @@
       </c>
       <c r="X37" s="9">
         <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
-        <v>-8.4681687585058361E-3</v>
+        <v>-2.5593527899591646E-2</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19284,23 +19638,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>3999.63</v>
+        <v>4023.02</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>59598.2</v>
+        <v>59050</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2622.8</v>
+        <v>2577.5</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -19324,14 +19678,14 @@
       </c>
       <c r="M38" s="26">
         <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
-        <v>384.63607227196803</v>
+        <v>362.70509978537996</v>
       </c>
       <c r="N38" s="27">
         <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
  IF(G38 = "ETH", (E38 - J38) / J38,
  IF(G38 = "IO.NET", (F38 - J38) / J38,
  "Moneda no soportada")))</f>
-        <v>0.11935077654960119</v>
+        <v>4.9391353015251049E-2</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -19341,7 +19695,7 @@
       </c>
       <c r="Q38" t="str">
         <f ca="1">IF(N38 &lt; O38, "MANTENER", IF(N38 &lt; P38, "VENTA PARCIAL", "VENDER"))</f>
-        <v>VENTA PARCIAL</v>
+        <v>MANTENER</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="14">
@@ -19350,7 +19704,7 @@
       </c>
       <c r="V38" s="2">
         <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
-        <v>384.63607227196803</v>
+        <v>362.70509978537996</v>
       </c>
       <c r="W38" s="2">
         <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
@@ -19358,29 +19712,269 @@
       </c>
       <c r="X38" s="9">
         <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
-        <v>0.11935077654960119</v>
+        <v>4.9391353015251049E-2</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
         <v>ACTIVA</v>
       </c>
     </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="C39" s="2">
+        <f ca="1">VLOOKUP(B39,Tabla4[],2,FALSE)</f>
+        <v>4023.02</v>
+      </c>
+      <c r="D39" s="3">
+        <f ca="1">VLOOKUP(B39,Tabla4[],3,FALSE)</f>
+        <v>59050</v>
+      </c>
+      <c r="E39" s="2">
+        <f ca="1">VLOOKUP(B39,Tabla4[],5,FALSE)</f>
+        <v>2577.5</v>
+      </c>
+      <c r="F39" s="2">
+        <f ca="1">VLOOKUP(B39,Tabla4[],4,FALSE)</f>
+        <v>1.65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45523</v>
+      </c>
+      <c r="I39" s="3">
+        <f>VLOOKUP(H39,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="J39" s="3">
+        <v>57323.8</v>
+      </c>
+      <c r="K39" s="25">
+        <v>3.0299999999999998E-6</v>
+      </c>
+      <c r="L39" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>700.00297999823999</v>
+      </c>
+      <c r="M39" s="26">
+        <f ca="1" xml:space="preserve"> K39 * (IF(G39="BTC", D39, IF(G39="ETH", E39, IF(G39="IO.NET", F39, 0)))) * C39</f>
+        <v>719.8047729299999</v>
+      </c>
+      <c r="N39" s="27">
+        <f ca="1">IF(G39 = "BTC", (D39 - J39) / J39,
+ IF(G39 = "ETH", (E39 - J39) / J39,
+ IF(G39 = "IO.NET", (F39 - J39) / J39,
+ "Moneda no soportada")))</f>
+        <v>3.0113146720908191E-2</v>
+      </c>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="31" t="str">
+        <f ca="1">IF(N39 &lt; O39, "MANTENER", IF(N39 &lt; P39, "VENTA PARCIAL", "VENDER"))</f>
+        <v>VENDER</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>3.0299999999999998E-6</v>
+      </c>
+      <c r="V39" s="2">
+        <f ca="1">IF(G39="BTC", D39 * U39 * C39, IF(G39="ETH", E39 * U39 * C39, IF(G39="IO.NET", F39 * U39 * C39, 0)))</f>
+        <v>719.8047729299999</v>
+      </c>
+      <c r="W39" s="2">
+        <f>IF(G39 = "BTC", ((T39 - L39)), IF(G39 = "ETH", ((T39 - L39)), IF(G39 = "IO.NET", ((T39 - L39)), "Moneda no soportada")))</f>
+        <v>-700.00297999823999</v>
+      </c>
+      <c r="X39" s="32">
+        <f ca="1">IF(G39 = "BTC", (((D39 - J39) / J39)),IF(G39 = "ETH", ((E39 - J39) / J39), IF(G39 = "IO.NET", ((F39 - J39) / J39), "Moneda no soportada")))</f>
+        <v>3.0113146720908191E-2</v>
+      </c>
+      <c r="Y39" s="2" t="str">
+        <f>IF(U39=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="C40" s="2">
+        <f ca="1">VLOOKUP(B40,Tabla4[],2,FALSE)</f>
+        <v>4023.02</v>
+      </c>
+      <c r="D40" s="3">
+        <f ca="1">VLOOKUP(B40,Tabla4[],3,FALSE)</f>
+        <v>59050</v>
+      </c>
+      <c r="E40" s="2">
+        <f ca="1">VLOOKUP(B40,Tabla4[],5,FALSE)</f>
+        <v>2577.5</v>
+      </c>
+      <c r="F40" s="2">
+        <f ca="1">VLOOKUP(B40,Tabla4[],4,FALSE)</f>
+        <v>1.65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>45523</v>
+      </c>
+      <c r="I40" s="3">
+        <f>VLOOKUP(H40,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2527.15</v>
+      </c>
+      <c r="K40" s="25">
+        <v>6.8730000000000001E-5</v>
+      </c>
+      <c r="L40" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>700.00259914812</v>
+      </c>
+      <c r="M40" s="26">
+        <f ca="1" xml:space="preserve"> K40 * (IF(G40="BTC", D40, IF(G40="ETH", E40, IF(G40="IO.NET", F40, 0)))) * C40</f>
+        <v>712.68432925650006</v>
+      </c>
+      <c r="N40" s="27">
+        <f ca="1">IF(G40 = "BTC", (D40 - J40) / J40,
+ IF(G40 = "ETH", (E40 - J40) / J40,
+ IF(G40 = "IO.NET", (F40 - J40) / J40,
+ "Moneda no soportada")))</f>
+        <v>1.9923629384880164E-2</v>
+      </c>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="31" t="str">
+        <f ca="1">IF(N40 &lt; O40, "MANTENER", IF(N40 &lt; P40, "VENTA PARCIAL", "VENDER"))</f>
+        <v>VENDER</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>6.8730000000000001E-5</v>
+      </c>
+      <c r="V40" s="2">
+        <f ca="1">IF(G40="BTC", D40 * U40 * C40, IF(G40="ETH", E40 * U40 * C40, IF(G40="IO.NET", F40 * U40 * C40, 0)))</f>
+        <v>712.68432925650006</v>
+      </c>
+      <c r="W40" s="2">
+        <f>IF(G40 = "BTC", ((T40 - L40)), IF(G40 = "ETH", ((T40 - L40)), IF(G40 = "IO.NET", ((T40 - L40)), "Moneda no soportada")))</f>
+        <v>-700.00259914812</v>
+      </c>
+      <c r="X40" s="32">
+        <f ca="1">IF(G40 = "BTC", (((D40 - J40) / J40)),IF(G40 = "ETH", ((E40 - J40) / J40), IF(G40 = "IO.NET", ((F40 - J40) / J40), "Moneda no soportada")))</f>
+        <v>1.9923629384880164E-2</v>
+      </c>
+      <c r="Y40" s="2" t="str">
+        <f>IF(U40=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="C41" s="2">
+        <f ca="1">VLOOKUP(B41,Tabla4[],2,FALSE)</f>
+        <v>4023.02</v>
+      </c>
+      <c r="D41" s="3">
+        <f ca="1">VLOOKUP(B41,Tabla4[],3,FALSE)</f>
+        <v>59050</v>
+      </c>
+      <c r="E41" s="2">
+        <f ca="1">VLOOKUP(B41,Tabla4[],5,FALSE)</f>
+        <v>2577.5</v>
+      </c>
+      <c r="F41" s="2">
+        <f ca="1">VLOOKUP(B41,Tabla4[],4,FALSE)</f>
+        <v>1.65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45523</v>
+      </c>
+      <c r="I41" s="3">
+        <f>VLOOKUP(H41,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1.6122000000000001</v>
+      </c>
+      <c r="K41" s="25">
+        <v>5.3867089999999999E-2</v>
+      </c>
+      <c r="L41" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>349.99732079053973</v>
+      </c>
+      <c r="M41" s="26">
+        <f ca="1" xml:space="preserve"> K41 * (IF(G41="BTC", D41, IF(G41="ETH", E41, IF(G41="IO.NET", F41, 0)))) * C41</f>
+        <v>357.56882767946996</v>
+      </c>
+      <c r="N41" s="27">
+        <f ca="1">IF(G41 = "BTC", (D41 - J41) / J41,
+ IF(G41 = "ETH", (E41 - J41) / J41,
+ IF(G41 = "IO.NET", (F41 - J41) / J41,
+ "Moneda no soportada")))</f>
+        <v>2.3446222553033018E-2</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="31" t="str">
+        <f ca="1">IF(N41 &lt; O41, "MANTENER", IF(N41 &lt; P41, "VENTA PARCIAL", "VENDER"))</f>
+        <v>VENDER</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>5.3867089999999999E-2</v>
+      </c>
+      <c r="V41" s="2">
+        <f ca="1">IF(G41="BTC", D41 * U41 * C41, IF(G41="ETH", E41 * U41 * C41, IF(G41="IO.NET", F41 * U41 * C41, 0)))</f>
+        <v>357.56882767946996</v>
+      </c>
+      <c r="W41" s="2">
+        <f>IF(G41 = "BTC", ((T41 - L41)), IF(G41 = "ETH", ((T41 - L41)), IF(G41 = "IO.NET", ((T41 - L41)), "Moneda no soportada")))</f>
+        <v>-349.99732079053973</v>
+      </c>
+      <c r="X41" s="32">
+        <f ca="1">IF(G41 = "BTC", (((D41 - J41) / J41)),IF(G41 = "ETH", ((E41 - J41) / J41), IF(G41 = "IO.NET", ((F41 - J41) / J41), "Moneda no soportada")))</f>
+        <v>2.3446222553033018E-2</v>
+      </c>
+      <c r="Y41" s="2" t="str">
+        <f>IF(U41=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:Z38">
-    <cfRule type="expression" dxfId="66" priority="1">
+  <conditionalFormatting sqref="B3:Z41">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q38">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
+  <conditionalFormatting sqref="Q3:Q41">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19393,10 +19987,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19450,7 +20044,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -19471,11 +20065,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3967</v>
+        <v>3955</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">G3*H3</f>
-        <v>697.10952471000007</v>
+        <v>695.00079915000003</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -19483,7 +20077,7 @@
       </c>
       <c r="K3" s="10">
         <f ca="1">((I3-J3)/J3)</f>
-        <v>-4.0795832548797088E-3</v>
+        <v>-7.0921985815602384E-3</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -19493,7 +20087,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -19514,11 +20108,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3967</v>
+        <v>3955</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">G4*H4</f>
-        <v>797.03976217000013</v>
+        <v>794.62875205000012</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -19526,7 +20120,7 @@
       </c>
       <c r="K4" s="10">
         <f ca="1">((I4-J4)/J4)</f>
-        <v>-3.6568385238399618E-3</v>
+        <v>-6.6707326346829134E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
@@ -19536,7 +20130,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -19557,11 +20151,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3967</v>
+        <v>3955</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">G5*H5</f>
-        <v>1488.8949953800002</v>
+        <v>1484.3911537000001</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -19569,7 +20163,7 @@
       </c>
       <c r="K5" s="10">
         <f ca="1">((I5-J5)/J5)</f>
-        <v>-7.3801365154899726E-3</v>
+        <v>-1.0382767814157543E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
@@ -19579,7 +20173,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -19600,11 +20194,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3967</v>
+        <v>3955</v>
       </c>
       <c r="I6" s="22">
         <f ca="1">G6*H6</f>
-        <v>2149.4504795800003</v>
+        <v>2142.9484867000001</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -19612,7 +20206,7 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">((I6-J6)/J6)</f>
-        <v>-2.2961775381866362E-2</v>
+        <v>-2.5917272910330691E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
@@ -19622,7 +20216,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -19643,11 +20237,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3967</v>
+        <v>3955</v>
       </c>
       <c r="I7" s="22">
         <f ca="1">G7*H7</f>
-        <v>2836.23882237</v>
+        <v>2827.65932505</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -19655,11 +20249,54 @@
       </c>
       <c r="K7" s="30">
         <f ca="1">((I7-J7)/J7)</f>
-        <v>-2.1974854821935626E-2</v>
+        <v>-2.4933337741556684E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
         <v>4447.6410000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45523</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3958.06</v>
+      </c>
+      <c r="E8">
+        <v>0.17685443000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <f>D8*E8</f>
+        <v>700.00044520580002</v>
+      </c>
+      <c r="G8" s="14">
+        <f>G7+E8</f>
+        <v>0.89181253999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <f ca="1">VLOOKUP(B8,Tabla4[],6,FALSE)</f>
+        <v>3955</v>
+      </c>
+      <c r="I8" s="22">
+        <f ca="1">G8*H8</f>
+        <v>3527.1185956999998</v>
+      </c>
+      <c r="J8" s="8">
+        <f>F8+J7</f>
+        <v>3599.9655804106005</v>
+      </c>
+      <c r="K8" s="30">
+        <f ca="1">((I8-J8)/J8)</f>
+        <v>-2.0235467001962847E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <f>D8*1.1</f>
+        <v>4353.866</v>
       </c>
     </row>
   </sheetData>
@@ -20125,10 +20762,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20926,6 +21563,54 @@
         <v>31048.259074800004</v>
       </c>
     </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>45523</v>
+      </c>
+      <c r="C35" s="8">
+        <f>VLOOKUP(B35,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="D35" s="24">
+        <v>514.35</v>
+      </c>
+      <c r="E35" s="8">
+        <f>0.01518 * D35</f>
+        <v>7.8078330000000005</v>
+      </c>
+      <c r="F35" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>0.10783300000000029</v>
+      </c>
+      <c r="G35" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31466.816243280002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>45524</v>
+      </c>
+      <c r="C36" s="8">
+        <f>VLOOKUP(B36,Tabla4[],2,FALSE)</f>
+        <v>4023.02</v>
+      </c>
+      <c r="D36" s="24">
+        <v>513.5</v>
+      </c>
+      <c r="E36" s="8">
+        <f>0.01518 * D36</f>
+        <v>7.7949300000000008</v>
+      </c>
+      <c r="F36" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>9.4930000000000625E-2</v>
+      </c>
+      <c r="G36" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31359.159288600003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20937,10 +21622,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22467,6 +23152,72 @@
       </c>
       <c r="K47" s="3">
         <v>278.49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>45523</v>
+      </c>
+      <c r="C48" s="3">
+        <f>VLOOKUP(B48,Tabla4[],2,FALSE)</f>
+        <v>4030.16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5608.24</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19766.490000000002</v>
+      </c>
+      <c r="F48" s="3">
+        <v>68.98</v>
+      </c>
+      <c r="G48" s="3">
+        <v>159.63</v>
+      </c>
+      <c r="H48" s="3">
+        <v>168.42</v>
+      </c>
+      <c r="I48" s="3">
+        <v>173.82</v>
+      </c>
+      <c r="J48" s="3">
+        <v>421.53</v>
+      </c>
+      <c r="K48" s="3">
+        <v>287.55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>45524</v>
+      </c>
+      <c r="C49" s="3">
+        <f>VLOOKUP(B49,Tabla4[],2,FALSE)</f>
+        <v>4023.02</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5597.11</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19719.82</v>
+      </c>
+      <c r="F49" s="3">
+        <v>69.38</v>
+      </c>
+      <c r="G49" s="3">
+        <v>160.16</v>
+      </c>
+      <c r="H49" s="3">
+        <v>170.41</v>
+      </c>
+      <c r="I49" s="3">
+        <v>175.85</v>
+      </c>
+      <c r="J49" s="3">
+        <v>424.8</v>
+      </c>
+      <c r="K49" s="3">
+        <v>285.63</v>
       </c>
     </row>
   </sheetData>
@@ -22482,7 +23233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -22570,35 +23321,35 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45521</v>
-      </c>
-      <c r="C3" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C3" s="19">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F3" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G3" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -22616,9 +23367,9 @@
         <f t="shared" ref="N3:N14" si="1">(M3/L3)</f>
         <v>0.11178537208559566</v>
       </c>
-      <c r="O3" s="7" t="e">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O14" ca="1" si="2">ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</f>
-        <v>#N/A</v>
+        <v>7.76</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="7"/>
@@ -22626,47 +23377,47 @@
         <f t="shared" ref="R3:R14" si="3">ROUND(Q3*N3,2)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="e">
+      <c r="S3" s="7">
         <f t="shared" ref="S3:S14" ca="1" si="4">ROUND(O3-M3,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T3" s="9" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="T3" s="9">
         <f t="shared" ref="T3:T14" ca="1" si="5">ROUND((S3+R3)/M3,2)</f>
-        <v>#N/A</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C4" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C4" s="19">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -22684,9 +23435,9 @@
         <f t="shared" si="1"/>
         <v>4.7961630695443652E-2</v>
       </c>
-      <c r="O4" s="7" t="e">
+      <c r="O4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.68</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="7"/>
@@ -22694,47 +23445,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7" t="e">
+      <c r="S4" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" s="9" t="e">
+        <v>0.68</v>
+      </c>
+      <c r="T4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C5" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C5" s="19">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -22752,9 +23503,9 @@
         <f t="shared" si="1"/>
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="O5" s="7" t="e">
+      <c r="O5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.12</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="7"/>
@@ -22762,47 +23513,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7" t="e">
+      <c r="S5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" s="9" t="e">
+        <v>0.12</v>
+      </c>
+      <c r="T5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C6" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C6" s="19">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -22820,9 +23571,9 @@
         <f t="shared" si="1"/>
         <v>4.2133140724690023E-2</v>
       </c>
-      <c r="O6" s="7" t="e">
+      <c r="O6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.41</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="7"/>
@@ -22830,47 +23581,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="7" t="e">
+      <c r="S6" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="9" t="e">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C7" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C7" s="19">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -22888,9 +23639,9 @@
         <f t="shared" si="1"/>
         <v>2.7612322985286576E-2</v>
       </c>
-      <c r="O7" s="7" t="e">
+      <c r="O7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.89</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="7"/>
@@ -22898,47 +23649,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7" t="e">
+      <c r="S7" s="7">
         <f ca="1">ROUND(O7-M7,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" s="9" t="e">
+        <v>0.89</v>
+      </c>
+      <c r="T7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C8" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C8" s="19">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -22956,9 +23707,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7" t="e">
+      <c r="O8" s="7">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>#N/A</v>
+        <v>7.8</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -22966,47 +23717,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7" t="e">
+      <c r="S8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="9" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C9" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C9" s="19">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -23024,9 +23775,9 @@
         <f t="shared" si="1"/>
         <v>0.10734549915657109</v>
       </c>
-      <c r="O9" s="7" t="e">
+      <c r="O9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.45</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="7"/>
@@ -23034,47 +23785,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7" t="e">
+      <c r="S9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="9" t="e">
+        <v>0.45</v>
+      </c>
+      <c r="T9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C10" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C10" s="19">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -23092,9 +23843,9 @@
         <f t="shared" si="1"/>
         <v>4.4705581811214708E-2</v>
       </c>
-      <c r="O10" s="7" t="e">
+      <c r="O10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.16</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="7"/>
@@ -23102,47 +23853,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7" t="e">
+      <c r="S10" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" s="9" t="e">
+        <v>0.16</v>
+      </c>
+      <c r="T10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C11" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C11" s="19">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -23160,9 +23911,9 @@
         <f t="shared" si="1"/>
         <v>4.1312559017941453E-2</v>
       </c>
-      <c r="O11" s="7" t="e">
+      <c r="O11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.04</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="7"/>
@@ -23170,47 +23921,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="7" t="e">
+      <c r="S11" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" s="9" t="e">
+        <v>0.04</v>
+      </c>
+      <c r="T11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C12" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C12" s="19">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -23228,9 +23979,9 @@
         <f t="shared" si="1"/>
         <v>4.1203131437989288E-2</v>
       </c>
-      <c r="O12" s="7" t="e">
+      <c r="O12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.25</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="7"/>
@@ -23238,47 +23989,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7" t="e">
+      <c r="S12" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="9" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="T12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C13" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C13" s="19">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -23296,9 +24047,9 @@
         <f t="shared" si="1"/>
         <v>2.681992337164751E-2</v>
       </c>
-      <c r="O13" s="7" t="e">
+      <c r="O13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>7.66</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="7"/>
@@ -23306,47 +24057,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="7" t="e">
+      <c r="S13" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="9" t="e">
+        <v>0.66</v>
+      </c>
+      <c r="T13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45521</v>
-      </c>
-      <c r="C14" s="19" t="e">
+        <v>45524</v>
+      </c>
+      <c r="C14" s="19">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="18" t="e">
+        <v>69.38</v>
+      </c>
+      <c r="D14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="18" t="e">
+        <v>160.16</v>
+      </c>
+      <c r="E14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="18" t="e">
+        <v>170.41</v>
+      </c>
+      <c r="F14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="18" t="e">
+        <v>175.85</v>
+      </c>
+      <c r="G14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="18" t="e">
+        <v>424.8</v>
+      </c>
+      <c r="H14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="18" t="e">
+        <v>285.63</v>
+      </c>
+      <c r="I14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>513.5</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>
@@ -23364,9 +24115,9 @@
         <f t="shared" si="1"/>
         <v>1.5782828282828284E-2</v>
       </c>
-      <c r="O14" s="7" t="e">
+      <c r="O14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>6.7</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="7"/>
@@ -23374,13 +24125,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7" t="e">
+      <c r="S14" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="9" t="e">
+        <v>-0.3</v>
+      </c>
+      <c r="T14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7EB62-D1E9-4F44-B669-F500A17F8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C63B03F-211D-4370-9F02-898E8ABC2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -505,86 +505,13 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="107">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="103">
     <dxf>
       <fill>
         <patternFill>
@@ -1022,6 +949,43 @@
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1345,33 +1309,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="106"/>
-      <tableStyleElement type="headerRow" dxfId="105"/>
-      <tableStyleElement type="secondRowStripe" dxfId="104"/>
+      <tableStyleElement type="wholeTable" dxfId="102"/>
+      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="103"/>
-      <tableStyleElement type="headerRow" dxfId="102"/>
-      <tableStyleElement type="firstRowStripe" dxfId="101"/>
-      <tableStyleElement type="secondRowStripe" dxfId="100"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="99"/>
-    </tableStyle>
-    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" dxfId="99"/>
       <tableStyleElement type="headerRow" dxfId="98"/>
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="wholeTable" dxfId="95"/>
+    <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="94"/>
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="wholeTable" dxfId="91"/>
       <tableStyleElement type="headerRow" dxfId="90"/>
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
+    </tableStyle>
+    <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="wholeTable" dxfId="87"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1538,10 +1502,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$120</c:f>
+              <c:f>CRIPTOS!$B$3:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1895,16 +1859,25 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$120</c:f>
+              <c:f>CRIPTOS!$C$3:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2258,6 +2231,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>4023.02</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4010.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4036.25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4069.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,10 +2341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$120</c:f>
+              <c:f>CRIPTOS!$B$3:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2716,16 +2698,25 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$120</c:f>
+              <c:f>CRIPTOS!$D$3:$D$123</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -3079,6 +3070,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>59050</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>61156.03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60375.839999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61146.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,10 +3180,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$120</c:f>
+              <c:f>CRIPTOS!$B$3:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3537,16 +3537,25 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$120</c:f>
+              <c:f>CRIPTOS!$E$3:$E$123</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3744,6 +3753,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,10 +3863,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$120</c:f>
+              <c:f>CRIPTOS!$B$3:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4202,16 +4220,25 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$120</c:f>
+              <c:f>CRIPTOS!$F$3:$F$123</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4430,6 +4457,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>2577.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2631.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2623.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,10 +4567,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$120</c:f>
+              <c:f>CRIPTOS!$B$3:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4888,16 +4924,25 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$120</c:f>
+              <c:f>CRIPTOS!$G$3:$G$123</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -4984,6 +5029,15 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5319,10 +5373,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5424,16 +5478,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$36</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5535,6 +5595,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4023.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4010.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4036.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5580,10 +5646,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5685,16 +5751,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$36</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5796,6 +5868,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>513.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>515.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>511.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,10 +5919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5946,16 +6024,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$36</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -6057,6 +6141,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7.7949300000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.822254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7589534000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,10 +6192,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6207,16 +6297,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$36</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6318,6 +6414,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9.4930000000000625E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12225399999999986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8953400000000045E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,10 +6465,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$36</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6468,16 +6570,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$36</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6579,6 +6687,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>31359.159288600003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31368.802990799999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31317.075660750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6931,10 +7045,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7075,16 +7189,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$49</c:f>
+              <c:f>BOLSA!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -7225,6 +7345,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4023.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4010.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4036.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,10 +7452,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7470,16 +7596,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$49</c:f>
+              <c:f>BOLSA!$D$3:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -7620,6 +7752,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5597.11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5620.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5570.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7721,10 +7859,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7865,16 +8003,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$49</c:f>
+              <c:f>BOLSA!$E$3:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -8015,6 +8159,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>19719.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19824.84</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19491.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8415,10 +8565,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8559,16 +8709,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$49</c:f>
+              <c:f>BOLSA!$F$3:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -8709,6 +8865,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>69.38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8810,10 +8972,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8954,16 +9116,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$49</c:f>
+              <c:f>BOLSA!$G$3:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -9104,6 +9272,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>160.16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>161.43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>162.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9205,10 +9379,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9349,16 +9523,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$49</c:f>
+              <c:f>BOLSA!$H$3:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -9499,6 +9679,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>170.41</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>170.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9600,10 +9786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9744,16 +9930,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$49</c:f>
+              <c:f>BOLSA!$I$3:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -9894,6 +10086,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>175.85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>175.21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>175.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9995,10 +10193,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10139,16 +10337,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$49</c:f>
+              <c:f>BOLSA!$J$3:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -10253,6 +10457,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>424.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>424.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>415.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10354,10 +10564,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$49</c:f>
+              <c:f>BOLSA!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10498,16 +10708,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$49</c:f>
+              <c:f>BOLSA!$K$3:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -10648,6 +10864,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>285.63</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>289.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>289.20999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13226,7 +13448,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="87" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
@@ -13238,52 +13460,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="27" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="21">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="18" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="17" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="16" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="15" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13298,10 +13520,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="86" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="85" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13310,22 +13532,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="80">
   <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="80" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="78">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="77" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13334,15 +13556,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G120" totalsRowShown="0">
-  <autoFilter ref="B2:G120" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G123" totalsRowShown="0">
+  <autoFilter ref="B2:G123" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13358,61 +13580,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="69">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="68">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="67">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="66">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="65">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="63" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="62" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="61" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="60" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="58" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="57">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="56"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="55">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="54">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="53">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="52" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="51">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13425,16 +13647,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L8" totalsRowShown="0">
   <autoFilter ref="B2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13446,7 +13668,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="47" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13461,7 +13683,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13493,21 +13715,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G36" totalsRowShown="0">
-  <autoFilter ref="B2:G36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G38" totalsRowShown="0">
+  <autoFilter ref="B2:G38" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="43" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13516,21 +13738,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K49" totalsRowShown="0" headerRowDxfId="39">
-  <autoFilter ref="B2:K49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K51" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="B2:K51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="38">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14311,10 +14533,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14623,10 +14845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G120"/>
+  <dimension ref="B2:G123"/>
   <sheetViews>
     <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16645,6 +16867,66 @@
         <v>3955</v>
       </c>
     </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>45525</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4010.2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>61156.03</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2631.2</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>45526</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4036.25</v>
+      </c>
+      <c r="D122" s="3">
+        <v>60375.839999999997</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2623.1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C123" s="3">
+        <v>4069.62</v>
+      </c>
+      <c r="D123" s="3">
+        <v>61146.6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2665</v>
+      </c>
+      <c r="G123" s="3">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16658,7 +16940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -16759,23 +17041,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -16799,14 +17081,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>598.64951411999994</v>
+        <v>627.08543425584003</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.16768855624621196</v>
+        <v>-0.13813691910863041</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -16825,7 +17107,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>598.64951411999994</v>
+        <v>627.08543425584003</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -16833,7 +17115,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.16768855624621196</v>
+        <v>-0.13813691910863041</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -16843,23 +17125,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -16883,11 +17165,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>489.43256716000002</v>
+        <v>511.90936056000004</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32194427710447188</v>
+        <v>-0.29892589659880409</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -16906,7 +17188,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>489.43256716000002</v>
+        <v>511.90936056000004</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -16914,7 +17196,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.32194427710447188</v>
+        <v>-0.29892589659880409</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -16924,23 +17206,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -16964,11 +17246,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>610.52748066999993</v>
+        <v>639.52760557043996</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14761244875570184</v>
+        <v>-0.11734799930711937</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -16987,7 +17269,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>610.52748066999993</v>
+        <v>639.52760557043996</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -16995,7 +17277,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.14761244875570184</v>
+        <v>-0.11734799930711937</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17005,23 +17287,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -17045,11 +17327,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>504.67548821349993</v>
+        <v>527.85230039099997</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29762268099670813</v>
+        <v>-0.27377864009940917</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -17068,7 +17350,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>504.67548821349993</v>
+        <v>527.85230039099997</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -17076,7 +17358,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29762268099670813</v>
+        <v>-0.27377864009940917</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17086,23 +17368,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -17126,11 +17408,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>624.78104052999993</v>
+        <v>654.45821114796001</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11162796995331714</v>
+        <v>-8.0085873455503859E-2</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -17149,7 +17431,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>624.78104052999993</v>
+        <v>654.45821114796001</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -17157,7 +17439,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11162796995331714</v>
+        <v>-8.0085873455503859E-2</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17167,23 +17449,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -17207,11 +17489,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>256.96143317690996</v>
+        <v>318.227010090948</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6099290780141845</v>
+        <v>-0.52245862884160765</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -17230,7 +17512,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>256.96143317690996</v>
+        <v>318.227010090948</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -17238,7 +17520,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.6099290780141845</v>
+        <v>-0.52245862884160765</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17248,23 +17530,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -17288,11 +17570,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>510.17123526000006</v>
+        <v>533.60043516000007</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26478767980968626</v>
+        <v>-0.23982896864900635</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -17311,7 +17593,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>510.17123526000006</v>
+        <v>533.60043516000007</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -17319,7 +17601,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.26478767980968626</v>
+        <v>-0.23982896864900635</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17329,23 +17611,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -17369,11 +17651,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>646.16138031999992</v>
+        <v>676.85411951423998</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8918510706171056E-2</v>
+        <v>-4.7948282260111873E-3</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -17392,7 +17674,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>646.16138031999992</v>
+        <v>676.85411951423998</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -17400,7 +17682,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.8918510706171056E-2</v>
+        <v>-4.7948282260111873E-3</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17410,23 +17692,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -17450,11 +17732,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>643.78578700999992</v>
+        <v>674.36568525131986</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1544903187291529E-2</v>
+        <v>2.8405829427257966E-3</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -17473,7 +17755,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>643.78578700999992</v>
+        <v>674.36568525131986</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -17481,7 +17763,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.1544903187291529E-2</v>
+        <v>2.8405829427257966E-3</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17491,23 +17773,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17531,11 +17813,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>719.8047729299999</v>
+        <v>753.99558166475992</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3.425204573478307E-2</v>
+        <v>7.0973685685461224E-2</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -17554,7 +17836,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>719.8047729299999</v>
+        <v>753.99558166475992</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -17562,7 +17844,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>3.425204573478307E-2</v>
+        <v>7.0973685685461224E-2</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17572,23 +17854,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -17612,11 +17894,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>667.54172011000003</v>
+        <v>699.25002788051995</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2101432816761164E-2</v>
+        <v>-2.8800871665933443E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -17635,7 +17917,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>667.54172011000003</v>
+        <v>699.25002788051995</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -17643,7 +17925,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.2101432816761164E-2</v>
+        <v>-2.8800871665933443E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17653,23 +17935,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -17693,11 +17975,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>524.79199627050002</v>
+        <v>548.8926427529999</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23693162137598028</v>
+        <v>-0.21102726322676527</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -17716,7 +17998,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>524.79199627050002</v>
+        <v>548.8926427529999</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -17724,7 +18006,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23693162137598028</v>
+        <v>-0.21102726322676527</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17734,23 +18016,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -17774,11 +18056,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>511.62294202700002</v>
+        <v>535.11881038199999</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2326653825658003</v>
+        <v>-0.20661619574698653</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -17797,7 +18079,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>511.62294202700002</v>
+        <v>535.11881038199999</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -17805,7 +18087,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.2326653825658003</v>
+        <v>-0.20661619574698653</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17815,23 +18097,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -17855,11 +18137,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>589.392947402</v>
+        <v>616.46034013199994</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15630114566284778</v>
+        <v>-0.1276595744680851</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -17878,7 +18160,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>589.392947402</v>
+        <v>616.46034013199994</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -17886,7 +18168,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.15630114566284778</v>
+        <v>-0.1276595744680851</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17896,23 +18178,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -17936,11 +18218,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>545.42697103</v>
+        <v>570.47526198000003</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25464850640525144</v>
+        <v>-0.22934559440154997</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -17959,7 +18241,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>545.42697103</v>
+        <v>570.47526198000003</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -17967,7 +18249,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.25464850640525144</v>
+        <v>-0.22934559440154997</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17977,23 +18259,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -18017,11 +18299,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>349.99435803782995</v>
+        <v>433.44114612872397</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51470588235294124</v>
+        <v>-0.40588235294117647</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -18040,7 +18322,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>349.99435803782995</v>
+        <v>433.44114612872397</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -18048,7 +18330,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.51470588235294124</v>
+        <v>-0.40588235294117647</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18058,23 +18340,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -18098,11 +18380,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>182.46248703012</v>
+        <v>225.965783983536</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41696113074204949</v>
+        <v>-0.28621908127208484</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -18121,7 +18403,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>182.46248703012</v>
+        <v>225.965783983536</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -18129,7 +18411,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.41696113074204949</v>
+        <v>-0.28621908127208484</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18139,23 +18421,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -18179,11 +18461,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>256.47891819263998</v>
+        <v>317.62945232179197</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27947598253275113</v>
+        <v>-0.11790393013100438</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -18215,7 +18497,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.27947598253275113</v>
+        <v>-0.11790393013100438</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18225,23 +18507,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -18265,11 +18547,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>246.40126516169997</v>
+        <v>305.14905262475997</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37022900763358785</v>
+        <v>-0.22900763358778628</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -18301,7 +18583,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.37022900763358785</v>
+        <v>-0.22900763358778628</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18311,23 +18593,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -18351,14 +18633,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>252.67714618904998</v>
+        <v>312.92124952733997</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.38661710037174724</v>
+        <v>-0.24907063197026019</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -18382,7 +18664,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.43379218904999162</v>
+        <v>0.53721832733998964</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -18390,7 +18672,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38661710037174724</v>
+        <v>-0.24907063197026019</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18400,23 +18682,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -18440,11 +18722,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>254.40780111680996</v>
+        <v>315.06453280666796</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.39338235294117657</v>
+        <v>-0.25735294117647062</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -18468,7 +18750,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1644471168099848</v>
+        <v>2.6805016066679812</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -18476,7 +18758,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.39338235294117657</v>
+        <v>-0.25735294117647062</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18486,23 +18768,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18526,11 +18808,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>257.98640413193999</v>
+        <v>319.49635793983197</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.40217391304347827</v>
+        <v>-0.26811594202898542</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -18554,7 +18836,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3495747776000169</v>
+        <v>9.1018841932800214</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -18562,7 +18844,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.40217391304347827</v>
+        <v>-0.26811594202898542</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18572,23 +18854,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -18612,11 +18894,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>253.64005200302998</v>
+        <v>314.113734463284</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.41281138790035593</v>
+        <v>-0.28113879003558717</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -18640,7 +18922,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3966980030300076</v>
+        <v>1.7297032632840095</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -18648,7 +18930,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.41281138790035593</v>
+        <v>-0.28113879003558717</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -18658,23 +18940,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -18697,11 +18979,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>255.96347881269</v>
+        <v>316.99112021593203</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.45801060328347032</v>
+        <v>-0.33647358705006669</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -18720,7 +19002,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>255.96347881269</v>
+        <v>316.99112021593203</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -18728,7 +19010,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.45801060328347032</v>
+        <v>-0.33647358705006669</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18738,23 +19020,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -18778,11 +19060,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>615.27866729000004</v>
+        <v>644.50447409627998</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.11595364572931503</v>
+        <v>-8.4565134529248701E-2</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -18801,7 +19083,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>615.27866729000004</v>
+        <v>644.50447409627998</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -18809,7 +19091,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.11595364572931503</v>
+        <v>-8.4565134529248701E-2</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18819,23 +19101,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -18859,11 +19141,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>520.02210260749996</v>
+        <v>543.90369559500004</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.25443290619305198</v>
+        <v>-0.22912267507448436</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -18882,7 +19164,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>520.02210260749996</v>
+        <v>543.90369559500004</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -18890,7 +19172,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.25443290619305198</v>
+        <v>-0.22912267507448436</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18900,23 +19182,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -18940,11 +19222,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>197.20511537396999</v>
+        <v>244.22339751231601</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.43493150684931509</v>
+        <v>-0.30821917808219174</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -18963,7 +19245,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>197.20511537396999</v>
+        <v>244.22339751231601</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -18971,7 +19253,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.43493150684931509</v>
+        <v>-0.30821917808219174</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -18981,23 +19263,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -19021,14 +19303,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>601.02510742999993</v>
+        <v>629.57386851876004</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.14021799587071671</v>
+        <v>-0.1096910026470511</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -19047,7 +19329,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>601.02510742999993</v>
+        <v>629.57386851876004</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -19055,7 +19337,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.14021799587071671</v>
+        <v>-0.1096910026470511</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19065,23 +19347,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -19105,11 +19387,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>543.24941087950003</v>
+        <v>568.19769914699998</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.22259086110692203</v>
+        <v>-0.19619966822500376</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -19128,7 +19410,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>543.24941087950003</v>
+        <v>568.19769914699998</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -19136,7 +19418,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.22259086110692203</v>
+        <v>-0.19619966822500376</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19146,23 +19428,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -19186,11 +19468,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>198.85876969892999</v>
+        <v>246.27132145580399</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.43103448275862072</v>
+        <v>-0.30344827586206896</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -19209,7 +19491,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>198.85876969892999</v>
+        <v>246.27132145580399</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -19217,7 +19499,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.43103448275862072</v>
+        <v>-0.30344827586206896</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19227,23 +19509,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -19267,11 +19549,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>755.43867258</v>
+        <v>791.32209560855995</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10438877177941629</v>
+        <v>0.14360065152391624</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -19290,7 +19572,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>755.43867258</v>
+        <v>791.32209560855995</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -19298,7 +19580,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.10438877177941629</v>
+        <v>0.14360065152391624</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -19308,23 +19590,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -19348,11 +19630,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>742.5480113205</v>
+        <v>776.64892605299997</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>8.5546542676403894E-2</v>
+        <v>0.12239826817948259</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -19371,7 +19653,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>742.5480113205</v>
+        <v>776.64892605299997</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -19379,7 +19661,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>8.5546542676403894E-2</v>
+        <v>0.12239826817948259</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19389,23 +19671,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -19429,11 +19711,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>383.28132034929001</v>
+        <v>474.66449377441199</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12061939690301547</v>
+        <v>0.37190980711763116</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -19443,7 +19725,7 @@
       </c>
       <c r="Q35" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>VENTA PARCIAL</v>
+        <v>VENDER</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="14">
@@ -19452,7 +19734,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>383.28132034929001</v>
+        <v>474.66449377441199</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -19460,7 +19742,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.12061939690301547</v>
+        <v>0.37190980711763116</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19469,24 +19751,24 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ref="B36:B41" ca="1" si="25">TODAY()</f>
+        <v>45527</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19509,15 +19791,15 @@
         <v>699.99648833423703</v>
       </c>
       <c r="M36" s="26">
-        <f ca="1" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>691.29765321000002</v>
+        <f t="shared" ref="M36:M41" ca="1" si="26" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
+        <v>724.13437050971993</v>
       </c>
       <c r="N36" s="27">
-        <f ca="1">IF(G36 = "BTC", (D36 - J36) / J36,
+        <f t="shared" ref="N36:N41" ca="1" si="27">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>4.5895417046220529E-5</v>
+        <v>3.5553028767281239E-2</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -19526,7 +19808,7 @@
         <v>0.5</v>
       </c>
       <c r="Q36" t="str">
-        <f ca="1">IF(N36 &lt; O36, "MANTENER", IF(N36 &lt; P36, "VENTA PARCIAL", "VENDER"))</f>
+        <f t="shared" ref="Q36:Q41" ca="1" si="28">IF(N36 &lt; O36, "MANTENER", IF(N36 &lt; P36, "VENTA PARCIAL", "VENDER"))</f>
         <v>MANTENER</v>
       </c>
       <c r="T36" s="2"/>
@@ -19535,16 +19817,16 @@
         <v>2.9100000000000001E-6</v>
       </c>
       <c r="V36" s="2">
-        <f ca="1">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>691.29765321000002</v>
+        <f t="shared" ref="V36:V41" ca="1" si="29">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
+        <v>724.13437050971993</v>
       </c>
       <c r="W36" s="2">
-        <f>IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
+        <f t="shared" ref="W36:W41" si="30">IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
         <v>-699.99648833423703</v>
       </c>
       <c r="X36" s="9">
-        <f ca="1">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>4.5895417046220529E-5</v>
+        <f t="shared" ref="X36:X41" ca="1" si="31">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
+        <v>3.5553028767281239E-2</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19553,24 +19835,24 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45527</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -19593,15 +19875,12 @@
         <v>700.01513873535998</v>
       </c>
       <c r="M37" s="26">
-        <f ca="1" xml:space="preserve"> K37 * (IF(G37="BTC", D37, IF(G37="ETH", E37, IF(G37="IO.NET", F37, 0)))) * C37</f>
-        <v>673.59193988800007</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>704.52610300799995</v>
       </c>
       <c r="N37" s="27">
-        <f ca="1">IF(G37 = "BTC", (D37 - J37) / J37,
- IF(G37 = "ETH", (E37 - J37) / J37,
- IF(G37 = "IO.NET", (F37 - J37) / J37,
- "Moneda no soportada")))</f>
-        <v>-2.5593527899591646E-2</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>7.4852563133223134E-3</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -19610,7 +19889,7 @@
         <v>0.5</v>
       </c>
       <c r="Q37" t="str">
-        <f ca="1">IF(N37 &lt; O37, "MANTENER", IF(N37 &lt; P37, "VENTA PARCIAL", "VENDER"))</f>
+        <f t="shared" ca="1" si="28"/>
         <v>MANTENER</v>
       </c>
       <c r="T37" s="2"/>
@@ -19619,16 +19898,16 @@
         <v>6.4960000000000001E-5</v>
       </c>
       <c r="V37" s="2">
-        <f ca="1">IF(G37="BTC", D37 * U37 * C37, IF(G37="ETH", E37 * U37 * C37, IF(G37="IO.NET", F37 * U37 * C37, 0)))</f>
-        <v>673.59193988800007</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>704.52610300799995</v>
       </c>
       <c r="W37" s="2">
-        <f>IF(G37 = "BTC", ((T37 - L37)), IF(G37 = "ETH", ((T37 - L37)), IF(G37 = "IO.NET", ((T37 - L37)), "Moneda no soportada")))</f>
+        <f t="shared" si="30"/>
         <v>-700.01513873535998</v>
       </c>
       <c r="X37" s="9">
-        <f ca="1">IF(G37 = "BTC", (((D37 - J37) / J37)),IF(G37 = "ETH", ((E37 - J37) / J37), IF(G37 = "IO.NET", ((F37 - J37) / J37), "Moneda no soportada")))</f>
-        <v>-2.5593527899591646E-2</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>7.4852563133223134E-3</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19637,24 +19916,24 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45527</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -19677,15 +19956,12 @@
         <v>349.9990705940495</v>
       </c>
       <c r="M38" s="26">
-        <f ca="1" xml:space="preserve"> K38 * (IF(G38="BTC", D38, IF(G38="ETH", E38, IF(G38="IO.NET", F38, 0)))) * C38</f>
-        <v>362.70509978537996</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>449.18242407986395</v>
       </c>
       <c r="N38" s="27">
-        <f ca="1">IF(G38 = "BTC", (D38 - J38) / J38,
- IF(G38 = "ETH", (E38 - J38) / J38,
- IF(G38 = "IO.NET", (F38 - J38) / J38,
- "Moneda no soportada")))</f>
-        <v>4.9391353015251049E-2</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0.28470941399442862</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -19694,8 +19970,8 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="str">
-        <f ca="1">IF(N38 &lt; O38, "MANTENER", IF(N38 &lt; P38, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>VENTA PARCIAL</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="14">
@@ -19703,16 +19979,16 @@
         <v>5.4640859999999999E-2</v>
       </c>
       <c r="V38" s="2">
-        <f ca="1">IF(G38="BTC", D38 * U38 * C38, IF(G38="ETH", E38 * U38 * C38, IF(G38="IO.NET", F38 * U38 * C38, 0)))</f>
-        <v>362.70509978537996</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>449.18242407986395</v>
       </c>
       <c r="W38" s="2">
-        <f>IF(G38 = "BTC", ((T38 - L38)), IF(G38 = "ETH", ((T38 - L38)), IF(G38 = "IO.NET", ((T38 - L38)), "Moneda no soportada")))</f>
+        <f t="shared" si="30"/>
         <v>-349.9990705940495</v>
       </c>
       <c r="X38" s="9">
-        <f ca="1">IF(G38 = "BTC", (((D38 - J38) / J38)),IF(G38 = "ETH", ((E38 - J38) / J38), IF(G38 = "IO.NET", ((F38 - J38) / J38), "Moneda no soportada")))</f>
-        <v>4.9391353015251049E-2</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>0.28470941399442862</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19721,24 +19997,24 @@
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45527</v>
       </c>
       <c r="C39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">VLOOKUP(B39,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -19761,21 +20037,22 @@
         <v>700.00297999823999</v>
       </c>
       <c r="M39" s="26">
-        <f ca="1" xml:space="preserve"> K39 * (IF(G39="BTC", D39, IF(G39="ETH", E39, IF(G39="IO.NET", F39, 0)))) * C39</f>
-        <v>719.8047729299999</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>753.99558166475992</v>
       </c>
       <c r="N39" s="27">
-        <f ca="1">IF(G39 = "BTC", (D39 - J39) / J39,
- IF(G39 = "ETH", (E39 - J39) / J39,
- IF(G39 = "IO.NET", (F39 - J39) / J39,
- "Moneda no soportada")))</f>
-        <v>3.0113146720908191E-2</v>
-      </c>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="31" t="str">
-        <f ca="1">IF(N39 &lt; O39, "MANTENER", IF(N39 &lt; P39, "VENTA PARCIAL", "VENDER"))</f>
-        <v>VENDER</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>6.6687832976878636E-2</v>
+      </c>
+      <c r="O39" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P39" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>MANTENER</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="14">
@@ -19783,16 +20060,16 @@
         <v>3.0299999999999998E-6</v>
       </c>
       <c r="V39" s="2">
-        <f ca="1">IF(G39="BTC", D39 * U39 * C39, IF(G39="ETH", E39 * U39 * C39, IF(G39="IO.NET", F39 * U39 * C39, 0)))</f>
-        <v>719.8047729299999</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>753.99558166475992</v>
       </c>
       <c r="W39" s="2">
-        <f>IF(G39 = "BTC", ((T39 - L39)), IF(G39 = "ETH", ((T39 - L39)), IF(G39 = "IO.NET", ((T39 - L39)), "Moneda no soportada")))</f>
+        <f t="shared" si="30"/>
         <v>-700.00297999823999</v>
       </c>
-      <c r="X39" s="32">
-        <f ca="1">IF(G39 = "BTC", (((D39 - J39) / J39)),IF(G39 = "ETH", ((E39 - J39) / J39), IF(G39 = "IO.NET", ((F39 - J39) / J39), "Moneda no soportada")))</f>
-        <v>3.0113146720908191E-2</v>
+      <c r="X39" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>6.6687832976878636E-2</v>
       </c>
       <c r="Y39" s="2" t="str">
         <f>IF(U39=0,"VENDIDA","ACTIVA")</f>
@@ -19801,24 +20078,24 @@
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45527</v>
       </c>
       <c r="C40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">VLOOKUP(B40,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -19841,21 +20118,22 @@
         <v>700.00259914812</v>
       </c>
       <c r="M40" s="26">
-        <f ca="1" xml:space="preserve"> K40 * (IF(G40="BTC", D40, IF(G40="ETH", E40, IF(G40="IO.NET", F40, 0)))) * C40</f>
-        <v>712.68432925650006</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>745.41377862900003</v>
       </c>
       <c r="N40" s="27">
-        <f ca="1">IF(G40 = "BTC", (D40 - J40) / J40,
- IF(G40 = "ETH", (E40 - J40) / J40,
- IF(G40 = "IO.NET", (F40 - J40) / J40,
- "Moneda no soportada")))</f>
-        <v>1.9923629384880164E-2</v>
-      </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="31" t="str">
-        <f ca="1">IF(N40 &lt; O40, "MANTENER", IF(N40 &lt; P40, "VENTA PARCIAL", "VENDER"))</f>
-        <v>VENDER</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>5.4547612923649132E-2</v>
+      </c>
+      <c r="O40" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P40" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>MANTENER</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="14">
@@ -19863,16 +20141,16 @@
         <v>6.8730000000000001E-5</v>
       </c>
       <c r="V40" s="2">
-        <f ca="1">IF(G40="BTC", D40 * U40 * C40, IF(G40="ETH", E40 * U40 * C40, IF(G40="IO.NET", F40 * U40 * C40, 0)))</f>
-        <v>712.68432925650006</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>745.41377862900003</v>
       </c>
       <c r="W40" s="2">
-        <f>IF(G40 = "BTC", ((T40 - L40)), IF(G40 = "ETH", ((T40 - L40)), IF(G40 = "IO.NET", ((T40 - L40)), "Moneda no soportada")))</f>
+        <f t="shared" si="30"/>
         <v>-700.00259914812</v>
       </c>
-      <c r="X40" s="32">
-        <f ca="1">IF(G40 = "BTC", (((D40 - J40) / J40)),IF(G40 = "ETH", ((E40 - J40) / J40), IF(G40 = "IO.NET", ((F40 - J40) / J40), "Moneda no soportada")))</f>
-        <v>1.9923629384880164E-2</v>
+      <c r="X40" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>5.4547612923649132E-2</v>
       </c>
       <c r="Y40" s="2" t="str">
         <f>IF(U40=0,"VENDIDA","ACTIVA")</f>
@@ -19881,24 +20159,24 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45527</v>
       </c>
       <c r="C41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],2,FALSE)</f>
-        <v>4023.02</v>
+        <v>4069.62</v>
       </c>
       <c r="D41" s="3">
         <f ca="1">VLOOKUP(B41,Tabla4[],3,FALSE)</f>
-        <v>59050</v>
+        <v>61146.6</v>
       </c>
       <c r="E41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],5,FALSE)</f>
-        <v>2577.5</v>
+        <v>2665</v>
       </c>
       <c r="F41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],4,FALSE)</f>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -19921,21 +20199,22 @@
         <v>349.99732079053973</v>
       </c>
       <c r="M41" s="26">
-        <f ca="1" xml:space="preserve"> K41 * (IF(G41="BTC", D41, IF(G41="ETH", E41, IF(G41="IO.NET", F41, 0)))) * C41</f>
-        <v>357.56882767946996</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>442.82154534771598</v>
       </c>
       <c r="N41" s="27">
-        <f ca="1">IF(G41 = "BTC", (D41 - J41) / J41,
- IF(G41 = "ETH", (E41 - J41) / J41,
- IF(G41 = "IO.NET", (F41 - J41) / J41,
- "Moneda no soportada")))</f>
-        <v>2.3446222553033018E-2</v>
-      </c>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="31" t="str">
-        <f ca="1">IF(N41 &lt; O41, "MANTENER", IF(N41 &lt; P41, "VENTA PARCIAL", "VENDER"))</f>
-        <v>VENDER</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0.25294628458007684</v>
+      </c>
+      <c r="O41" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P41" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>VENTA PARCIAL</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="14">
@@ -19943,16 +20222,16 @@
         <v>5.3867089999999999E-2</v>
       </c>
       <c r="V41" s="2">
-        <f ca="1">IF(G41="BTC", D41 * U41 * C41, IF(G41="ETH", E41 * U41 * C41, IF(G41="IO.NET", F41 * U41 * C41, 0)))</f>
-        <v>357.56882767946996</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>442.82154534771598</v>
       </c>
       <c r="W41" s="2">
-        <f>IF(G41 = "BTC", ((T41 - L41)), IF(G41 = "ETH", ((T41 - L41)), IF(G41 = "IO.NET", ((T41 - L41)), "Moneda no soportada")))</f>
+        <f t="shared" si="30"/>
         <v>-349.99732079053973</v>
       </c>
-      <c r="X41" s="32">
-        <f ca="1">IF(G41 = "BTC", (((D41 - J41) / J41)),IF(G41 = "ETH", ((E41 - J41) / J41), IF(G41 = "IO.NET", ((F41 - J41) / J41), "Moneda no soportada")))</f>
-        <v>2.3446222553033018E-2</v>
+      <c r="X41" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.25294628458007684</v>
       </c>
       <c r="Y41" s="2" t="str">
         <f>IF(U41=0,"VENDIDA","ACTIVA")</f>
@@ -19961,20 +20240,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q41">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20044,7 +20323,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -20056,7 +20335,7 @@
         <v>0.17572713000000001</v>
       </c>
       <c r="F3" s="7">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
         <v>699.9650905725</v>
       </c>
       <c r="G3" s="14">
@@ -20065,19 +20344,19 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I3" s="7">
-        <f ca="1">G3*H3</f>
-        <v>695.00079915000003</v>
+        <f t="shared" ref="I3:I8" ca="1" si="2">G3*H3</f>
+        <v>702.90852000000007</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
         <v>699.9650905725</v>
       </c>
       <c r="K3" s="10">
-        <f ca="1">((I3-J3)/J3)</f>
-        <v>-7.0921985815602384E-3</v>
+        <f t="shared" ref="K3:K8" ca="1" si="3">((I3-J3)/J3)</f>
+        <v>4.2051088934915871E-3</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -20087,7 +20366,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -20099,7 +20378,7 @@
         <v>2.5190379999999998E-2</v>
       </c>
       <c r="F4" s="7">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>100.0000148126</v>
       </c>
       <c r="G4" s="14">
@@ -20108,29 +20387,29 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I4" s="7">
-        <f ca="1">G4*H4</f>
-        <v>794.62875205000012</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>803.67004000000009</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
         <v>799.96510538510006</v>
       </c>
       <c r="K4" s="10">
-        <f ca="1">((I4-J4)/J4)</f>
-        <v>-6.6707326346829134E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.6313702809780491E-3</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L4:L6" si="1">D4*1.1</f>
+        <f t="shared" ref="L4:L6" si="4">D4*1.1</f>
         <v>4366.7470000000003</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -20142,7 +20421,7 @@
         <v>0.17440263</v>
       </c>
       <c r="F5" s="7">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>699.99983603099997</v>
       </c>
       <c r="G5" s="14">
@@ -20151,29 +20430,29 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I5" s="22">
-        <f ca="1">G5*H5</f>
-        <v>1484.3911537000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1501.2805600000002</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
         <v>1499.9649414160999</v>
       </c>
       <c r="K5" s="10">
-        <f ca="1">((I5-J5)/J5)</f>
-        <v>-1.0382767814157543E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7709955584573283E-4</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4415.07</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -20185,7 +20464,7 @@
         <v>0.16651260000000001</v>
       </c>
       <c r="F6" s="22">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>700.00065401400013</v>
       </c>
       <c r="G6" s="14">
@@ -20194,29 +20473,29 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I6" s="22">
-        <f ca="1">G6*H6</f>
-        <v>2142.9484867000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2167.3309600000002</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
         <v>2199.9655954301002</v>
       </c>
       <c r="K6" s="10">
-        <f ca="1">((I6-J6)/J6)</f>
-        <v>-2.5917272910330691E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4834157178589769E-2</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4624.2790000000005</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -20228,7 +20507,7 @@
         <v>0.17312537</v>
       </c>
       <c r="F7" s="7">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>699.9995397747</v>
       </c>
       <c r="G7" s="14">
@@ -20237,19 +20516,19 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I7" s="22">
-        <f ca="1">G7*H7</f>
-        <v>2827.65932505</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2859.8324400000001</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
         <v>2899.9651352048004</v>
       </c>
       <c r="K7" s="30">
-        <f ca="1">((I7-J7)/J7)</f>
-        <v>-2.4933337741556684E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3839026792977639E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -20259,7 +20538,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="C8" s="1">
         <v>45523</v>
@@ -20271,7 +20550,7 @@
         <v>0.17685443000000001</v>
       </c>
       <c r="F8" s="7">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>700.00044520580002</v>
       </c>
       <c r="G8" s="14">
@@ -20280,19 +20559,19 @@
       </c>
       <c r="H8" s="7">
         <f ca="1">VLOOKUP(B8,Tabla4[],6,FALSE)</f>
-        <v>3955</v>
+        <v>4000</v>
       </c>
       <c r="I8" s="22">
-        <f ca="1">G8*H8</f>
-        <v>3527.1185956999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3567.2501600000001</v>
       </c>
       <c r="J8" s="8">
         <f>F8+J7</f>
         <v>3599.9655804106005</v>
       </c>
       <c r="K8" s="30">
-        <f ca="1">((I8-J8)/J8)</f>
-        <v>-2.0235467001962847E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.0877036682303659E-3</v>
       </c>
       <c r="L8" s="8">
         <f>D8*1.1</f>
@@ -20315,7 +20594,7 @@
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20762,10 +21041,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21611,6 +21890,54 @@
         <v>31359.159288600003</v>
       </c>
     </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45525</v>
+      </c>
+      <c r="C37" s="8">
+        <f>VLOOKUP(B37,Tabla4[],2,FALSE)</f>
+        <v>4010.2</v>
+      </c>
+      <c r="D37" s="24">
+        <v>515.29999999999995</v>
+      </c>
+      <c r="E37" s="8">
+        <f>0.01518 * D37</f>
+        <v>7.822254</v>
+      </c>
+      <c r="F37" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>0.12225399999999986</v>
+      </c>
+      <c r="G37" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31368.802990799999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>45526</v>
+      </c>
+      <c r="C38" s="8">
+        <f>VLOOKUP(B38,Tabla4[],2,FALSE)</f>
+        <v>4036.25</v>
+      </c>
+      <c r="D38" s="6">
+        <v>511.13</v>
+      </c>
+      <c r="E38" s="8">
+        <f>0.01518 * D38</f>
+        <v>7.7589534000000002</v>
+      </c>
+      <c r="F38" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>5.8953400000000045E-2</v>
+      </c>
+      <c r="G38" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31317.075660750001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21622,10 +21949,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L49"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23218,6 +23545,72 @@
       </c>
       <c r="K49" s="3">
         <v>285.63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>45525</v>
+      </c>
+      <c r="C50" s="3">
+        <f>VLOOKUP(B50,Tabla4[],2,FALSE)</f>
+        <v>4010.2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5620.94</v>
+      </c>
+      <c r="E50" s="3">
+        <v>19824.84</v>
+      </c>
+      <c r="F50" s="3">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="G50" s="3">
+        <v>161.43</v>
+      </c>
+      <c r="H50" s="3">
+        <v>170.16</v>
+      </c>
+      <c r="I50" s="3">
+        <v>175.21</v>
+      </c>
+      <c r="J50" s="3">
+        <v>424.14</v>
+      </c>
+      <c r="K50" s="3">
+        <v>289.70999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>45526</v>
+      </c>
+      <c r="C51" s="3">
+        <f>VLOOKUP(B51,Tabla4[],2,FALSE)</f>
+        <v>4036.25</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5570.65</v>
+      </c>
+      <c r="E51" s="3">
+        <v>19491.84</v>
+      </c>
+      <c r="F51" s="3">
+        <v>69.33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>162.35</v>
+      </c>
+      <c r="H51" s="3">
+        <v>170.15</v>
+      </c>
+      <c r="I51" s="3">
+        <v>175.74</v>
+      </c>
+      <c r="J51" s="3">
+        <v>415.55</v>
+      </c>
+      <c r="K51" s="3">
+        <v>289.20999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -23233,7 +23626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -23321,35 +23714,35 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45524</v>
-      </c>
-      <c r="C3" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I3" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -23367,9 +23760,9 @@
         <f t="shared" ref="N3:N14" si="1">(M3/L3)</f>
         <v>0.11178537208559566</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="7" t="e">
         <f t="shared" ref="O3:O14" ca="1" si="2">ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</f>
-        <v>7.76</v>
+        <v>#N/A</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="7"/>
@@ -23377,47 +23770,47 @@
         <f t="shared" ref="R3:R14" si="3">ROUND(Q3*N3,2)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="7" t="e">
         <f t="shared" ref="S3:S14" ca="1" si="4">ROUND(O3-M3,2)</f>
-        <v>0.76</v>
-      </c>
-      <c r="T3" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="9" t="e">
         <f t="shared" ref="T3:T14" ca="1" si="5">ROUND((S3+R3)/M3,2)</f>
-        <v>0.11</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C4" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I4" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -23435,9 +23828,9 @@
         <f t="shared" si="1"/>
         <v>4.7961630695443652E-2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.68</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="7"/>
@@ -23445,47 +23838,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68</v>
-      </c>
-      <c r="T4" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C5" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I5" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -23503,9 +23896,9 @@
         <f t="shared" si="1"/>
         <v>4.1791044776119404E-2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.12</v>
+        <v>#N/A</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="7"/>
@@ -23513,47 +23906,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="T5" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.02</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C6" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I6" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -23571,9 +23964,9 @@
         <f t="shared" si="1"/>
         <v>4.2133140724690023E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.41</v>
+        <v>#N/A</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="7"/>
@@ -23581,47 +23974,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T6" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.06</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C7" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -23639,9 +24032,9 @@
         <f t="shared" si="1"/>
         <v>2.7612322985286576E-2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.89</v>
+        <v>#N/A</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="7"/>
@@ -23649,47 +24042,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="7" t="e">
         <f ca="1">ROUND(O7-M7,2)</f>
-        <v>0.89</v>
-      </c>
-      <c r="T7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T7" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C8" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I8" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -23707,9 +24100,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="7" t="e">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>7.8</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -23717,47 +24110,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="T8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C9" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I9" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -23775,9 +24168,9 @@
         <f t="shared" si="1"/>
         <v>0.10734549915657109</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.45</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="7"/>
@@ -23785,47 +24178,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45</v>
-      </c>
-      <c r="T9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.06</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C10" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I10" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -23843,9 +24236,9 @@
         <f t="shared" si="1"/>
         <v>4.4705581811214708E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.16</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="7"/>
@@ -23853,47 +24246,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="T10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.02</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C11" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I11" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -23911,9 +24304,9 @@
         <f t="shared" si="1"/>
         <v>4.1312559017941453E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.04</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="7"/>
@@ -23921,47 +24314,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.04</v>
-      </c>
-      <c r="T11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.01</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C12" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I12" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -23979,9 +24372,9 @@
         <f t="shared" si="1"/>
         <v>4.1203131437989288E-2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.25</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="7"/>
@@ -23989,47 +24382,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="T12" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.04</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C13" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I13" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -24047,9 +24440,9 @@
         <f t="shared" si="1"/>
         <v>2.681992337164751E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.66</v>
+        <v>#N/A</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="7"/>
@@ -24057,47 +24450,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66</v>
-      </c>
-      <c r="T13" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.09</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
-      </c>
-      <c r="C14" s="19">
+        <v>45527</v>
+      </c>
+      <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
-        <v>69.38</v>
-      </c>
-      <c r="D14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],6,FALSE)</f>
-        <v>160.16</v>
-      </c>
-      <c r="E14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],7,FALSE)</f>
-        <v>170.41</v>
-      </c>
-      <c r="F14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],8,FALSE)</f>
-        <v>175.85</v>
-      </c>
-      <c r="G14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],9,FALSE)</f>
-        <v>424.8</v>
-      </c>
-      <c r="H14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
-        <v>285.63</v>
-      </c>
-      <c r="I14" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>513.5</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>
@@ -24115,9 +24508,9 @@
         <f t="shared" si="1"/>
         <v>1.5782828282828284E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>#N/A</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="7"/>
@@ -24125,13 +24518,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.3</v>
-      </c>
-      <c r="T14" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.04</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C63B03F-211D-4370-9F02-898E8ABC2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EBA5D0-72E7-48CD-BB0A-4E0A781D1943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -513,6 +513,43 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -947,43 +984,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1502,10 +1502,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$123</c:f>
+              <c:f>CRIPTOS!$B$3:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1868,16 +1868,22 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$123</c:f>
+              <c:f>CRIPTOS!$C$3:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2240,6 +2246,12 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>4069.62</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4035.33</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4035.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,10 +2353,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$123</c:f>
+              <c:f>CRIPTOS!$B$3:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2707,16 +2719,22 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$123</c:f>
+              <c:f>CRIPTOS!$D$3:$D$125</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -3079,6 +3097,12 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>61146.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>64157.01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>63920.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,10 +3204,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$123</c:f>
+              <c:f>CRIPTOS!$B$3:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3546,16 +3570,22 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$123</c:f>
+              <c:f>CRIPTOS!$E$3:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3762,6 +3792,12 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,10 +3899,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$123</c:f>
+              <c:f>CRIPTOS!$B$3:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4229,16 +4265,22 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$123</c:f>
+              <c:f>CRIPTOS!$F$3:$F$125</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4466,6 +4508,12 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2758.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4567,10 +4615,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$123</c:f>
+              <c:f>CRIPTOS!$B$3:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4933,16 +4981,22 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$123</c:f>
+              <c:f>CRIPTOS!$G$3:$G$125</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="123"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -5038,6 +5092,12 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,10 +5433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5484,16 +5544,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$38</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5601,6 +5664,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4036.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4069.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5646,10 +5712,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5757,16 +5823,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$38</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5874,6 +5943,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>511.13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>516.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,10 +5991,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6030,16 +6102,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$38</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -6147,6 +6222,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7.7589534000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8428987999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6192,10 +6270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6303,16 +6381,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$38</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6420,6 +6501,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.8953400000000045E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14289879999999933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6465,10 +6549,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$38</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6576,16 +6660,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$38</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6693,6 +6780,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31317.075660750001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31917.617814455996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,10 +7135,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7195,16 +7285,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$C$3:$C$51</c:f>
+              <c:f>BOLSA!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4129.43</c:v>
                 </c:pt>
@@ -7351,6 +7444,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4036.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4069.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,10 +7548,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -7602,16 +7698,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$D$3:$D$51</c:f>
+              <c:f>BOLSA!$D$3:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>5473.23</c:v>
                 </c:pt>
@@ -7758,6 +7857,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5570.65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5634.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7859,10 +7961,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8009,16 +8111,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$E$3:$E$51</c:f>
+              <c:f>BOLSA!$E$3:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>17857.02</c:v>
                 </c:pt>
@@ -8165,6 +8270,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>19491.84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19720.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8565,10 +8673,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -8715,16 +8823,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$F$3:$F$51</c:f>
+              <c:f>BOLSA!$F$3:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>62.62</c:v>
                 </c:pt>
@@ -8871,6 +8982,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>69.33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.790000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,10 +9086,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9122,16 +9236,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$G$3:$G$51</c:f>
+              <c:f>BOLSA!$G$3:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>145.94999999999999</c:v>
                 </c:pt>
@@ -9278,6 +9395,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>162.35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>164.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9379,10 +9499,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9529,16 +9649,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$H$3:$H$51</c:f>
+              <c:f>BOLSA!$H$3:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>167.5</c:v>
                 </c:pt>
@@ -9685,6 +9808,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>170.15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>169.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9786,10 +9912,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -9936,16 +10062,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$I$3:$I$51</c:f>
+              <c:f>BOLSA!$I$3:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>166.14</c:v>
                 </c:pt>
@@ -10092,6 +10221,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>175.74</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>175.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10193,10 +10325,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10343,16 +10475,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$J$3:$J$51</c:f>
+              <c:f>BOLSA!$J$3:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="12">
                   <c:v>460.77</c:v>
                 </c:pt>
@@ -10463,6 +10598,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>415.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>416.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10564,10 +10702,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BOLSA!$B$3:$B$51</c:f>
+              <c:f>BOLSA!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45460</c:v>
                 </c:pt>
@@ -10714,16 +10852,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOLSA!$K$3:$K$51</c:f>
+              <c:f>BOLSA!$K$3:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>253.51</c:v>
                 </c:pt>
@@ -10870,6 +11011,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>289.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>289.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13460,52 +13604,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="13">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13556,8 +13700,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G123" totalsRowShown="0">
-  <autoFilter ref="B2:G123" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G125" totalsRowShown="0">
+  <autoFilter ref="B2:G125" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
@@ -13580,61 +13724,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="57">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="53" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="52" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="51" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="50" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="47">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="46">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="45">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="44" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="43">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13647,16 +13791,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L8" totalsRowShown="0">
   <autoFilter ref="B2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13668,7 +13812,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="39" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13683,7 +13827,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13715,21 +13859,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G38" totalsRowShown="0">
-  <autoFilter ref="B2:G38" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G39" totalsRowShown="0">
+  <autoFilter ref="B2:G39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13738,21 +13882,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K51" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="B2:K51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="B2:K52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14077,7 +14221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -14533,10 +14677,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14845,10 +14989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G123"/>
+  <dimension ref="B2:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16927,6 +17071,46 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>45528</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4035.33</v>
+      </c>
+      <c r="D124" s="3">
+        <v>64157.01</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="F124" s="3">
+        <v>2769</v>
+      </c>
+      <c r="G124" s="3">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>45529</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4035.33</v>
+      </c>
+      <c r="D125" s="3">
+        <v>63920.7</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="F125" s="3">
+        <v>2758.6</v>
+      </c>
+      <c r="G125" s="3">
+        <v>3929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16940,8 +17124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17041,23 +17225,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -17081,14 +17265,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>627.08543425584003</v>
+        <v>650.01161819411993</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.13813691910863041</v>
+        <v>-9.9035900038056623E-2</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -17107,7 +17291,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>627.08543425584003</v>
+        <v>650.01161819411993</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -17115,7 +17299,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.13813691910863041</v>
+        <v>-9.9035900038056623E-2</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -17125,23 +17309,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -17165,11 +17349,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>511.90936056000004</v>
+        <v>525.42385515360002</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29892589659880409</v>
+        <v>-0.27430280613788405</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -17188,7 +17372,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>511.90936056000004</v>
+        <v>525.42385515360002</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -17196,7 +17380,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29892589659880409</v>
+        <v>-0.27430280613788405</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -17206,23 +17390,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -17246,11 +17430,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>639.52760557043996</v>
+        <v>662.90867411066995</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11734799930711937</v>
+        <v>-7.7303828165598512E-2</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -17269,7 +17453,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>639.52760557043996</v>
+        <v>662.90867411066995</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -17277,7 +17461,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11734799930711937</v>
+        <v>-7.7303828165598512E-2</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17287,23 +17471,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -17327,11 +17511,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>527.85230039099997</v>
+        <v>541.78769132045988</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27377864009940917</v>
+        <v>-0.24827232892241285</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -17350,7 +17534,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>527.85230039099997</v>
+        <v>541.78769132045988</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -17358,7 +17542,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.27377864009940917</v>
+        <v>-0.24827232892241285</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17368,23 +17552,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -17408,11 +17592,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>654.45821114796001</v>
+        <v>678.38514121052992</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0085873455503859E-2</v>
+        <v>-3.8351193547756159E-2</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -17431,7 +17615,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>654.45821114796001</v>
+        <v>678.38514121052992</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -17439,7 +17623,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.0085873455503859E-2</v>
+        <v>-3.8351193547756159E-2</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17449,23 +17633,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -17489,11 +17673,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>318.227010090948</v>
+        <v>360.84678977447101</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52245862884160765</v>
+        <v>-0.4539007092198582</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -17512,7 +17696,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>318.227010090948</v>
+        <v>360.84678977447101</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -17520,7 +17704,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.52245862884160765</v>
+        <v>-0.4539007092198582</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17530,23 +17714,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -17570,11 +17754,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>533.60043516000007</v>
+        <v>547.68757782959995</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23982896864900635</v>
+        <v>-0.2131302787674105</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -17593,7 +17777,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>533.60043516000007</v>
+        <v>547.68757782959995</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -17601,7 +17785,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23982896864900635</v>
+        <v>-0.2131302787674105</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17611,23 +17795,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -17651,11 +17835,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>676.85411951423998</v>
+        <v>701.59984186031988</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7948282260111873E-3</v>
+        <v>4.0355657116071954E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -17674,7 +17858,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>676.85411951423998</v>
+        <v>701.59984186031988</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -17682,7 +17866,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.7948282260111873E-3</v>
+        <v>4.0355657116071954E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17692,23 +17876,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -17732,11 +17916,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>674.36568525131986</v>
+        <v>699.02043067700993</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8405829427257966E-3</v>
+        <v>4.8337471749976144E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -17755,7 +17939,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>674.36568525131986</v>
+        <v>699.02043067700993</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -17763,7 +17947,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8405829427257966E-3</v>
+        <v>4.8337471749976144E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17773,23 +17957,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17813,11 +17997,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>753.99558166475992</v>
+        <v>781.56158854292983</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0973685685461224E-2</v>
+        <v>0.11956163826925224</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -17836,7 +18020,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>753.99558166475992</v>
+        <v>781.56158854292983</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -17844,7 +18028,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0973685685461224E-2</v>
+        <v>0.11956163826925224</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17854,23 +18038,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -17894,11 +18078,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>699.25002788051995</v>
+        <v>724.81454251010996</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8800871665933443E-2</v>
+        <v>1.5260507084668107E-2</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -17917,7 +18101,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>699.25002788051995</v>
+        <v>724.81454251010996</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -17925,7 +18109,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.8800871665933443E-2</v>
+        <v>1.5260507084668107E-2</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17935,23 +18119,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -17975,11 +18159,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>548.8926427529999</v>
+        <v>563.38350231617994</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21102726322676527</v>
+        <v>-0.1833170012522907</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -17998,7 +18182,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>548.8926427529999</v>
+        <v>563.38350231617994</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -18006,7 +18190,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.21102726322676527</v>
+        <v>-0.1833170012522907</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18016,23 +18200,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -18056,11 +18240,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>535.11881038199999</v>
+        <v>549.24603841691999</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20661619574698653</v>
+        <v>-0.17875100847566119</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -18079,7 +18263,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>535.11881038199999</v>
+        <v>549.24603841691999</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -18087,7 +18271,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.20661619574698653</v>
+        <v>-0.17875100847566119</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18097,23 +18281,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -18137,11 +18321,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>616.46034013199994</v>
+        <v>632.73499845191986</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1276595744680851</v>
+        <v>-9.7021276595744707E-2</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -18160,7 +18344,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>616.46034013199994</v>
+        <v>632.73499845191986</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -18168,7 +18352,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.1276595744680851</v>
+        <v>-9.7021276595744707E-2</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18178,23 +18362,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -18218,11 +18402,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>570.47526198000003</v>
+        <v>585.53590637879995</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22934559440154997</v>
+        <v>-0.20227870796101907</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -18241,7 +18425,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>570.47526198000003</v>
+        <v>585.53590637879995</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -18249,7 +18433,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22934559440154997</v>
+        <v>-0.20227870796101907</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18259,23 +18443,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -18299,11 +18483,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>433.44114612872397</v>
+        <v>491.49142334592295</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40588235294117647</v>
+        <v>-0.32058823529411762</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -18322,7 +18506,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>433.44114612872397</v>
+        <v>491.49142334592295</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -18330,7 +18514,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.40588235294117647</v>
+        <v>-0.32058823529411762</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18340,23 +18524,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -18380,11 +18564,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>225.965783983536</v>
+        <v>256.22912312197201</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28621908127208484</v>
+        <v>-0.18374558303886926</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -18403,7 +18587,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>225.965783983536</v>
+        <v>256.22912312197201</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -18411,7 +18595,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28621908127208484</v>
+        <v>-0.18374558303886926</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18421,23 +18605,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -18461,11 +18645,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>317.62945232179197</v>
+        <v>360.169201776384</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11790393013100438</v>
+        <v>8.7336244541484798E-3</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -18497,7 +18681,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11790393013100438</v>
+        <v>8.7336244541484798E-3</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18507,23 +18691,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -18547,11 +18731,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>305.14905262475997</v>
+        <v>346.01731641476994</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22900763358778628</v>
+        <v>-0.11832061068702292</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -18583,7 +18767,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22900763358778628</v>
+        <v>-0.11832061068702292</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18593,23 +18777,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -18633,14 +18817,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>312.92124952733997</v>
+        <v>354.83043476380499</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.24907063197026019</v>
+        <v>-0.14126394052044605</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -18664,7 +18848,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.53721832733998964</v>
+        <v>0.60916736380498837</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -18672,7 +18856,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24907063197026019</v>
+        <v>-0.14126394052044605</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18682,23 +18866,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -18722,11 +18906,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>315.06453280666796</v>
+        <v>357.26076552266096</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.25735294117647062</v>
+        <v>-0.15073529411764711</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -18750,7 +18934,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2.6805016066679812</v>
+        <v>3.0394981226609792</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -18758,7 +18942,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.25735294117647062</v>
+        <v>-0.15073529411764711</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18768,23 +18952,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18808,11 +18992,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>319.49635793983197</v>
+        <v>362.28613992971401</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.26811594202898542</v>
+        <v>-0.16304347826086948</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -18836,7 +19020,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1018841932800214</v>
+        <v>10.320889138560025</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -18844,7 +19028,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.26811594202898542</v>
+        <v>-0.16304347826086948</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18854,23 +19038,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -18894,11 +19078,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>314.113734463284</v>
+        <v>356.18262784404305</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.28113879003558717</v>
+        <v>-0.17793594306049823</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -18922,7 +19106,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7297032632840095</v>
+        <v>1.9613604440430108</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -18930,7 +19114,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.28113879003558717</v>
+        <v>-0.17793594306049823</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -18940,23 +19124,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -18979,11 +19163,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>316.99112021593203</v>
+        <v>359.44537858128899</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.33647358705006669</v>
+        <v>-0.24121484459685844</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -19002,7 +19186,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>316.99112021593203</v>
+        <v>359.44537858128899</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -19010,7 +19194,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.33647358705006669</v>
+        <v>-0.24121484459685844</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19020,23 +19204,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -19060,11 +19244,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>644.50447409627998</v>
+        <v>668.06749647729009</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.4565134529248701E-2</v>
+        <v>-4.3033669814899742E-2</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -19083,7 +19267,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>644.50447409627998</v>
+        <v>668.06749647729009</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -19091,7 +19275,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-8.4565134529248701E-2</v>
+        <v>-4.3033669814899742E-2</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19101,23 +19285,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -19141,11 +19325,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>543.90369559500004</v>
+        <v>558.26284610070002</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.22912267507448436</v>
+        <v>-0.20204795927222238</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -19164,7 +19348,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>543.90369559500004</v>
+        <v>558.26284610070002</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -19172,7 +19356,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22912267507448436</v>
+        <v>-0.20204795927222238</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19182,23 +19366,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -19222,11 +19406,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>244.22339751231601</v>
+        <v>276.93195795965698</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.30821917808219174</v>
+        <v>-0.20890410958904107</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -19245,7 +19429,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>244.22339751231601</v>
+        <v>276.93195795965698</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -19253,7 +19437,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.30821917808219174</v>
+        <v>-0.20890410958904107</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19263,23 +19447,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -19303,14 +19487,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>629.57386851876004</v>
+        <v>652.59102937743</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-0.1096910026470511</v>
+        <v>-6.9299448749421233E-2</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -19329,7 +19513,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>629.57386851876004</v>
+        <v>652.59102937743</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -19337,7 +19521,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-0.1096910026470511</v>
+        <v>-6.9299448749421233E-2</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19347,23 +19531,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -19387,11 +19571,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>568.19769914699998</v>
+        <v>583.19821549781989</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.19619966822500376</v>
+        <v>-0.16796863218217467</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -19410,7 +19594,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>568.19769914699998</v>
+        <v>583.19821549781989</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -19418,7 +19602,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.19619966822500376</v>
+        <v>-0.16796863218217467</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19428,23 +19612,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -19468,11 +19652,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>246.27132145580399</v>
+        <v>279.25415801583296</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.30344827586206896</v>
+        <v>-0.20344827586206893</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -19491,7 +19675,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>246.27132145580399</v>
+        <v>279.25415801583296</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -19499,7 +19683,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.30344827586206896</v>
+        <v>-0.20344827586206893</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19509,23 +19693,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -19549,11 +19733,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>791.32209560855995</v>
+        <v>820.25275629257987</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.14360065152391624</v>
+        <v>0.19548354554243069</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -19572,7 +19756,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>791.32209560855995</v>
+        <v>820.25275629257987</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -19580,7 +19764,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.14360065152391624</v>
+        <v>0.19548354554243069</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -19590,23 +19774,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -19630,11 +19814,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>776.64892605299997</v>
+        <v>797.15259041418005</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12239826817948259</v>
+        <v>0.1618190854033473</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -19653,7 +19837,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>776.64892605299997</v>
+        <v>797.15259041418005</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -19661,7 +19845,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.12239826817948259</v>
+        <v>0.1618190854033473</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19671,23 +19855,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -19711,11 +19895,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>474.66449377441199</v>
+        <v>538.2357668177491</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.37190980711763116</v>
+        <v>0.56886715566422175</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -19734,7 +19918,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>474.66449377441199</v>
+        <v>538.2357668177491</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -19742,7 +19926,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.37190980711763116</v>
+        <v>0.56886715566422175</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19752,23 +19936,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" ref="B36:B41" ca="1" si="25">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19792,14 +19976,14 @@
       </c>
       <c r="M36" s="26">
         <f t="shared" ref="M36:M41" ca="1" si="26" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>724.13437050971993</v>
+        <v>750.60865434320999</v>
       </c>
       <c r="N36" s="27">
         <f t="shared" ref="N36:N41" ca="1" si="27">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>3.5553028767281239E-2</v>
+        <v>8.2534016379075079E-2</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -19818,7 +20002,7 @@
       </c>
       <c r="V36" s="2">
         <f t="shared" ref="V36:V41" ca="1" si="29">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>724.13437050971993</v>
+        <v>750.60865434320999</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" ref="W36:W41" si="30">IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -19826,7 +20010,7 @@
       </c>
       <c r="X36" s="9">
         <f t="shared" ref="X36:X41" ca="1" si="31">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>3.5553028767281239E-2</v>
+        <v>8.2534016379075079E-2</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19836,23 +20020,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -19876,11 +20060,11 @@
       </c>
       <c r="M37" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>704.52610300799995</v>
+        <v>723.12571251648001</v>
       </c>
       <c r="N37" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>7.4852563133223134E-3</v>
+        <v>4.2870104339936529E-2</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -19899,7 +20083,7 @@
       </c>
       <c r="V37" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>704.52610300799995</v>
+        <v>723.12571251648001</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="30"/>
@@ -19907,7 +20091,7 @@
       </c>
       <c r="X37" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>7.4852563133223134E-3</v>
+        <v>4.2870104339936529E-2</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19917,23 +20101,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -19957,11 +20141,11 @@
       </c>
       <c r="M38" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>449.18242407986395</v>
+        <v>509.34091265857802</v>
       </c>
       <c r="N38" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>0.28470941399442862</v>
+        <v>0.46914789422135156</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -19971,7 +20155,7 @@
       </c>
       <c r="Q38" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>VENTA PARCIAL</v>
+        <v>VENDER</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="14">
@@ -19980,7 +20164,7 @@
       </c>
       <c r="V38" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>449.18242407986395</v>
+        <v>509.34091265857802</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="30"/>
@@ -19988,7 +20172,7 @@
       </c>
       <c r="X38" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>0.28470941399442862</v>
+        <v>0.46914789422135156</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19998,23 +20182,23 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">VLOOKUP(B39,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -20038,11 +20222,11 @@
       </c>
       <c r="M39" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>753.99558166475992</v>
+        <v>781.56158854292983</v>
       </c>
       <c r="N39" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>6.6687832976878636E-2</v>
+        <v>0.11508134492130657</v>
       </c>
       <c r="O39" s="28">
         <v>0.25</v>
@@ -20061,7 +20245,7 @@
       </c>
       <c r="V39" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>753.99558166475992</v>
+        <v>781.56158854292983</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="30"/>
@@ -20069,7 +20253,7 @@
       </c>
       <c r="X39" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>6.6687832976878636E-2</v>
+        <v>0.11508134492130657</v>
       </c>
       <c r="Y39" s="2" t="str">
         <f>IF(U39=0,"VENDIDA","ACTIVA")</f>
@@ -20079,23 +20263,23 @@
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">VLOOKUP(B40,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -20119,11 +20303,11 @@
       </c>
       <c r="M40" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>745.41377862900003</v>
+        <v>765.09282976073996</v>
       </c>
       <c r="N40" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>5.4547612923649132E-2</v>
+        <v>9.1585382743406524E-2</v>
       </c>
       <c r="O40" s="28">
         <v>0.25</v>
@@ -20142,7 +20326,7 @@
       </c>
       <c r="V40" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>745.41377862900003</v>
+        <v>765.09282976073996</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="30"/>
@@ -20150,7 +20334,7 @@
       </c>
       <c r="X40" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>5.4547612923649132E-2</v>
+        <v>9.1585382743406524E-2</v>
       </c>
       <c r="Y40" s="2" t="str">
         <f>IF(U40=0,"VENDIDA","ACTIVA")</f>
@@ -20160,23 +20344,23 @@
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],2,FALSE)</f>
-        <v>4069.62</v>
+        <v>4035.33</v>
       </c>
       <c r="D41" s="3">
         <f ca="1">VLOOKUP(B41,Tabla4[],3,FALSE)</f>
-        <v>61146.6</v>
+        <v>63920.7</v>
       </c>
       <c r="E41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],5,FALSE)</f>
-        <v>2665</v>
+        <v>2758.6</v>
       </c>
       <c r="F41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],4,FALSE)</f>
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -20200,11 +20384,11 @@
       </c>
       <c r="M41" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>442.82154534771598</v>
+        <v>502.12812870920703</v>
       </c>
       <c r="N41" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>0.25294628458007684</v>
+        <v>0.43282471157424635</v>
       </c>
       <c r="O41" s="28">
         <v>0.1</v>
@@ -20214,7 +20398,7 @@
       </c>
       <c r="Q41" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>VENTA PARCIAL</v>
+        <v>VENDER</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="14">
@@ -20223,7 +20407,7 @@
       </c>
       <c r="V41" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>442.82154534771598</v>
+        <v>502.12812870920703</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="30"/>
@@ -20231,7 +20415,7 @@
       </c>
       <c r="X41" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>0.25294628458007684</v>
+        <v>0.43282471157424635</v>
       </c>
       <c r="Y41" s="2" t="str">
         <f>IF(U41=0,"VENDIDA","ACTIVA")</f>
@@ -20240,20 +20424,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z41">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q41">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20268,7 +20452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -20323,7 +20507,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -20344,11 +20528,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" ref="I3:I8" ca="1" si="2">G3*H3</f>
-        <v>702.90852000000007</v>
+        <v>690.43189376999999</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -20356,7 +20540,7 @@
       </c>
       <c r="K3" s="10">
         <f t="shared" ref="K3:K8" ca="1" si="3">((I3-J3)/J3)</f>
-        <v>4.2051088934915871E-3</v>
+        <v>-1.3619531789368E-2</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -20366,7 +20550,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -20387,11 +20571,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>803.67004000000009</v>
+        <v>789.40489679000007</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -20399,7 +20583,7 @@
       </c>
       <c r="K4" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6313702809780491E-3</v>
+        <v>-1.3200836541509333E-2</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="4">D4*1.1</f>
@@ -20409,7 +20593,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -20430,11 +20614,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>1501.2805600000002</v>
+        <v>1474.6328300600001</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -20442,7 +20626,7 @@
       </c>
       <c r="K5" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7709955584573283E-4</v>
+        <v>-1.6888468961270588E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="4"/>
@@ -20452,7 +20636,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -20473,11 +20657,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2167.3309600000002</v>
+        <v>2128.8608354600001</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -20485,7 +20669,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4834157178589769E-2</v>
+        <v>-3.2320850888669865E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="4"/>
@@ -20495,7 +20679,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -20516,11 +20700,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2859.8324400000001</v>
+        <v>2809.0704141900001</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -20528,7 +20712,7 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3839026792977639E-2</v>
+        <v>-3.1343384067402308E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -20538,7 +20722,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f ca="1">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C8" s="1">
         <v>45523</v>
@@ -20559,11 +20743,11 @@
       </c>
       <c r="H8" s="7">
         <f ca="1">VLOOKUP(B8,Tabla4[],6,FALSE)</f>
-        <v>4000</v>
+        <v>3929</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3567.2501600000001</v>
+        <v>3503.9314696599999</v>
       </c>
       <c r="J8" s="8">
         <f>F8+J7</f>
@@ -20571,7 +20755,7 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.0877036682303659E-3</v>
+        <v>-2.6676396928119305E-2</v>
       </c>
       <c r="L8" s="8">
         <f>D8*1.1</f>
@@ -21041,10 +21225,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21938,6 +22122,30 @@
         <v>31317.075660750001</v>
       </c>
     </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C39" s="8">
+        <f>VLOOKUP(B39,Tabla4[],2,FALSE)</f>
+        <v>4069.62</v>
+      </c>
+      <c r="D39" s="24">
+        <v>516.66</v>
+      </c>
+      <c r="E39" s="8">
+        <f>0.01518 * D39</f>
+        <v>7.8428987999999995</v>
+      </c>
+      <c r="F39" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>0.14289879999999933</v>
+      </c>
+      <c r="G39" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31917.617814455996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21949,10 +22157,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:L51"/>
+  <dimension ref="B2:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23611,6 +23819,39 @@
       </c>
       <c r="K51" s="3">
         <v>289.20999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C52" s="3">
+        <f>VLOOKUP(B52,Tabla4[],2,FALSE)</f>
+        <v>4069.62</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5634.6</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19720.87</v>
+      </c>
+      <c r="F52" s="3">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="G52" s="3">
+        <v>164.13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>169.17</v>
+      </c>
+      <c r="I52" s="3">
+        <v>175.87</v>
+      </c>
+      <c r="J52" s="3">
+        <v>416.79</v>
+      </c>
+      <c r="K52" s="3">
+        <v>289.52</v>
       </c>
     </row>
   </sheetData>
@@ -23714,7 +23955,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
@@ -23782,7 +24023,7 @@
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
@@ -23850,7 +24091,7 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
@@ -23918,7 +24159,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
@@ -23986,7 +24227,7 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
@@ -24054,7 +24295,7 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
@@ -24122,7 +24363,7 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
@@ -24190,7 +24431,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
@@ -24258,7 +24499,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
@@ -24326,7 +24567,7 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
@@ -24394,7 +24635,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
@@ -24462,7 +24703,7 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45529</v>
       </c>
       <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EBA5D0-72E7-48CD-BB0A-4E0A781D1943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD4D24-15EE-4991-81EF-2A92E647A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
   <si>
     <t>FECHA</t>
   </si>
@@ -469,7 +469,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -505,13 +505,93 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="109">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -809,33 +889,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -1309,33 +1362,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="102"/>
-      <tableStyleElement type="headerRow" dxfId="101"/>
-      <tableStyleElement type="secondRowStripe" dxfId="100"/>
+      <tableStyleElement type="wholeTable" dxfId="108"/>
+      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="99"/>
-      <tableStyleElement type="headerRow" dxfId="98"/>
-      <tableStyleElement type="firstRowStripe" dxfId="97"/>
-      <tableStyleElement type="secondRowStripe" dxfId="96"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
+      <tableStyleElement type="wholeTable" dxfId="105"/>
+      <tableStyleElement type="headerRow" dxfId="104"/>
+      <tableStyleElement type="firstRowStripe" dxfId="103"/>
+      <tableStyleElement type="secondRowStripe" dxfId="102"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="101"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="94"/>
-      <tableStyleElement type="firstRowStripe" dxfId="93"/>
-      <tableStyleElement type="secondRowStripe" dxfId="92"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="wholeTable" dxfId="91"/>
-      <tableStyleElement type="headerRow" dxfId="90"/>
-      <tableStyleElement type="firstRowStripe" dxfId="89"/>
-      <tableStyleElement type="secondRowStripe" dxfId="88"/>
+      <tableStyleElement type="wholeTable" dxfId="97"/>
+      <tableStyleElement type="headerRow" dxfId="96"/>
+      <tableStyleElement type="firstRowStripe" dxfId="95"/>
+      <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="wholeTable" dxfId="87"/>
-      <tableStyleElement type="headerRow" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
+      <tableStyleElement type="headerRow" dxfId="92"/>
+      <tableStyleElement type="firstRowStripe" dxfId="91"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1502,10 +1555,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$125</c:f>
+              <c:f>CRIPTOS!$B$3:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -1874,16 +1927,19 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$125</c:f>
+              <c:f>CRIPTOS!$C$3:$C$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -2252,6 +2308,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>4035.33</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4029.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,10 +2412,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$125</c:f>
+              <c:f>CRIPTOS!$B$3:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2725,16 +2784,19 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$125</c:f>
+              <c:f>CRIPTOS!$D$3:$D$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -3103,6 +3165,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>63920.7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62954.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,10 +3269,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$125</c:f>
+              <c:f>CRIPTOS!$B$3:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3576,16 +3641,19 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$125</c:f>
+              <c:f>CRIPTOS!$E$3:$E$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -3798,6 +3866,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,10 +3970,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$125</c:f>
+              <c:f>CRIPTOS!$B$3:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4271,16 +4342,19 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$125</c:f>
+              <c:f>CRIPTOS!$F$3:$F$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -4514,6 +4588,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>2758.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2688.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,10 +4692,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$125</c:f>
+              <c:f>CRIPTOS!$B$3:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4987,16 +5064,19 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$125</c:f>
+              <c:f>CRIPTOS!$G$3:$G$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -5098,6 +5178,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>3929</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5433,10 +5516,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5547,16 +5630,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$39</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -5667,6 +5753,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4069.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4029.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5712,10 +5801,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -5826,16 +5915,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$39</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -5946,6 +6038,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>516.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>515.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5991,10 +6086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6105,16 +6200,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$39</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -6225,6 +6323,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.8428987999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8236202000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6270,10 +6371,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6384,16 +6485,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$39</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -6504,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.14289879999999933</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1236202000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6549,10 +6656,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$39</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -6663,16 +6770,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$39</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -6783,6 +6893,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>31917.617814455996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31527.233500950002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13592,7 +13705,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="89" dataCellStyle="Moneda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
@@ -13604,52 +13717,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="34">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="33" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="24" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="23" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="22" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="21" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="19" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="18" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="17" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="16" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13664,10 +13777,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="88" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="87" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13676,22 +13789,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="86">
   <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="82" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="80">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="79" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13700,23 +13813,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G125" totalsRowShown="0">
-  <autoFilter ref="B2:G125" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G126" totalsRowShown="0">
+  <autoFilter ref="B2:G126" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z41" totalsRowShown="0">
-  <autoFilter ref="B2:Z41" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:Z44" totalsRowShown="0">
+  <autoFilter ref="B2:Z44" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -13724,61 +13837,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="72">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="71">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="65" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="64" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="63" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="62" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="61" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="60" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="59">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="58"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="57">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="56">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="55">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="53">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13788,19 +13901,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L8" totalsRowShown="0">
-  <autoFilter ref="B2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L9" totalsRowShown="0">
+  <autoFilter ref="B2:L9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="3">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="1">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13812,7 +13925,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13827,7 +13940,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="52"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13859,21 +13972,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G39" totalsRowShown="0">
-  <autoFilter ref="B2:G39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G40" totalsRowShown="0">
+  <autoFilter ref="B2:G40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="50">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="49" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="48">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="47">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="46">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13882,21 +13995,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="B2:K52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14221,8 +14334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,7 +14469,7 @@
       </c>
       <c r="N4" s="7">
         <f>SUMIF(C:C,"CRIPTOMONEDA",H:H)</f>
-        <v>-24625.829999999994</v>
+        <v>-27075.829999999994</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" ref="O4" si="0">M4/SUM(M4:M6)</f>
@@ -14442,7 +14555,7 @@
       </c>
       <c r="N6" s="7">
         <f>SUM(N3:N5)</f>
-        <v>-93619.299999999988</v>
+        <v>-96069.299999999988</v>
       </c>
       <c r="O6" s="9">
         <f>M6/SUM(M6:M9)</f>
@@ -14581,12 +14694,12 @@
         <v>6780.1</v>
       </c>
       <c r="F12" s="7">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-8880.1</v>
+        <v>-9580.1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -14603,12 +14716,12 @@
         <v>3942.9</v>
       </c>
       <c r="F13" s="7">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-6042.9</v>
+        <v>-6742.9</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -14625,12 +14738,12 @@
         <v>2535.48</v>
       </c>
       <c r="F14" s="7">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-3585.48</v>
+        <v>-3935.48</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -14647,12 +14760,12 @@
         <v>1529.58</v>
       </c>
       <c r="F15" s="7">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-3629.58</v>
+        <v>-4329.58</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -14677,10 +14790,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14989,10 +15102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G125"/>
+  <dimension ref="B2:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17111,6 +17224,26 @@
         <v>3929</v>
       </c>
     </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C126" s="3">
+        <v>4029.75</v>
+      </c>
+      <c r="D126" s="3">
+        <v>62954.5</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="F126" s="3">
+        <v>2688.4</v>
+      </c>
+      <c r="G126" s="3">
+        <v>3932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17122,10 +17255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:Z41"/>
+  <dimension ref="B2:Z44"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17225,23 +17358,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -17265,14 +17398,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>650.01161819411993</v>
+        <v>639.30105886499996</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-9.9035900038056623E-2</v>
+        <v>-0.11265451675194159</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -17291,7 +17424,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>650.01161819411993</v>
+        <v>639.30105886499996</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
@@ -17299,7 +17432,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-9.9035900038056623E-2</v>
+        <v>-0.11265451675194159</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -17309,23 +17442,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -17349,11 +17482,11 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>525.42385515360002</v>
+        <v>511.34497127999998</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27430280613788405</v>
+        <v>-0.29277012398357405</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -17372,7 +17505,7 @@
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>525.42385515360002</v>
+        <v>511.34497127999998</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
@@ -17380,7 +17513,7 @@
       </c>
       <c r="X4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.27430280613788405</v>
+        <v>-0.29277012398357405</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -17390,23 +17523,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -17430,11 +17563,11 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>662.90867411066995</v>
+        <v>651.9856036837499</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7303828165598512E-2</v>
+        <v>-9.1250938275881974E-2</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -17453,7 +17586,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>662.90867411066995</v>
+        <v>651.9856036837499</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
@@ -17461,7 +17594,7 @@
       </c>
       <c r="X5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.7303828165598512E-2</v>
+        <v>-9.1250938275881974E-2</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17471,23 +17604,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -17511,11 +17644,11 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>541.78769132045988</v>
+        <v>527.27033373300003</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24827232892241285</v>
+        <v>-0.26740206230516006</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -17534,7 +17667,7 @@
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>541.78769132045988</v>
+        <v>527.27033373300003</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
@@ -17542,7 +17675,7 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.24827232892241285</v>
+        <v>-0.26740206230516006</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17552,23 +17685,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -17592,11 +17725,11 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>678.38514121052992</v>
+        <v>667.20705746624992</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8351193547756159E-2</v>
+        <v>-5.2887096264624955E-2</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -17615,7 +17748,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>678.38514121052992</v>
+        <v>667.20705746624992</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
@@ -17623,7 +17756,7 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.8351193547756159E-2</v>
+        <v>-5.2887096264624955E-2</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17633,23 +17766,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -17673,11 +17806,11 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>360.84678977447101</v>
+        <v>338.50855413427502</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4539007092198582</v>
+        <v>-0.48699763593380624</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -17696,7 +17829,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>360.84678977447101</v>
+        <v>338.50855413427502</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
@@ -17704,7 +17837,7 @@
       </c>
       <c r="X8" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.4539007092198582</v>
+        <v>-0.48699763593380624</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17714,23 +17847,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -17754,11 +17887,11 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>547.68757782959995</v>
+        <v>533.01213108000002</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2131302787674105</v>
+        <v>-0.23315429617860736</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -17777,7 +17910,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>547.68757782959995</v>
+        <v>533.01213108000002</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
@@ -17785,7 +17918,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.2131302787674105</v>
+        <v>-0.23315429617860736</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17795,23 +17928,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -17835,11 +17968,11 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>701.59984186031988</v>
+        <v>690.03923813999995</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0355657116071954E-2</v>
+        <v>2.4630052798447995E-2</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -17858,7 +17991,7 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>701.59984186031988</v>
+        <v>690.03923813999995</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
@@ -17866,7 +17999,7 @@
       </c>
       <c r="X10" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0355657116071954E-2</v>
+        <v>2.4630052798447995E-2</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17876,23 +18009,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -17916,11 +18049,11 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>699.02043067700993</v>
+        <v>687.50232917624999</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8337471749976144E-2</v>
+        <v>3.2491217481721513E-2</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -17939,7 +18072,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>699.02043067700993</v>
+        <v>687.50232917624999</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
@@ -17947,7 +18080,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8337471749976144E-2</v>
+        <v>3.2491217481721513E-2</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17957,23 +18090,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -17997,11 +18130,11 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>781.56158854292983</v>
+        <v>768.68341601624991</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11956163826925224</v>
+        <v>0.10263878769196276</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -18020,7 +18153,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>781.56158854292983</v>
+        <v>768.68341601624991</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
@@ -18028,7 +18161,7 @@
       </c>
       <c r="X12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11956163826925224</v>
+        <v>0.10263878769196276</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18038,23 +18171,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -18078,11 +18211,11 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>724.81454251010996</v>
+        <v>712.8714188137501</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5260507084668107E-2</v>
+        <v>-8.5768878286043255E-5</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -18101,7 +18234,7 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>724.81454251010996</v>
+        <v>712.8714188137501</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
@@ -18109,7 +18242,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5260507084668107E-2</v>
+        <v>-8.5768878286043255E-5</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18119,23 +18252,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -18159,11 +18292,11 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>563.38350231617994</v>
+        <v>548.28747873899999</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1833170012522907</v>
+        <v>-0.2040996977331466</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -18182,7 +18315,7 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>563.38350231617994</v>
+        <v>548.28747873899999</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
@@ -18190,7 +18323,7 @@
       </c>
       <c r="X14" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.1833170012522907</v>
+        <v>-0.2040996977331466</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18200,23 +18333,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -18240,11 +18373,11 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>549.24603841691999</v>
+        <v>534.52883226599999</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17875100847566119</v>
+        <v>-0.19964989892915516</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -18263,7 +18396,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>549.24603841691999</v>
+        <v>534.52883226599999</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
@@ -18271,7 +18404,7 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.17875100847566119</v>
+        <v>-0.19964989892915516</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18281,23 +18414,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -18321,11 +18454,11 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>632.73499845191986</v>
+        <v>615.78068151599996</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7021276595744707E-2</v>
+        <v>-0.11999999999999997</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -18344,7 +18477,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>632.73499845191986</v>
+        <v>615.78068151599996</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
@@ -18352,7 +18485,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.7021276595744707E-2</v>
+        <v>-0.11999999999999997</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18362,23 +18495,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -18402,11 +18535,11 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>585.53590637879995</v>
+        <v>569.84630274000006</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20227870796101907</v>
+        <v>-0.22257887279141719</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -18425,7 +18558,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>585.53590637879995</v>
+        <v>569.84630274000006</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
@@ -18433,7 +18566,7 @@
       </c>
       <c r="X17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.20227870796101907</v>
+        <v>-0.22257887279141719</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18443,23 +18576,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -18483,11 +18616,11 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>491.49142334592295</v>
+        <v>461.06562619057496</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32058823529411762</v>
+        <v>-0.36176470588235293</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -18506,7 +18639,7 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>491.49142334592295</v>
+        <v>461.06562619057496</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
@@ -18514,7 +18647,7 @@
       </c>
       <c r="X18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.32058823529411762</v>
+        <v>-0.36176470588235293</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18524,23 +18657,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -18564,11 +18697,11 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>256.22912312197201</v>
+        <v>240.36724851930001</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18374558303886926</v>
+        <v>-0.23321554770318026</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -18587,7 +18720,7 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>256.22912312197201</v>
+        <v>240.36724851930001</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
@@ -18595,7 +18728,7 @@
       </c>
       <c r="X19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.18374558303886926</v>
+        <v>-0.23321554770318026</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18605,23 +18738,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -18645,11 +18778,11 @@
       </c>
       <c r="M20" s="13">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>360.169201776384</v>
+        <v>337.87291224960001</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7336244541484798E-3</v>
+        <v>-5.2401746724890876E-2</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -18681,7 +18814,7 @@
       </c>
       <c r="X20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>8.7336244541484798E-3</v>
+        <v>-5.2401746724890876E-2</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18691,23 +18824,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -18731,11 +18864,11 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>346.01731641476994</v>
+        <v>324.59709994424998</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11832061068702292</v>
+        <v>-0.17175572519083976</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -18767,7 +18900,7 @@
       </c>
       <c r="X21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11832061068702292</v>
+        <v>-0.17175572519083976</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18777,23 +18910,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D22" s="3">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -18817,14 +18950,14 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>354.83043476380499</v>
+        <v>332.86464183262501</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.14126394052044605</v>
+        <v>-0.19330855018587362</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -18848,7 +18981,7 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.60916736380498837</v>
+        <v>0.57145683262498892</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
@@ -18856,7 +18989,7 @@
       </c>
       <c r="X22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.14126394052044605</v>
+        <v>-0.19330855018587362</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18866,23 +18999,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D23" s="3">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -18906,11 +19039,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>357.26076552266096</v>
+        <v>335.14452286402496</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.15073529411764711</v>
+        <v>-0.20220588235294126</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -18934,7 +19067,7 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0394981226609792</v>
+        <v>2.8513378640249805</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
@@ -18942,7 +19075,7 @@
       </c>
       <c r="X23" s="9">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.15073529411764711</v>
+        <v>-0.20220588235294126</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18952,23 +19085,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D24" s="3">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -18992,11 +19125,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>362.28613992971401</v>
+        <v>339.85880125784996</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.16304347826086948</v>
+        <v>-0.21376811594202896</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -19020,7 +19153,7 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10.320889138560025</v>
+        <v>9.6819740640000216</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
@@ -19028,7 +19161,7 @@
       </c>
       <c r="X24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.16304347826086948</v>
+        <v>-0.21376811594202896</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19038,23 +19171,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D25" s="3">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -19078,11 +19211,11 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>356.18262784404305</v>
+        <v>334.13312734357498</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.17793594306049823</v>
+        <v>-0.22775800711743777</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -19106,7 +19239,7 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9613604440430108</v>
+        <v>1.83994234357501</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
@@ -19114,7 +19247,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.17793594306049823</v>
+        <v>-0.22775800711743777</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -19124,23 +19257,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D26" s="3">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -19163,11 +19296,11 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>359.44537858128899</v>
+        <v>337.19389735972499</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.24121484459685844</v>
+        <v>-0.28720182371220038</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -19186,7 +19319,7 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>359.44537858128899</v>
+        <v>337.19389735972499</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
@@ -19194,7 +19327,7 @@
       </c>
       <c r="X26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24121484459685844</v>
+        <v>-0.28720182371220038</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19204,23 +19337,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D27" s="3">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -19244,11 +19377,11 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>668.06749647729009</v>
+        <v>657.05942161125006</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.3033669814899742E-2</v>
+        <v>-5.7498794073940103E-2</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -19267,7 +19400,7 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>668.06749647729009</v>
+        <v>657.05942161125006</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
@@ -19275,7 +19408,7 @@
       </c>
       <c r="X27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-4.3033669814899742E-2</v>
+        <v>-5.7498794073940103E-2</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19285,23 +19418,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D28" s="3">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -19325,11 +19458,11 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>558.26284610070002</v>
+        <v>543.30403198500005</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.20204795927222238</v>
+        <v>-0.22235399612391885</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -19348,7 +19481,7 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>558.26284610070002</v>
+        <v>543.30403198500005</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
@@ -19356,7 +19489,7 @@
       </c>
       <c r="X28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.20204795927222238</v>
+        <v>-0.22235399612391885</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19366,23 +19499,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D29" s="3">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -19406,11 +19539,11 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>276.93195795965698</v>
+        <v>259.78847349892499</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.20890410958904107</v>
+        <v>-0.25684931506849318</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -19429,7 +19562,7 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>276.93195795965698</v>
+        <v>259.78847349892499</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
@@ -19437,7 +19570,7 @@
       </c>
       <c r="X29" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.20890410958904107</v>
+        <v>-0.25684931506849318</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19447,23 +19580,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D30" s="3">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -19487,14 +19620,14 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>652.59102937743</v>
+        <v>641.83796782875004</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-6.9299448749421233E-2</v>
+        <v>-8.3367549890652579E-2</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -19513,7 +19646,7 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>652.59102937743</v>
+        <v>641.83796782875004</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
@@ -19521,7 +19654,7 @@
       </c>
       <c r="X30" s="9">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-6.9299448749421233E-2</v>
+        <v>-8.3367549890652579E-2</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19531,23 +19664,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D31" s="3">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -19571,11 +19704,11 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>583.19821549781989</v>
+        <v>567.57125096099992</v>
       </c>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.16796863218217467</v>
+        <v>-0.18914190921429647</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -19594,7 +19727,7 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>583.19821549781989</v>
+        <v>567.57125096099992</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
@@ -19602,7 +19735,7 @@
       </c>
       <c r="X31" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.16796863218217467</v>
+        <v>-0.18914190921429647</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19612,23 +19745,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D32" s="3">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -19652,11 +19785,11 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>279.25415801583296</v>
+        <v>261.96691766332498</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.20344827586206893</v>
+        <v>-0.25172413793103449</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -19675,7 +19808,7 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>279.25415801583296</v>
+        <v>261.96691766332498</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
@@ -19683,7 +19816,7 @@
       </c>
       <c r="X32" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.20344827586206893</v>
+        <v>-0.25172413793103449</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19693,23 +19826,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D33" s="3">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -19733,11 +19866,11 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>820.25275629257987</v>
+        <v>806.73705047250007</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19548354554243069</v>
+        <v>0.17741308946633808</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -19756,7 +19889,7 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>820.25275629257987</v>
+        <v>806.73705047250007</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
@@ -19764,7 +19897,7 @@
       </c>
       <c r="X33" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.19548354554243069</v>
+        <v>0.17741308946633808</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -19774,23 +19907,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D34" s="3">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -19814,11 +19947,11 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>797.15259041418005</v>
+        <v>775.79265663900003</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1618190854033473</v>
+        <v>0.13225347248544883</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -19837,7 +19970,7 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>797.15259041418005</v>
+        <v>775.79265663900003</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
@@ -19845,7 +19978,7 @@
       </c>
       <c r="X34" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.1618190854033473</v>
+        <v>0.13225347248544883</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19855,23 +19988,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D35" s="3">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -19895,11 +20028,11 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" ca="1" si="18"/>
-        <v>538.2357668177491</v>
+        <v>504.91625912122498</v>
       </c>
       <c r="N35" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>0.56886715566422175</v>
+        <v>0.47378429774517794</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -19918,7 +20051,7 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>538.2357668177491</v>
+        <v>504.91625912122498</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
@@ -19926,7 +20059,7 @@
       </c>
       <c r="X35" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>0.56886715566422175</v>
+        <v>0.47378429774517794</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19936,23 +20069,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" ref="B36:B41" ca="1" si="25">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D36" s="3">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -19976,14 +20109,14 @@
       </c>
       <c r="M36" s="26">
         <f t="shared" ref="M36:M41" ca="1" si="26" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>750.60865434320999</v>
+        <v>738.24050845125009</v>
       </c>
       <c r="N36" s="27">
         <f t="shared" ref="N36:N41" ca="1" si="27">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>8.2534016379075079E-2</v>
+        <v>6.617086067794134E-2</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -20002,7 +20135,7 @@
       </c>
       <c r="V36" s="2">
         <f t="shared" ref="V36:V41" ca="1" si="29">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>750.60865434320999</v>
+        <v>738.24050845125009</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" ref="W36:W41" si="30">IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
@@ -20010,7 +20143,7 @@
       </c>
       <c r="X36" s="9">
         <f t="shared" ref="X36:X41" ca="1" si="31">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>8.2534016379075079E-2</v>
+        <v>6.617086067794134E-2</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20020,23 +20153,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -20060,11 +20193,11 @@
       </c>
       <c r="M37" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>723.12571251648001</v>
+        <v>703.74935030400013</v>
       </c>
       <c r="N37" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>4.2870104339936529E-2</v>
+        <v>1.6331468319975909E-2</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -20083,7 +20216,7 @@
       </c>
       <c r="V37" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>723.12571251648001</v>
+        <v>703.74935030400013</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="30"/>
@@ -20091,7 +20224,7 @@
       </c>
       <c r="X37" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>4.2870104339936529E-2</v>
+        <v>1.6331468319975909E-2</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20101,23 +20234,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D38" s="3">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -20141,11 +20274,11 @@
       </c>
       <c r="M38" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>509.34091265857802</v>
+        <v>477.81014211944995</v>
       </c>
       <c r="N38" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>0.46914789422135156</v>
+        <v>0.38010862790490596</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -20164,7 +20297,7 @@
       </c>
       <c r="V38" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>509.34091265857802</v>
+        <v>477.81014211944995</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="30"/>
@@ -20172,7 +20305,7 @@
       </c>
       <c r="X38" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>0.46914789422135156</v>
+        <v>0.38010862790490596</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20182,23 +20315,23 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D39" s="3">
         <f ca="1">VLOOKUP(B39,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F39" s="2">
         <f ca="1">VLOOKUP(B39,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -20222,11 +20355,11 @@
       </c>
       <c r="M39" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>781.56158854292983</v>
+        <v>768.68341601624991</v>
       </c>
       <c r="N39" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>0.11508134492130657</v>
+        <v>9.8226216684867307E-2</v>
       </c>
       <c r="O39" s="28">
         <v>0.25</v>
@@ -20245,7 +20378,7 @@
       </c>
       <c r="V39" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>781.56158854292983</v>
+        <v>768.68341601624991</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="30"/>
@@ -20253,7 +20386,7 @@
       </c>
       <c r="X39" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>0.11508134492130657</v>
+        <v>9.8226216684867307E-2</v>
       </c>
       <c r="Y39" s="2" t="str">
         <f>IF(U39=0,"VENDIDA","ACTIVA")</f>
@@ -20263,23 +20396,23 @@
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D40" s="3">
         <f ca="1">VLOOKUP(B40,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F40" s="2">
         <f ca="1">VLOOKUP(B40,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -20303,11 +20436,11 @@
       </c>
       <c r="M40" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>765.09282976073996</v>
+        <v>744.591946527</v>
       </c>
       <c r="N40" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>9.1585382743406524E-2</v>
+        <v>6.3807055378588523E-2</v>
       </c>
       <c r="O40" s="28">
         <v>0.25</v>
@@ -20326,7 +20459,7 @@
       </c>
       <c r="V40" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>765.09282976073996</v>
+        <v>744.591946527</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="30"/>
@@ -20334,7 +20467,7 @@
       </c>
       <c r="X40" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>9.1585382743406524E-2</v>
+        <v>6.3807055378588523E-2</v>
       </c>
       <c r="Y40" s="2" t="str">
         <f>IF(U40=0,"VENDIDA","ACTIVA")</f>
@@ -20344,23 +20477,23 @@
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],2,FALSE)</f>
-        <v>4035.33</v>
+        <v>4029.75</v>
       </c>
       <c r="D41" s="3">
         <f ca="1">VLOOKUP(B41,Tabla4[],3,FALSE)</f>
-        <v>63920.7</v>
+        <v>62954.5</v>
       </c>
       <c r="E41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],5,FALSE)</f>
-        <v>2758.6</v>
+        <v>2688.4</v>
       </c>
       <c r="F41" s="2">
         <f ca="1">VLOOKUP(B41,Tabla4[],4,FALSE)</f>
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -20384,11 +20517,11 @@
       </c>
       <c r="M41" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>502.12812870920703</v>
+        <v>471.04386586267498</v>
       </c>
       <c r="N41" s="27">
         <f t="shared" ca="1" si="27"/>
-        <v>0.43282471157424635</v>
+        <v>0.34598685026671616</v>
       </c>
       <c r="O41" s="28">
         <v>0.1</v>
@@ -20407,7 +20540,7 @@
       </c>
       <c r="V41" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>502.12812870920703</v>
+        <v>471.04386586267498</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="30"/>
@@ -20415,29 +20548,281 @@
       </c>
       <c r="X41" s="9">
         <f t="shared" ca="1" si="31"/>
-        <v>0.43282471157424635</v>
+        <v>0.34598685026671616</v>
       </c>
       <c r="Y41" s="2" t="str">
         <f>IF(U41=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45530</v>
+      </c>
+      <c r="C42" s="2">
+        <f ca="1">VLOOKUP(B42,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="D42" s="3">
+        <f ca="1">VLOOKUP(B42,Tabla4[],3,FALSE)</f>
+        <v>62954.5</v>
+      </c>
+      <c r="E42" s="2">
+        <f ca="1">VLOOKUP(B42,Tabla4[],5,FALSE)</f>
+        <v>2688.4</v>
+      </c>
+      <c r="F42" s="2">
+        <f ca="1">VLOOKUP(B42,Tabla4[],4,FALSE)</f>
+        <v>2.17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I42" s="3">
+        <f>VLOOKUP(H42,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="J42" s="3">
+        <v>62485</v>
+      </c>
+      <c r="K42" s="25">
+        <v>2.7800000000000001E-6</v>
+      </c>
+      <c r="L42" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>700.00102192500003</v>
+      </c>
+      <c r="M42" s="26">
+        <f ca="1" xml:space="preserve"> K42 * (IF(G42="BTC", D42, IF(G42="ETH", E42, IF(G42="IO.NET", F42, 0)))) * C42</f>
+        <v>705.26069192250009</v>
+      </c>
+      <c r="N42" s="27">
+        <f ca="1">IF(G42 = "BTC", (D42 - J42) / J42,
+ IF(G42 = "ETH", (E42 - J42) / J42,
+ IF(G42 = "IO.NET", (F42 - J42) / J42,
+ "Moneda no soportada")))</f>
+        <v>7.5138033127950705E-3</v>
+      </c>
+      <c r="O42" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P42" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="31" t="str">
+        <f ca="1">IF(N42 &lt; O42, "MANTENER", IF(N42 &lt; P42, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>2.7800000000000001E-6</v>
+      </c>
+      <c r="V42" s="2">
+        <f ca="1">IF(G42="BTC", D42 * U42 * C42, IF(G42="ETH", E42 * U42 * C42, IF(G42="IO.NET", F42 * U42 * C42, 0)))</f>
+        <v>705.26069192250009</v>
+      </c>
+      <c r="W42" s="2">
+        <f>IF(G42 = "BTC", ((T42 - L42)), IF(G42 = "ETH", ((T42 - L42)), IF(G42 = "IO.NET", ((T42 - L42)), "Moneda no soportada")))</f>
+        <v>-700.00102192500003</v>
+      </c>
+      <c r="X42" s="32">
+        <f ca="1">IF(G42 = "BTC", (((D42 - J42) / J42)),IF(G42 = "ETH", ((E42 - J42) / J42), IF(G42 = "IO.NET", ((F42 - J42) / J42), "Moneda no soportada")))</f>
+        <v>7.5138033127950705E-3</v>
+      </c>
+      <c r="Y42" s="2" t="str">
+        <f>IF(U42=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45530</v>
+      </c>
+      <c r="C43" s="2">
+        <f ca="1">VLOOKUP(B43,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="D43" s="3">
+        <f ca="1">VLOOKUP(B43,Tabla4[],3,FALSE)</f>
+        <v>62954.5</v>
+      </c>
+      <c r="E43" s="2">
+        <f ca="1">VLOOKUP(B43,Tabla4[],5,FALSE)</f>
+        <v>2688.4</v>
+      </c>
+      <c r="F43" s="2">
+        <f ca="1">VLOOKUP(B43,Tabla4[],4,FALSE)</f>
+        <v>2.17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I43" s="3">
+        <f>VLOOKUP(H43,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2670.79</v>
+      </c>
+      <c r="K43" s="25">
+        <v>6.5040000000000001E-5</v>
+      </c>
+      <c r="L43" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>700.00054480260007</v>
+      </c>
+      <c r="M43" s="26">
+        <f ca="1" xml:space="preserve"> K43 * (IF(G43="BTC", D43, IF(G43="ETH", E43, IF(G43="IO.NET", F43, 0)))) * C43</f>
+        <v>704.61603669600004</v>
+      </c>
+      <c r="N43" s="27">
+        <f ca="1">IF(G43 = "BTC", (D43 - J43) / J43,
+ IF(G43 = "ETH", (E43 - J43) / J43,
+ IF(G43 = "IO.NET", (F43 - J43) / J43,
+ "Moneda no soportada")))</f>
+        <v>6.5935547160204016E-3</v>
+      </c>
+      <c r="O43" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P43" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="31" t="str">
+        <f ca="1">IF(N43 &lt; O43, "MANTENER", IF(N43 &lt; P43, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>6.5040000000000001E-5</v>
+      </c>
+      <c r="V43" s="2">
+        <f ca="1">IF(G43="BTC", D43 * U43 * C43, IF(G43="ETH", E43 * U43 * C43, IF(G43="IO.NET", F43 * U43 * C43, 0)))</f>
+        <v>704.61603669600004</v>
+      </c>
+      <c r="W43" s="2">
+        <f>IF(G43 = "BTC", ((T43 - L43)), IF(G43 = "ETH", ((T43 - L43)), IF(G43 = "IO.NET", ((T43 - L43)), "Moneda no soportada")))</f>
+        <v>-700.00054480260007</v>
+      </c>
+      <c r="X43" s="32">
+        <f ca="1">IF(G43 = "BTC", (((D43 - J43) / J43)),IF(G43 = "ETH", ((E43 - J43) / J43), IF(G43 = "IO.NET", ((F43 - J43) / J43), "Moneda no soportada")))</f>
+        <v>6.5935547160204016E-3</v>
+      </c>
+      <c r="Y43" s="2" t="str">
+        <f>IF(U43=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45530</v>
+      </c>
+      <c r="C44" s="2">
+        <f ca="1">VLOOKUP(B44,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="D44" s="3">
+        <f ca="1">VLOOKUP(B44,Tabla4[],3,FALSE)</f>
+        <v>62954.5</v>
+      </c>
+      <c r="E44" s="2">
+        <f ca="1">VLOOKUP(B44,Tabla4[],5,FALSE)</f>
+        <v>2688.4</v>
+      </c>
+      <c r="F44" s="2">
+        <f ca="1">VLOOKUP(B44,Tabla4[],4,FALSE)</f>
+        <v>2.17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45530</v>
+      </c>
+      <c r="I44" s="3">
+        <f>VLOOKUP(H44,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2.1766899999999998</v>
+      </c>
+      <c r="K44" s="25">
+        <v>3.9902439999999997E-2</v>
+      </c>
+      <c r="L44" s="29">
+        <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
+        <v>350.00491194757706</v>
+      </c>
+      <c r="M44" s="26">
+        <f ca="1" xml:space="preserve"> K44 * (IF(G44="BTC", D44, IF(G44="ETH", E44, IF(G44="IO.NET", F44, 0)))) * C44</f>
+        <v>348.92918097029997</v>
+      </c>
+      <c r="N44" s="27">
+        <f ca="1">IF(G44 = "BTC", (D44 - J44) / J44,
+ IF(G44 = "ETH", (E44 - J44) / J44,
+ IF(G44 = "IO.NET", (F44 - J44) / J44,
+ "Moneda no soportada")))</f>
+        <v>-3.073473944383382E-3</v>
+      </c>
+      <c r="O44" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P44" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="Q44" s="31" t="str">
+        <f ca="1">IF(N44 &lt; O44, "MANTENER", IF(N44 &lt; P44, "VENTA PARCIAL", "VENDER"))</f>
+        <v>MANTENER</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="14">
+        <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
+        <v>3.9902439999999997E-2</v>
+      </c>
+      <c r="V44" s="2">
+        <f ca="1">IF(G44="BTC", D44 * U44 * C44, IF(G44="ETH", E44 * U44 * C44, IF(G44="IO.NET", F44 * U44 * C44, 0)))</f>
+        <v>348.92918097029997</v>
+      </c>
+      <c r="W44" s="2">
+        <f>IF(G44 = "BTC", ((T44 - L44)), IF(G44 = "ETH", ((T44 - L44)), IF(G44 = "IO.NET", ((T44 - L44)), "Moneda no soportada")))</f>
+        <v>-350.00491194757706</v>
+      </c>
+      <c r="X44" s="32">
+        <f ca="1">IF(G44 = "BTC", (((D44 - J44) / J44)),IF(G44 = "ETH", ((E44 - J44) / J44), IF(G44 = "IO.NET", ((F44 - J44) / J44), "Moneda no soportada")))</f>
+        <v>-3.073473944383382E-3</v>
+      </c>
+      <c r="Y44" s="2" t="str">
+        <f>IF(U44=0,"VENDIDA","ACTIVA")</f>
+        <v>ACTIVA</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:Z41">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="B3:Z44">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q41">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
+  <conditionalFormatting sqref="Q3:Q44">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20450,10 +20835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20507,7 +20892,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -20528,11 +20913,11 @@
       </c>
       <c r="H3" s="7">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" ref="I3:I8" ca="1" si="2">G3*H3</f>
-        <v>690.43189376999999</v>
+        <v>690.95907516</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
@@ -20540,7 +20925,7 @@
       </c>
       <c r="K3" s="10">
         <f t="shared" ref="K3:K8" ca="1" si="3">((I3-J3)/J3)</f>
-        <v>-1.3619531789368E-2</v>
+        <v>-1.2866377957697867E-2</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -20550,7 +20935,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -20571,11 +20956,11 @@
       </c>
       <c r="H4" s="7">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>789.40489679000007</v>
+        <v>790.00764932000004</v>
       </c>
       <c r="J4" s="7">
         <f>F4+J3</f>
@@ -20583,7 +20968,7 @@
       </c>
       <c r="K4" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3200836541509333E-2</v>
+        <v>-1.244736301379863E-2</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L6" si="4">D4*1.1</f>
@@ -20593,7 +20978,7 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -20614,11 +20999,11 @@
       </c>
       <c r="H5" s="7">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>1474.6328300600001</v>
+        <v>1475.75879048</v>
       </c>
       <c r="J5" s="8">
         <f>F5+J4</f>
@@ -20626,7 +21011,7 @@
       </c>
       <c r="K5" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6888468961270588E-2</v>
+        <v>-1.6137811136603734E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="4"/>
@@ -20636,7 +21021,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -20657,11 +21042,11 @@
       </c>
       <c r="H6" s="7">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2128.8608354600001</v>
+        <v>2130.4863336799999</v>
       </c>
       <c r="J6" s="8">
         <f>F6+J5</f>
@@ -20669,7 +21054,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.2320850888669865E-2</v>
+        <v>-3.1581976506553887E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="4"/>
@@ -20679,7 +21064,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -20700,11 +21085,11 @@
       </c>
       <c r="H7" s="7">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2809.0704141900001</v>
+        <v>2811.2152885199998</v>
       </c>
       <c r="J7" s="8">
         <f>F7+J6</f>
@@ -20712,7 +21097,7 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.1343384067402308E-2</v>
+        <v>-3.0603763337497123E-2</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -20722,7 +21107,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f ca="1">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C8" s="1">
         <v>45523</v>
@@ -20743,11 +21128,11 @@
       </c>
       <c r="H8" s="7">
         <f ca="1">VLOOKUP(B8,Tabla4[],6,FALSE)</f>
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3503.9314696599999</v>
+        <v>3506.6069072800001</v>
       </c>
       <c r="J8" s="8">
         <f>F8+J7</f>
@@ -20755,11 +21140,54 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.6676396928119305E-2</v>
+        <v>-2.5933212705870439E-2</v>
       </c>
       <c r="L8" s="8">
         <f>D8*1.1</f>
         <v>4353.866</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45530</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45530</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3966.68</v>
+      </c>
+      <c r="E9">
+        <v>0.17646977</v>
+      </c>
+      <c r="F9" s="7">
+        <f>D9*E9</f>
+        <v>699.99910726359997</v>
+      </c>
+      <c r="G9" s="14">
+        <f>G8+E9</f>
+        <v>1.0682823100000001</v>
+      </c>
+      <c r="H9" s="7">
+        <f ca="1">VLOOKUP(B9,Tabla4[],6,FALSE)</f>
+        <v>3932</v>
+      </c>
+      <c r="I9" s="22">
+        <f ca="1">G9*H9</f>
+        <v>4200.4860429199998</v>
+      </c>
+      <c r="J9" s="8">
+        <f>F9+J8</f>
+        <v>4299.9646876742008</v>
+      </c>
+      <c r="K9" s="30">
+        <f ca="1">((I9-J9)/J9)</f>
+        <v>-2.3134758534030617E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <f>D9*1.1</f>
+        <v>4363.348</v>
       </c>
     </row>
   </sheetData>
@@ -20777,8 +21205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21225,10 +21653,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22014,7 +22442,7 @@
         <v>509.45</v>
       </c>
       <c r="E34" s="8">
-        <f>0.01518 * D34</f>
+        <f t="shared" ref="E34:E39" si="4">0.01518 * D34</f>
         <v>7.7334510000000005</v>
       </c>
       <c r="F34" s="8">
@@ -22038,7 +22466,7 @@
         <v>514.35</v>
       </c>
       <c r="E35" s="8">
-        <f>0.01518 * D35</f>
+        <f t="shared" si="4"/>
         <v>7.8078330000000005</v>
       </c>
       <c r="F35" s="8">
@@ -22062,7 +22490,7 @@
         <v>513.5</v>
       </c>
       <c r="E36" s="8">
-        <f>0.01518 * D36</f>
+        <f t="shared" si="4"/>
         <v>7.7949300000000008</v>
       </c>
       <c r="F36" s="8">
@@ -22086,7 +22514,7 @@
         <v>515.29999999999995</v>
       </c>
       <c r="E37" s="8">
-        <f>0.01518 * D37</f>
+        <f t="shared" si="4"/>
         <v>7.822254</v>
       </c>
       <c r="F37" s="8">
@@ -22110,7 +22538,7 @@
         <v>511.13</v>
       </c>
       <c r="E38" s="8">
-        <f>0.01518 * D38</f>
+        <f t="shared" si="4"/>
         <v>7.7589534000000002</v>
       </c>
       <c r="F38" s="8">
@@ -22134,7 +22562,7 @@
         <v>516.66</v>
       </c>
       <c r="E39" s="8">
-        <f>0.01518 * D39</f>
+        <f t="shared" si="4"/>
         <v>7.8428987999999995</v>
       </c>
       <c r="F39" s="8">
@@ -22144,6 +22572,30 @@
       <c r="G39" s="8">
         <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
         <v>31917.617814455996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C40" s="8">
+        <f>VLOOKUP(B40,Tabla4[],2,FALSE)</f>
+        <v>4029.75</v>
+      </c>
+      <c r="D40" s="24">
+        <v>515.39</v>
+      </c>
+      <c r="E40" s="8">
+        <f>0.01518 * D40</f>
+        <v>7.8236202000000006</v>
+      </c>
+      <c r="F40" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</f>
+        <v>0.1236202000000004</v>
+      </c>
+      <c r="G40" s="8">
+        <f>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</f>
+        <v>31527.233500950002</v>
       </c>
     </row>
   </sheetData>
@@ -23955,7 +24407,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
@@ -23981,9 +24433,9 @@
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="18" t="e">
+      <c r="I3" s="18">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -24023,7 +24475,7 @@
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
@@ -24049,9 +24501,9 @@
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="18" t="e">
+      <c r="I4" s="18">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -24091,7 +24543,7 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
@@ -24117,9 +24569,9 @@
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="18" t="e">
+      <c r="I5" s="18">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -24159,7 +24611,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
@@ -24185,9 +24637,9 @@
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="18" t="e">
+      <c r="I6" s="18">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -24227,7 +24679,7 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
@@ -24253,9 +24705,9 @@
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="18" t="e">
+      <c r="I7" s="18">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -24295,7 +24747,7 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
@@ -24321,9 +24773,9 @@
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="18">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -24341,9 +24793,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7" t="e">
+      <c r="O8" s="7">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>#N/A</v>
+        <v>7.83</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -24351,19 +24803,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7" t="e">
+      <c r="S8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="9" t="e">
+        <v>0.13</v>
+      </c>
+      <c r="T8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
@@ -24389,9 +24841,9 @@
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="18" t="e">
+      <c r="I9" s="18">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -24431,7 +24883,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
@@ -24457,9 +24909,9 @@
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="18" t="e">
+      <c r="I10" s="18">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -24499,7 +24951,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
@@ -24525,9 +24977,9 @@
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="18" t="e">
+      <c r="I11" s="18">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -24567,7 +25019,7 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
@@ -24593,9 +25045,9 @@
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="18" t="e">
+      <c r="I12" s="18">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -24635,7 +25087,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
@@ -24661,9 +25113,9 @@
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="18" t="e">
+      <c r="I13" s="18">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -24703,7 +25155,7 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
@@ -24729,9 +25181,9 @@
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="18" t="e">
+      <c r="I14" s="18">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>#N/A</v>
+        <v>515.39</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD4D24-15EE-4991-81EF-2A92E647A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094F777-4803-4237-BBE1-0D501C1F4B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="115">
   <si>
     <t>FECHA</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>VALOR EN COP</t>
   </si>
+  <si>
+    <t>SEPTIEMBRE</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +472,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -505,93 +508,13 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="103">
     <dxf>
       <font>
         <color auto="1"/>
@@ -889,6 +812,33 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -1362,33 +1312,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="108"/>
-      <tableStyleElement type="headerRow" dxfId="107"/>
-      <tableStyleElement type="secondRowStripe" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="102"/>
+      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="105"/>
-      <tableStyleElement type="headerRow" dxfId="104"/>
-      <tableStyleElement type="firstRowStripe" dxfId="103"/>
-      <tableStyleElement type="secondRowStripe" dxfId="102"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="101"/>
+      <tableStyleElement type="wholeTable" dxfId="99"/>
+      <tableStyleElement type="headerRow" dxfId="98"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="firstRowStripe" dxfId="99"/>
-      <tableStyleElement type="secondRowStripe" dxfId="98"/>
+      <tableStyleElement type="headerRow" dxfId="94"/>
+      <tableStyleElement type="firstRowStripe" dxfId="93"/>
+      <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="wholeTable" dxfId="97"/>
-      <tableStyleElement type="headerRow" dxfId="96"/>
-      <tableStyleElement type="firstRowStripe" dxfId="95"/>
-      <tableStyleElement type="secondRowStripe" dxfId="94"/>
+      <tableStyleElement type="wholeTable" dxfId="91"/>
+      <tableStyleElement type="headerRow" dxfId="90"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="wholeTable" dxfId="93"/>
-      <tableStyleElement type="headerRow" dxfId="92"/>
-      <tableStyleElement type="firstRowStripe" dxfId="91"/>
-      <tableStyleElement type="secondRowStripe" dxfId="90"/>
+      <tableStyleElement type="wholeTable" dxfId="87"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -13705,7 +13655,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOMBRE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="89" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="83" dataCellStyle="Moneda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
@@ -13717,52 +13667,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:T14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="FECHA ACTUAL" dataDxfId="24">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="33" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="PRECIO ACT KO" dataDxfId="23" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRECIO ACT JNJ" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="PRECIO ACT PG" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="PRECIO ACT PEP" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="PRECIO ACT MSFT" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="PRECIO ACT MCD" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="27">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="PRECIO ACT VOO" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="24" dataCellStyle="Moneda"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="23" dataCellStyle="Moneda"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="22" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="EMPRESA" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="FECHA COMPRA" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="PRECIO COMPRA" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="CAPITAL INVE" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="CANTIDAD DE ACCIONES" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="21" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="VALOR ACTUAL INVE" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="19" dataCellStyle="Moneda"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="18" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="FECHA DIVIDENDO" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="VALOR DIVIDENDO POR ACCION" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="17" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="GANACIA/PERDIDA" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="16" dataCellStyle="Porcentaje">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="RENTABILIDAD" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13777,10 +13727,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TIPO DE INVERSION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CAPITAL INICIAL TOTAL" dataCellStyle="Moneda"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CAPITAL FINAL TOTAL" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="88" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TOTAL G/P" dataDxfId="82" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(C:C,"CRIPTOMONEDA",H:H)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="87" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% DEL TOTAL CAPITAL" dataDxfId="81" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>M3/SUM(M3:M5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13789,22 +13739,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J10" totalsRowShown="0" headerRowDxfId="86">
-  <autoFilter ref="B2:J10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla7" displayName="Tabla7" ref="B2:J12" totalsRowShown="0" headerRowDxfId="80">
+  <autoFilter ref="B2:J12" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="82" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CANTIDAD INICIAL" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="CAPITAL INVERTIDO" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="INTERES OBTENIDO" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="PORCENTAJE DE INTERES" dataDxfId="76" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="80">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RETIROS DE CAPITAL" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TOTAL CAPITAL FIN DE MES" dataDxfId="74">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="79" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RENTABILIDAD" dataDxfId="73" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13816,12 +13766,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="B2:G126" totalsRowShown="0">
   <autoFilter ref="B2:G126" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="FECHA" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DÓLAR" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BITCOIN" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="io.net" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ETHEREUM" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="USDT" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13837,61 +13787,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="fecha act" dataDxfId="66">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="precio actual dólar" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="precio actual btc" dataDxfId="64">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="69">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="precio actul eth" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="precio actual io.net" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="moneda"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="FECHA COMPRA"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="67">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="65" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="64" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="precio de compra" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="cantidad" dataDxfId="59" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="COSTO DE COMPRA" dataDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="63" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="VALOR ACTUAL INV" dataDxfId="57" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="62" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="rentabilidad" dataDxfId="56" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="61" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="60" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="59">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="meta1" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="META2" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="ACCION" dataDxfId="53">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="FECHA DE VENTA"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="58"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="57">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="PRECIO DE VENTA" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="INVENTARIO" dataDxfId="51">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="56">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="VALOR ACTUAL" dataDxfId="50">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="55">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="GANANCIA/PERDIDA" dataDxfId="49">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="RENTABILIDAD TOTAL" dataDxfId="48" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="53">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="ESTADO DE LA INVERSION" dataDxfId="47">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="NOTAS"/>
@@ -13904,16 +13854,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla5" displayName="Tabla5" ref="B2:L9" totalsRowShown="0">
   <autoFilter ref="B2:L9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FECHA ACT" dataDxfId="46">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="FECHA COMPRA" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="CANTIDAD TOTAL(USD)" dataDxfId="44">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="PRECIO ACTUAL(USD)">
@@ -13925,7 +13875,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="RENTABILIDAD" dataDxfId="43" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="META 10%">
@@ -13940,7 +13890,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="B2:O10" totalsRowShown="0">
   <autoFilter ref="B2:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="MES" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CRIPTOMONEDA"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="PRECIO DÓLAR INICIAL"/>
@@ -13975,18 +13925,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla2" displayName="Tabla2" ref="B2:G40" totalsRowShown="0">
   <autoFilter ref="B2:G40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="FECHA" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="PRECIO DEL DÓLAR" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="49" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="VOO" dataDxfId="39" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="VALOR INVERSION 1" dataDxfId="38">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="GAN/PER" dataDxfId="37">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="VALOR EN COP" dataDxfId="36">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13995,21 +13945,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B2:K52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DÓLAR" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="S&amp;P 500" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="NASDAQ-100" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="KO" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="JNJ" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="PG" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="PEP" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="MSFT" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="MCD" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14334,8 +14284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,15 +14374,15 @@
       </c>
       <c r="M3" s="7">
         <f>SUMIF(C:C,"CUENTA DE AHORRO",G:G)</f>
-        <v>25740.73</v>
+        <v>63900.229999999996</v>
       </c>
       <c r="N3" s="7">
         <f>SUMIF(C:C,"CUENTA DE AHORRO",H:H)</f>
-        <v>-37496.619999999995</v>
+        <v>662.88</v>
       </c>
       <c r="O3" s="9">
         <f>M3/SUM(M3:M5)</f>
-        <v>0.36574904245808215</v>
+        <v>0.58873807993947169</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -14473,7 +14423,7 @@
       </c>
       <c r="O4" s="9">
         <f t="shared" ref="O4" si="0">M4/SUM(M4:M6)</f>
-        <v>0.12148300694401998</v>
+        <v>9.1218730783826932E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -14516,7 +14466,7 @@
       </c>
       <c r="O5" s="9">
         <f>M5/SUM(M5:M8)</f>
-        <v>0.30348401889570276</v>
+        <v>0.22029016990920716</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -14551,11 +14501,11 @@
       </c>
       <c r="M6" s="7">
         <f>SUM(M3:M5)</f>
-        <v>70378.12</v>
+        <v>108537.62</v>
       </c>
       <c r="N6" s="7">
         <f>SUM(N3:N5)</f>
-        <v>-96069.299999999988</v>
+        <v>-57909.799999999988</v>
       </c>
       <c r="O6" s="9">
         <f>M6/SUM(M6:M9)</f>
@@ -14652,10 +14602,12 @@
       <c r="F10" s="7">
         <v>6000</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>31345.439999999999</v>
+      </c>
       <c r="H10" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-30997.599999999999</v>
+        <v>347.84000000000015</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -14674,10 +14626,12 @@
       <c r="F11" s="7">
         <v>6000</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>6814.06</v>
+      </c>
       <c r="H11" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-6743.13</v>
+        <v>70.930000000000291</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -14790,10 +14744,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14810,10 +14764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15049,19 +15003,21 @@
       <c r="E9" s="2">
         <v>6000</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>347.84</v>
+      </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1221513923658605E-2</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>30997.599999999999</v>
+        <v>31345.439999999999</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.122151392365861E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -15077,18 +15033,78 @@
       <c r="E10" s="2">
         <v>6000</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>70.33</v>
+      </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0428946591871265E-2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>6743.73</v>
+        <v>6814.0599999999995</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
+        <v>1.0428946591871255E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2">
+        <f>I9</f>
+        <v>31345.439999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="27">
+        <f>(F11/(D11+E11))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f>D11+E11+F11-H11</f>
+        <v>37345.440000000002</v>
+      </c>
+      <c r="J11" s="27">
+        <f>((I11-(D11+E11))/(D11+E11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2">
+        <f>I10</f>
+        <v>6814.0599999999995</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="27">
+        <f>(F12/(D12+E12))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <f>D12+E12+F12-H12</f>
+        <v>12814.06</v>
+      </c>
+      <c r="J12" s="27">
+        <f>((I12-(D12+E12))/(D12+E12))</f>
         <v>0</v>
       </c>
     </row>
@@ -17358,23 +17374,23 @@
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C3" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C3" s="2" t="e">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D3" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="3" t="e">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E3" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="2" t="e">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F3" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="2" t="e">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -17396,16 +17412,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>702.89888885999994</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="13" t="e">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>639.30105886499996</v>
-      </c>
-      <c r="N3" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" s="10" t="e">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.11265451675194159</v>
+        <v>#N/A</v>
       </c>
       <c r="O3" s="9">
         <v>0.25</v>
@@ -17413,26 +17429,26 @@
       <c r="P3" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3" t="e">
         <f t="shared" ref="Q3:Q7" ca="1" si="2">IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.52E-6</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="2" t="e">
         <f ca="1">IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</f>
-        <v>639.30105886499996</v>
+        <v>#N/A</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W21" si="3">IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</f>
         <v>-702.89888885999994</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="9" t="e">
         <f t="shared" ref="X3:X22" ca="1" si="4">IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</f>
-        <v>-0.11265451675194159</v>
+        <v>#N/A</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>IF(U3=0,"VENDIDA","ACTIVA")</f>
@@ -17442,23 +17458,23 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C4" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C4" s="2" t="e">
         <f ca="1">VLOOKUP(B4,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D4" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="3" t="e">
         <f ca="1">VLOOKUP(B4,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E4" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="2" t="e">
         <f ca="1">VLOOKUP(B4,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F4" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="2" t="e">
         <f ca="1">VLOOKUP(B4,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -17480,13 +17496,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>705.39693250799996</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="13" t="e">
         <f t="shared" ref="M4:M21" ca="1" si="5" xml:space="preserve"> K4 * (IF(G4="BTC", D4, IF(G4="ETH", E4, IF(G4="IO.NET", F4, 0)))) * C4</f>
-        <v>511.34497127999998</v>
-      </c>
-      <c r="N4" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29277012398357405</v>
+        <v>#N/A</v>
       </c>
       <c r="O4" s="9">
         <v>0.25</v>
@@ -17494,26 +17510,26 @@
       <c r="P4" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>4.7200000000000002E-5</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="2" t="e">
         <f t="shared" ref="V4:V21" ca="1" si="6">IF(G4="BTC", D4 * U4 * C4, IF(G4="ETH", E4 * U4 * C4, IF(G4="IO.NET", F4 * U4 * C4, 0)))</f>
-        <v>511.34497127999998</v>
+        <v>#N/A</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
         <v>-705.39693250799996</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.29277012398357405</v>
+        <v>#N/A</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" ref="Y4:Y24" si="7">IF(U4=0,"VENDIDA","ACTIVA")</f>
@@ -17523,23 +17539,23 @@
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C5" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C5" s="2" t="e">
         <f ca="1">VLOOKUP(B5,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D5" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="3" t="e">
         <f ca="1">VLOOKUP(B5,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="2" t="e">
         <f ca="1">VLOOKUP(B5,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="2" t="e">
         <f ca="1">VLOOKUP(B5,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -17561,13 +17577,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>711.38458935120002</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>651.9856036837499</v>
-      </c>
-      <c r="N5" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1250938275881974E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O5" s="9">
         <v>0.25</v>
@@ -17575,26 +17591,26 @@
       <c r="P5" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.57E-6</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>651.9856036837499</v>
+        <v>#N/A</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="3"/>
         <v>-711.38458935120002</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.1250938275881974E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17604,23 +17620,23 @@
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C6" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C6" s="2" t="e">
         <f ca="1">VLOOKUP(B6,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D6" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="3" t="e">
         <f ca="1">VLOOKUP(B6,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="2" t="e">
         <f ca="1">VLOOKUP(B6,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="2" t="e">
         <f ca="1">VLOOKUP(B6,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -17642,13 +17658,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>713.63816396689595</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>527.27033373300003</v>
-      </c>
-      <c r="N6" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26740206230516006</v>
+        <v>#N/A</v>
       </c>
       <c r="O6" s="9">
         <v>0.25</v>
@@ -17656,26 +17672,26 @@
       <c r="P6" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>4.867E-5</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>527.27033373300003</v>
+        <v>#N/A</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="3"/>
         <v>-713.63816396689595</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.26740206230516006</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17685,23 +17701,23 @@
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C7" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C7" s="2" t="e">
         <f ca="1">VLOOKUP(B7,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D7" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="3" t="e">
         <f ca="1">VLOOKUP(B7,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="2" t="e">
         <f ca="1">VLOOKUP(B7,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="2" t="e">
         <f ca="1">VLOOKUP(B7,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -17723,13 +17739,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>721.88976178291</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>667.20705746624992</v>
-      </c>
-      <c r="N7" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2887096264624955E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O7" s="9">
         <v>0.25</v>
@@ -17737,26 +17753,26 @@
       <c r="P7" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.6299999999999998E-6</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>667.20705746624992</v>
+        <v>#N/A</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="3"/>
         <v>-721.88976178291</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.2887096264624955E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17766,23 +17782,23 @@
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C8" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C8" s="2" t="e">
         <f ca="1">VLOOKUP(B8,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D8" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="3" t="e">
         <f ca="1">VLOOKUP(B8,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="2" t="e">
         <f ca="1">VLOOKUP(B8,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="2" t="e">
         <f ca="1">VLOOKUP(B8,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -17804,13 +17820,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>676.17994528545319</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>338.50855413427502</v>
-      </c>
-      <c r="N8" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48699763593380624</v>
+        <v>#N/A</v>
       </c>
       <c r="O8" s="9">
         <v>0.25</v>
@@ -17818,26 +17834,26 @@
       <c r="P8" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q8" t="e">
         <f t="shared" ref="Q8:Q21" ca="1" si="8">IF(N8 &lt; O8, "MANTENER", IF(N8 &lt; P8, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.8710769999999999E-2</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>338.50855413427502</v>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="3"/>
         <v>-676.17994528545319</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.48699763593380624</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17847,23 +17863,23 @@
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C9" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C9" s="2" t="e">
         <f ca="1">VLOOKUP(B9,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D9" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="3" t="e">
         <f ca="1">VLOOKUP(B9,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="2" t="e">
         <f ca="1">VLOOKUP(B9,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="2" t="e">
         <f ca="1">VLOOKUP(B9,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -17885,13 +17901,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>712.26418846524007</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>533.01213108000002</v>
-      </c>
-      <c r="N9" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23315429617860736</v>
+        <v>#N/A</v>
       </c>
       <c r="O9" s="9">
         <v>0.25</v>
@@ -17899,26 +17915,26 @@
       <c r="P9" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>4.9200000000000003E-5</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>533.01213108000002</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="3"/>
         <v>-712.26418846524007</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23315429617860736</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -17928,23 +17944,23 @@
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C10" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C10" s="2" t="e">
         <f ca="1">VLOOKUP(B10,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D10" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="3" t="e">
         <f ca="1">VLOOKUP(B10,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="2" t="e">
         <f ca="1">VLOOKUP(B10,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="2" t="e">
         <f ca="1">VLOOKUP(B10,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -17966,13 +17982,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>692.62576284671991</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>690.03923813999995</v>
-      </c>
-      <c r="N10" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4630052798447995E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O10" s="9">
         <v>0.25</v>
@@ -17980,26 +17996,26 @@
       <c r="P10" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.7199999999999998E-6</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>690.03923813999995</v>
+        <v>#N/A</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
         <v>-692.62576284671991</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4630052798447995E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18009,23 +18025,23 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C11" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C11" s="2" t="e">
         <f ca="1">VLOOKUP(B11,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D11" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="3" t="e">
         <f ca="1">VLOOKUP(B11,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="2" t="e">
         <f ca="1">VLOOKUP(B11,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="2" t="e">
         <f ca="1">VLOOKUP(B11,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -18047,13 +18063,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>682.28056593911992</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>687.50232917624999</v>
-      </c>
-      <c r="N11" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2491217481721513E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O11" s="9">
         <v>0.25</v>
@@ -18061,26 +18077,26 @@
       <c r="P11" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="Q11" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.7099999999999999E-6</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>687.50232917624999</v>
+        <v>#N/A</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="3"/>
         <v>-682.28056593911992</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2491217481721513E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18090,23 +18106,23 @@
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C12" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C12" s="2" t="e">
         <f ca="1">VLOOKUP(B12,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D12" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="3" t="e">
         <f ca="1">VLOOKUP(B12,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E12" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="2" t="e">
         <f ca="1">VLOOKUP(B12,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F12" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="2" t="e">
         <f ca="1">VLOOKUP(B12,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -18128,13 +18144,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>705.59026591680004</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>768.68341601624991</v>
-      </c>
-      <c r="N12" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10263878769196276</v>
+        <v>#N/A</v>
       </c>
       <c r="O12" s="9">
         <v>0.25</v>
@@ -18142,26 +18158,26 @@
       <c r="P12" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="Q12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.0299999999999998E-6</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>768.68341601624991</v>
+        <v>#N/A</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="3"/>
         <v>-705.59026591680004</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10263878769196276</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18171,23 +18187,23 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C13" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C13" s="2" t="e">
         <f ca="1">VLOOKUP(B13,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D13" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="3" t="e">
         <f ca="1">VLOOKUP(B13,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E13" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="2" t="e">
         <f ca="1">VLOOKUP(B13,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F13" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="2" t="e">
         <f ca="1">VLOOKUP(B13,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -18209,13 +18225,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>706.44677732571006</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>712.8714188137501</v>
-      </c>
-      <c r="N13" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5768878286043255E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="O13" s="9">
         <v>0.25</v>
@@ -18223,26 +18239,26 @@
       <c r="P13" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q13" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.8100000000000002E-6</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>712.8714188137501</v>
+        <v>#N/A</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="3"/>
         <v>-706.44677732571006</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.5768878286043255E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18252,23 +18268,23 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C14" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C14" s="2" t="e">
         <f ca="1">VLOOKUP(B14,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D14" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="3" t="e">
         <f ca="1">VLOOKUP(B14,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E14" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="2" t="e">
         <f ca="1">VLOOKUP(B14,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F14" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="2" t="e">
         <f ca="1">VLOOKUP(B14,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -18290,13 +18306,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>708.50285169316794</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>548.28747873899999</v>
-      </c>
-      <c r="N14" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2040996977331466</v>
+        <v>#N/A</v>
       </c>
       <c r="O14" s="9">
         <v>0.25</v>
@@ -18304,26 +18320,26 @@
       <c r="P14" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Q14" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.0609999999999998E-5</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>548.28747873899999</v>
+        <v>#N/A</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="3"/>
         <v>-708.50285169316794</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.2040996977331466</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18333,23 +18349,23 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C15" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C15" s="2" t="e">
         <f ca="1">VLOOKUP(B15,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D15" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="e">
         <f ca="1">VLOOKUP(B15,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E15" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="2" t="e">
         <f ca="1">VLOOKUP(B15,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F15" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="2" t="e">
         <f ca="1">VLOOKUP(B15,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -18371,13 +18387,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>684.33117524901604</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>534.52883226599999</v>
-      </c>
-      <c r="N15" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19964989892915516</v>
+        <v>#N/A</v>
       </c>
       <c r="O15" s="9">
         <v>0.25</v>
@@ -18385,26 +18401,26 @@
       <c r="P15" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q15" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>4.9339999999999999E-5</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>534.52883226599999</v>
+        <v>#N/A</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="3"/>
         <v>-684.33117524901604</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.19964989892915516</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18414,23 +18430,23 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C16" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C16" s="2" t="e">
         <f ca="1">VLOOKUP(B16,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D16" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="e">
         <f ca="1">VLOOKUP(B16,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E16" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="2" t="e">
         <f ca="1">VLOOKUP(B16,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F16" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="2" t="e">
         <f ca="1">VLOOKUP(B16,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -18452,13 +18468,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>708.24207363000005</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>615.78068151599996</v>
-      </c>
-      <c r="N16" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11999999999999997</v>
+        <v>#N/A</v>
       </c>
       <c r="O16" s="9">
         <v>0.25</v>
@@ -18466,26 +18482,26 @@
       <c r="P16" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q16" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.6839999999999998E-5</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>615.78068151599996</v>
+        <v>#N/A</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="3"/>
         <v>-708.24207363000005</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11999999999999997</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18495,23 +18511,23 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C17" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C17" s="2" t="e">
         <f ca="1">VLOOKUP(B17,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D17" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="3" t="e">
         <f ca="1">VLOOKUP(B17,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E17" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="2" t="e">
         <f ca="1">VLOOKUP(B17,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F17" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="2" t="e">
         <f ca="1">VLOOKUP(B17,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -18533,13 +18549,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>726.32733822540001</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>569.84630274000006</v>
-      </c>
-      <c r="N17" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22257887279141719</v>
+        <v>#N/A</v>
       </c>
       <c r="O17" s="9">
         <v>0.25</v>
@@ -18547,26 +18563,26 @@
       <c r="P17" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q17" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.2599999999999998E-5</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>569.84630274000006</v>
+        <v>#N/A</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="3"/>
         <v>-726.32733822540001</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.22257887279141719</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18576,23 +18592,23 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C18" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C18" s="2" t="e">
         <f ca="1">VLOOKUP(B18,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D18" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
         <f ca="1">VLOOKUP(B18,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E18" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="2" t="e">
         <f ca="1">VLOOKUP(B18,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F18" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="2" t="e">
         <f ca="1">VLOOKUP(B18,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -18614,13 +18630,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>742.97443934431988</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>461.06562619057496</v>
-      </c>
-      <c r="N18" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="12" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36176470588235293</v>
+        <v>#N/A</v>
       </c>
       <c r="O18" s="9">
         <v>0.1</v>
@@ -18628,26 +18644,26 @@
       <c r="P18" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q18" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.2726009999999997E-2</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>461.06562619057496</v>
+        <v>#N/A</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="3"/>
         <v>-742.97443934431988</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.36176470588235293</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18657,23 +18673,23 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C19" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C19" s="2" t="e">
         <f ca="1">VLOOKUP(B19,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D19" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="e">
         <f ca="1">VLOOKUP(B19,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E19" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="2" t="e">
         <f ca="1">VLOOKUP(B19,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F19" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="2" t="e">
         <f ca="1">VLOOKUP(B19,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -18695,13 +18711,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>321.201220736496</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>240.36724851930001</v>
-      </c>
-      <c r="N19" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="12" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23321554770318026</v>
+        <v>#N/A</v>
       </c>
       <c r="O19" s="9">
         <v>0.1</v>
@@ -18709,26 +18725,26 @@
       <c r="P19" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q19" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.7487640000000001E-2</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>240.36724851930001</v>
+        <v>#N/A</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="3"/>
         <v>-321.201220736496</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.23321554770318026</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18738,23 +18754,23 @@
     <row r="20" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C20" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C20" s="2" t="e">
         <f ca="1">VLOOKUP(B20,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D20" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="3" t="e">
         <f ca="1">VLOOKUP(B20,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E20" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="2" t="e">
         <f ca="1">VLOOKUP(B20,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F20" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="2" t="e">
         <f ca="1">VLOOKUP(B20,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -18776,13 +18792,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>360.88385943167998</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="13" t="e">
         <f ca="1" xml:space="preserve"> K20 * (IF(G20="BTC", D20, IF(G20="ETH", E20, IF(G20="IO.NET", F20, 0)))) * C20</f>
-        <v>337.87291224960001</v>
-      </c>
-      <c r="N20" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="12" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2401746724890876E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O20" s="9">
         <v>0.1</v>
@@ -18790,9 +18806,9 @@
       <c r="P20" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q20" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S20">
         <v>3.8638079999999998E-2</v>
@@ -18804,17 +18820,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="2" t="e">
         <f ca="1">IF(G20="BTC", D20 * U20 * C20, IF(G20="ETH", E20 * U20 * C20, IF(G20="IO.NET", F20 * U20 * C20, 0)))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="3"/>
         <v>54.11614056832002</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.2401746724890876E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18824,23 +18840,23 @@
     <row r="21" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
-      </c>
-      <c r="C21" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C21" s="2" t="e">
         <f ca="1">VLOOKUP(B21,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D21" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="3" t="e">
         <f ca="1">VLOOKUP(B21,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E21" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="2" t="e">
         <f ca="1">VLOOKUP(B21,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F21" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="2" t="e">
         <f ca="1">VLOOKUP(B21,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -18862,13 +18878,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>388.34452590642002</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>324.59709994424998</v>
-      </c>
-      <c r="N21" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="12" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17175572519083976</v>
+        <v>#N/A</v>
       </c>
       <c r="O21" s="9">
         <v>0.1</v>
@@ -18876,9 +18892,9 @@
       <c r="P21" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S21">
         <v>3.7119899999999997E-2</v>
@@ -18890,17 +18906,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>0</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="2" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="3"/>
         <v>36.655474093579983</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.17175572519083976</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18910,23 +18926,23 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" ca="1" si="9">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C22" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C22" s="2" t="e">
         <f ca="1">VLOOKUP(B22,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D22" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="3" t="e">
         <f ca="1">VLOOKUP(B22,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E22" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="2" t="e">
         <f ca="1">VLOOKUP(B22,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F22" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="2" t="e">
         <f ca="1">VLOOKUP(B22,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -18948,16 +18964,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>404.86067209601998</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="13" t="e">
         <f t="shared" ref="M22:M29" ca="1" si="10" xml:space="preserve"> K22 * (IF(G22="BTC", D22, IF(G22="ETH", E22, IF(G22="IO.NET", F22, 0)))) * C22</f>
-        <v>332.86464183262501</v>
-      </c>
-      <c r="N22" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="12" t="e">
         <f t="shared" ref="N22:N29" ca="1" si="11">IF(G22 = "BTC", (D22 - J22) / J22,
  IF(G22 = "ETH", (E22 - J22) / J22,
  IF(G22 = "IO.NET", (F22 - J22) / J22,
  "Moneda no soportada")))</f>
-        <v>-0.19330855018587362</v>
+        <v>#N/A</v>
       </c>
       <c r="O22" s="9">
         <v>0.1</v>
@@ -18965,9 +18981,9 @@
       <c r="P22" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="Q22" t="e">
         <f t="shared" ref="Q22:Q29" ca="1" si="12">IF(N22 &lt; O22, "MANTENER", IF(N22 &lt; P22, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S22">
         <v>3.7999999999999999E-2</v>
@@ -18979,17 +18995,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>6.5349999999998742E-5</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="2" t="e">
         <f t="shared" ref="V22:V29" ca="1" si="13">IF(G22="BTC", D22 * U22 * C22, IF(G22="ETH", E22 * U22 * C22, IF(G22="IO.NET", F22 * U22 * C22, 0)))</f>
-        <v>0.57145683262498892</v>
+        <v>#N/A</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W29" si="14">IF(G22 = "BTC", ((T22 - L22)), IF(G22 = "ETH", ((T22 - L22)), IF(G22 = "IO.NET", ((T22 - L22)), "Moneda no soportada")))</f>
         <v>10.139327903980018</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="9" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.19330855018587362</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -18999,23 +19015,23 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C23" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C23" s="2" t="e">
         <f ca="1">VLOOKUP(B23,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D23" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="3" t="e">
         <f ca="1">VLOOKUP(B23,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E23" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="2" t="e">
         <f ca="1">VLOOKUP(B23,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F23" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="2" t="e">
         <f ca="1">VLOOKUP(B23,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -19037,13 +19053,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>414.15942292084799</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>335.14452286402496</v>
-      </c>
-      <c r="N23" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.20220588235294126</v>
+        <v>#N/A</v>
       </c>
       <c r="O23" s="9">
         <v>0.1</v>
@@ -19051,9 +19067,9 @@
       <c r="P23" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q23" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S23">
         <v>3.7999999999999999E-2</v>
@@ -19065,17 +19081,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.2606999999999775E-4</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8513378640249805</v>
+        <v>#N/A</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="14"/>
         <v>11.840577079152013</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="9" t="e">
         <f t="shared" ref="X23:X29" ca="1" si="15">IF(G23 = "BTC", (((D23 - J23) / J23)),IF(G23 = "ETH", ((E23 - J23) / J23), IF(G23 = "IO.NET", ((F23 - J23) / J23), "Moneda no soportada")))</f>
-        <v>-0.20220588235294126</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19085,23 +19101,23 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C24" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C24" s="2" t="e">
         <f ca="1">VLOOKUP(B24,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D24" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="3" t="e">
         <f ca="1">VLOOKUP(B24,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E24" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="2" t="e">
         <f ca="1">VLOOKUP(B24,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F24" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="2" t="e">
         <f ca="1">VLOOKUP(B24,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -19123,13 +19139,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>426.16140915981595</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>339.85880125784996</v>
-      </c>
-      <c r="N24" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.21376811594202896</v>
+        <v>#N/A</v>
       </c>
       <c r="O24" s="9">
         <v>0.1</v>
@@ -19137,9 +19153,9 @@
       <c r="P24" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q24" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S24">
         <v>3.7757979999999997E-2</v>
@@ -19151,17 +19167,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>1.1072000000000026E-3</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>9.6819740640000216</v>
+        <v>#N/A</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="14"/>
         <v>8.8385908401840538</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.21376811594202896</v>
+        <v>#N/A</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -19171,23 +19187,23 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C25" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C25" s="2" t="e">
         <f ca="1">VLOOKUP(B25,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D25" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="3" t="e">
         <f ca="1">VLOOKUP(B25,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E25" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="2" t="e">
         <f ca="1">VLOOKUP(B25,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F25" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="2" t="e">
         <f ca="1">VLOOKUP(B25,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -19209,13 +19225,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>434.55507892416199</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>334.13312734357498</v>
-      </c>
-      <c r="N25" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.22775800711743777</v>
+        <v>#N/A</v>
       </c>
       <c r="O25" s="9">
         <v>0.1</v>
@@ -19223,9 +19239,9 @@
       <c r="P25" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q25" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="S25">
         <v>3.7999999999999999E-2</v>
@@ -19237,17 +19253,17 @@
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.1041000000000115E-4</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>1.83994234357501</v>
+        <v>#N/A</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="14"/>
         <v>40.44492107583801</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22775800711743777</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="2" t="str">
         <f t="shared" ref="Y25:Y32" si="16">IF(U25=0,"VENDIDA","ACTIVA")</f>
@@ -19257,23 +19273,23 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C26" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C26" s="2" t="e">
         <f ca="1">VLOOKUP(B26,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D26" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="3" t="e">
         <f ca="1">VLOOKUP(B26,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E26" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="2" t="e">
         <f ca="1">VLOOKUP(B26,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F26" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="2" t="e">
         <f ca="1">VLOOKUP(B26,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -19294,13 +19310,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>474.99592218630107</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>337.19389735972499</v>
-      </c>
-      <c r="N26" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.28720182371220038</v>
+        <v>#N/A</v>
       </c>
       <c r="O26" s="9">
         <v>0.1</v>
@@ -19308,26 +19324,26 @@
       <c r="P26" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="Q26" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.856043E-2</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>337.19389735972499</v>
+        <v>#N/A</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="14"/>
         <v>-474.99592218630107</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.28720182371220038</v>
+        <v>#N/A</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19337,23 +19353,23 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C27" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C27" s="2" t="e">
         <f ca="1">VLOOKUP(B27,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D27" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="3" t="e">
         <f ca="1">VLOOKUP(B27,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E27" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="2" t="e">
         <f ca="1">VLOOKUP(B27,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F27" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="2" t="e">
         <f ca="1">VLOOKUP(B27,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -19375,13 +19391,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>699.14771612275808</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>657.05942161125006</v>
-      </c>
-      <c r="N27" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-5.7498794073940103E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O27" s="9">
         <v>0.25</v>
@@ -19389,26 +19405,26 @@
       <c r="P27" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="Q27" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.5900000000000002E-6</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>657.05942161125006</v>
+        <v>#N/A</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="14"/>
         <v>-699.14771612275808</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-5.7498794073940103E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19418,23 +19434,23 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C28" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C28" s="2" t="e">
         <f ca="1">VLOOKUP(B28,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D28" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="3" t="e">
         <f ca="1">VLOOKUP(B28,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E28" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="2" t="e">
         <f ca="1">VLOOKUP(B28,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F28" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="2" t="e">
         <f ca="1">VLOOKUP(B28,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -19456,13 +19472,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.6597894414499</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>543.30403198500005</v>
-      </c>
-      <c r="N28" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.22235399612391885</v>
+        <v>#N/A</v>
       </c>
       <c r="O28" s="9">
         <v>0.25</v>
@@ -19470,26 +19486,26 @@
       <c r="P28" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="Q28" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.0149999999999999E-5</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>543.30403198500005</v>
+        <v>#N/A</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="14"/>
         <v>-700.6597894414499</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22235399612391885</v>
+        <v>#N/A</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19499,23 +19515,23 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45530</v>
-      </c>
-      <c r="C29" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C29" s="2" t="e">
         <f ca="1">VLOOKUP(B29,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D29" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="3" t="e">
         <f ca="1">VLOOKUP(B29,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E29" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="2" t="e">
         <f ca="1">VLOOKUP(B29,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F29" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="2" t="e">
         <f ca="1">VLOOKUP(B29,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -19537,13 +19553,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>350.58167079212399</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>259.78847349892499</v>
-      </c>
-      <c r="N29" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.25684931506849318</v>
+        <v>#N/A</v>
       </c>
       <c r="O29" s="9">
         <v>0.1</v>
@@ -19551,26 +19567,26 @@
       <c r="P29" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="Q29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.970859E-2</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="2" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>259.78847349892499</v>
+        <v>#N/A</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="14"/>
         <v>-350.58167079212399</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="9" t="e">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.25684931506849318</v>
+        <v>#N/A</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19580,23 +19596,23 @@
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" ref="B30:B35" ca="1" si="17">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C30" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C30" s="2" t="e">
         <f ca="1">VLOOKUP(B30,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D30" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="3" t="e">
         <f ca="1">VLOOKUP(B30,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E30" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="2" t="e">
         <f ca="1">VLOOKUP(B30,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F30" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="2" t="e">
         <f ca="1">VLOOKUP(B30,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -19618,16 +19634,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.25992639812</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="13" t="e">
         <f t="shared" ref="M30:M35" ca="1" si="18" xml:space="preserve"> K30 * (IF(G30="BTC", D30, IF(G30="ETH", E30, IF(G30="IO.NET", F30, 0)))) * C30</f>
-        <v>641.83796782875004</v>
-      </c>
-      <c r="N30" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="12" t="e">
         <f t="shared" ref="N30:N35" ca="1" si="19">IF(G30 = "BTC", (D30 - J30) / J30,
  IF(G30 = "ETH", (E30 - J30) / J30,
  IF(G30 = "IO.NET", (F30 - J30) / J30,
  "Moneda no soportada")))</f>
-        <v>-8.3367549890652579E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O30" s="9">
         <v>0.25</v>
@@ -19635,26 +19651,26 @@
       <c r="P30" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="Q30" t="e">
         <f t="shared" ref="Q30:Q35" ca="1" si="20">IF(N30 &lt; O30, "MANTENER", IF(N30 &lt; P30, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.5299999999999999E-6</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="2" t="e">
         <f t="shared" ref="V30:V35" ca="1" si="21">IF(G30="BTC", D30 * U30 * C30, IF(G30="ETH", E30 * U30 * C30, IF(G30="IO.NET", F30 * U30 * C30, 0)))</f>
-        <v>641.83796782875004</v>
+        <v>#N/A</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ref="W30:W35" si="22">IF(G30 = "BTC", ((T30 - L30)), IF(G30 = "ETH", ((T30 - L30)), IF(G30 = "IO.NET", ((T30 - L30)), "Moneda no soportada")))</f>
         <v>-700.25992639812</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="9" t="e">
         <f t="shared" ref="X30:X35" ca="1" si="23">IF(G30 = "BTC", (((D30 - J30) / J30)),IF(G30 = "ETH", ((E30 - J30) / J30), IF(G30 = "IO.NET", ((F30 - J30) / J30), "Moneda no soportada")))</f>
-        <v>-8.3367549890652579E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y30" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19664,23 +19680,23 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45530</v>
-      </c>
-      <c r="C31" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C31" s="2" t="e">
         <f ca="1">VLOOKUP(B31,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D31" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="3" t="e">
         <f ca="1">VLOOKUP(B31,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E31" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="2" t="e">
         <f ca="1">VLOOKUP(B31,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F31" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="2" t="e">
         <f ca="1">VLOOKUP(B31,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -19702,13 +19718,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.01062533089998</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="13" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>567.57125096099992</v>
-      </c>
-      <c r="N31" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="12" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.18914190921429647</v>
+        <v>#N/A</v>
       </c>
       <c r="O31" s="9">
         <v>0.25</v>
@@ -19716,26 +19732,26 @@
       <c r="P31" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="Q31" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.2389999999999998E-5</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="2" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>567.57125096099992</v>
+        <v>#N/A</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="22"/>
         <v>-700.01062533089998</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="9" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.18914190921429647</v>
+        <v>#N/A</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19745,23 +19761,23 @@
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45530</v>
-      </c>
-      <c r="C32" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C32" s="2" t="e">
         <f ca="1">VLOOKUP(B32,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D32" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="3" t="e">
         <f ca="1">VLOOKUP(B32,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E32" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="2" t="e">
         <f ca="1">VLOOKUP(B32,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F32" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="2" t="e">
         <f ca="1">VLOOKUP(B32,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -19783,13 +19799,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>350.11749431717993</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="13" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>261.96691766332498</v>
-      </c>
-      <c r="N32" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="12" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.25172413793103449</v>
+        <v>#N/A</v>
       </c>
       <c r="O32" s="9">
         <v>0.1</v>
@@ -19797,26 +19813,26 @@
       <c r="P32" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="Q32" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.9957709999999999E-2</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="2" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>261.96691766332498</v>
+        <v>#N/A</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="22"/>
         <v>-350.11749431717993</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X32" s="9" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.25172413793103449</v>
+        <v>#N/A</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="16"/>
@@ -19826,23 +19842,23 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45530</v>
-      </c>
-      <c r="C33" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C33" s="2" t="e">
         <f ca="1">VLOOKUP(B33,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D33" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="3" t="e">
         <f ca="1">VLOOKUP(B33,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E33" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="2" t="e">
         <f ca="1">VLOOKUP(B33,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F33" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="2" t="e">
         <f ca="1">VLOOKUP(B33,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -19864,13 +19880,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>699.99737650756197</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="13" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>806.73705047250007</v>
-      </c>
-      <c r="N33" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N33" s="12" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.17741308946633808</v>
+        <v>#N/A</v>
       </c>
       <c r="O33" s="9">
         <v>0.25</v>
@@ -19878,26 +19894,26 @@
       <c r="P33" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="Q33" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.18E-6</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="2" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>806.73705047250007</v>
+        <v>#N/A</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="22"/>
         <v>-699.99737650756197</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="9" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>0.17741308946633808</v>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="2" t="str">
         <f t="shared" ref="Y33:Y38" si="24">IF(U33=0,"VENDIDA","ACTIVA")</f>
@@ -19907,23 +19923,23 @@
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45530</v>
-      </c>
-      <c r="C34" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C34" s="2" t="e">
         <f ca="1">VLOOKUP(B34,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D34" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="3" t="e">
         <f ca="1">VLOOKUP(B34,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E34" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="2" t="e">
         <f ca="1">VLOOKUP(B34,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F34" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="2" t="e">
         <f ca="1">VLOOKUP(B34,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -19945,13 +19961,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>699.99553871893795</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="13" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>775.79265663900003</v>
-      </c>
-      <c r="N34" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N34" s="12" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13225347248544883</v>
+        <v>#N/A</v>
       </c>
       <c r="O34" s="9">
         <v>0.25</v>
@@ -19959,26 +19975,26 @@
       <c r="P34" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="Q34" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>7.161E-5</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="2" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>775.79265663900003</v>
+        <v>#N/A</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="22"/>
         <v>-699.99553871893795</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="9" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>0.13225347248544883</v>
+        <v>#N/A</v>
       </c>
       <c r="Y34" s="2" t="str">
         <f t="shared" si="24"/>
@@ -19988,23 +20004,23 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45530</v>
-      </c>
-      <c r="C35" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C35" s="2" t="e">
         <f ca="1">VLOOKUP(B35,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D35" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="3" t="e">
         <f ca="1">VLOOKUP(B35,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E35" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="2" t="e">
         <f ca="1">VLOOKUP(B35,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F35" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="2" t="e">
         <f ca="1">VLOOKUP(B35,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -20026,13 +20042,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>350.00858741327886</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="13" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>504.91625912122498</v>
-      </c>
-      <c r="N35" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N35" s="12" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.47378429774517794</v>
+        <v>#N/A</v>
       </c>
       <c r="O35" s="9">
         <v>0.1</v>
@@ -20040,26 +20056,26 @@
       <c r="P35" s="9">
         <v>0.3</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="Q35" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>VENDER</v>
+        <v>#N/A</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.7740630000000001E-2</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="2" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>504.91625912122498</v>
+        <v>#N/A</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="22"/>
         <v>-350.00858741327886</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="9" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>0.47378429774517794</v>
+        <v>#N/A</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20069,23 +20085,23 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" ref="B36:B41" ca="1" si="25">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C36" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C36" s="2" t="e">
         <f ca="1">VLOOKUP(B36,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D36" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="3" t="e">
         <f ca="1">VLOOKUP(B36,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E36" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="2" t="e">
         <f ca="1">VLOOKUP(B36,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F36" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="2" t="e">
         <f ca="1">VLOOKUP(B36,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -20107,16 +20123,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>699.99648833423703</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="26" t="e">
         <f t="shared" ref="M36:M41" ca="1" si="26" xml:space="preserve"> K36 * (IF(G36="BTC", D36, IF(G36="ETH", E36, IF(G36="IO.NET", F36, 0)))) * C36</f>
-        <v>738.24050845125009</v>
-      </c>
-      <c r="N36" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N36" s="27" t="e">
         <f t="shared" ref="N36:N41" ca="1" si="27">IF(G36 = "BTC", (D36 - J36) / J36,
  IF(G36 = "ETH", (E36 - J36) / J36,
  IF(G36 = "IO.NET", (F36 - J36) / J36,
  "Moneda no soportada")))</f>
-        <v>6.617086067794134E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O36" s="28">
         <v>0.25</v>
@@ -20124,26 +20140,26 @@
       <c r="P36" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="Q36" t="e">
         <f t="shared" ref="Q36:Q41" ca="1" si="28">IF(N36 &lt; O36, "MANTENER", IF(N36 &lt; P36, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.9100000000000001E-6</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36" s="2" t="e">
         <f t="shared" ref="V36:V41" ca="1" si="29">IF(G36="BTC", D36 * U36 * C36, IF(G36="ETH", E36 * U36 * C36, IF(G36="IO.NET", F36 * U36 * C36, 0)))</f>
-        <v>738.24050845125009</v>
+        <v>#N/A</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" ref="W36:W41" si="30">IF(G36 = "BTC", ((T36 - L36)), IF(G36 = "ETH", ((T36 - L36)), IF(G36 = "IO.NET", ((T36 - L36)), "Moneda no soportada")))</f>
         <v>-699.99648833423703</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="9" t="e">
         <f t="shared" ref="X36:X41" ca="1" si="31">IF(G36 = "BTC", (((D36 - J36) / J36)),IF(G36 = "ETH", ((E36 - J36) / J36), IF(G36 = "IO.NET", ((F36 - J36) / J36), "Moneda no soportada")))</f>
-        <v>6.617086067794134E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y36" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20153,23 +20169,23 @@
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45530</v>
-      </c>
-      <c r="C37" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C37" s="2" t="e">
         <f ca="1">VLOOKUP(B37,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D37" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="3" t="e">
         <f ca="1">VLOOKUP(B37,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E37" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="2" t="e">
         <f ca="1">VLOOKUP(B37,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F37" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="2" t="e">
         <f ca="1">VLOOKUP(B37,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -20191,13 +20207,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.01513873535998</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="26" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>703.74935030400013</v>
-      </c>
-      <c r="N37" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" s="27" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>1.6331468319975909E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O37" s="28">
         <v>0.25</v>
@@ -20205,26 +20221,26 @@
       <c r="P37" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="Q37" t="e">
         <f t="shared" ca="1" si="28"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>6.4960000000000001E-5</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="2" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>703.74935030400013</v>
+        <v>#N/A</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="30"/>
         <v>-700.01513873535998</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="9" t="e">
         <f t="shared" ca="1" si="31"/>
-        <v>1.6331468319975909E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y37" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20234,23 +20250,23 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45530</v>
-      </c>
-      <c r="C38" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C38" s="2" t="e">
         <f ca="1">VLOOKUP(B38,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D38" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="3" t="e">
         <f ca="1">VLOOKUP(B38,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E38" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="2" t="e">
         <f ca="1">VLOOKUP(B38,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F38" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="2" t="e">
         <f ca="1">VLOOKUP(B38,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -20272,13 +20288,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>349.9990705940495</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="26" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>477.81014211944995</v>
-      </c>
-      <c r="N38" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N38" s="27" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>0.38010862790490596</v>
+        <v>#N/A</v>
       </c>
       <c r="O38" s="28">
         <v>0.1</v>
@@ -20286,26 +20302,26 @@
       <c r="P38" s="28">
         <v>0.3</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="Q38" t="e">
         <f t="shared" ca="1" si="28"/>
-        <v>VENDER</v>
+        <v>#N/A</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.4640859999999999E-2</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="2" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>477.81014211944995</v>
+        <v>#N/A</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="30"/>
         <v>-349.9990705940495</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="9" t="e">
         <f t="shared" ca="1" si="31"/>
-        <v>0.38010862790490596</v>
+        <v>#N/A</v>
       </c>
       <c r="Y38" s="2" t="str">
         <f t="shared" si="24"/>
@@ -20315,23 +20331,23 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45530</v>
-      </c>
-      <c r="C39" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C39" s="2" t="e">
         <f ca="1">VLOOKUP(B39,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D39" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="3" t="e">
         <f ca="1">VLOOKUP(B39,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E39" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="2" t="e">
         <f ca="1">VLOOKUP(B39,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F39" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="2" t="e">
         <f ca="1">VLOOKUP(B39,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -20353,13 +20369,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.00297999823999</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="26" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>768.68341601624991</v>
-      </c>
-      <c r="N39" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="27" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>9.8226216684867307E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O39" s="28">
         <v>0.25</v>
@@ -20367,52 +20383,52 @@
       <c r="P39" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="Q39" t="e">
         <f t="shared" ca="1" si="28"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.0299999999999998E-6</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="2" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>768.68341601624991</v>
+        <v>#N/A</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="30"/>
         <v>-700.00297999823999</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="9" t="e">
         <f t="shared" ca="1" si="31"/>
-        <v>9.8226216684867307E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y39" s="2" t="str">
-        <f>IF(U39=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" ref="Y39:Y44" si="32">IF(U39=0,"VENDIDA","ACTIVA")</f>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45530</v>
-      </c>
-      <c r="C40" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C40" s="2" t="e">
         <f ca="1">VLOOKUP(B40,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D40" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="3" t="e">
         <f ca="1">VLOOKUP(B40,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E40" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="2" t="e">
         <f ca="1">VLOOKUP(B40,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F40" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" s="2" t="e">
         <f ca="1">VLOOKUP(B40,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -20434,13 +20450,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.00259914812</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="26" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>744.591946527</v>
-      </c>
-      <c r="N40" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N40" s="27" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>6.3807055378588523E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="O40" s="28">
         <v>0.25</v>
@@ -20448,52 +20464,52 @@
       <c r="P40" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q40" t="str">
+      <c r="Q40" t="e">
         <f t="shared" ca="1" si="28"/>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>6.8730000000000001E-5</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="2" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>744.591946527</v>
+        <v>#N/A</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="30"/>
         <v>-700.00259914812</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="9" t="e">
         <f t="shared" ca="1" si="31"/>
-        <v>6.3807055378588523E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y40" s="2" t="str">
-        <f>IF(U40=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="32"/>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>45530</v>
-      </c>
-      <c r="C41" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C41" s="2" t="e">
         <f ca="1">VLOOKUP(B41,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D41" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="3" t="e">
         <f ca="1">VLOOKUP(B41,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E41" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="2" t="e">
         <f ca="1">VLOOKUP(B41,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F41" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="2" t="e">
         <f ca="1">VLOOKUP(B41,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -20515,13 +20531,13 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>349.99732079053973</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="26" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>471.04386586267498</v>
-      </c>
-      <c r="N41" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="27" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>0.34598685026671616</v>
+        <v>#N/A</v>
       </c>
       <c r="O41" s="28">
         <v>0.1</v>
@@ -20529,52 +20545,52 @@
       <c r="P41" s="28">
         <v>0.3</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q41" t="e">
         <f t="shared" ca="1" si="28"/>
-        <v>VENDER</v>
+        <v>#N/A</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>5.3867089999999999E-2</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="2" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>471.04386586267498</v>
+        <v>#N/A</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="30"/>
         <v>-349.99732079053973</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X41" s="9" t="e">
         <f t="shared" ca="1" si="31"/>
-        <v>0.34598685026671616</v>
+        <v>#N/A</v>
       </c>
       <c r="Y41" s="2" t="str">
-        <f>IF(U41=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="32"/>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C42" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C42" s="2" t="e">
         <f ca="1">VLOOKUP(B42,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D42" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="3" t="e">
         <f ca="1">VLOOKUP(B42,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E42" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="2" t="e">
         <f ca="1">VLOOKUP(B42,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F42" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="2" t="e">
         <f ca="1">VLOOKUP(B42,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G42" t="s">
         <v>15</v>
@@ -20596,16 +20612,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.00102192500003</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="26" t="e">
         <f ca="1" xml:space="preserve"> K42 * (IF(G42="BTC", D42, IF(G42="ETH", E42, IF(G42="IO.NET", F42, 0)))) * C42</f>
-        <v>705.26069192250009</v>
-      </c>
-      <c r="N42" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N42" s="27" t="e">
         <f ca="1">IF(G42 = "BTC", (D42 - J42) / J42,
  IF(G42 = "ETH", (E42 - J42) / J42,
  IF(G42 = "IO.NET", (F42 - J42) / J42,
  "Moneda no soportada")))</f>
-        <v>7.5138033127950705E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="O42" s="28">
         <v>0.25</v>
@@ -20613,52 +20629,52 @@
       <c r="P42" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q42" s="31" t="str">
+      <c r="Q42" t="e">
         <f ca="1">IF(N42 &lt; O42, "MANTENER", IF(N42 &lt; P42, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>2.7800000000000001E-6</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="2" t="e">
         <f ca="1">IF(G42="BTC", D42 * U42 * C42, IF(G42="ETH", E42 * U42 * C42, IF(G42="IO.NET", F42 * U42 * C42, 0)))</f>
-        <v>705.26069192250009</v>
+        <v>#N/A</v>
       </c>
       <c r="W42" s="2">
         <f>IF(G42 = "BTC", ((T42 - L42)), IF(G42 = "ETH", ((T42 - L42)), IF(G42 = "IO.NET", ((T42 - L42)), "Moneda no soportada")))</f>
         <v>-700.00102192500003</v>
       </c>
-      <c r="X42" s="32">
+      <c r="X42" s="9" t="e">
         <f ca="1">IF(G42 = "BTC", (((D42 - J42) / J42)),IF(G42 = "ETH", ((E42 - J42) / J42), IF(G42 = "IO.NET", ((F42 - J42) / J42), "Moneda no soportada")))</f>
-        <v>7.5138033127950705E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y42" s="2" t="str">
-        <f>IF(U42=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="32"/>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C43" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C43" s="2" t="e">
         <f ca="1">VLOOKUP(B43,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D43" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="3" t="e">
         <f ca="1">VLOOKUP(B43,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E43" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="2" t="e">
         <f ca="1">VLOOKUP(B43,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F43" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="2" t="e">
         <f ca="1">VLOOKUP(B43,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -20680,16 +20696,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>700.00054480260007</v>
       </c>
-      <c r="M43" s="26">
+      <c r="M43" s="26" t="e">
         <f ca="1" xml:space="preserve"> K43 * (IF(G43="BTC", D43, IF(G43="ETH", E43, IF(G43="IO.NET", F43, 0)))) * C43</f>
-        <v>704.61603669600004</v>
-      </c>
-      <c r="N43" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N43" s="27" t="e">
         <f ca="1">IF(G43 = "BTC", (D43 - J43) / J43,
  IF(G43 = "ETH", (E43 - J43) / J43,
  IF(G43 = "IO.NET", (F43 - J43) / J43,
  "Moneda no soportada")))</f>
-        <v>6.5935547160204016E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="O43" s="28">
         <v>0.25</v>
@@ -20697,52 +20713,52 @@
       <c r="P43" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q43" s="31" t="str">
+      <c r="Q43" t="e">
         <f ca="1">IF(N43 &lt; O43, "MANTENER", IF(N43 &lt; P43, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>6.5040000000000001E-5</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="2" t="e">
         <f ca="1">IF(G43="BTC", D43 * U43 * C43, IF(G43="ETH", E43 * U43 * C43, IF(G43="IO.NET", F43 * U43 * C43, 0)))</f>
-        <v>704.61603669600004</v>
+        <v>#N/A</v>
       </c>
       <c r="W43" s="2">
         <f>IF(G43 = "BTC", ((T43 - L43)), IF(G43 = "ETH", ((T43 - L43)), IF(G43 = "IO.NET", ((T43 - L43)), "Moneda no soportada")))</f>
         <v>-700.00054480260007</v>
       </c>
-      <c r="X43" s="32">
+      <c r="X43" s="9" t="e">
         <f ca="1">IF(G43 = "BTC", (((D43 - J43) / J43)),IF(G43 = "ETH", ((E43 - J43) / J43), IF(G43 = "IO.NET", ((F43 - J43) / J43), "Moneda no soportada")))</f>
-        <v>6.5935547160204016E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y43" s="2" t="str">
-        <f>IF(U43=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="32"/>
         <v>ACTIVA</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
-      </c>
-      <c r="C44" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C44" s="2" t="e">
         <f ca="1">VLOOKUP(B44,Tabla4[],2,FALSE)</f>
-        <v>4029.75</v>
-      </c>
-      <c r="D44" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="3" t="e">
         <f ca="1">VLOOKUP(B44,Tabla4[],3,FALSE)</f>
-        <v>62954.5</v>
-      </c>
-      <c r="E44" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="2" t="e">
         <f ca="1">VLOOKUP(B44,Tabla4[],5,FALSE)</f>
-        <v>2688.4</v>
-      </c>
-      <c r="F44" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="2" t="e">
         <f ca="1">VLOOKUP(B44,Tabla4[],4,FALSE)</f>
-        <v>2.17</v>
+        <v>#N/A</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
@@ -20764,16 +20780,16 @@
         <f>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</f>
         <v>350.00491194757706</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="26" t="e">
         <f ca="1" xml:space="preserve"> K44 * (IF(G44="BTC", D44, IF(G44="ETH", E44, IF(G44="IO.NET", F44, 0)))) * C44</f>
-        <v>348.92918097029997</v>
-      </c>
-      <c r="N44" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="N44" s="27" t="e">
         <f ca="1">IF(G44 = "BTC", (D44 - J44) / J44,
  IF(G44 = "ETH", (E44 - J44) / J44,
  IF(G44 = "IO.NET", (F44 - J44) / J44,
  "Moneda no soportada")))</f>
-        <v>-3.073473944383382E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="O44" s="28">
         <v>0.1</v>
@@ -20781,48 +20797,48 @@
       <c r="P44" s="28">
         <v>0.3</v>
       </c>
-      <c r="Q44" s="31" t="str">
+      <c r="Q44" t="e">
         <f ca="1">IF(N44 &lt; O44, "MANTENER", IF(N44 &lt; P44, "VENTA PARCIAL", "VENDER"))</f>
-        <v>MANTENER</v>
+        <v>#N/A</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="14">
         <f>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</f>
         <v>3.9902439999999997E-2</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="2" t="e">
         <f ca="1">IF(G44="BTC", D44 * U44 * C44, IF(G44="ETH", E44 * U44 * C44, IF(G44="IO.NET", F44 * U44 * C44, 0)))</f>
-        <v>348.92918097029997</v>
+        <v>#N/A</v>
       </c>
       <c r="W44" s="2">
         <f>IF(G44 = "BTC", ((T44 - L44)), IF(G44 = "ETH", ((T44 - L44)), IF(G44 = "IO.NET", ((T44 - L44)), "Moneda no soportada")))</f>
         <v>-350.00491194757706</v>
       </c>
-      <c r="X44" s="32">
+      <c r="X44" s="9" t="e">
         <f ca="1">IF(G44 = "BTC", (((D44 - J44) / J44)),IF(G44 = "ETH", ((E44 - J44) / J44), IF(G44 = "IO.NET", ((F44 - J44) / J44), "Moneda no soportada")))</f>
-        <v>-3.073473944383382E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y44" s="2" t="str">
-        <f>IF(U44=0,"VENDIDA","ACTIVA")</f>
+        <f t="shared" si="32"/>
         <v>ACTIVA</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Z44">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Y:$Y="VENDIDA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="VENTA PARCIAL">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="VENTA PARCIAL">
       <formula>NOT(ISERROR(SEARCH("VENTA PARCIAL",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="MANTENER">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="MANTENER">
       <formula>NOT(ISERROR(SEARCH("MANTENER",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q44">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="VENDER">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="VENDER">
       <formula>NOT(ISERROR(SEARCH("VENDER",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20892,7 +20908,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" ca="1" si="0">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C3" s="1">
         <v>45495</v>
@@ -20911,21 +20927,21 @@
         <f>E3</f>
         <v>0.17572713000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="7" t="e">
         <f ca="1">VLOOKUP(B3,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I3" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="7" t="e">
         <f t="shared" ref="I3:I8" ca="1" si="2">G3*H3</f>
-        <v>690.95907516</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="7">
         <f>F3</f>
         <v>699.9650905725</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="10" t="e">
         <f t="shared" ref="K3:K8" ca="1" si="3">((I3-J3)/J3)</f>
-        <v>-1.2866377957697867E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="7">
         <f>D3*1.1</f>
@@ -20935,7 +20951,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C4" s="1">
         <v>45496</v>
@@ -20951,34 +20967,34 @@
         <v>100.0000148126</v>
       </c>
       <c r="G4" s="14">
-        <f>G3+E4</f>
+        <f t="shared" ref="G4:G9" si="4">G3+E4</f>
         <v>0.20091751000000002</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="e">
         <f ca="1">VLOOKUP(B4,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I4" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>790.00764932000004</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="7">
-        <f>F4+J3</f>
+        <f t="shared" ref="J4:J9" si="5">F4+J3</f>
         <v>799.96510538510006</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="10" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.244736301379863E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L4:L6" si="4">D4*1.1</f>
+        <f t="shared" ref="L4:L6" si="6">D4*1.1</f>
         <v>4366.7470000000003</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C5" s="1">
         <v>45502</v>
@@ -20994,34 +21010,34 @@
         <v>699.99983603099997</v>
       </c>
       <c r="G5" s="14">
-        <f>G4+E5</f>
+        <f t="shared" si="4"/>
         <v>0.37532014000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="7" t="e">
         <f ca="1">VLOOKUP(B5,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I5" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="22" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1475.75879048</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="8">
-        <f>F5+J4</f>
+        <f t="shared" si="5"/>
         <v>1499.9649414160999</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="10" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6137811136603734E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4415.07</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C6" s="1">
         <v>45509</v>
@@ -21037,34 +21053,34 @@
         <v>700.00065401400013</v>
       </c>
       <c r="G6" s="14">
-        <f>G5+E6</f>
+        <f t="shared" si="4"/>
         <v>0.54183274000000003</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="7" t="e">
         <f ca="1">VLOOKUP(B6,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I6" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="22" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2130.4863336799999</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="8">
-        <f>F6+J5</f>
+        <f t="shared" si="5"/>
         <v>2199.9655954301002</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="10" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.1581976506553887E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4624.2790000000005</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C7" s="1">
         <v>45516</v>
@@ -21080,24 +21096,24 @@
         <v>699.9995397747</v>
       </c>
       <c r="G7" s="14">
-        <f>G6+E7</f>
+        <f t="shared" si="4"/>
         <v>0.71495810999999998</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="7" t="e">
         <f ca="1">VLOOKUP(B7,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I7" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="22" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2811.2152885199998</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" s="8">
-        <f>F7+J6</f>
+        <f t="shared" si="5"/>
         <v>2899.9651352048004</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="30" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0603763337497123E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="8">
         <f>D7*1.1</f>
@@ -21107,7 +21123,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C8" s="1">
         <v>45523</v>
@@ -21123,24 +21139,24 @@
         <v>700.00044520580002</v>
       </c>
       <c r="G8" s="14">
-        <f>G7+E8</f>
+        <f t="shared" si="4"/>
         <v>0.89181253999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="7" t="e">
         <f ca="1">VLOOKUP(B8,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I8" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="22" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3506.6069072800001</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="8">
-        <f>F8+J7</f>
+        <f t="shared" si="5"/>
         <v>3599.9655804106005</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="30" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.5933212705870439E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L8" s="8">
         <f>D8*1.1</f>
@@ -21150,7 +21166,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f ca="1">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C9" s="1">
         <v>45530</v>
@@ -21166,24 +21182,24 @@
         <v>699.99910726359997</v>
       </c>
       <c r="G9" s="14">
-        <f>G8+E9</f>
+        <f t="shared" si="4"/>
         <v>1.0682823100000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="7" t="e">
         <f ca="1">VLOOKUP(B9,Tabla4[],6,FALSE)</f>
-        <v>3932</v>
-      </c>
-      <c r="I9" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="22" t="e">
         <f ca="1">G9*H9</f>
-        <v>4200.4860429199998</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="8">
-        <f>F9+J8</f>
+        <f t="shared" si="5"/>
         <v>4299.9646876742008</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="30" t="e">
         <f ca="1">((I9-J9)/J9)</f>
-        <v>-2.3134758534030617E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="L9" s="8">
         <f>D9*1.1</f>
@@ -21205,7 +21221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -24407,7 +24423,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B14" ca="1" si="0">TODAY()</f>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C3" s="19" t="e">
         <f ca="1">VLOOKUP(B3,Tabla1[],5,FALSE)</f>
@@ -24433,9 +24449,9 @@
         <f ca="1">VLOOKUP(B3,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="18" t="e">
         <f ca="1">VLOOKUP(B3,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -24475,7 +24491,7 @@
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C4" s="19" t="e">
         <f ca="1">VLOOKUP(B4,Tabla1[],5,FALSE)</f>
@@ -24501,9 +24517,9 @@
         <f ca="1">VLOOKUP(B4,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="18" t="e">
         <f ca="1">VLOOKUP(B4,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>9</v>
@@ -24543,7 +24559,7 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C5" s="19" t="e">
         <f ca="1">VLOOKUP(B5,Tabla1[],5,FALSE)</f>
@@ -24569,9 +24585,9 @@
         <f ca="1">VLOOKUP(B5,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="18" t="e">
         <f ca="1">VLOOKUP(B5,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>10</v>
@@ -24611,7 +24627,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C6" s="19" t="e">
         <f ca="1">VLOOKUP(B6,Tabla1[],5,FALSE)</f>
@@ -24637,9 +24653,9 @@
         <f ca="1">VLOOKUP(B6,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="18" t="e">
         <f ca="1">VLOOKUP(B6,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>11</v>
@@ -24679,7 +24695,7 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C7" s="19" t="e">
         <f ca="1">VLOOKUP(B7,Tabla1[],5,FALSE)</f>
@@ -24705,9 +24721,9 @@
         <f ca="1">VLOOKUP(B7,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="18" t="e">
         <f ca="1">VLOOKUP(B7,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -24747,7 +24763,7 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C8" s="19" t="e">
         <f ca="1">VLOOKUP(B8,Tabla1[],5,FALSE)</f>
@@ -24773,9 +24789,9 @@
         <f ca="1">VLOOKUP(B8,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="18" t="e">
         <f ca="1">VLOOKUP(B8,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -24793,9 +24809,9 @@
         <f t="shared" si="1"/>
         <v>1.5184980673660961E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="7" t="e">
         <f ca="1">ROUND(IF(J8="KO",N8*C8,IF(J8="JNJ",N8*D8,IF(J8="PG",N8*E8,IF(J8="PEP",N8*F8,IF(J8="MSFT",N8*G8,IF(J8="MCD",N8*H8,IF(J8="VOO",N8*I8,0))))))),2)</f>
-        <v>7.83</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="7"/>
@@ -24803,19 +24819,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="7" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13</v>
-      </c>
-      <c r="T8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="9" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.02</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C9" s="19" t="e">
         <f ca="1">VLOOKUP(B9,Tabla1[],5,FALSE)</f>
@@ -24841,9 +24857,9 @@
         <f ca="1">VLOOKUP(B9,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="18" t="e">
         <f ca="1">VLOOKUP(B9,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>8</v>
@@ -24883,7 +24899,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C10" s="19" t="e">
         <f ca="1">VLOOKUP(B10,Tabla1[],5,FALSE)</f>
@@ -24909,9 +24925,9 @@
         <f ca="1">VLOOKUP(B10,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="18" t="e">
         <f ca="1">VLOOKUP(B10,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>9</v>
@@ -24951,7 +24967,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C11" s="19" t="e">
         <f ca="1">VLOOKUP(B11,Tabla1[],5,FALSE)</f>
@@ -24977,9 +24993,9 @@
         <f ca="1">VLOOKUP(B11,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="18" t="e">
         <f ca="1">VLOOKUP(B11,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -25019,7 +25035,7 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C12" s="19" t="e">
         <f ca="1">VLOOKUP(B12,Tabla1[],5,FALSE)</f>
@@ -25045,9 +25061,9 @@
         <f ca="1">VLOOKUP(B12,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="18" t="e">
         <f ca="1">VLOOKUP(B12,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>11</v>
@@ -25087,7 +25103,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C13" s="19" t="e">
         <f ca="1">VLOOKUP(B13,Tabla1[],5,FALSE)</f>
@@ -25113,9 +25129,9 @@
         <f ca="1">VLOOKUP(B13,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="18" t="e">
         <f ca="1">VLOOKUP(B13,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -25155,7 +25171,7 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="C14" s="19" t="e">
         <f ca="1">VLOOKUP(B14,Tabla1[],5,FALSE)</f>
@@ -25181,9 +25197,9 @@
         <f ca="1">VLOOKUP(B14,Tabla1[],10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="18" t="e">
         <f ca="1">VLOOKUP(B14,Tabla2[],3,FALSE)</f>
-        <v>515.39</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>13</v>

--- a/documentos/inversiones.xlsx
+++ b/documentos/inversiones.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
   <si>
     <t>FECHA</t>
   </si>
@@ -396,6 +396,18 @@
   <si>
     <t>TOTAL ANUAL</t>
   </si>
+  <si>
+    <t>VALOR INVERSION 2</t>
+  </si>
+  <si>
+    <t>GAN/PER2</t>
+  </si>
+  <si>
+    <t>VALOR EN COP2</t>
+  </si>
+  <si>
+    <t>DIFERENCIA</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +562,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -594,13 +606,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="131">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3F3F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -831,6 +935,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1039,43 +1152,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3B3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1677,40 +1753,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1895,33 +1937,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="124"/>
-      <tableStyleElement type="headerRow" dxfId="123"/>
-      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+      <tableStyleElement type="wholeTable" dxfId="130"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
+      <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="121"/>
-      <tableStyleElement type="headerRow" dxfId="120"/>
-      <tableStyleElement type="firstRowStripe" dxfId="119"/>
-      <tableStyleElement type="secondRowStripe" dxfId="118"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="117"/>
+      <tableStyleElement type="wholeTable" dxfId="127"/>
+      <tableStyleElement type="headerRow" dxfId="126"/>
+      <tableStyleElement type="firstRowStripe" dxfId="125"/>
+      <tableStyleElement type="secondRowStripe" dxfId="124"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="123"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 3" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="116"/>
-      <tableStyleElement type="firstRowStripe" dxfId="115"/>
-      <tableStyleElement type="secondRowStripe" dxfId="114"/>
+      <tableStyleElement type="headerRow" dxfId="122"/>
+      <tableStyleElement type="firstRowStripe" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 4" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="113"/>
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="firstRowStripe" dxfId="111"/>
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="wholeTable" dxfId="119"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="firstRowStripe" dxfId="117"/>
+      <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 5" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="109"/>
-      <tableStyleElement type="headerRow" dxfId="108"/>
-      <tableStyleElement type="firstRowStripe" dxfId="107"/>
-      <tableStyleElement type="secondRowStripe" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="115"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
+      <tableStyleElement type="firstRowStripe" dxfId="113"/>
+      <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2063,7 +2105,7 @@
                   <c:v>1769.3199999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-111663.07</c:v>
+                  <c:v>-144821.46000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,10 +2458,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$142</c:f>
+              <c:f>CRIPTOS!$B$3:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -2839,16 +2881,34 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$C$3:$C$142</c:f>
+              <c:f>CRIPTOS!$C$3:$C$148</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>3912.77</c:v>
                 </c:pt>
@@ -3268,6 +3328,24 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>4279.09</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4270.62</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4197.38</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4172.13</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4172.13</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4172.13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4220.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3369,10 +3447,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$142</c:f>
+              <c:f>CRIPTOS!$B$3:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -3792,16 +3870,34 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$D$3:$D$142</c:f>
+              <c:f>CRIPTOS!$D$3:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>66429</c:v>
                 </c:pt>
@@ -4221,6 +4317,24 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>56780.57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>57978.97</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57821.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>59993.03</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>59132</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>58671.09</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>59090.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,10 +4436,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$142</c:f>
+              <c:f>CRIPTOS!$B$3:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -4745,16 +4859,34 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$E$3:$E$142</c:f>
+              <c:f>CRIPTOS!$E$3:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="52">
                   <c:v>5.68</c:v>
                 </c:pt>
@@ -5018,6 +5150,24 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,10 +5269,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$142</c:f>
+              <c:f>CRIPTOS!$B$3:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -5542,16 +5692,34 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$F$3:$F$142</c:f>
+              <c:f>CRIPTOS!$F$3:$F$148</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="45">
                   <c:v>3865.9</c:v>
                 </c:pt>
@@ -5836,6 +6004,24 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>2326.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2349.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2349.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2418.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2317.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2307.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2311.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,10 +6123,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>CRIPTOS!$B$3:$B$142</c:f>
+              <c:f>CRIPTOS!$B$3:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="0">
                   <c:v>45404</c:v>
                 </c:pt>
@@ -6360,16 +6546,34 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CRIPTOS!$G$3:$G$142</c:f>
+              <c:f>CRIPTOS!$G$3:$G$148</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="140"/>
+                <c:ptCount val="146"/>
                 <c:pt idx="89">
                   <c:v>3956</c:v>
                 </c:pt>
@@ -6522,6 +6726,24 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>4146</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4066</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,10 +7080,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$50</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -7005,16 +7227,28 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$C$3:$C$50</c:f>
+              <c:f>'Inv Bolsa'!$C$3:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4090.5</c:v>
                 </c:pt>
@@ -7158,6 +7392,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4243.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4279.09</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4270.62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4197.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4172.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,10 +7449,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$50</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -7350,16 +7596,28 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$D$3:$D$50</c:f>
+              <c:f>'Inv Bolsa'!$D$3:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>507.08</c:v>
                 </c:pt>
@@ -7503,6 +7761,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>504.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>509.46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>513.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>517.34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,10 +7818,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$50</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -7695,16 +7965,28 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$E$3:$E$50</c:f>
+              <c:f>'Inv Bolsa'!$E$3:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>7.6974743999999999</c:v>
                 </c:pt>
@@ -7848,6 +8130,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>7.6552740000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.7336027999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8000912000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.853221200000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8533730000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7893,10 +8187,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$50</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -8040,16 +8334,28 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$F$3:$F$50</c:f>
+              <c:f>'Inv Bolsa'!$F$3:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>-2.5256000000002388E-3</c:v>
                 </c:pt>
@@ -8193,6 +8499,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-4.4725999999999821E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3602799999999711E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10009120000000049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15322120000000083</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1533730000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8238,10 +8556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$B$3:$B$50</c:f>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45478</c:v>
                 </c:pt>
@@ -8385,16 +8703,28 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Inv Bolsa'!$G$3:$G$50</c:f>
+              <c:f>'Inv Bolsa'!$G$3:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>31486.519033199998</c:v>
                 </c:pt>
@@ -8538,6 +8868,18 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>32487.451801200004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33092.782405452002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33311.225480544002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32962.953600456007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32765.293094490004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8546,6 +8888,1117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7FBB-485C-9373-F604CDCFFE39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Inv Bolsa'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR INVERSION 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$H$3:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>7.7431115999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7927391000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8012902999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8548879999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8089253000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8571784999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8809997000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9257407999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8150333000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7562438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7044785000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7844933000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7715138000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.593618300000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5552906000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6400391000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.645689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6056816000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7255511000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6201881</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4809257000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2563040000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3286838000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2778347000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4476371000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4795514000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4795514000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4833689000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6076667000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.6319460000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7629625999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7793014999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8541245000000011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.841145</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8686309999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8049550999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8893981999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8700052999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8805416000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8354951000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8367167000000011</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.9104707999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.7504412</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.7312010000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7121135000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.5836927999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6690521000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7006610000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.7794542</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8463368000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.8997818000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8999345000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-329C-4079-80C8-968F6E97D864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Inv Bolsa'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GAN/PER2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$I$3:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-0.15688840000000059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10726089999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8709700000000566E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.5112000000000485E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.1074700000000064E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2821500000000512E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9000300000000081E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5740799999999453E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.496669999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14375620000000033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1955214999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11550670000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12848620000000022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.30638169999999931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.34470940000000017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25996090000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.2543110000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.29431839999999987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1744488999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.27981190000000034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.41907430000000012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.64369600000000027</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.57131620000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.62216529999999981</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.45236289999999979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.42044860000000028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.42044860000000028</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.41663110000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.29233330000000013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.26805400000000024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.13703740000000053</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.12069850000000049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.5875499999999292E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.8855000000000324E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.1369000000000646E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.5044900000000432E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.0601800000000772E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.9994700000000485E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9458399999999543E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.4504900000000198E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.3283299999999265E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0470799999999336E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.14955880000000032</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16879899999999992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.18788650000000029</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.31630720000000068</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23094789999999943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19933900000000015</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.12054580000000037</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.3663199999999911E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.1819999999994621E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.5499999999829583E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-329C-4079-80C8-968F6E97D864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Inv Bolsa'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR EN COP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$B$3:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Inv Bolsa'!$J$3:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>31673.197999799999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31783.855330215003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31589.530773080998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31497.393940079997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30885.939435813001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31234.248832124998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31469.541092073003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31337.428034304001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31048.111346571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31019.158017149999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31181.719474770001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31459.706308089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31047.275346138002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30481.391345664004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30555.030691614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30883.406454321001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30812.27958378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31008.972337728002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31497.612623277004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30827.547160431001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30403.005709599001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28485.637234559999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30452.953080978004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30130.890663123002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30894.586123704001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30391.810794648001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30348.65378307</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30485.972725887001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30787.922828232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30821.308643160002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31340.322090215999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31232.3396622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31653.378394920004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31545.083157900001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31554.784036199999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31502.750022374999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32106.852702683998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31714.153857674999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31710.668955072004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31699.592396363998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31858.917869178007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32686.935497387996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32244.238028772004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32361.261145800003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32281.518930569997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31642.958208</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31824.955714059004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32680.065151800001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33288.984672678002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33508.722864816002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33158.386131684005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32959.553725485006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-329C-4079-80C8-968F6E97D864}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15847,13 +17300,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>638174</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -15969,7 +17422,7 @@
     <tableColumn id="2" name="TIPO DE INVERSION"/>
     <tableColumn id="7" name="NOMBRE"/>
     <tableColumn id="3" name="CAPITAL A INICIO DE MES" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="101" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="CAPITAL INVERTIDO ESTE MES" dataDxfId="111" dataCellStyle="Moneda"/>
     <tableColumn id="4" name="CAPITAL A FIN DE MES" dataCellStyle="Moneda"/>
     <tableColumn id="5" name="GANANCIA/PERDIDA" dataCellStyle="Moneda">
       <calculatedColumnFormula>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</calculatedColumnFormula>
@@ -15983,52 +17436,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:T14" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="B2:T14"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="FECHA ACTUAL" dataDxfId="20">
+    <tableColumn id="1" name="FECHA ACTUAL" dataDxfId="31">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="PRECIO ACT KO" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="2" name="PRECIO ACT KO" dataDxfId="30" dataCellStyle="Moneda">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRECIO ACT JNJ" dataDxfId="18">
+    <tableColumn id="3" name="PRECIO ACT JNJ" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PRECIO ACT PG" dataDxfId="17">
+    <tableColumn id="4" name="PRECIO ACT PG" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PRECIO ACT PEP" dataDxfId="16">
+    <tableColumn id="5" name="PRECIO ACT PEP" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="PRECIO ACT MSFT" dataDxfId="15">
+    <tableColumn id="6" name="PRECIO ACT MSFT" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PRECIO ACT MCD" dataDxfId="14">
+    <tableColumn id="7" name="PRECIO ACT MCD" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla1[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="PRECIO ACT VOO" dataDxfId="13">
+    <tableColumn id="20" name="PRECIO ACT VOO" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla2[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="EMPRESA" dataDxfId="12"/>
-    <tableColumn id="9" name="FECHA COMPRA" dataDxfId="11"/>
-    <tableColumn id="10" name="PRECIO COMPRA" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="11" name="CAPITAL INVE" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" name="CANTIDAD DE ACCIONES" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="8" name="EMPRESA" dataDxfId="23"/>
+    <tableColumn id="9" name="FECHA COMPRA" dataDxfId="22"/>
+    <tableColumn id="10" name="PRECIO COMPRA" dataDxfId="21" dataCellStyle="Moneda"/>
+    <tableColumn id="11" name="CAPITAL INVE" dataDxfId="20" dataCellStyle="Moneda"/>
+    <tableColumn id="12" name="CANTIDAD DE ACCIONES" dataDxfId="19" dataCellStyle="Moneda">
       <calculatedColumnFormula>(M3/L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="VALOR ACTUAL INVE" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="13" name="VALOR ACTUAL INVE" dataDxfId="18" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(IF(J3="KO",N3*C3,IF(J3="JNJ",N3*D3,IF(J3="PG",N3*E3,IF(J3="PEP",N3*F3,IF(J3="MSFT",N3*G3,IF(J3="MCD",N3*H3,IF(J3="VOO",N3*I3,0))))))),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="FECHA DIVIDENDO" dataDxfId="6"/>
-    <tableColumn id="15" name="VALOR DIVIDENDO POR ACCION" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="16" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="14" name="FECHA DIVIDENDO" dataDxfId="17"/>
+    <tableColumn id="15" name="VALOR DIVIDENDO POR ACCION" dataDxfId="16" dataCellStyle="Moneda"/>
+    <tableColumn id="16" name="TOTAL DIVIDENDO RECIBIDO" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(Q3*N3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="GANACIA/PERDIDA" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="17" name="GANACIA/PERDIDA" dataDxfId="14" dataCellStyle="Moneda">
       <calculatedColumnFormula>ROUND(O3-M3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="RENTABILIDAD" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="18" name="RENTABILIDAD" dataDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ROUND((S3+R3)/M3,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16037,29 +17490,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="L2:Y3" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="L2:Y3" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106" dataCellStyle="Moneda">
   <autoFilter ref="L2:Y3"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="MES" dataDxfId="95"/>
-    <tableColumn id="2" name="ENERO" dataDxfId="94" dataCellStyle="Moneda"/>
-    <tableColumn id="3" name="FEBRERO" dataDxfId="93" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="MARZO" dataDxfId="92" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="ABRIL" dataDxfId="91" dataCellStyle="Moneda"/>
-    <tableColumn id="6" name="MAYO" dataDxfId="90" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="JUNIO" dataDxfId="89" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="JULIO" dataDxfId="88" dataCellStyle="Moneda">
+    <tableColumn id="1" name="MES" dataDxfId="105"/>
+    <tableColumn id="2" name="ENERO" dataDxfId="104" dataCellStyle="Moneda"/>
+    <tableColumn id="3" name="FEBRERO" dataDxfId="103" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="MARZO" dataDxfId="102" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="ABRIL" dataDxfId="101" dataCellStyle="Moneda"/>
+    <tableColumn id="6" name="MAYO" dataDxfId="100" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="JUNIO" dataDxfId="99" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="JULIO" dataDxfId="98" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(H3:H9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="AGOSTO" dataDxfId="87" dataCellStyle="Moneda">
+    <tableColumn id="9" name="AGOSTO" dataDxfId="97" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(H10:H16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="SEPTIEMBRE" dataDxfId="86" dataCellStyle="Moneda">
+    <tableColumn id="10" name="SEPTIEMBRE" dataDxfId="96" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(H17:H23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="OCTUBRE" dataDxfId="85" dataCellStyle="Moneda"/>
-    <tableColumn id="12" name="NOVIEMBRE" dataDxfId="84" dataCellStyle="Moneda"/>
-    <tableColumn id="13" name="DICIEMBRE" dataDxfId="83" dataCellStyle="Moneda"/>
-    <tableColumn id="14" name="TOTAL ANUAL" dataDxfId="82" dataCellStyle="Moneda">
+    <tableColumn id="11" name="OCTUBRE" dataDxfId="95" dataCellStyle="Moneda"/>
+    <tableColumn id="12" name="NOVIEMBRE" dataDxfId="94" dataCellStyle="Moneda"/>
+    <tableColumn id="13" name="DICIEMBRE" dataDxfId="93" dataCellStyle="Moneda"/>
+    <tableColumn id="14" name="TOTAL ANUAL" dataDxfId="92" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(M3:X3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16068,22 +17521,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:J12" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:J12" totalsRowShown="0" headerRowDxfId="91">
   <autoFilter ref="B2:J12"/>
   <tableColumns count="9">
     <tableColumn id="1" name="MES"/>
     <tableColumn id="2" name="CUENTA"/>
-    <tableColumn id="3" name="CANTIDAD INICIAL" dataDxfId="80"/>
-    <tableColumn id="4" name="CAPITAL INVERTIDO" dataDxfId="79"/>
-    <tableColumn id="5" name="INTERES OBTENIDO" dataDxfId="78"/>
-    <tableColumn id="6" name="PORCENTAJE DE INTERES" dataDxfId="77" dataCellStyle="Porcentaje">
+    <tableColumn id="3" name="CANTIDAD INICIAL" dataDxfId="90"/>
+    <tableColumn id="4" name="CAPITAL INVERTIDO" dataDxfId="89"/>
+    <tableColumn id="5" name="INTERES OBTENIDO" dataDxfId="88"/>
+    <tableColumn id="6" name="PORCENTAJE DE INTERES" dataDxfId="87" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(F3/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="RETIROS DE CAPITAL" dataDxfId="76"/>
-    <tableColumn id="8" name="TOTAL CAPITAL FIN DE MES" dataDxfId="75">
+    <tableColumn id="7" name="RETIROS DE CAPITAL" dataDxfId="86"/>
+    <tableColumn id="8" name="TOTAL CAPITAL FIN DE MES" dataDxfId="85">
       <calculatedColumnFormula>D3+E3+F3-H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="74" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="84" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-(D3+E3))/(D3+E3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16092,23 +17545,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:G142" totalsRowShown="0">
-  <autoFilter ref="B2:G142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:G148" totalsRowShown="0">
+  <autoFilter ref="B2:G148"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="FECHA" dataDxfId="73"/>
-    <tableColumn id="2" name="DÓLAR" dataDxfId="72"/>
-    <tableColumn id="3" name="BITCOIN" dataDxfId="71"/>
-    <tableColumn id="5" name="io.net" dataDxfId="70"/>
-    <tableColumn id="4" name="ETHEREUM" dataDxfId="69"/>
-    <tableColumn id="6" name="USDT" dataDxfId="68"/>
+    <tableColumn id="1" name="FECHA" dataDxfId="83"/>
+    <tableColumn id="2" name="DÓLAR" dataDxfId="82"/>
+    <tableColumn id="3" name="BITCOIN" dataDxfId="81"/>
+    <tableColumn id="5" name="io.net" dataDxfId="80"/>
+    <tableColumn id="4" name="ETHEREUM" dataDxfId="79"/>
+    <tableColumn id="6" name="USDT" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:Z50" totalsRowShown="0">
-  <autoFilter ref="B2:Z50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:Z53" totalsRowShown="0">
+  <autoFilter ref="B2:Z53">
     <filterColumn colId="23">
       <filters>
         <filter val="ACTIVA"/>
@@ -16116,61 +17569,61 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="1" name="fecha act" dataDxfId="63">
+    <tableColumn id="1" name="fecha act" dataDxfId="77">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="precio actual dólar" dataDxfId="62">
+    <tableColumn id="2" name="precio actual dólar" dataDxfId="76">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="precio actual btc" dataDxfId="61">
+    <tableColumn id="3" name="precio actual btc" dataDxfId="75">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="precio actul eth" dataDxfId="60">
+    <tableColumn id="4" name="precio actul eth" dataDxfId="74">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="precio actual io.net" dataDxfId="59">
+    <tableColumn id="5" name="precio actual io.net" dataDxfId="73">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="moneda"/>
     <tableColumn id="27" name="FECHA COMPRA"/>
-    <tableColumn id="20" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="58">
+    <tableColumn id="20" name="PRECIO DEL DÓLAR, DIA COMPRA" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP(H3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="precio de compra" dataDxfId="57"/>
-    <tableColumn id="8" name="cantidad" dataDxfId="56" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" name="COSTO DE COMPRA" dataDxfId="55" dataCellStyle="Porcentaje">
+    <tableColumn id="7" name="precio de compra" dataDxfId="71"/>
+    <tableColumn id="8" name="cantidad" dataDxfId="70" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" name="COSTO DE COMPRA" dataDxfId="69" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla6[[#This Row],[precio de compra]]*Tabla6[[#This Row],[cantidad]]*Tabla6[[#This Row],[PRECIO DEL DÓLAR, DIA COMPRA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="VALOR ACTUAL INV" dataDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="21" name="VALOR ACTUAL INV" dataDxfId="68" dataCellStyle="Porcentaje">
       <calculatedColumnFormula xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="rentabilidad" dataDxfId="53" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="rentabilidad" dataDxfId="67" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="meta1" dataDxfId="52" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" name="META2" dataDxfId="51" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" name="ACCION" dataDxfId="50">
+    <tableColumn id="10" name="meta1" dataDxfId="66" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" name="META2" dataDxfId="65" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" name="ACCION" dataDxfId="64">
       <calculatedColumnFormula>IF(N3 &lt; O3, "MANTENER", IF(N3 &lt; P3, "VENTA PARCIAL", "VENDER"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="FECHA DE VENTA"/>
     <tableColumn id="17" name="CANTIDAD VENDIDA"/>
-    <tableColumn id="14" name="PRECIO DE VENTA" dataDxfId="49"/>
-    <tableColumn id="23" name="INVENTARIO" dataDxfId="48">
+    <tableColumn id="14" name="PRECIO DE VENTA" dataDxfId="63"/>
+    <tableColumn id="23" name="INVENTARIO" dataDxfId="62">
       <calculatedColumnFormula>Tabla6[[#This Row],[cantidad]]-Tabla6[[#This Row],[CANTIDAD VENDIDA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="VALOR ACTUAL" dataDxfId="47">
+    <tableColumn id="24" name="VALOR ACTUAL" dataDxfId="61">
       <calculatedColumnFormula>IF(G3="BTC", D3 * U3 * C3, IF(G3="ETH", E3 * U3 * C3, IF(G3="IO.NET", F3 * U3 * C3, 0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="GANANCIA/PERDIDA" dataDxfId="46">
+    <tableColumn id="15" name="GANANCIA/PERDIDA" dataDxfId="60">
       <calculatedColumnFormula>IF(G3 = "BTC", ((T3 - L3)), IF(G3 = "ETH", ((T3 - L3)), IF(G3 = "IO.NET", ((T3 - L3)), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="RENTABILIDAD TOTAL" dataDxfId="45" dataCellStyle="Porcentaje">
+    <tableColumn id="25" name="RENTABILIDAD TOTAL" dataDxfId="59" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(G3 = "BTC", (((D3 - J3) / J3)),IF(G3 = "ETH", ((E3 - J3) / J3), IF(G3 = "IO.NET", ((F3 - J3) / J3), "Moneda no soportada")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="ESTADO DE LA INVERSION" dataDxfId="44">
+    <tableColumn id="26" name="ESTADO DE LA INVERSION" dataDxfId="58">
       <calculatedColumnFormula>IF(U3=0,"VENDIDA","ACTIVA")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="NOTAS"/>
@@ -16180,19 +17633,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B2:L11" totalsRowShown="0">
-  <autoFilter ref="B2:L11"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="FECHA ACT" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B2:M12" totalsRowShown="0">
+  <autoFilter ref="B2:M12"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="FECHA ACT" dataDxfId="57">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="FECHA COMPRA" dataDxfId="42"/>
+    <tableColumn id="11" name="FECHA COMPRA" dataDxfId="56"/>
     <tableColumn id="2" name="PRECIO DEL USD,DIA COMPRA"/>
     <tableColumn id="3" name="CANTIDAD COPRADA"/>
     <tableColumn id="4" name="CONTO EN COP">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="CANTIDAD TOTAL(USD)" dataDxfId="41">
+    <tableColumn id="5" name="CANTIDAD TOTAL(USD)" dataDxfId="55">
       <calculatedColumnFormula>G2+E3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="PRECIO ACTUAL(USD)">
@@ -16204,7 +17657,10 @@
     <tableColumn id="8" name="COSTO TOTAL EN COP">
       <calculatedColumnFormula>F3+J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="40" dataCellStyle="Porcentaje">
+    <tableColumn id="12" name="DIFERENCIA" dataDxfId="0">
+      <calculatedColumnFormula>Tabla5[[#This Row],[VALOR ACTUAL EN COP]]-Tabla5[[#This Row],[COSTO TOTAL EN COP]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="RENTABILIDAD" dataDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>((I3-J3)/J3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="META 10%">
@@ -16219,7 +17675,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B2:O14" totalsRowShown="0">
   <autoFilter ref="B2:O14"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="MES" dataDxfId="39"/>
+    <tableColumn id="1" name="MES" dataDxfId="53"/>
     <tableColumn id="2" name="CRIPTOMONEDA"/>
     <tableColumn id="3" name="CANTIDAD INICIAL"/>
     <tableColumn id="4" name="PRECIO DÓLAR INICIAL"/>
@@ -16236,7 +17692,7 @@
     <tableColumn id="11" name="DIFERENCIA DE CANTIDAD">
       <calculatedColumnFormula>H3-D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="DIFERENCIA EN PRECIO" dataDxfId="38">
+    <tableColumn id="12" name="DIFERENCIA EN PRECIO" dataDxfId="52">
       <calculatedColumnFormula>F3-J3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="PRECIO DE LA DIFERENCIA EN COP">
@@ -16251,22 +17707,31 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G50" totalsRowShown="0">
-  <autoFilter ref="B2:G50"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="FECHA" dataDxfId="37"/>
-    <tableColumn id="5" name="PRECIO DEL DÓLAR" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:J54" totalsRowShown="0">
+  <autoFilter ref="B2:J54"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="FECHA" dataDxfId="51"/>
+    <tableColumn id="5" name="PRECIO DEL DÓLAR" dataDxfId="50">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="VOO" dataDxfId="35" dataCellStyle="Moneda"/>
-    <tableColumn id="3" name="VALOR INVERSION 1" dataDxfId="34">
+    <tableColumn id="2" name="VOO" dataDxfId="49" dataCellStyle="Moneda"/>
+    <tableColumn id="3" name="VALOR INVERSION 1" dataDxfId="48">
       <calculatedColumnFormula>0.01518 * D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="GAN/PER" dataDxfId="33">
+    <tableColumn id="4" name="GAN/PER" dataDxfId="47">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]-7.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="VALOR EN COP" dataDxfId="32">
+    <tableColumn id="6" name="VALOR EN COP" dataDxfId="46">
       <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 1]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="VALOR INVERSION 2" dataDxfId="45">
+      <calculatedColumnFormula>Tabla2[[#This Row],[VOO]]*0.01527</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="GAN/PER2" dataDxfId="44">
+      <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 2]]-7.9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="VALOR EN COP2" dataDxfId="43">
+      <calculatedColumnFormula>Tabla2[[#This Row],[VALOR INVERSION 2]]*Tabla2[[#This Row],[PRECIO DEL DÓLAR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16274,21 +17739,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:K52" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="B2:K52"/>
   <tableColumns count="10">
     <tableColumn id="1" name="FECHA"/>
-    <tableColumn id="2" name="DÓLAR" dataDxfId="30">
+    <tableColumn id="2" name="DÓLAR" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(B3,Tabla4[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="S&amp;P 500" dataDxfId="29"/>
-    <tableColumn id="4" name="NASDAQ-100" dataDxfId="28"/>
-    <tableColumn id="5" name="KO" dataDxfId="27"/>
-    <tableColumn id="6" name="JNJ" dataDxfId="26"/>
-    <tableColumn id="7" name="PG" dataDxfId="25"/>
-    <tableColumn id="8" name="PEP" dataDxfId="24"/>
-    <tableColumn id="13" name="MSFT" dataDxfId="23"/>
-    <tableColumn id="9" name="MCD" dataDxfId="22"/>
+    <tableColumn id="3" name="S&amp;P 500" dataDxfId="40"/>
+    <tableColumn id="4" name="NASDAQ-100" dataDxfId="39"/>
+    <tableColumn id="5" name="KO" dataDxfId="38"/>
+    <tableColumn id="6" name="JNJ" dataDxfId="37"/>
+    <tableColumn id="7" name="PG" dataDxfId="36"/>
+    <tableColumn id="8" name="PEP" dataDxfId="35"/>
+    <tableColumn id="13" name="MSFT" dataDxfId="34"/>
+    <tableColumn id="9" name="MCD" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16613,8 +18078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -16748,14 +18213,14 @@
       </c>
       <c r="U3" s="37">
         <f>SUM(H17:H23)</f>
-        <v>-111663.07</v>
+        <v>-144821.46000000002</v>
       </c>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="38">
         <f>SUM(M3:X3)</f>
-        <v>-112969.3</v>
+        <v>-146127.69000000003</v>
       </c>
     </row>
     <row r="4" spans="2:25">
@@ -17285,11 +18750,13 @@
       <c r="E23" s="7">
         <v>32054.19</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>33158.39</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-(Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]+Tabla8[[#This Row],[CAPITAL INVERTIDO ESTE MES]]))</f>
-        <v>-32054.19</v>
+        <v>-65212.58</v>
       </c>
       <c r="I23" s="9">
         <f>(Tabla8[[#This Row],[CAPITAL A FIN DE MES]]-Tabla8[[#This Row],[CAPITAL A INICIO DE MES]])/Tabla8[[#This Row],[CAPITAL A INICIO DE MES]]</f>
@@ -17298,20 +18765,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:X3">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:Y3">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17684,10 +19151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G142"/>
+  <dimension ref="B2:G148"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -20093,16 +21560,16 @@
       <c r="C140" s="3">
         <v>4149.79</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="4">
         <v>57042</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="4">
         <v>1.64</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="4">
         <v>2360.1</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="4">
         <v>4059</v>
       </c>
     </row>
@@ -20144,6 +21611,126 @@
       </c>
       <c r="G142" s="3">
         <v>4146</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C143" s="3">
+        <v>4270.62</v>
+      </c>
+      <c r="D143" s="3">
+        <v>57978.97</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="F143" s="3">
+        <v>2349.5</v>
+      </c>
+      <c r="G143" s="3">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="1">
+        <v>45548</v>
+      </c>
+      <c r="C144" s="3">
+        <v>4197.38</v>
+      </c>
+      <c r="D144" s="3">
+        <v>57821.2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2349.4</v>
+      </c>
+      <c r="G144" s="3">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C145" s="3">
+        <v>4172.13</v>
+      </c>
+      <c r="D145" s="3">
+        <v>59993.03</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="F145" s="3">
+        <v>2418.1999999999998</v>
+      </c>
+      <c r="G145" s="3">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="1">
+        <v>45550</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4172.13</v>
+      </c>
+      <c r="D146" s="3">
+        <v>59132</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>2317.3000000000002</v>
+      </c>
+      <c r="G146" s="3">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="1">
+        <v>45551</v>
+      </c>
+      <c r="C147" s="3">
+        <v>4172.13</v>
+      </c>
+      <c r="D147" s="4">
+        <v>58671.09</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2307.5</v>
+      </c>
+      <c r="G147" s="4">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="1">
+        <v>45552</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4220.58</v>
+      </c>
+      <c r="D148" s="3">
+        <v>59090.6</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="F148" s="3">
+        <v>2311.4</v>
+      </c>
+      <c r="G148" s="3">
+        <v>4135</v>
       </c>
     </row>
   </sheetData>
@@ -20157,10 +21744,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z50"/>
+  <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView topLeftCell="I31" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -20260,23 +21847,23 @@
     <row r="3" spans="2:26">
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="0">TODAY()</f>
-        <v>45546</v>
+        <v>45552</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],2,FALSE)</f>
-        <v>4279.09</v>
+        <v>4220.58</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">VLOOKUP(B3,Tabla4[],3,FALSE)</f>
-        <v>56780.57</v>
+        <v>59090.6</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],5,FALSE)</f>
-        <v>2326.6</v>
+        <v>2311.4</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">VLOOKUP(B3,Tabla4[],4,FALSE)</f>
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -20300,14 +21887,14 @@
       </c>
       <c r="M3" s="13">
         <f ca="1" xml:space="preserve"> K3 * (IF(G3="BTC", D3, IF(G3="ETH", E3, IF(G3="IO.NET", F3, 0)))) * C3</f>
-        <v>612.28230658887605</v>
+        <v>628.47944346095994</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N21" ca="1" si="1">IF(G3 = "BTC", (D3 - J3) / J3,
  IF(G3 = "ETH", (E3 - J3) / J3,
  IF(G3 = "IO.NET", (F3 - J3) / J3,
  "Moneda no soportada")))</f>
-        <v>-0.19967623719114269<